--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E1B6E-D0D2-42B0-B05C-0E3329DE4CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007B6A05-A945-49F0-8D51-161F475FFFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1815,10 +1815,26 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1826,22 +1842,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2086,7 +2086,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="57" t="s">
         <v>423</v>
       </c>
       <c r="E1" s="51"/>
@@ -2115,13 +2115,13 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="58" t="s">
         <v>417</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="53"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="51"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2273,7 +2273,7 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="60" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -2318,7 +2318,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="29" t="s">
         <v>424</v>
       </c>
@@ -2361,7 +2361,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="29" t="s">
         <v>424</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="29" t="s">
         <v>424</v>
       </c>
@@ -2441,7 +2441,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="29" t="s">
         <v>424</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="29" t="s">
         <v>424</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="29" t="s">
         <v>424</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="29" t="s">
         <v>424</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="29" t="s">
         <v>424</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="29" t="s">
         <v>424</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="29" t="s">
         <v>424</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="29" t="s">
         <v>424</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="29" t="s">
         <v>424</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="29" t="s">
         <v>424</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="29" t="s">
         <v>424</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="29" t="s">
         <v>424</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="29" t="s">
         <v>424</v>
       </c>
@@ -2954,7 +2954,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="29" t="s">
         <v>424</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="29" t="s">
         <v>424</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="29" t="s">
         <v>424</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="29" t="s">
         <v>424</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="29" t="s">
         <v>424</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="29" t="s">
         <v>430</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="29" t="s">
         <v>431</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="29" t="s">
         <v>424</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="29" t="s">
         <v>424</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="33" t="b">
         <v>0</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="54"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="33" t="b">
         <v>0</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="33" t="b">
         <v>0</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="33" t="b">
         <v>0</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="33" t="b">
         <v>0</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="56" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="33" t="b">
@@ -3615,7 +3615,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="33" t="b">
         <v>1</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="56"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="33" t="b">
         <v>1</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="56"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="33" t="b">
         <v>0</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="33" t="b">
@@ -3827,7 +3827,7 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="56"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="33" t="b">
         <v>1</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="56"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="33" t="b">
         <v>1</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="56"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="33" t="b">
         <v>1</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="56"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="33" t="b">
         <v>1</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="56"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="33" t="b">
         <v>1</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="56"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="33" t="b">
         <v>0</v>
       </c>
@@ -4061,7 +4061,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="56"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="33" t="b">
         <v>1</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="56"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="33" t="b">
         <v>1</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="56"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="33" t="b">
         <v>0</v>
       </c>
@@ -4178,7 +4178,7 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="56"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="33" t="b">
         <v>0</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="56"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="33" t="b">
         <v>0</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="56"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="33" t="b">
         <v>0</v>
       </c>
@@ -4339,7 +4339,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="54" t="s">
         <v>88</v>
       </c>
       <c r="B61" s="3" t="b">
@@ -4885,7 +4885,7 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="56" t="s">
         <v>108</v>
       </c>
       <c r="B75" s="33" t="b">
@@ -4928,7 +4928,7 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="56"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="33" t="b">
         <v>1</v>
       </c>
@@ -4969,7 +4969,7 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="56"/>
+      <c r="A77" s="53"/>
       <c r="B77" s="33" t="b">
         <v>1</v>
       </c>
@@ -5010,7 +5010,7 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="56"/>
+      <c r="A78" s="53"/>
       <c r="B78" s="33" t="b">
         <v>1</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="56"/>
+      <c r="A79" s="53"/>
       <c r="B79" s="33" t="b">
         <v>1</v>
       </c>
@@ -5090,7 +5090,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="56"/>
+      <c r="A80" s="53"/>
       <c r="B80" s="33" t="b">
         <v>1</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="56"/>
+      <c r="A81" s="53"/>
       <c r="B81" s="33" t="b">
         <v>1</v>
       </c>
@@ -5172,7 +5172,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="56"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="33" t="b">
         <v>1</v>
       </c>
@@ -5213,7 +5213,7 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
+      <c r="A83" s="53"/>
       <c r="B83" s="33" t="b">
         <v>1</v>
       </c>
@@ -5250,7 +5250,7 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="56"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="33" t="b">
         <v>1</v>
       </c>
@@ -5289,7 +5289,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="56"/>
+      <c r="A85" s="53"/>
       <c r="B85" s="33" t="b">
         <v>1</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="56"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="33" t="b">
         <v>1</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="56"/>
+      <c r="A87" s="53"/>
       <c r="B87" s="33" t="b">
         <v>1</v>
       </c>
@@ -5402,7 +5402,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="56"/>
+      <c r="A88" s="53"/>
       <c r="B88" s="33" t="b">
         <v>1</v>
       </c>
@@ -5439,7 +5439,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
+      <c r="A89" s="53"/>
       <c r="B89" s="33" t="b">
         <v>1</v>
       </c>
@@ -5478,7 +5478,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="56"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="33" t="b">
         <v>1</v>
       </c>
@@ -5583,7 +5583,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="58" t="s">
+      <c r="A93" s="52" t="s">
         <v>126</v>
       </c>
       <c r="B93" s="33" t="b">
@@ -5626,7 +5626,7 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="56"/>
+      <c r="A94" s="53"/>
       <c r="B94" s="33" t="b">
         <v>0</v>
       </c>
@@ -5667,7 +5667,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="56"/>
+      <c r="A95" s="53"/>
       <c r="B95" s="33" t="b">
         <v>0</v>
       </c>
@@ -5708,7 +5708,7 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="56"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="33" t="b">
         <v>0</v>
       </c>
@@ -5749,7 +5749,7 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="56"/>
+      <c r="A97" s="53"/>
       <c r="B97" s="33" t="b">
         <v>0</v>
       </c>
@@ -5790,7 +5790,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="56"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="33" t="b">
         <v>0</v>
       </c>
@@ -5829,7 +5829,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="56"/>
+      <c r="A99" s="53"/>
       <c r="B99" s="33" t="b">
         <v>0</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="56"/>
+      <c r="A100" s="53"/>
       <c r="B100" s="33" t="b">
         <v>0</v>
       </c>
@@ -5909,7 +5909,7 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="56"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="33" t="b">
         <v>0</v>
       </c>
@@ -5950,7 +5950,7 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="56"/>
+      <c r="A102" s="53"/>
       <c r="B102" s="33" t="b">
         <v>0</v>
       </c>
@@ -5991,7 +5991,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="56"/>
+      <c r="A103" s="53"/>
       <c r="B103" s="33" t="b">
         <v>0</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="56"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="33" t="b">
         <v>0</v>
       </c>
@@ -6073,7 +6073,7 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="56"/>
+      <c r="A105" s="53"/>
       <c r="B105" s="33" t="b">
         <v>0</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="56"/>
+      <c r="A106" s="53"/>
       <c r="B106" s="33" t="b">
         <v>0</v>
       </c>
@@ -6209,7 +6209,7 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="58" t="s">
+      <c r="A109" s="52" t="s">
         <v>156</v>
       </c>
       <c r="B109" s="33" t="b">
@@ -6252,7 +6252,7 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="56"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="33" t="b">
         <v>1</v>
       </c>
@@ -6293,7 +6293,7 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="56"/>
+      <c r="A111" s="53"/>
       <c r="B111" s="33" t="b">
         <v>1</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="56"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="33" t="b">
         <v>1</v>
       </c>
@@ -6373,7 +6373,7 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="56"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="33" t="b">
         <v>1</v>
       </c>
@@ -6414,7 +6414,7 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="56"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="33" t="b">
         <v>1</v>
       </c>
@@ -6455,7 +6455,7 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="56"/>
+      <c r="A115" s="53"/>
       <c r="B115" s="33" t="b">
         <v>1</v>
       </c>
@@ -6496,7 +6496,7 @@
       <c r="Y115" s="1"/>
     </row>
     <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="56"/>
+      <c r="A116" s="53"/>
       <c r="B116" s="33" t="b">
         <v>1</v>
       </c>
@@ -6537,7 +6537,7 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="56"/>
+      <c r="A117" s="53"/>
       <c r="B117" s="33" t="b">
         <v>1</v>
       </c>
@@ -6576,7 +6576,7 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="56"/>
+      <c r="A118" s="53"/>
       <c r="B118" s="33" t="b">
         <v>1</v>
       </c>
@@ -6617,7 +6617,7 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="56"/>
+      <c r="A119" s="53"/>
       <c r="B119" s="33" t="b">
         <v>1</v>
       </c>
@@ -6656,7 +6656,7 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="56"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="33" t="b">
         <v>1</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="56"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="33" t="b">
         <v>1</v>
       </c>
@@ -6736,7 +6736,7 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="56"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="33" t="b">
         <v>1</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="56"/>
+      <c r="A123" s="53"/>
       <c r="B123" s="33" t="b">
         <v>1</v>
       </c>
@@ -6816,7 +6816,7 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="56"/>
+      <c r="A124" s="53"/>
       <c r="B124" s="33" t="b">
         <v>1</v>
       </c>
@@ -6857,7 +6857,7 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="56"/>
+      <c r="A125" s="53"/>
       <c r="B125" s="33" t="b">
         <v>1</v>
       </c>
@@ -6898,7 +6898,7 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="56"/>
+      <c r="A126" s="53"/>
       <c r="B126" s="33" t="b">
         <v>1</v>
       </c>
@@ -6939,7 +6939,7 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="56"/>
+      <c r="A127" s="53"/>
       <c r="B127" s="33" t="b">
         <v>1</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="56"/>
+      <c r="A128" s="53"/>
       <c r="B128" s="33" t="b">
         <v>1</v>
       </c>
@@ -7019,7 +7019,7 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="56"/>
+      <c r="A129" s="53"/>
       <c r="B129" s="33" t="b">
         <v>0</v>
       </c>
@@ -7060,7 +7060,7 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="56"/>
+      <c r="A130" s="53"/>
       <c r="B130" s="33" t="b">
         <v>1</v>
       </c>
@@ -7099,7 +7099,7 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="56"/>
+      <c r="A131" s="53"/>
       <c r="B131" s="33" t="b">
         <v>1</v>
       </c>
@@ -7138,7 +7138,7 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="56"/>
+      <c r="A132" s="53"/>
       <c r="B132" s="33" t="b">
         <v>0</v>
       </c>
@@ -7278,7 +7278,7 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A136" s="60" t="s">
+      <c r="A136" s="55" t="s">
         <v>188</v>
       </c>
       <c r="B136" s="3" t="b">
@@ -7943,7 +7943,7 @@
       <c r="Y152" s="1"/>
     </row>
     <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A153" s="60" t="s">
+      <c r="A153" s="55" t="s">
         <v>219</v>
       </c>
       <c r="B153" s="3" t="b">
@@ -8233,7 +8233,7 @@
       <c r="Y160" s="1"/>
     </row>
     <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A161" s="60" t="s">
+      <c r="A161" s="55" t="s">
         <v>238</v>
       </c>
       <c r="B161" s="3" t="b">
@@ -8484,7 +8484,7 @@
       <c r="Y167" s="1"/>
     </row>
     <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A168" s="60" t="s">
+      <c r="A168" s="55" t="s">
         <v>252</v>
       </c>
       <c r="B168" s="3" t="b">
@@ -8525,7 +8525,7 @@
       <c r="Y168" s="1"/>
     </row>
     <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A169" s="60"/>
+      <c r="A169" s="55"/>
       <c r="B169" s="3" t="b">
         <v>1</v>
       </c>
@@ -9595,7 +9595,7 @@
       <c r="Y196" s="1"/>
     </row>
     <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A197" s="60" t="s">
+      <c r="A197" s="55" t="s">
         <v>317</v>
       </c>
       <c r="B197" s="3" t="b">
@@ -10470,7 +10470,7 @@
       <c r="Y219" s="1"/>
     </row>
     <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A220" s="60" t="s">
+      <c r="A220" s="55" t="s">
         <v>360</v>
       </c>
       <c r="B220" s="3" t="b">
@@ -10760,7 +10760,7 @@
       <c r="Y227" s="1"/>
     </row>
     <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="57" t="s">
+      <c r="A228" s="50" t="s">
         <v>409</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -31853,6 +31853,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A7:A37"/>
+    <mergeCell ref="A40:A43"/>
     <mergeCell ref="A228:A247"/>
     <mergeCell ref="A46:A58"/>
     <mergeCell ref="A61:A72"/>
@@ -31865,11 +31870,6 @@
     <mergeCell ref="A153:A158"/>
     <mergeCell ref="A161:A165"/>
     <mergeCell ref="A168:A194"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A7:A37"/>
-    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>

--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007B6A05-A945-49F0-8D51-161F475FFFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D439E510-7676-4CF7-90FF-94175A54BCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="442">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -1399,6 +1399,9 @@
   </si>
   <si>
     <t>https://neetcode.io/problems/word-ladder?list=neetcode150</t>
+  </si>
+  <si>
+    <t>Reverse Polish Notation</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1594,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,6 +1685,12 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1696,7 +1705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1815,26 +1824,10 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1843,6 +1836,25 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2063,11 +2075,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1005"/>
+  <dimension ref="A1:Y1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E184" sqref="E184"/>
+      <pane ySplit="4" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2098,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="50" t="s">
         <v>423</v>
       </c>
       <c r="E1" s="51"/>
@@ -2115,13 +2127,13 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="52" t="s">
         <v>417</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="59"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="51"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2273,7 +2285,7 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="54" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -2318,7 +2330,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="29" t="s">
         <v>424</v>
       </c>
@@ -2361,7 +2373,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="29" t="s">
         <v>424</v>
       </c>
@@ -2400,7 +2412,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="29" t="s">
         <v>424</v>
       </c>
@@ -2441,7 +2453,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="29" t="s">
         <v>424</v>
       </c>
@@ -2478,7 +2490,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="29" t="s">
         <v>424</v>
       </c>
@@ -2513,7 +2525,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="29" t="s">
         <v>424</v>
       </c>
@@ -2554,7 +2566,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="29" t="s">
         <v>424</v>
       </c>
@@ -2591,7 +2603,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="29" t="s">
         <v>424</v>
       </c>
@@ -2630,7 +2642,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="29" t="s">
         <v>424</v>
       </c>
@@ -2671,7 +2683,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="29" t="s">
         <v>424</v>
       </c>
@@ -2714,7 +2726,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="29" t="s">
         <v>424</v>
       </c>
@@ -2757,7 +2769,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="29" t="s">
         <v>424</v>
       </c>
@@ -2792,7 +2804,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="29" t="s">
         <v>424</v>
       </c>
@@ -2833,7 +2845,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="29" t="s">
         <v>424</v>
       </c>
@@ -2870,7 +2882,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="29" t="s">
         <v>424</v>
       </c>
@@ -2911,7 +2923,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="29" t="s">
         <v>424</v>
       </c>
@@ -2954,7 +2966,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="29" t="s">
         <v>424</v>
       </c>
@@ -2991,7 +3003,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="29" t="s">
         <v>424</v>
       </c>
@@ -3032,7 +3044,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="29" t="s">
         <v>424</v>
       </c>
@@ -3073,7 +3085,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="29" t="s">
         <v>424</v>
       </c>
@@ -3114,7 +3126,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="29" t="s">
         <v>424</v>
       </c>
@@ -3155,7 +3167,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="29" t="s">
         <v>430</v>
       </c>
@@ -3196,7 +3208,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="29" t="s">
         <v>431</v>
       </c>
@@ -3235,7 +3247,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="29" t="s">
         <v>424</v>
       </c>
@@ -3278,7 +3290,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="29" t="s">
         <v>424</v>
       </c>
@@ -3315,7 +3327,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="33" t="b">
         <v>0</v>
       </c>
@@ -3356,7 +3368,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="33" t="b">
         <v>0</v>
       </c>
@@ -3397,7 +3409,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="33" t="b">
         <v>0</v>
       </c>
@@ -3440,7 +3452,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="33" t="b">
         <v>0</v>
       </c>
@@ -3479,7 +3491,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="33" t="b">
         <v>0</v>
       </c>
@@ -3572,7 +3584,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="33" t="b">
@@ -3615,7 +3627,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="33" t="b">
         <v>1</v>
       </c>
@@ -3654,7 +3666,7 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="33" t="b">
         <v>1</v>
       </c>
@@ -3693,7 +3705,7 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="53"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="33" t="b">
         <v>0</v>
       </c>
@@ -3784,7 +3796,7 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="58" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="33" t="b">
@@ -3827,7 +3839,7 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="33" t="b">
         <v>1</v>
       </c>
@@ -3866,7 +3878,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="33" t="b">
         <v>1</v>
       </c>
@@ -3903,7 +3915,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="33" t="b">
         <v>1</v>
       </c>
@@ -3942,7 +3954,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="53"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="33" t="b">
         <v>1</v>
       </c>
@@ -3981,7 +3993,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="33" t="b">
         <v>1</v>
       </c>
@@ -4020,7 +4032,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="33" t="b">
         <v>0</v>
       </c>
@@ -4061,7 +4073,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="33" t="b">
         <v>1</v>
       </c>
@@ -4100,7 +4112,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="33" t="b">
         <v>1</v>
       </c>
@@ -4139,7 +4151,7 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="33" t="b">
         <v>0</v>
       </c>
@@ -4178,7 +4190,7 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="53"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="33" t="b">
         <v>0</v>
       </c>
@@ -4215,7 +4227,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="53"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="33" t="b">
         <v>0</v>
       </c>
@@ -4252,7 +4264,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="33" t="b">
         <v>0</v>
       </c>
@@ -4339,7 +4351,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="59" t="s">
         <v>88</v>
       </c>
       <c r="B61" s="3" t="b">
@@ -4885,7 +4897,7 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="55" t="s">
         <v>108</v>
       </c>
       <c r="B75" s="33" t="b">
@@ -4928,7 +4940,7 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="53"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="33" t="b">
         <v>1</v>
       </c>
@@ -4969,7 +4981,7 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="53"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="33" t="b">
         <v>1</v>
       </c>
@@ -5010,7 +5022,7 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="53"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="33" t="b">
         <v>1</v>
       </c>
@@ -5049,7 +5061,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="53"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="33" t="b">
         <v>1</v>
       </c>
@@ -5090,7 +5102,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="53"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="33" t="b">
         <v>1</v>
       </c>
@@ -5131,7 +5143,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="53"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="33" t="b">
         <v>1</v>
       </c>
@@ -5172,7 +5184,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="53"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="33" t="b">
         <v>1</v>
       </c>
@@ -5213,7 +5225,7 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="53"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="33" t="b">
         <v>1</v>
       </c>
@@ -5250,7 +5262,7 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="53"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="33" t="b">
         <v>1</v>
       </c>
@@ -5289,7 +5301,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="53"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="33" t="b">
         <v>1</v>
       </c>
@@ -5328,7 +5340,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="53"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="33" t="b">
         <v>1</v>
       </c>
@@ -5365,7 +5377,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="53"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="33" t="b">
         <v>1</v>
       </c>
@@ -5402,7 +5414,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="53"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="33" t="b">
         <v>1</v>
       </c>
@@ -5439,7 +5451,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="53"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="33" t="b">
         <v>1</v>
       </c>
@@ -5478,7 +5490,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="53"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="33" t="b">
         <v>1</v>
       </c>
@@ -5583,11 +5595,11 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="52" t="s">
+      <c r="A93" s="58" t="s">
         <v>126</v>
       </c>
       <c r="B93" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="30">
         <v>1</v>
@@ -5626,9 +5638,9 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="53"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="30">
         <v>2</v>
@@ -5667,7 +5679,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="53"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="33" t="b">
         <v>0</v>
       </c>
@@ -5708,9 +5720,9 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="53"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="30">
         <v>4</v>
@@ -5749,7 +5761,7 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="53"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="33" t="b">
         <v>0</v>
       </c>
@@ -5790,7 +5802,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="53"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="33" t="b">
         <v>0</v>
       </c>
@@ -5829,7 +5841,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="53"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="33" t="b">
         <v>0</v>
       </c>
@@ -5868,28 +5880,22 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="53"/>
+      <c r="A100" s="56"/>
       <c r="B100" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C100" s="30">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C100" s="30"/>
       <c r="D100" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E100" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="E100" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="37" t="s">
+      <c r="F100" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G100" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="45" t="s">
-        <v>142</v>
-      </c>
+      <c r="G100" s="33"/>
+      <c r="H100" s="45"/>
       <c r="I100" s="3"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -5909,17 +5915,17 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="53"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="33" t="b">
         <v>0</v>
       </c>
       <c r="C101" s="30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="E101" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E101" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F101" s="37" t="s">
@@ -5929,7 +5935,7 @@
         <v>11</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="1"/>
@@ -5950,15 +5956,15 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="53"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C102" s="29">
-        <v>10</v>
+      <c r="C102" s="30">
+        <v>9</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E102" s="43" t="s">
         <v>9</v>
@@ -5970,7 +5976,7 @@
         <v>11</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="1"/>
@@ -5991,15 +5997,15 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="53"/>
+      <c r="A103" s="56"/>
       <c r="B103" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C103" s="30">
-        <v>11</v>
+      <c r="C103" s="29">
+        <v>10</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E103" s="43" t="s">
         <v>9</v>
@@ -6011,7 +6017,7 @@
         <v>11</v>
       </c>
       <c r="H103" s="45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="1"/>
@@ -6032,15 +6038,15 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="53"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E104" s="43" t="s">
         <v>9</v>
@@ -6052,7 +6058,7 @@
         <v>11</v>
       </c>
       <c r="H104" s="45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="1"/>
@@ -6073,15 +6079,15 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="53"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="33" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E105" s="43" t="s">
         <v>9</v>
@@ -6093,7 +6099,7 @@
         <v>11</v>
       </c>
       <c r="H105" s="45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
@@ -6114,27 +6120,27 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="53"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="33" t="b">
         <v>0</v>
       </c>
       <c r="C106" s="30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="40" t="s">
-        <v>57</v>
+      <c r="F106" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="G106" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H106" s="45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
@@ -6154,15 +6160,29 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="11"/>
+    <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="56"/>
+      <c r="B107" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="30">
+        <v>15</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G107" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="45" t="s">
+        <v>155</v>
+      </c>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -6189,7 +6209,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="1"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="4"/>
+      <c r="H108" s="11"/>
       <c r="I108" s="3"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -6208,31 +6228,15 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="B109" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C109" s="30">
-        <v>1</v>
-      </c>
-      <c r="D109" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="E109" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" s="45" t="s">
-        <v>157</v>
-      </c>
+    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
       <c r="I109" s="3"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -6252,15 +6256,17 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="53"/>
+      <c r="A110" s="58" t="s">
+        <v>156</v>
+      </c>
       <c r="B110" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C110" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E110" s="43" t="s">
         <v>9</v>
@@ -6272,7 +6278,7 @@
         <v>11</v>
       </c>
       <c r="H110" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="1"/>
@@ -6293,15 +6299,15 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="53"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C111" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E111" s="43" t="s">
         <v>9</v>
@@ -6313,7 +6319,7 @@
         <v>11</v>
       </c>
       <c r="H111" s="45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
@@ -6334,15 +6340,15 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="53"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C112" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E112" s="43" t="s">
         <v>9</v>
@@ -6350,9 +6356,11 @@
       <c r="F112" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="33"/>
+      <c r="G112" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H112" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
@@ -6373,15 +6381,15 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="53"/>
+      <c r="A113" s="56"/>
       <c r="B113" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C113" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E113" s="43" t="s">
         <v>9</v>
@@ -6389,11 +6397,9 @@
       <c r="F113" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="35" t="s">
-        <v>161</v>
-      </c>
+      <c r="G113" s="33"/>
       <c r="H113" s="45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
@@ -6414,15 +6420,15 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="53"/>
+      <c r="A114" s="56"/>
       <c r="B114" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C114" s="30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E114" s="43" t="s">
         <v>9</v>
@@ -6431,10 +6437,10 @@
         <v>10</v>
       </c>
       <c r="G114" s="35" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1"/>
@@ -6455,15 +6461,15 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="53"/>
+      <c r="A115" s="56"/>
       <c r="B115" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C115" s="30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E115" s="43" t="s">
         <v>9</v>
@@ -6475,7 +6481,7 @@
         <v>11</v>
       </c>
       <c r="H115" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="1"/>
@@ -6496,15 +6502,15 @@
       <c r="Y115" s="1"/>
     </row>
     <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="53"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C116" s="30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E116" s="43" t="s">
         <v>9</v>
@@ -6516,7 +6522,7 @@
         <v>11</v>
       </c>
       <c r="H116" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="1"/>
@@ -6537,15 +6543,15 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="53"/>
+      <c r="A117" s="56"/>
       <c r="B117" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C117" s="30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E117" s="43" t="s">
         <v>9</v>
@@ -6553,9 +6559,11 @@
       <c r="F117" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G117" s="33"/>
+      <c r="G117" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H117" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="1"/>
@@ -6576,15 +6584,15 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="53"/>
+      <c r="A118" s="56"/>
       <c r="B118" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C118" s="30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E118" s="43" t="s">
         <v>9</v>
@@ -6592,11 +6600,9 @@
       <c r="F118" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G118" s="33"/>
       <c r="H118" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1"/>
@@ -6617,15 +6623,15 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="53"/>
+      <c r="A119" s="56"/>
       <c r="B119" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C119" s="30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E119" s="43" t="s">
         <v>9</v>
@@ -6633,9 +6639,11 @@
       <c r="F119" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G119" s="33"/>
+      <c r="G119" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H119" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1"/>
@@ -6656,27 +6664,25 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="53"/>
+      <c r="A120" s="56"/>
       <c r="B120" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C120" s="30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E120" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="F120" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="33"/>
       <c r="H120" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1"/>
@@ -6697,15 +6703,15 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="53"/>
+      <c r="A121" s="56"/>
       <c r="B121" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C121" s="30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E121" s="43" t="s">
         <v>9</v>
@@ -6713,9 +6719,11 @@
       <c r="F121" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G121" s="33"/>
+      <c r="G121" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H121" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1"/>
@@ -6736,15 +6744,15 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="53"/>
+      <c r="A122" s="56"/>
       <c r="B122" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C122" s="30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E122" s="43" t="s">
         <v>9</v>
@@ -6754,7 +6762,7 @@
       </c>
       <c r="G122" s="33"/>
       <c r="H122" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1"/>
@@ -6775,15 +6783,15 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="53"/>
+      <c r="A123" s="56"/>
       <c r="B123" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C123" s="30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E123" s="43" t="s">
         <v>9</v>
@@ -6791,11 +6799,9 @@
       <c r="F123" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G123" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G123" s="33"/>
       <c r="H123" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1"/>
@@ -6816,15 +6822,15 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="53"/>
+      <c r="A124" s="56"/>
       <c r="B124" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C124" s="30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>173</v>
+        <v>399</v>
       </c>
       <c r="E124" s="43" t="s">
         <v>9</v>
@@ -6836,7 +6842,7 @@
         <v>11</v>
       </c>
       <c r="H124" s="45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6857,15 +6863,15 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="53"/>
+      <c r="A125" s="56"/>
       <c r="B125" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C125" s="30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
       <c r="E125" s="43" t="s">
         <v>9</v>
@@ -6877,7 +6883,7 @@
         <v>11</v>
       </c>
       <c r="H125" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1"/>
@@ -6898,15 +6904,15 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="53"/>
+      <c r="A126" s="56"/>
       <c r="B126" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C126" s="30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>176</v>
+        <v>400</v>
       </c>
       <c r="E126" s="43" t="s">
         <v>9</v>
@@ -6918,7 +6924,7 @@
         <v>11</v>
       </c>
       <c r="H126" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
@@ -6939,15 +6945,15 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="53"/>
+      <c r="A127" s="56"/>
       <c r="B127" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C127" s="30">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E127" s="43" t="s">
         <v>9</v>
@@ -6955,9 +6961,11 @@
       <c r="F127" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G127" s="33"/>
+      <c r="G127" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H127" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1"/>
@@ -6978,15 +6986,15 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="53"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C128" s="30">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>401</v>
+        <v>178</v>
       </c>
       <c r="E128" s="43" t="s">
         <v>9</v>
@@ -6994,11 +7002,9 @@
       <c r="F128" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G128" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G128" s="33"/>
       <c r="H128" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="1"/>
@@ -7019,15 +7025,15 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="53"/>
+      <c r="A129" s="56"/>
       <c r="B129" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" s="30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>181</v>
+        <v>401</v>
       </c>
       <c r="E129" s="43" t="s">
         <v>9</v>
@@ -7039,7 +7045,7 @@
         <v>11</v>
       </c>
       <c r="H129" s="45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
@@ -7060,15 +7066,15 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="53"/>
+      <c r="A130" s="56"/>
       <c r="B130" s="33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" s="30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E130" s="43" t="s">
         <v>9</v>
@@ -7076,9 +7082,11 @@
       <c r="F130" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G130" s="33"/>
+      <c r="G130" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H130" s="45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
@@ -7099,25 +7107,25 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="53"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C131" s="30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>402</v>
+        <v>183</v>
       </c>
       <c r="E131" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="40" t="s">
-        <v>57</v>
+      <c r="F131" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="G131" s="33"/>
       <c r="H131" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="1"/>
@@ -7138,15 +7146,15 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="53"/>
+      <c r="A132" s="56"/>
       <c r="B132" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" s="30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>186</v>
+        <v>402</v>
       </c>
       <c r="E132" s="43" t="s">
         <v>9</v>
@@ -7156,7 +7164,7 @@
       </c>
       <c r="G132" s="33"/>
       <c r="H132" s="45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
@@ -7177,24 +7185,26 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="44"/>
+      <c r="A133" s="56"/>
       <c r="B133" s="33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" s="30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E133" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E133" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="47" t="s">
-        <v>22</v>
+      <c r="F133" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="G133" s="33"/>
-      <c r="H133" s="45"/>
+      <c r="H133" s="45" t="s">
+        <v>187</v>
+      </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
@@ -7219,10 +7229,10 @@
         <v>1</v>
       </c>
       <c r="C134" s="30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="E134" s="31" t="s">
         <v>9</v>
@@ -7250,15 +7260,25 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="4"/>
+    <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="44"/>
+      <c r="B135" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="30">
+        <v>26</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="E135" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="33"/>
+      <c r="H135" s="45"/>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -7277,29 +7297,15 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A136" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="B136" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C136" s="2">
-        <v>1</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="27" t="s">
-        <v>10</v>
-      </c>
+    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="1"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="15" t="s">
-        <v>190</v>
-      </c>
+      <c r="H136" s="4"/>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -7318,16 +7324,18 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A137" s="51"/>
+    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A137" s="60" t="s">
+        <v>188</v>
+      </c>
       <c r="B137" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2">
         <v>1</v>
       </c>
-      <c r="C137" s="2">
-        <v>2</v>
-      </c>
       <c r="D137" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>9</v>
@@ -7335,11 +7343,9 @@
       <c r="F137" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G137" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" s="16" t="s">
-        <v>192</v>
+      <c r="G137" s="3"/>
+      <c r="H137" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
@@ -7359,28 +7365,28 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="51"/>
       <c r="B138" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C138" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="26" t="s">
-        <v>22</v>
+      <c r="F138" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H138" s="15" t="s">
-        <v>194</v>
+      <c r="H138" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
@@ -7406,10 +7412,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>9</v>
@@ -7421,7 +7427,7 @@
         <v>11</v>
       </c>
       <c r="H139" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
@@ -7444,13 +7450,13 @@
     <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A140" s="51"/>
       <c r="B140" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>9</v>
@@ -7462,7 +7468,7 @@
         <v>11</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7482,18 +7488,18 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A141" s="51"/>
       <c r="B141" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E141" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E141" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F141" s="26" t="s">
@@ -7502,8 +7508,8 @@
       <c r="G141" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H141" s="16" t="s">
-        <v>200</v>
+      <c r="H141" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7526,15 +7532,15 @@
     <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="51"/>
       <c r="B142" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E142" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E142" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F142" s="26" t="s">
@@ -7544,7 +7550,7 @@
         <v>11</v>
       </c>
       <c r="H142" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7564,16 +7570,16 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="51"/>
       <c r="B143" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>9</v>
@@ -7584,8 +7590,8 @@
       <c r="G143" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H143" s="15" t="s">
-        <v>204</v>
+      <c r="H143" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
@@ -7605,16 +7611,16 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A144" s="51"/>
       <c r="B144" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C144" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>9</v>
@@ -7625,8 +7631,8 @@
       <c r="G144" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H144" s="16" t="s">
-        <v>206</v>
+      <c r="H144" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
@@ -7646,16 +7652,16 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="51"/>
       <c r="B145" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C145" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>9</v>
@@ -7663,9 +7669,11 @@
       <c r="F145" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="15" t="s">
-        <v>208</v>
+      <c r="G145" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="1"/>
@@ -7688,13 +7696,13 @@
     <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A146" s="51"/>
       <c r="B146" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>9</v>
@@ -7702,11 +7710,9 @@
       <c r="F146" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G146" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G146" s="3"/>
       <c r="H146" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="1"/>
@@ -7732,10 +7738,10 @@
         <v>0</v>
       </c>
       <c r="C147" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>9</v>
@@ -7747,7 +7753,7 @@
         <v>11</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
@@ -7767,28 +7773,28 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A148" s="51"/>
       <c r="B148" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C148" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F148" s="28" t="s">
-        <v>57</v>
+      <c r="F148" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H148" s="16" t="s">
-        <v>214</v>
+      <c r="H148" s="15" t="s">
+        <v>212</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
@@ -7814,10 +7820,10 @@
         <v>0</v>
       </c>
       <c r="C149" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>9</v>
@@ -7825,9 +7831,11 @@
       <c r="F149" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G149" s="3"/>
+      <c r="G149" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H149" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
@@ -7847,16 +7855,16 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="51"/>
       <c r="B150" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C150" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>9</v>
@@ -7864,11 +7872,9 @@
       <c r="F150" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G150" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" s="15" t="s">
-        <v>218</v>
+      <c r="G150" s="3"/>
+      <c r="H150" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
@@ -7888,15 +7894,29 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="4"/>
+    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A151" s="51"/>
+      <c r="B151" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C151" s="2">
+        <v>15</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>218</v>
+      </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -7942,29 +7962,15 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A153" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="B153" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C153" s="2">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E153" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F153" s="27" t="s">
-        <v>10</v>
-      </c>
+    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="1"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="15" t="s">
-        <v>222</v>
-      </c>
+      <c r="H153" s="4"/>
       <c r="I153" s="3"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -7984,25 +7990,27 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A154" s="51"/>
+      <c r="A154" s="60" t="s">
+        <v>219</v>
+      </c>
       <c r="B154" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E154" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F154" s="26" t="s">
-        <v>22</v>
+        <v>220</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F154" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
@@ -8028,20 +8036,20 @@
         <v>1</v>
       </c>
       <c r="C155" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F155" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
@@ -8067,20 +8075,20 @@
         <v>1</v>
       </c>
       <c r="C156" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E156" s="23" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="F156" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
@@ -8103,23 +8111,23 @@
     <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A157" s="51"/>
       <c r="B157" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E157" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F157" s="28" t="s">
-        <v>57</v>
+        <v>229</v>
+      </c>
+      <c r="E157" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F157" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -8139,26 +8147,26 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A158" s="51"/>
       <c r="B158" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C158" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F158" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G158" s="3"/>
-      <c r="H158" s="16" t="s">
-        <v>237</v>
+      <c r="H158" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
@@ -8179,14 +8187,26 @@
       <c r="Y158" s="1"/>
     </row>
     <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="1"/>
+      <c r="A159" s="51"/>
+      <c r="B159" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C159" s="2">
+        <v>6</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E159" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F159" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G159" s="3"/>
-      <c r="H159" s="4"/>
+      <c r="H159" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="I159" s="3"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -8232,29 +8252,15 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A161" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="B161" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C161" s="2">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E161" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F161" s="27" t="s">
-        <v>10</v>
-      </c>
+    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="1"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="15" t="s">
-        <v>240</v>
-      </c>
+      <c r="H161" s="4"/>
       <c r="I161" s="3"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -8274,25 +8280,27 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="51"/>
+      <c r="A162" s="60" t="s">
+        <v>238</v>
+      </c>
       <c r="B162" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C162" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="F162" s="26" t="s">
-        <v>22</v>
+        <v>239</v>
+      </c>
+      <c r="F162" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
@@ -8312,26 +8320,26 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A163" s="51"/>
       <c r="B163" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C163" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E163" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F163" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G163" s="3"/>
-      <c r="H163" s="16" t="s">
-        <v>246</v>
+      <c r="H163" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
@@ -8351,26 +8359,26 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="51"/>
       <c r="B164" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C164" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F164" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G164" s="3"/>
-      <c r="H164" s="15" t="s">
-        <v>249</v>
+      <c r="H164" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
@@ -8390,26 +8398,26 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A165" s="51"/>
       <c r="B165" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C165" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F165" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G165" s="3"/>
-      <c r="H165" s="16" t="s">
-        <v>246</v>
+      <c r="H165" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
@@ -8430,14 +8438,26 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="17"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="1"/>
+      <c r="A166" s="51"/>
+      <c r="B166" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C166" s="2">
+        <v>5</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F166" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G166" s="3"/>
-      <c r="H166" s="4"/>
+      <c r="H166" s="16" t="s">
+        <v>246</v>
+      </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -8457,7 +8477,7 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
+      <c r="A167" s="17"/>
       <c r="B167" s="1"/>
       <c r="C167" s="2"/>
       <c r="D167" s="1"/>
@@ -8483,29 +8503,15 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A168" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="B168" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C168" s="2">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E168" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="F168" s="27" t="s">
-        <v>10</v>
-      </c>
+    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="1"/>
       <c r="G168" s="3"/>
-      <c r="H168" s="15" t="s">
-        <v>255</v>
-      </c>
+      <c r="H168" s="4"/>
       <c r="I168" s="3"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -8525,24 +8531,28 @@
       <c r="Y168" s="1"/>
     </row>
     <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A169" s="55"/>
+      <c r="A169" s="60" t="s">
+        <v>252</v>
+      </c>
       <c r="B169" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C169" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E169" s="23" t="s">
-        <v>438</v>
+        <v>253</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>254</v>
       </c>
       <c r="F169" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="3"/>
-      <c r="H169" s="15"/>
+      <c r="H169" s="15" t="s">
+        <v>255</v>
+      </c>
       <c r="I169" s="3"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -8562,26 +8572,24 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="51"/>
+      <c r="A170" s="60"/>
       <c r="B170" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C170" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E170" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="F170" s="26" t="s">
-        <v>22</v>
+        <v>437</v>
+      </c>
+      <c r="E170" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F170" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G170" s="3"/>
-      <c r="H170" s="15" t="s">
-        <v>258</v>
-      </c>
+      <c r="H170" s="15"/>
       <c r="I170" s="3"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -8606,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="C171" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E171" s="19" t="s">
         <v>257</v>
@@ -8619,7 +8627,7 @@
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
@@ -8645,20 +8653,20 @@
         <v>1</v>
       </c>
       <c r="C172" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E172" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="F172" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8684,20 +8692,20 @@
         <v>1</v>
       </c>
       <c r="C173" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E173" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
+      </c>
+      <c r="E173" s="18" t="s">
+        <v>261</v>
       </c>
       <c r="F173" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
@@ -8723,20 +8731,20 @@
         <v>1</v>
       </c>
       <c r="C174" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E174" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F174" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8759,23 +8767,23 @@
     <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A175" s="51"/>
       <c r="B175" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E175" s="18" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="E175" s="23" t="s">
+        <v>268</v>
       </c>
       <c r="F175" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
@@ -8795,26 +8803,26 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A176" s="51"/>
       <c r="B176" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C176" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E176" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F176" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G176" s="3"/>
-      <c r="H176" s="16" t="s">
-        <v>275</v>
+      <c r="H176" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="1"/>
@@ -8834,26 +8842,26 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="51"/>
       <c r="B177" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C177" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E177" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F177" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G177" s="3"/>
-      <c r="H177" s="15" t="s">
-        <v>278</v>
+      <c r="H177" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
@@ -8876,23 +8884,23 @@
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A178" s="51"/>
       <c r="B178" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E178" s="23" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="F178" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
@@ -8918,20 +8926,20 @@
         <v>1</v>
       </c>
       <c r="C179" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E179" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
+      </c>
+      <c r="E179" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="F179" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
@@ -8957,20 +8965,20 @@
         <v>1</v>
       </c>
       <c r="C180" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="E180" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F180" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -8996,20 +9004,20 @@
         <v>1</v>
       </c>
       <c r="C181" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>287</v>
+        <v>151</v>
       </c>
       <c r="E181" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F181" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -9035,20 +9043,20 @@
         <v>1</v>
       </c>
       <c r="C182" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F182" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -9068,26 +9076,26 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A183" s="51"/>
       <c r="B183" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C183" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E183" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="F183" s="28" t="s">
-        <v>57</v>
+        <v>291</v>
+      </c>
+      <c r="F183" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G183" s="3"/>
-      <c r="H183" s="16" t="s">
-        <v>295</v>
+      <c r="H183" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -9107,26 +9115,26 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="51"/>
       <c r="B184" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E184" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="F184" s="26" t="s">
-        <v>22</v>
+        <v>294</v>
+      </c>
+      <c r="F184" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G184" s="3"/>
-      <c r="H184" s="15" t="s">
-        <v>298</v>
+      <c r="H184" s="16" t="s">
+        <v>295</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -9149,22 +9157,24 @@
     <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A185" s="51"/>
       <c r="B185" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E185" s="23" t="s">
-        <v>435</v>
+        <v>296</v>
+      </c>
+      <c r="E185" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="F185" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" s="15"/>
+      <c r="H185" s="15" t="s">
+        <v>298</v>
+      </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -9189,21 +9199,19 @@
         <v>1</v>
       </c>
       <c r="C186" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E186" s="18" t="s">
-        <v>257</v>
+        <v>436</v>
+      </c>
+      <c r="E186" s="23" t="s">
+        <v>435</v>
       </c>
       <c r="F186" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="15" t="s">
-        <v>300</v>
-      </c>
+      <c r="H186" s="15"/>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -9228,19 +9236,21 @@
         <v>1</v>
       </c>
       <c r="C187" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E187" s="23" t="s">
-        <v>440</v>
+        <v>299</v>
+      </c>
+      <c r="E187" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="F187" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G187" s="3"/>
-      <c r="H187" s="15"/>
+      <c r="H187" s="15" t="s">
+        <v>300</v>
+      </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -9262,24 +9272,22 @@
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A188" s="51"/>
       <c r="B188" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E188" s="18" t="s">
-        <v>302</v>
+        <v>439</v>
+      </c>
+      <c r="E188" s="23" t="s">
+        <v>440</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="3"/>
-      <c r="H188" s="15" t="s">
-        <v>303</v>
-      </c>
+      <c r="H188" s="15"/>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -9301,22 +9309,24 @@
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A189" s="51"/>
       <c r="B189" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E189" s="23" t="s">
-        <v>433</v>
+        <v>301</v>
+      </c>
+      <c r="E189" s="18" t="s">
+        <v>302</v>
       </c>
       <c r="F189" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="15"/>
+      <c r="H189" s="15" t="s">
+        <v>303</v>
+      </c>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -9341,21 +9351,19 @@
         <v>1</v>
       </c>
       <c r="C190" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E190" s="18" t="s">
-        <v>305</v>
+        <v>432</v>
+      </c>
+      <c r="E190" s="23" t="s">
+        <v>433</v>
       </c>
       <c r="F190" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="3"/>
-      <c r="H190" s="15" t="s">
-        <v>306</v>
-      </c>
+      <c r="H190" s="15"/>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -9374,26 +9382,26 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A191" s="51"/>
       <c r="B191" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F191" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="3"/>
-      <c r="H191" s="16" t="s">
-        <v>309</v>
+      <c r="H191" s="15" t="s">
+        <v>306</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9416,23 +9424,23 @@
     <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="51"/>
       <c r="B192" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>434</v>
+        <v>307</v>
       </c>
       <c r="E192" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="F192" s="28" t="s">
-        <v>57</v>
+        <v>308</v>
+      </c>
+      <c r="F192" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9455,23 +9463,23 @@
     <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="51"/>
       <c r="B193" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>312</v>
+        <v>434</v>
       </c>
       <c r="E193" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F193" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
@@ -9491,26 +9499,26 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="51"/>
       <c r="B194" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C194" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E194" s="18" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="F194" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G194" s="3"/>
-      <c r="H194" s="15" t="s">
-        <v>316</v>
+      <c r="H194" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
@@ -9530,25 +9538,27 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1" t="s">
-        <v>377</v>
+    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A195" s="51"/>
+      <c r="B195" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="C195" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E195" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F195" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F195" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="4"/>
+      <c r="H195" s="15" t="s">
+        <v>316</v>
+      </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -9569,11 +9579,21 @@
     </row>
     <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="1"/>
+      <c r="B196" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C196" s="2">
+        <v>28</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E196" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F196" s="49" t="s">
+        <v>57</v>
+      </c>
       <c r="G196" s="3"/>
       <c r="H196" s="4"/>
       <c r="I196" s="3"/>
@@ -9594,29 +9614,15 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A197" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="B197" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C197" s="2">
-        <v>1</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F197" s="27" t="s">
-        <v>10</v>
-      </c>
+    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="1"/>
       <c r="G197" s="3"/>
-      <c r="H197" s="15" t="s">
-        <v>319</v>
-      </c>
+      <c r="H197" s="4"/>
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -9636,25 +9642,27 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A198" s="51"/>
+      <c r="A198" s="60" t="s">
+        <v>317</v>
+      </c>
       <c r="B198" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C198" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F198" s="26" t="s">
-        <v>22</v>
+      <c r="F198" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
@@ -9674,26 +9682,26 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A199" s="51"/>
       <c r="B199" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C199" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E199" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="E199" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F199" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="16" t="s">
-        <v>323</v>
+      <c r="H199" s="15" t="s">
+        <v>321</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
@@ -9719,12 +9727,12 @@
         <v>0</v>
       </c>
       <c r="C200" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E200" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E200" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F200" s="26" t="s">
@@ -9732,7 +9740,7 @@
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
@@ -9752,16 +9760,16 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="51"/>
       <c r="B201" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C201" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>9</v>
@@ -9770,8 +9778,8 @@
         <v>22</v>
       </c>
       <c r="G201" s="3"/>
-      <c r="H201" s="15" t="s">
-        <v>327</v>
+      <c r="H201" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
@@ -9797,10 +9805,10 @@
         <v>0</v>
       </c>
       <c r="C202" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>9</v>
@@ -9810,7 +9818,7 @@
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
@@ -9836,10 +9844,10 @@
         <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>9</v>
@@ -9849,7 +9857,7 @@
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9869,16 +9877,16 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A204" s="51"/>
       <c r="B204" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C204" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>9</v>
@@ -9887,8 +9895,8 @@
         <v>22</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="16" t="s">
-        <v>333</v>
+      <c r="H204" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
@@ -9908,16 +9916,16 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="51"/>
       <c r="B205" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>9</v>
@@ -9926,8 +9934,8 @@
         <v>22</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="15" t="s">
-        <v>335</v>
+      <c r="H205" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9953,10 +9961,10 @@
         <v>0</v>
       </c>
       <c r="C206" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>9</v>
@@ -9966,7 +9974,7 @@
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
@@ -9986,16 +9994,16 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A207" s="51"/>
       <c r="B207" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C207" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>9</v>
@@ -10004,8 +10012,8 @@
         <v>22</v>
       </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="16" t="s">
-        <v>339</v>
+      <c r="H207" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -10025,16 +10033,16 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="51"/>
       <c r="B208" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C208" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>9</v>
@@ -10043,8 +10051,8 @@
         <v>22</v>
       </c>
       <c r="G208" s="3"/>
-      <c r="H208" s="15" t="s">
-        <v>341</v>
+      <c r="H208" s="16" t="s">
+        <v>339</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -10070,10 +10078,10 @@
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>9</v>
@@ -10083,7 +10091,7 @@
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -10109,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>9</v>
@@ -10122,7 +10130,7 @@
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
@@ -10142,16 +10150,16 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A211" s="51"/>
       <c r="B211" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C211" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>9</v>
@@ -10160,8 +10168,8 @@
         <v>22</v>
       </c>
       <c r="G211" s="3"/>
-      <c r="H211" s="16" t="s">
-        <v>347</v>
+      <c r="H211" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
@@ -10187,20 +10195,20 @@
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F212" s="28" t="s">
-        <v>57</v>
+      <c r="F212" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
@@ -10226,10 +10234,10 @@
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>9</v>
@@ -10239,7 +10247,7 @@
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10265,10 +10273,10 @@
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>9</v>
@@ -10278,7 +10286,7 @@
       </c>
       <c r="G214" s="3"/>
       <c r="H214" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10298,16 +10306,16 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="51"/>
       <c r="B215" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>9</v>
@@ -10316,8 +10324,8 @@
         <v>57</v>
       </c>
       <c r="G215" s="3"/>
-      <c r="H215" s="15" t="s">
-        <v>355</v>
+      <c r="H215" s="16" t="s">
+        <v>353</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10343,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>9</v>
@@ -10356,7 +10364,7 @@
       </c>
       <c r="G216" s="3"/>
       <c r="H216" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10376,16 +10384,16 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A217" s="51"/>
       <c r="B217" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>9</v>
@@ -10394,8 +10402,8 @@
         <v>57</v>
       </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="16" t="s">
-        <v>359</v>
+      <c r="H217" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10416,14 +10424,26 @@
       <c r="Y217" s="1"/>
     </row>
     <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="1"/>
+      <c r="A218" s="51"/>
+      <c r="B218" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C218" s="2">
+        <v>21</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G218" s="3"/>
-      <c r="H218" s="4"/>
+      <c r="H218" s="16" t="s">
+        <v>359</v>
+      </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -10470,28 +10490,14 @@
       <c r="Y219" s="1"/>
     </row>
     <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A220" s="55" t="s">
-        <v>360</v>
-      </c>
-      <c r="B220" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C220" s="2">
-        <v>1</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E220" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F220" s="27" t="s">
-        <v>10</v>
-      </c>
+      <c r="A220" s="1"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="1"/>
       <c r="G220" s="3"/>
-      <c r="H220" s="16" t="s">
-        <v>362</v>
-      </c>
+      <c r="H220" s="4"/>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -10510,26 +10516,28 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A221" s="51"/>
+    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A221" s="60" t="s">
+        <v>360</v>
+      </c>
       <c r="B221" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E221" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E221" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F221" s="26" t="s">
-        <v>22</v>
+      <c r="F221" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G221" s="3"/>
-      <c r="H221" s="15" t="s">
-        <v>364</v>
+      <c r="H221" s="16" t="s">
+        <v>362</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10555,10 +10563,10 @@
         <v>0</v>
       </c>
       <c r="C222" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>9</v>
@@ -10568,7 +10576,7 @@
       </c>
       <c r="G222" s="3"/>
       <c r="H222" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
@@ -10594,10 +10602,10 @@
         <v>0</v>
       </c>
       <c r="C223" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>9</v>
@@ -10607,7 +10615,7 @@
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
@@ -10633,10 +10641,10 @@
         <v>0</v>
       </c>
       <c r="C224" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>9</v>
@@ -10645,8 +10653,8 @@
         <v>22</v>
       </c>
       <c r="G224" s="3"/>
-      <c r="H224" s="20" t="s">
-        <v>370</v>
+      <c r="H224" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
@@ -10672,20 +10680,20 @@
         <v>0</v>
       </c>
       <c r="C225" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F225" s="28" t="s">
-        <v>57</v>
+      <c r="F225" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G225" s="3"/>
-      <c r="H225" s="15" t="s">
-        <v>372</v>
+      <c r="H225" s="20" t="s">
+        <v>370</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
@@ -10705,15 +10713,27 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="1"/>
+    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A226" s="51"/>
+      <c r="B226" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C226" s="2">
+        <v>6</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G226" s="3"/>
-      <c r="H226" s="4"/>
+      <c r="H226" s="15" t="s">
+        <v>372</v>
+      </c>
       <c r="I226" s="3"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -10760,24 +10780,12 @@
       <c r="Y227" s="1"/>
     </row>
     <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="50" t="s">
-        <v>409</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C228" s="2">
-        <v>1</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E228" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F228" s="41" t="s">
-        <v>419</v>
-      </c>
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="1"/>
       <c r="G228" s="3"/>
       <c r="H228" s="4"/>
       <c r="I228" s="3"/>
@@ -10799,15 +10807,17 @@
       <c r="Y228" s="1"/>
     </row>
     <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A229" s="51"/>
+      <c r="A229" s="57" t="s">
+        <v>409</v>
+      </c>
       <c r="B229" s="1" t="s">
         <v>422</v>
       </c>
       <c r="C229" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E229" s="21" t="s">
         <v>9</v>
@@ -10837,14 +10847,14 @@
     </row>
     <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="51"/>
-      <c r="B230" s="1" t="b">
-        <v>0</v>
+      <c r="B230" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="C230" s="2">
-        <v>3</v>
-      </c>
-      <c r="D230" s="24" t="s">
-        <v>426</v>
+        <v>2</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="E230" s="21" t="s">
         <v>9</v>
@@ -10878,10 +10888,10 @@
         <v>0</v>
       </c>
       <c r="C231" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E231" s="21" t="s">
         <v>9</v>
@@ -10915,11 +10925,17 @@
         <v>0</v>
       </c>
       <c r="C232" s="2">
-        <v>5</v>
-      </c>
-      <c r="D232" s="1"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D232" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="E232" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" s="41" t="s">
+        <v>419</v>
+      </c>
       <c r="G232" s="3"/>
       <c r="H232" s="4"/>
       <c r="I232" s="3"/>
@@ -10946,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="C233" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="3"/>
@@ -10977,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="C234" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="3"/>
@@ -11008,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="C235" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="3"/>
@@ -11039,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="C236" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="3"/>
@@ -11070,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="C237" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="3"/>
@@ -11101,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="C238" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="3"/>
@@ -11132,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="C239" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="3"/>
@@ -11163,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="C240" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="3"/>
@@ -11194,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="C241" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="3"/>
@@ -11225,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="C242" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="3"/>
@@ -11252,8 +11268,12 @@
     </row>
     <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="51"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="2"/>
+      <c r="B243" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C243" s="2">
+        <v>15</v>
+      </c>
       <c r="D243" s="1"/>
       <c r="E243" s="3"/>
       <c r="F243" s="1"/>
@@ -11386,7 +11406,7 @@
       <c r="Y247" s="1"/>
     </row>
     <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="51"/>
       <c r="B248" s="1"/>
       <c r="C248" s="2"/>
       <c r="D248" s="1"/>
@@ -31851,25 +31871,52 @@
       <c r="X1005" s="1"/>
       <c r="Y1005" s="1"/>
     </row>
+    <row r="1006" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="3"/>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="3"/>
+      <c r="H1006" s="4"/>
+      <c r="I1006" s="3"/>
+      <c r="J1006" s="1"/>
+      <c r="K1006" s="1"/>
+      <c r="L1006" s="1"/>
+      <c r="M1006" s="1"/>
+      <c r="N1006" s="1"/>
+      <c r="O1006" s="1"/>
+      <c r="P1006" s="1"/>
+      <c r="Q1006" s="1"/>
+      <c r="R1006" s="1"/>
+      <c r="S1006" s="1"/>
+      <c r="T1006" s="1"/>
+      <c r="U1006" s="1"/>
+      <c r="V1006" s="1"/>
+      <c r="W1006" s="1"/>
+      <c r="X1006" s="1"/>
+      <c r="Y1006" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A229:A248"/>
+    <mergeCell ref="A46:A58"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="A198:A218"/>
+    <mergeCell ref="A221:A226"/>
+    <mergeCell ref="A75:A90"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="A110:A133"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A169:A195"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A7:A37"/>
     <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A228:A247"/>
-    <mergeCell ref="A46:A58"/>
-    <mergeCell ref="A61:A72"/>
-    <mergeCell ref="A197:A217"/>
-    <mergeCell ref="A220:A225"/>
-    <mergeCell ref="A75:A90"/>
-    <mergeCell ref="A93:A106"/>
-    <mergeCell ref="A109:A132"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A168:A194"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
@@ -31941,150 +31988,150 @@
     <hyperlink ref="G97" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
     <hyperlink ref="E98" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
     <hyperlink ref="E99" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E100" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G100" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E101" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G101" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E102" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G102" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E103" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G103" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E104" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G104" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E105" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G105" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E106" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G106" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E109" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G109" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E110" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G110" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E111" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G111" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E112" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E113" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G113" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E114" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="G114" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E115" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="G115" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E116" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G116" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E117" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E118" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="G118" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E119" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E120" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="G120" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E121" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E122" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E123" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G123" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E124" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="G124" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E125" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G125" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E126" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="G126" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E127" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E128" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="G128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="G129" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E130" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E131" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E132" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E136" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E137" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G137" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E138" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G138" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E139" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="G139" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E140" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="G140" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E141" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G141" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E142" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G142" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E143" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G143" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E144" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G144" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E145" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E146" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G146" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E147" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="G147" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E148" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G148" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E150" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="G150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E153" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E154" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E155" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E156" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E157" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E158" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E161" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E162" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E163" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E164" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E165" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E168" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E170" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E171" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E172" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E173" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E174" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E175" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E176" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E177" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E178" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E179" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E180" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E181" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E182" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E183" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E184" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E186" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E188" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E190" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E191" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E192" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E193" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E194" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E197" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E198" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E199" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E200" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E201" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E202" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E203" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E204" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E205" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E206" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E207" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E208" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E209" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E210" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E211" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E212" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E213" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E214" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E215" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E216" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E217" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E220" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E221" r:id="rId206" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E222" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E223" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E224" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E225" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E195" r:id="rId211" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E134" r:id="rId212" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E133" r:id="rId213" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="E101" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G101" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E102" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G102" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E103" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G103" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E104" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G104" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E105" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G105" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E106" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G106" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E107" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E110" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G110" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E111" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G111" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E112" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G112" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E113" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E114" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G114" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E115" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G115" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E116" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G116" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E117" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G117" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E118" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E119" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G119" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E120" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E121" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G121" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E122" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E123" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E124" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G124" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E125" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G125" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E126" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G126" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E127" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G127" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E128" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E129" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G129" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E130" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E137" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E138" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G138" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G139" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E140" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G140" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E141" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="G141" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E142" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G142" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E143" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G143" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E144" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G144" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E145" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G145" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E146" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E147" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G147" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E148" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G148" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E149" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G149" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E150" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E151" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G151" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E154" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E155" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E156" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E157" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E158" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E159" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E164" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E165" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E166" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E169" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E171" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E172" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E173" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E174" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E175" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E176" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E177" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E178" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E179" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E180" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E181" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E182" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E183" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E184" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E185" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E187" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E189" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E191" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E192" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E193" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E194" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E195" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E198" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E199" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E200" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E201" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E202" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E203" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E204" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E205" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E206" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E207" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E208" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E209" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E210" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E211" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E212" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E213" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E214" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E215" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E216" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E217" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E218" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E221" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E222" r:id="rId206" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E223" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E224" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E225" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E226" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E196" r:id="rId211" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E135" r:id="rId212" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E134" r:id="rId213" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
     <hyperlink ref="G68" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="E68" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
     <hyperlink ref="E67" r:id="rId216" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
@@ -32139,21 +32186,22 @@
     <hyperlink ref="E9" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G8" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E8" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E228" r:id="rId268" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E229" r:id="rId268" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
     <hyperlink ref="E21" r:id="rId269" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E229" r:id="rId270" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E230" r:id="rId270" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
     <hyperlink ref="E30" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="E12" r:id="rId272" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
-    <hyperlink ref="E230" r:id="rId273" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
-    <hyperlink ref="E231" r:id="rId274" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E231" r:id="rId273" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E232" r:id="rId274" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
     <hyperlink ref="E24" r:id="rId275" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
     <hyperlink ref="E19" r:id="rId276" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
-    <hyperlink ref="E189" r:id="rId277" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
-    <hyperlink ref="E185" r:id="rId278" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
-    <hyperlink ref="E169" r:id="rId279" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
-    <hyperlink ref="E187" r:id="rId280" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
+    <hyperlink ref="E190" r:id="rId277" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
+    <hyperlink ref="E186" r:id="rId278" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
+    <hyperlink ref="E170" r:id="rId279" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
+    <hyperlink ref="E188" r:id="rId280" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
+    <hyperlink ref="E100" r:id="rId281" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId281"/>
+  <pageSetup orientation="portrait" r:id="rId282"/>
 </worksheet>
 </file>
--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D439E510-7676-4CF7-90FF-94175A54BCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84990D44-2DE4-4EFA-AC1A-086CC844EB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="446">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -1356,8 +1356,50 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">   </t>
+      <t xml:space="preserve">  </t>
     </r>
+  </si>
+  <si>
+    <t>Number of distinct islands</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/number-of-distinct-islands/1</t>
+  </si>
+  <si>
+    <t>Topoplogical Sorting (BFS)(Khans Algorithm)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-eventual-safe-states/</t>
+  </si>
+  <si>
+    <t>Find eventual safe states</t>
+  </si>
+  <si>
+    <t>Shortest distance in DAG</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/shortest-path-in-undirected-graph/1</t>
+  </si>
+  <si>
+    <t>Word ladder</t>
+  </si>
+  <si>
+    <t>https://neetcode.io/problems/word-ladder?list=neetcode150</t>
+  </si>
+  <si>
+    <t>Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Daily tempratues</t>
+  </si>
+  <si>
+    <t>HARD</t>
+  </si>
+  <si>
+    <t>Asteriods</t>
+  </si>
+  <si>
+    <t>Remove k digits</t>
   </si>
   <si>
     <r>
@@ -1370,38 +1412,18 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  </t>
+      <t xml:space="preserve">   </t>
     </r>
-  </si>
-  <si>
-    <t>Number of distinct islands</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/problems/number-of-distinct-islands/1</t>
-  </si>
-  <si>
-    <t>Topoplogical Sorting (BFS)(Khans Algorithm)</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-eventual-safe-states/</t>
-  </si>
-  <si>
-    <t>Find eventual safe states</t>
-  </si>
-  <si>
-    <t>Shortest distance in DAG</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/problems/shortest-path-in-undirected-graph/1</t>
-  </si>
-  <si>
-    <t>Word ladder</t>
-  </si>
-  <si>
-    <t>https://neetcode.io/problems/word-ladder?list=neetcode150</t>
-  </si>
-  <si>
-    <t>Reverse Polish Notation</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1687,7 +1709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
@@ -1705,7 +1727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1824,10 +1846,32 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1836,25 +1880,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2075,11 +2100,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1006"/>
+  <dimension ref="A1:Y1009"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2098,11 +2123,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -2127,14 +2152,14 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2285,7 +2310,7 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -2330,7 +2355,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="29" t="s">
         <v>424</v>
       </c>
@@ -2373,7 +2398,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="29" t="s">
         <v>424</v>
       </c>
@@ -2412,7 +2437,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="29" t="s">
         <v>424</v>
       </c>
@@ -2453,7 +2478,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="29" t="s">
         <v>424</v>
       </c>
@@ -2490,7 +2515,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="29" t="s">
         <v>424</v>
       </c>
@@ -2525,7 +2550,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="29" t="s">
         <v>424</v>
       </c>
@@ -2566,7 +2591,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="29" t="s">
         <v>424</v>
       </c>
@@ -2603,7 +2628,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="29" t="s">
         <v>424</v>
       </c>
@@ -2642,7 +2667,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="29" t="s">
         <v>424</v>
       </c>
@@ -2683,7 +2708,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="29" t="s">
         <v>424</v>
       </c>
@@ -2726,7 +2751,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="29" t="s">
         <v>424</v>
       </c>
@@ -2769,7 +2794,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="29" t="s">
         <v>424</v>
       </c>
@@ -2804,7 +2829,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="29" t="s">
         <v>424</v>
       </c>
@@ -2845,7 +2870,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="29" t="s">
         <v>424</v>
       </c>
@@ -2882,7 +2907,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="29" t="s">
         <v>424</v>
       </c>
@@ -2923,7 +2948,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="29" t="s">
         <v>424</v>
       </c>
@@ -2966,7 +2991,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="29" t="s">
         <v>424</v>
       </c>
@@ -3003,7 +3028,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="29" t="s">
         <v>424</v>
       </c>
@@ -3044,7 +3069,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="29" t="s">
         <v>424</v>
       </c>
@@ -3085,7 +3110,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="29" t="s">
         <v>424</v>
       </c>
@@ -3126,7 +3151,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="29" t="s">
         <v>424</v>
       </c>
@@ -3167,9 +3192,9 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="29" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="C29" s="30">
         <v>22</v>
@@ -3208,9 +3233,9 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C30" s="30">
         <v>23</v>
@@ -3247,7 +3272,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="29" t="s">
         <v>424</v>
       </c>
@@ -3290,7 +3315,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="29" t="s">
         <v>424</v>
       </c>
@@ -3327,7 +3352,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="33" t="b">
         <v>0</v>
       </c>
@@ -3368,9 +3393,9 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="54"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="30">
         <v>27</v>
@@ -3409,7 +3434,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="33" t="b">
         <v>0</v>
       </c>
@@ -3452,7 +3477,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="33" t="b">
         <v>0</v>
       </c>
@@ -3491,9 +3516,9 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="30">
         <v>30</v>
@@ -3584,7 +3609,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="58" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="33" t="b">
@@ -3627,7 +3652,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="33" t="b">
         <v>1</v>
       </c>
@@ -3666,7 +3691,7 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="56"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="33" t="b">
         <v>1</v>
       </c>
@@ -3705,7 +3730,7 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="56"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="33" t="b">
         <v>0</v>
       </c>
@@ -3796,7 +3821,7 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="54" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="33" t="b">
@@ -3839,7 +3864,7 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="56"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="33" t="b">
         <v>1</v>
       </c>
@@ -3878,7 +3903,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="56"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="33" t="b">
         <v>1</v>
       </c>
@@ -3915,7 +3940,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="56"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="33" t="b">
         <v>1</v>
       </c>
@@ -3954,7 +3979,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="56"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="33" t="b">
         <v>1</v>
       </c>
@@ -3993,7 +4018,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="56"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="33" t="b">
         <v>1</v>
       </c>
@@ -4032,7 +4057,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="56"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="33" t="b">
         <v>0</v>
       </c>
@@ -4073,7 +4098,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="56"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="33" t="b">
         <v>1</v>
       </c>
@@ -4112,7 +4137,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="56"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="33" t="b">
         <v>1</v>
       </c>
@@ -4151,7 +4176,7 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="56"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="33" t="b">
         <v>0</v>
       </c>
@@ -4190,7 +4215,7 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="56"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="33" t="b">
         <v>0</v>
       </c>
@@ -4227,7 +4252,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="56"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="33" t="b">
         <v>0</v>
       </c>
@@ -4264,7 +4289,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="56"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="33" t="b">
         <v>0</v>
       </c>
@@ -4351,7 +4376,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="56" t="s">
         <v>88</v>
       </c>
       <c r="B61" s="3" t="b">
@@ -4395,7 +4420,7 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="51"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="3" t="b">
         <v>0</v>
       </c>
@@ -4435,7 +4460,7 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A63" s="51"/>
+      <c r="A63" s="53"/>
       <c r="B63" s="3" t="b">
         <v>0</v>
       </c>
@@ -4477,7 +4502,7 @@
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="51"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="3" t="b">
         <v>0</v>
       </c>
@@ -4517,7 +4542,7 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="51"/>
+      <c r="A65" s="53"/>
       <c r="B65" s="3" t="b">
         <v>0</v>
       </c>
@@ -4557,7 +4582,7 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="51"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="3" t="b">
         <v>0</v>
       </c>
@@ -4599,7 +4624,7 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="51"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="3" t="b">
         <v>0</v>
       </c>
@@ -4637,7 +4662,7 @@
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="3" t="b">
         <v>0</v>
       </c>
@@ -4679,7 +4704,7 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="51"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="3" t="b">
         <v>0</v>
       </c>
@@ -4719,7 +4744,7 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="51"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="3" t="b">
         <v>0</v>
       </c>
@@ -4761,7 +4786,7 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
+      <c r="A71" s="53"/>
       <c r="B71" s="3" t="b">
         <v>0</v>
       </c>
@@ -4803,7 +4828,7 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="3" t="b">
         <v>0</v>
       </c>
@@ -4897,7 +4922,7 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="58" t="s">
         <v>108</v>
       </c>
       <c r="B75" s="33" t="b">
@@ -4940,7 +4965,7 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="56"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="33" t="b">
         <v>1</v>
       </c>
@@ -4981,7 +5006,7 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="56"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="33" t="b">
         <v>1</v>
       </c>
@@ -5022,7 +5047,7 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="56"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="33" t="b">
         <v>1</v>
       </c>
@@ -5061,7 +5086,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="56"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="33" t="b">
         <v>1</v>
       </c>
@@ -5102,7 +5127,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="56"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="33" t="b">
         <v>1</v>
       </c>
@@ -5143,7 +5168,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="56"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="33" t="b">
         <v>1</v>
       </c>
@@ -5184,7 +5209,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="56"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="33" t="b">
         <v>1</v>
       </c>
@@ -5225,7 +5250,7 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="33" t="b">
         <v>1</v>
       </c>
@@ -5262,7 +5287,7 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="56"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="33" t="b">
         <v>1</v>
       </c>
@@ -5301,7 +5326,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="56"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="33" t="b">
         <v>1</v>
       </c>
@@ -5340,7 +5365,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="56"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="33" t="b">
         <v>1</v>
       </c>
@@ -5377,7 +5402,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="56"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="33" t="b">
         <v>1</v>
       </c>
@@ -5414,7 +5439,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="56"/>
+      <c r="A88" s="55"/>
       <c r="B88" s="33" t="b">
         <v>1</v>
       </c>
@@ -5451,7 +5476,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
+      <c r="A89" s="55"/>
       <c r="B89" s="33" t="b">
         <v>1</v>
       </c>
@@ -5490,7 +5515,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="56"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="33" t="b">
         <v>1</v>
       </c>
@@ -5595,10 +5620,10 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="58" t="s">
+      <c r="A93" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="33" t="b">
+      <c r="B93" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C93" s="30">
@@ -5638,8 +5663,8 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="56"/>
-      <c r="B94" s="33" t="b">
+      <c r="A94" s="55"/>
+      <c r="B94" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C94" s="30">
@@ -5679,9 +5704,9 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="56"/>
-      <c r="B95" s="33" t="b">
-        <v>0</v>
+      <c r="A95" s="55"/>
+      <c r="B95" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C95" s="30">
         <v>3</v>
@@ -5720,8 +5745,8 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="56"/>
-      <c r="B96" s="33" t="b">
+      <c r="A96" s="55"/>
+      <c r="B96" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C96" s="30">
@@ -5761,9 +5786,9 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="56"/>
-      <c r="B97" s="33" t="b">
-        <v>0</v>
+      <c r="A97" s="55"/>
+      <c r="B97" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C97" s="30">
         <v>5</v>
@@ -5802,7 +5827,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="56"/>
+      <c r="A98" s="55"/>
       <c r="B98" s="33" t="b">
         <v>0</v>
       </c>
@@ -5841,7 +5866,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="56"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="33" t="b">
         <v>0</v>
       </c>
@@ -5880,18 +5905,20 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="56"/>
+      <c r="A100" s="55"/>
       <c r="B100" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C100" s="30"/>
+      <c r="C100" s="30">
+        <v>8</v>
+      </c>
       <c r="D100" s="29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E100" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="61" t="s">
+      <c r="F100" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G100" s="33"/>
@@ -5915,12 +5942,12 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="56"/>
+      <c r="A101" s="55"/>
       <c r="B101" s="33" t="b">
         <v>0</v>
       </c>
       <c r="C101" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="29" t="s">
         <v>141</v>
@@ -5928,7 +5955,7 @@
       <c r="E101" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="37" t="s">
+      <c r="F101" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G101" s="35" t="s">
@@ -5956,28 +5983,24 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="56"/>
+      <c r="A102" s="55"/>
       <c r="B102" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="30">
+        <v>10</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="E102" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="E102" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="37" t="s">
+      <c r="F102" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G102" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" s="45" t="s">
-        <v>144</v>
-      </c>
+      <c r="G102" s="35"/>
+      <c r="H102" s="45"/>
       <c r="I102" s="3"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -5997,28 +6020,24 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="56"/>
+      <c r="A103" s="55"/>
       <c r="B103" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C103" s="29">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C103" s="30">
+        <v>11</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E103" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="E103" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="37" t="s">
+      <c r="F103" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G103" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H103" s="45" t="s">
-        <v>146</v>
-      </c>
+      <c r="G103" s="35"/>
+      <c r="H103" s="45"/>
       <c r="I103" s="3"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -6038,28 +6057,24 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="56"/>
+      <c r="A104" s="55"/>
       <c r="B104" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C104" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E104" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="E104" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="37" t="s">
+      <c r="F104" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" s="45" t="s">
-        <v>148</v>
-      </c>
+      <c r="G104" s="35"/>
+      <c r="H104" s="45"/>
       <c r="I104" s="3"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -6079,27 +6094,27 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="56"/>
+      <c r="A105" s="55"/>
       <c r="B105" s="33" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E105" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="37" t="s">
+      <c r="F105" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G105" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H105" s="45" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
@@ -6120,7 +6135,7 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="56"/>
+      <c r="A106" s="55"/>
       <c r="B106" s="33" t="b">
         <v>0</v>
       </c>
@@ -6128,19 +6143,19 @@
         <v>14</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="37" t="s">
+      <c r="F106" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G106" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H106" s="45" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
@@ -6161,27 +6176,27 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="56"/>
+      <c r="A107" s="55"/>
       <c r="B107" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" s="30">
         <v>15</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="40" t="s">
-        <v>57</v>
+      <c r="F107" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="G107" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H107" s="45" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
@@ -6201,15 +6216,29 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="11"/>
+    <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="55"/>
+      <c r="B108" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="30">
+        <v>16</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E108" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="45" t="s">
+        <v>150</v>
+      </c>
       <c r="I108" s="3"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -6228,15 +6257,29 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="4"/>
+    <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="55"/>
+      <c r="B109" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="30">
+        <v>17</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="45" t="s">
+        <v>153</v>
+      </c>
       <c r="I109" s="3"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -6256,29 +6299,27 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="58" t="s">
-        <v>156</v>
-      </c>
+      <c r="A110" s="55"/>
       <c r="B110" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C110" s="30">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>385</v>
+        <v>154</v>
       </c>
       <c r="E110" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="36" t="s">
-        <v>10</v>
+      <c r="F110" s="51" t="s">
+        <v>442</v>
       </c>
       <c r="G110" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H110" s="45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="1"/>
@@ -6298,29 +6339,15 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="56"/>
-      <c r="B111" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C111" s="30">
-        <v>2</v>
-      </c>
-      <c r="D111" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="E111" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" s="45" t="s">
-        <v>158</v>
-      </c>
+    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="11"/>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -6339,29 +6366,15 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="56"/>
-      <c r="B112" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C112" s="30">
-        <v>3</v>
-      </c>
-      <c r="D112" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="E112" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" s="45" t="s">
-        <v>159</v>
-      </c>
+    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="4"/>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -6381,15 +6394,17 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="56"/>
+      <c r="A113" s="54" t="s">
+        <v>156</v>
+      </c>
       <c r="B113" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C113" s="30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E113" s="43" t="s">
         <v>9</v>
@@ -6397,9 +6412,11 @@
       <c r="F113" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="33"/>
+      <c r="G113" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H113" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
@@ -6420,15 +6437,15 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="56"/>
+      <c r="A114" s="55"/>
       <c r="B114" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C114" s="30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E114" s="43" t="s">
         <v>9</v>
@@ -6437,10 +6454,10 @@
         <v>10</v>
       </c>
       <c r="G114" s="35" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1"/>
@@ -6461,15 +6478,15 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="56"/>
+      <c r="A115" s="55"/>
       <c r="B115" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C115" s="30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E115" s="43" t="s">
         <v>9</v>
@@ -6481,7 +6498,7 @@
         <v>11</v>
       </c>
       <c r="H115" s="45" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="1"/>
@@ -6502,15 +6519,15 @@
       <c r="Y115" s="1"/>
     </row>
     <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="56"/>
+      <c r="A116" s="55"/>
       <c r="B116" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C116" s="30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E116" s="43" t="s">
         <v>9</v>
@@ -6518,11 +6535,9 @@
       <c r="F116" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G116" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G116" s="33"/>
       <c r="H116" s="45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="1"/>
@@ -6543,15 +6558,15 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="56"/>
+      <c r="A117" s="55"/>
       <c r="B117" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C117" s="30">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E117" s="43" t="s">
         <v>9</v>
@@ -6560,10 +6575,10 @@
         <v>10</v>
       </c>
       <c r="G117" s="35" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="H117" s="45" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="1"/>
@@ -6584,15 +6599,15 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="56"/>
+      <c r="A118" s="55"/>
       <c r="B118" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C118" s="30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E118" s="43" t="s">
         <v>9</v>
@@ -6600,9 +6615,11 @@
       <c r="F118" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="33"/>
+      <c r="G118" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H118" s="45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1"/>
@@ -6623,15 +6640,15 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="56"/>
+      <c r="A119" s="55"/>
       <c r="B119" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C119" s="30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E119" s="43" t="s">
         <v>9</v>
@@ -6643,7 +6660,7 @@
         <v>11</v>
       </c>
       <c r="H119" s="45" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1"/>
@@ -6664,15 +6681,15 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="56"/>
+      <c r="A120" s="55"/>
       <c r="B120" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C120" s="30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E120" s="43" t="s">
         <v>9</v>
@@ -6680,9 +6697,11 @@
       <c r="F120" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G120" s="33"/>
+      <c r="G120" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H120" s="45" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1"/>
@@ -6703,27 +6722,25 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="56"/>
+      <c r="A121" s="55"/>
       <c r="B121" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C121" s="30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E121" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="F121" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="33"/>
       <c r="H121" s="45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1"/>
@@ -6744,25 +6761,27 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="56"/>
+      <c r="A122" s="55"/>
       <c r="B122" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C122" s="30">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E122" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" s="33"/>
+      <c r="F122" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H122" s="45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1"/>
@@ -6783,25 +6802,25 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="56"/>
+      <c r="A123" s="55"/>
       <c r="B123" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C123" s="30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E123" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="37" t="s">
-        <v>22</v>
+      <c r="F123" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G123" s="33"/>
       <c r="H123" s="45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1"/>
@@ -6822,15 +6841,15 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="56"/>
+      <c r="A124" s="55"/>
       <c r="B124" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C124" s="30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E124" s="43" t="s">
         <v>9</v>
@@ -6842,7 +6861,7 @@
         <v>11</v>
       </c>
       <c r="H124" s="45" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6863,15 +6882,15 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="56"/>
+      <c r="A125" s="55"/>
       <c r="B125" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C125" s="30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>173</v>
+        <v>397</v>
       </c>
       <c r="E125" s="43" t="s">
         <v>9</v>
@@ -6879,11 +6898,9 @@
       <c r="F125" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G125" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G125" s="33"/>
       <c r="H125" s="45" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1"/>
@@ -6904,15 +6921,15 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="56"/>
+      <c r="A126" s="55"/>
       <c r="B126" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C126" s="30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E126" s="43" t="s">
         <v>9</v>
@@ -6920,11 +6937,9 @@
       <c r="F126" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G126" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G126" s="33"/>
       <c r="H126" s="45" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
@@ -6945,15 +6960,15 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="56"/>
+      <c r="A127" s="55"/>
       <c r="B127" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C127" s="30">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>176</v>
+        <v>399</v>
       </c>
       <c r="E127" s="43" t="s">
         <v>9</v>
@@ -6965,7 +6980,7 @@
         <v>11</v>
       </c>
       <c r="H127" s="45" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1"/>
@@ -6986,15 +7001,15 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="56"/>
+      <c r="A128" s="55"/>
       <c r="B128" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C128" s="30">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E128" s="43" t="s">
         <v>9</v>
@@ -7002,9 +7017,11 @@
       <c r="F128" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G128" s="33"/>
+      <c r="G128" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H128" s="45" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="1"/>
@@ -7025,15 +7042,15 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="56"/>
+      <c r="A129" s="55"/>
       <c r="B129" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C129" s="30">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E129" s="43" t="s">
         <v>9</v>
@@ -7045,7 +7062,7 @@
         <v>11</v>
       </c>
       <c r="H129" s="45" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
@@ -7066,15 +7083,15 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="56"/>
+      <c r="A130" s="55"/>
       <c r="B130" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E130" s="43" t="s">
         <v>9</v>
@@ -7086,7 +7103,7 @@
         <v>11</v>
       </c>
       <c r="H130" s="45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
@@ -7107,15 +7124,15 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="56"/>
+      <c r="A131" s="55"/>
       <c r="B131" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C131" s="30">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E131" s="43" t="s">
         <v>9</v>
@@ -7125,7 +7142,7 @@
       </c>
       <c r="G131" s="33"/>
       <c r="H131" s="45" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="1"/>
@@ -7146,25 +7163,27 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="56"/>
+      <c r="A132" s="55"/>
       <c r="B132" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C132" s="30">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E132" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G132" s="33"/>
+      <c r="F132" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H132" s="45" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
@@ -7185,25 +7204,27 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="56"/>
+      <c r="A133" s="55"/>
       <c r="B133" s="33" t="b">
         <v>0</v>
       </c>
       <c r="C133" s="30">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E133" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G133" s="33"/>
+      <c r="F133" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H133" s="45" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
@@ -7224,24 +7245,26 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="44"/>
+      <c r="A134" s="55"/>
       <c r="B134" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C134" s="30">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E134" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E134" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="47" t="s">
+      <c r="F134" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G134" s="33"/>
-      <c r="H134" s="45"/>
+      <c r="H134" s="45" t="s">
+        <v>184</v>
+      </c>
       <c r="I134" s="3"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -7261,24 +7284,26 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="44"/>
+      <c r="A135" s="55"/>
       <c r="B135" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C135" s="30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="E135" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E135" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F135" s="47" t="s">
-        <v>22</v>
+      <c r="F135" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="G135" s="33"/>
-      <c r="H135" s="45"/>
+      <c r="H135" s="45" t="s">
+        <v>185</v>
+      </c>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -7297,15 +7322,27 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="4"/>
+    <row r="136" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="55"/>
+      <c r="B136" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C136" s="30">
+        <v>24</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E136" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G136" s="33"/>
+      <c r="H136" s="45" t="s">
+        <v>187</v>
+      </c>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -7324,29 +7361,25 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A137" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="B137" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C137" s="2">
+    <row r="137" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="44"/>
+      <c r="B137" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E137" s="8" t="s">
+      <c r="C137" s="30">
+        <v>25</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E137" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F137" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="15" t="s">
-        <v>190</v>
-      </c>
+      <c r="F137" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="33"/>
+      <c r="H137" s="45"/>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -7365,29 +7398,25 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="51"/>
-      <c r="B138" s="3" t="b">
+    <row r="138" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="44"/>
+      <c r="B138" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C138" s="2">
-        <v>2</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E138" s="8" t="s">
+      <c r="C138" s="30">
+        <v>26</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="E138" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" s="16" t="s">
-        <v>192</v>
-      </c>
+      <c r="F138" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="33"/>
+      <c r="H138" s="45"/>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -7406,29 +7435,15 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A139" s="51"/>
-      <c r="B139" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C139" s="2">
-        <v>3</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H139" s="15" t="s">
-        <v>194</v>
-      </c>
+    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="4"/>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -7448,27 +7463,27 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A140" s="51"/>
+      <c r="A140" s="57" t="s">
+        <v>188</v>
+      </c>
       <c r="B140" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" s="2">
         <v>1</v>
       </c>
-      <c r="C140" s="2">
-        <v>4</v>
-      </c>
       <c r="D140" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F140" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="F140" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="3"/>
       <c r="H140" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7488,28 +7503,28 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A141" s="51"/>
+    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A141" s="53"/>
       <c r="B141" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F141" s="26" t="s">
-        <v>22</v>
+      <c r="F141" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H141" s="15" t="s">
-        <v>198</v>
+      <c r="H141" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7529,18 +7544,18 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="51"/>
+    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A142" s="53"/>
       <c r="B142" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C142" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E142" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E142" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F142" s="26" t="s">
@@ -7549,8 +7564,8 @@
       <c r="G142" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H142" s="16" t="s">
-        <v>200</v>
+      <c r="H142" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7570,16 +7585,16 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="51"/>
+    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A143" s="53"/>
       <c r="B143" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>9</v>
@@ -7590,8 +7605,8 @@
       <c r="G143" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H143" s="16" t="s">
-        <v>202</v>
+      <c r="H143" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
@@ -7612,15 +7627,15 @@
       <c r="Y143" s="1"/>
     </row>
     <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A144" s="51"/>
+      <c r="A144" s="53"/>
       <c r="B144" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>9</v>
@@ -7632,7 +7647,7 @@
         <v>11</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
@@ -7653,17 +7668,17 @@
       <c r="Y144" s="1"/>
     </row>
     <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="51"/>
+      <c r="A145" s="53"/>
       <c r="B145" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C145" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E145" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E145" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F145" s="26" t="s">
@@ -7673,7 +7688,7 @@
         <v>11</v>
       </c>
       <c r="H145" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="1"/>
@@ -7693,16 +7708,16 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A146" s="51"/>
+    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A146" s="53"/>
       <c r="B146" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>9</v>
@@ -7710,9 +7725,11 @@
       <c r="F146" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="15" t="s">
-        <v>208</v>
+      <c r="G146" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="1"/>
@@ -7733,15 +7750,15 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="51"/>
+      <c r="A147" s="53"/>
       <c r="B147" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>9</v>
@@ -7753,7 +7770,7 @@
         <v>11</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
@@ -7773,16 +7790,16 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A148" s="51"/>
+    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A148" s="53"/>
       <c r="B148" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>9</v>
@@ -7793,8 +7810,8 @@
       <c r="G148" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H148" s="15" t="s">
-        <v>212</v>
+      <c r="H148" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
@@ -7814,28 +7831,26 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="51"/>
+    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A149" s="53"/>
       <c r="B149" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" s="16" t="s">
-        <v>214</v>
+      <c r="F149" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="3"/>
+      <c r="H149" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
@@ -7855,26 +7870,28 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="51"/>
+    <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A150" s="53"/>
       <c r="B150" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C150" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F150" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="16" t="s">
-        <v>216</v>
+      <c r="F150" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
@@ -7895,27 +7912,27 @@
       <c r="Y150" s="1"/>
     </row>
     <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A151" s="51"/>
+      <c r="A151" s="53"/>
       <c r="B151" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C151" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E151" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F151" s="28" t="s">
-        <v>57</v>
+      <c r="F151" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G151" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
@@ -7936,14 +7953,28 @@
       <c r="Y151" s="1"/>
     </row>
     <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="4"/>
+      <c r="A152" s="53"/>
+      <c r="B152" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C152" s="2">
+        <v>13</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" s="16" t="s">
+        <v>214</v>
+      </c>
       <c r="I152" s="3"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -7963,14 +7994,26 @@
       <c r="Y152" s="1"/>
     </row>
     <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="1"/>
+      <c r="A153" s="53"/>
+      <c r="B153" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C153" s="2">
+        <v>14</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G153" s="3"/>
-      <c r="H153" s="4"/>
+      <c r="H153" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="I153" s="3"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -7990,27 +8033,27 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A154" s="60" t="s">
-        <v>219</v>
-      </c>
+      <c r="A154" s="53"/>
       <c r="B154" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E154" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F154" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H154" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
@@ -8030,27 +8073,15 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A155" s="51"/>
-      <c r="B155" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C155" s="2">
-        <v>2</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E155" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F155" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="1"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="15" t="s">
-        <v>225</v>
-      </c>
+      <c r="H155" s="4"/>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -8069,27 +8100,15 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A156" s="51"/>
-      <c r="B156" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C156" s="2">
-        <v>3</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E156" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="F156" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="1"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="15" t="s">
-        <v>228</v>
-      </c>
+      <c r="H156" s="4"/>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -8109,25 +8128,27 @@
       <c r="Y156" s="1"/>
     </row>
     <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A157" s="51"/>
+      <c r="A157" s="57" t="s">
+        <v>219</v>
+      </c>
       <c r="B157" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C157" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E157" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="F157" s="26" t="s">
-        <v>22</v>
+        <v>221</v>
+      </c>
+      <c r="F157" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="15" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -8148,25 +8169,25 @@
       <c r="Y157" s="1"/>
     </row>
     <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A158" s="51"/>
+      <c r="A158" s="53"/>
       <c r="B158" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F158" s="28" t="s">
-        <v>57</v>
+        <v>224</v>
+      </c>
+      <c r="F158" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="15" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
@@ -8186,26 +8207,26 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="51"/>
+    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A159" s="53"/>
       <c r="B159" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="F159" s="28" t="s">
-        <v>57</v>
+        <v>227</v>
+      </c>
+      <c r="F159" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G159" s="3"/>
-      <c r="H159" s="16" t="s">
-        <v>237</v>
+      <c r="H159" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="1"/>
@@ -8225,15 +8246,27 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="1"/>
+    <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A160" s="53"/>
+      <c r="B160" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2">
+        <v>4</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E160" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F160" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G160" s="3"/>
-      <c r="H160" s="4"/>
+      <c r="H160" s="15" t="s">
+        <v>231</v>
+      </c>
       <c r="I160" s="3"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -8252,15 +8285,27 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="1"/>
+    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A161" s="53"/>
+      <c r="B161" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C161" s="2">
+        <v>5</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F161" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G161" s="3"/>
-      <c r="H161" s="4"/>
+      <c r="H161" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="I161" s="3"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -8279,28 +8324,26 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="60" t="s">
-        <v>238</v>
-      </c>
+    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A162" s="53"/>
       <c r="B162" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C162" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F162" s="27" t="s">
-        <v>10</v>
+        <v>236</v>
+      </c>
+      <c r="F162" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G162" s="3"/>
-      <c r="H162" s="15" t="s">
-        <v>240</v>
+      <c r="H162" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
@@ -8320,27 +8363,15 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="51"/>
-      <c r="B163" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C163" s="2">
-        <v>2</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E163" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="F163" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="1"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="15" t="s">
-        <v>243</v>
-      </c>
+      <c r="H163" s="4"/>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -8360,26 +8391,14 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="51"/>
-      <c r="B164" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C164" s="2">
-        <v>3</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E164" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F164" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="1"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="16" t="s">
-        <v>246</v>
-      </c>
+      <c r="H164" s="4"/>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -8399,25 +8418,27 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" s="51"/>
+      <c r="A165" s="57" t="s">
+        <v>238</v>
+      </c>
       <c r="B165" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C165" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F165" s="26" t="s">
-        <v>22</v>
+        <v>239</v>
+      </c>
+      <c r="F165" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="15" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
@@ -8437,26 +8458,26 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="51"/>
+    <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A166" s="53"/>
       <c r="B166" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C166" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E166" s="18" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F166" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G166" s="3"/>
-      <c r="H166" s="16" t="s">
-        <v>246</v>
+      <c r="H166" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
@@ -8477,14 +8498,26 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="17"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="1"/>
+      <c r="A167" s="53"/>
+      <c r="B167" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C167" s="2">
+        <v>3</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F167" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G167" s="3"/>
-      <c r="H167" s="4"/>
+      <c r="H167" s="16" t="s">
+        <v>246</v>
+      </c>
       <c r="I167" s="3"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -8503,15 +8536,27 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="1"/>
+    <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A168" s="53"/>
+      <c r="B168" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C168" s="2">
+        <v>4</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F168" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G168" s="3"/>
-      <c r="H168" s="4"/>
+      <c r="H168" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="I168" s="3"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -8530,28 +8575,26 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A169" s="60" t="s">
-        <v>252</v>
-      </c>
+    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A169" s="53"/>
       <c r="B169" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="F169" s="27" t="s">
-        <v>10</v>
+        <v>251</v>
+      </c>
+      <c r="F169" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G169" s="3"/>
-      <c r="H169" s="15" t="s">
-        <v>255</v>
+      <c r="H169" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="1"/>
@@ -8571,25 +8614,15 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="60"/>
-      <c r="B170" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C170" s="2">
-        <v>2</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E170" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="F170" s="27" t="s">
-        <v>10</v>
-      </c>
+    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A170" s="17"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="1"/>
       <c r="G170" s="3"/>
-      <c r="H170" s="15"/>
+      <c r="H170" s="4"/>
       <c r="I170" s="3"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -8608,27 +8641,15 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="51"/>
-      <c r="B171" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C171" s="2">
-        <v>3</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E171" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="F171" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="1"/>
       <c r="G171" s="3"/>
-      <c r="H171" s="15" t="s">
-        <v>258</v>
-      </c>
+      <c r="H171" s="4"/>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -8648,25 +8669,27 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A172" s="51"/>
+      <c r="A172" s="57" t="s">
+        <v>252</v>
+      </c>
       <c r="B172" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C172" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E172" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="F172" s="26" t="s">
-        <v>22</v>
+        <v>253</v>
+      </c>
+      <c r="E172" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F172" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8687,26 +8710,24 @@
       <c r="Y172" s="1"/>
     </row>
     <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A173" s="51"/>
+      <c r="A173" s="57"/>
       <c r="B173" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C173" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E173" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="F173" s="26" t="s">
-        <v>22</v>
+        <v>436</v>
+      </c>
+      <c r="E173" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="F173" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G173" s="3"/>
-      <c r="H173" s="15" t="s">
-        <v>263</v>
-      </c>
+      <c r="H173" s="15"/>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -8726,25 +8747,25 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A174" s="51"/>
+      <c r="A174" s="53"/>
       <c r="B174" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C174" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E174" s="23" t="s">
-        <v>264</v>
+        <v>256</v>
+      </c>
+      <c r="E174" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="F174" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="15" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8765,25 +8786,25 @@
       <c r="Y174" s="1"/>
     </row>
     <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A175" s="51"/>
+      <c r="A175" s="53"/>
       <c r="B175" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C175" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E175" s="23" t="s">
-        <v>268</v>
+        <v>259</v>
+      </c>
+      <c r="E175" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="F175" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="15" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
@@ -8804,25 +8825,25 @@
       <c r="Y175" s="1"/>
     </row>
     <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A176" s="51"/>
+      <c r="A176" s="53"/>
       <c r="B176" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E176" s="18" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F176" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="15" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="1"/>
@@ -8842,26 +8863,26 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="51"/>
+    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A177" s="53"/>
       <c r="B177" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E177" s="18" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="E177" s="23" t="s">
+        <v>264</v>
       </c>
       <c r="F177" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G177" s="3"/>
-      <c r="H177" s="16" t="s">
-        <v>275</v>
+      <c r="H177" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
@@ -8882,25 +8903,25 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="51"/>
+      <c r="A178" s="53"/>
       <c r="B178" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E178" s="18" t="s">
-        <v>277</v>
+        <v>267</v>
+      </c>
+      <c r="E178" s="23" t="s">
+        <v>268</v>
       </c>
       <c r="F178" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="15" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
@@ -8921,25 +8942,25 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="51"/>
+      <c r="A179" s="53"/>
       <c r="B179" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E179" s="23" t="s">
-        <v>280</v>
+        <v>270</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="F179" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
@@ -8959,26 +8980,26 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A180" s="51"/>
+    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A180" s="53"/>
       <c r="B180" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E180" s="18" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F180" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G180" s="3"/>
-      <c r="H180" s="15" t="s">
-        <v>284</v>
+      <c r="H180" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -8999,25 +9020,25 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A181" s="51"/>
+      <c r="A181" s="53"/>
       <c r="B181" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="E181" s="18" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F181" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="15" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -9038,25 +9059,25 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A182" s="51"/>
+      <c r="A182" s="53"/>
       <c r="B182" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C182" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E182" s="18" t="s">
-        <v>288</v>
+        <v>279</v>
+      </c>
+      <c r="E182" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="F182" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="15" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -9077,25 +9098,25 @@
       <c r="Y182" s="1"/>
     </row>
     <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A183" s="51"/>
+      <c r="A183" s="53"/>
       <c r="B183" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C183" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E183" s="18" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F183" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="15" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -9115,26 +9136,26 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A184" s="51"/>
+    <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A184" s="53"/>
       <c r="B184" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C184" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="E184" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="F184" s="28" t="s">
-        <v>57</v>
+        <v>285</v>
+      </c>
+      <c r="F184" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G184" s="3"/>
-      <c r="H184" s="16" t="s">
-        <v>295</v>
+      <c r="H184" s="15" t="s">
+        <v>286</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -9155,25 +9176,25 @@
       <c r="Y184" s="1"/>
     </row>
     <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A185" s="51"/>
+      <c r="A185" s="53"/>
       <c r="B185" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E185" s="18" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F185" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="15" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -9194,24 +9215,26 @@
       <c r="Y185" s="1"/>
     </row>
     <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A186" s="51"/>
+      <c r="A186" s="53"/>
       <c r="B186" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C186" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E186" s="23" t="s">
-        <v>435</v>
+        <v>290</v>
+      </c>
+      <c r="E186" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="F186" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="15"/>
+      <c r="H186" s="15" t="s">
+        <v>292</v>
+      </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -9230,26 +9253,26 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A187" s="51"/>
+    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A187" s="53"/>
       <c r="B187" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C187" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E187" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F187" s="26" t="s">
-        <v>22</v>
+        <v>294</v>
+      </c>
+      <c r="F187" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G187" s="3"/>
-      <c r="H187" s="15" t="s">
-        <v>300</v>
+      <c r="H187" s="16" t="s">
+        <v>295</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
@@ -9270,24 +9293,26 @@
       <c r="Y187" s="1"/>
     </row>
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A188" s="51"/>
+      <c r="A188" s="53"/>
       <c r="B188" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E188" s="23" t="s">
-        <v>440</v>
+        <v>296</v>
+      </c>
+      <c r="E188" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="3"/>
-      <c r="H188" s="15"/>
+      <c r="H188" s="15" t="s">
+        <v>298</v>
+      </c>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -9307,26 +9332,24 @@
       <c r="Y188" s="1"/>
     </row>
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A189" s="51"/>
+      <c r="A189" s="53"/>
       <c r="B189" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E189" s="18" t="s">
-        <v>302</v>
+        <v>435</v>
+      </c>
+      <c r="E189" s="23" t="s">
+        <v>434</v>
       </c>
       <c r="F189" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="15" t="s">
-        <v>303</v>
-      </c>
+      <c r="H189" s="15"/>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -9346,24 +9369,26 @@
       <c r="Y189" s="1"/>
     </row>
     <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A190" s="51"/>
+      <c r="A190" s="53"/>
       <c r="B190" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C190" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E190" s="23" t="s">
-        <v>433</v>
+        <v>299</v>
+      </c>
+      <c r="E190" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="F190" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="3"/>
-      <c r="H190" s="15"/>
+      <c r="H190" s="15" t="s">
+        <v>300</v>
+      </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -9383,26 +9408,24 @@
       <c r="Y190" s="1"/>
     </row>
     <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A191" s="51"/>
+      <c r="A191" s="53"/>
       <c r="B191" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C191" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E191" s="18" t="s">
-        <v>305</v>
+        <v>438</v>
+      </c>
+      <c r="E191" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="F191" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="3"/>
-      <c r="H191" s="15" t="s">
-        <v>306</v>
-      </c>
+      <c r="H191" s="15"/>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -9421,26 +9444,26 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A192" s="51"/>
+    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A192" s="53"/>
       <c r="B192" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C192" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E192" s="18" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F192" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" s="16" t="s">
-        <v>309</v>
+      <c r="H192" s="15" t="s">
+        <v>303</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9460,27 +9483,25 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A193" s="51"/>
+    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A193" s="53"/>
       <c r="B193" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C193" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E193" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="F193" s="28" t="s">
-        <v>57</v>
+        <v>431</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="F193" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="16" t="s">
-        <v>311</v>
-      </c>
+      <c r="H193" s="15"/>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -9499,26 +9520,26 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A194" s="51"/>
+    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A194" s="53"/>
       <c r="B194" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E194" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="F194" s="28" t="s">
-        <v>57</v>
+        <v>305</v>
+      </c>
+      <c r="F194" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G194" s="3"/>
-      <c r="H194" s="16" t="s">
-        <v>314</v>
+      <c r="H194" s="15" t="s">
+        <v>306</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
@@ -9538,26 +9559,26 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A195" s="51"/>
+    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A195" s="53"/>
       <c r="B195" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C195" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E195" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="F195" s="28" t="s">
-        <v>57</v>
+        <v>308</v>
+      </c>
+      <c r="F195" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="15" t="s">
-        <v>316</v>
+      <c r="H195" s="16" t="s">
+        <v>309</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
@@ -9578,24 +9599,26 @@
       <c r="Y195" s="1"/>
     </row>
     <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1" t="s">
-        <v>377</v>
+      <c r="A196" s="53"/>
+      <c r="B196" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C196" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E196" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F196" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="E196" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="F196" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G196" s="3"/>
-      <c r="H196" s="4"/>
+      <c r="H196" s="16" t="s">
+        <v>311</v>
+      </c>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -9615,14 +9638,26 @@
       <c r="Y196" s="1"/>
     </row>
     <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="1"/>
+      <c r="A197" s="53"/>
+      <c r="B197" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C197" s="2">
+        <v>26</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E197" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F197" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G197" s="3"/>
-      <c r="H197" s="4"/>
+      <c r="H197" s="16" t="s">
+        <v>314</v>
+      </c>
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -9642,27 +9677,25 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A198" s="60" t="s">
-        <v>317</v>
-      </c>
+      <c r="A198" s="53"/>
       <c r="B198" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C198" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F198" s="27" t="s">
-        <v>10</v>
+        <v>315</v>
+      </c>
+      <c r="E198" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F198" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
@@ -9682,27 +9715,25 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A199" s="51"/>
-      <c r="B199" s="3" t="b">
-        <v>0</v>
+    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="C199" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" s="26" t="s">
-        <v>22</v>
+        <v>375</v>
+      </c>
+      <c r="E199" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F199" s="49" t="s">
+        <v>10</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="15" t="s">
-        <v>321</v>
-      </c>
+      <c r="H199" s="4"/>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -9722,26 +9753,14 @@
       <c r="Y199" s="1"/>
     </row>
     <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A200" s="51"/>
-      <c r="B200" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C200" s="2">
-        <v>3</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E200" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F200" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="1"/>
       <c r="G200" s="3"/>
-      <c r="H200" s="16" t="s">
-        <v>323</v>
-      </c>
+      <c r="H200" s="4"/>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -9760,26 +9779,28 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A201" s="51"/>
+    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A201" s="57" t="s">
+        <v>317</v>
+      </c>
       <c r="B201" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C201" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F201" s="26" t="s">
-        <v>22</v>
+      <c r="F201" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G201" s="3"/>
-      <c r="H201" s="16" t="s">
-        <v>325</v>
+      <c r="H201" s="15" t="s">
+        <v>319</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
@@ -9800,15 +9821,15 @@
       <c r="Y201" s="1"/>
     </row>
     <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A202" s="51"/>
+      <c r="A202" s="53"/>
       <c r="B202" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C202" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>9</v>
@@ -9818,7 +9839,7 @@
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="15" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
@@ -9838,26 +9859,26 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A203" s="51"/>
+    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A203" s="53"/>
       <c r="B203" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E203" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E203" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F203" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G203" s="3"/>
-      <c r="H203" s="15" t="s">
-        <v>329</v>
+      <c r="H203" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9877,16 +9898,16 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A204" s="51"/>
+    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A204" s="53"/>
       <c r="B204" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C204" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>9</v>
@@ -9895,8 +9916,8 @@
         <v>22</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="15" t="s">
-        <v>331</v>
+      <c r="H204" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
@@ -9916,16 +9937,16 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A205" s="51"/>
+    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A205" s="53"/>
       <c r="B205" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>9</v>
@@ -9934,8 +9955,8 @@
         <v>22</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="16" t="s">
-        <v>333</v>
+      <c r="H205" s="15" t="s">
+        <v>327</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9956,15 +9977,15 @@
       <c r="Y205" s="1"/>
     </row>
     <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A206" s="51"/>
+      <c r="A206" s="53"/>
       <c r="B206" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C206" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>9</v>
@@ -9974,7 +9995,7 @@
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
@@ -9995,15 +10016,15 @@
       <c r="Y206" s="1"/>
     </row>
     <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A207" s="51"/>
+      <c r="A207" s="53"/>
       <c r="B207" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C207" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>9</v>
@@ -10013,7 +10034,7 @@
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="15" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -10034,15 +10055,15 @@
       <c r="Y207" s="1"/>
     </row>
     <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A208" s="51"/>
+      <c r="A208" s="53"/>
       <c r="B208" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C208" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>9</v>
@@ -10052,7 +10073,7 @@
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -10073,15 +10094,15 @@
       <c r="Y208" s="1"/>
     </row>
     <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A209" s="51"/>
+      <c r="A209" s="53"/>
       <c r="B209" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>9</v>
@@ -10091,7 +10112,7 @@
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -10112,15 +10133,15 @@
       <c r="Y209" s="1"/>
     </row>
     <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A210" s="51"/>
+      <c r="A210" s="53"/>
       <c r="B210" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>9</v>
@@ -10130,7 +10151,7 @@
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
@@ -10150,16 +10171,16 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A211" s="51"/>
+    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A211" s="53"/>
       <c r="B211" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C211" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>9</v>
@@ -10168,8 +10189,8 @@
         <v>22</v>
       </c>
       <c r="G211" s="3"/>
-      <c r="H211" s="15" t="s">
-        <v>345</v>
+      <c r="H211" s="16" t="s">
+        <v>339</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
@@ -10189,16 +10210,16 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A212" s="51"/>
+    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A212" s="53"/>
       <c r="B212" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>9</v>
@@ -10207,8 +10228,8 @@
         <v>22</v>
       </c>
       <c r="G212" s="3"/>
-      <c r="H212" s="16" t="s">
-        <v>347</v>
+      <c r="H212" s="15" t="s">
+        <v>341</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
@@ -10228,26 +10249,26 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A213" s="51"/>
+    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A213" s="53"/>
       <c r="B213" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F213" s="28" t="s">
-        <v>57</v>
+      <c r="F213" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G213" s="3"/>
-      <c r="H213" s="16" t="s">
-        <v>349</v>
+      <c r="H213" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10267,26 +10288,26 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A214" s="51"/>
+    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A214" s="53"/>
       <c r="B214" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F214" s="28" t="s">
-        <v>57</v>
+      <c r="F214" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G214" s="3"/>
-      <c r="H214" s="16" t="s">
-        <v>351</v>
+      <c r="H214" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10307,25 +10328,25 @@
       <c r="Y214" s="1"/>
     </row>
     <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A215" s="51"/>
+      <c r="A215" s="53"/>
       <c r="B215" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F215" s="28" t="s">
-        <v>57</v>
+      <c r="F215" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="16" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10345,16 +10366,16 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A216" s="51"/>
+    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A216" s="53"/>
       <c r="B216" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>9</v>
@@ -10363,8 +10384,8 @@
         <v>57</v>
       </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="15" t="s">
-        <v>355</v>
+      <c r="H216" s="16" t="s">
+        <v>349</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10384,16 +10405,16 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A217" s="51"/>
+    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A217" s="53"/>
       <c r="B217" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>9</v>
@@ -10402,8 +10423,8 @@
         <v>57</v>
       </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="15" t="s">
-        <v>357</v>
+      <c r="H217" s="16" t="s">
+        <v>351</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10424,15 +10445,15 @@
       <c r="Y217" s="1"/>
     </row>
     <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="51"/>
+      <c r="A218" s="53"/>
       <c r="B218" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C218" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>9</v>
@@ -10442,7 +10463,7 @@
       </c>
       <c r="G218" s="3"/>
       <c r="H218" s="16" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
@@ -10462,15 +10483,27 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="1"/>
+    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A219" s="53"/>
+      <c r="B219" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C219" s="2">
+        <v>19</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F219" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G219" s="3"/>
-      <c r="H219" s="4"/>
+      <c r="H219" s="15" t="s">
+        <v>355</v>
+      </c>
       <c r="I219" s="3"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -10489,15 +10522,27 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="1"/>
+    <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A220" s="53"/>
+      <c r="B220" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C220" s="2">
+        <v>20</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G220" s="3"/>
-      <c r="H220" s="4"/>
+      <c r="H220" s="15" t="s">
+        <v>357</v>
+      </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -10517,27 +10562,25 @@
       <c r="Y220" s="1"/>
     </row>
     <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A221" s="60" t="s">
-        <v>360</v>
-      </c>
+      <c r="A221" s="53"/>
       <c r="B221" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E221" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E221" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F221" s="27" t="s">
-        <v>10</v>
+      <c r="F221" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10557,27 +10600,15 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A222" s="51"/>
-      <c r="B222" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C222" s="2">
-        <v>2</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E222" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F222" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="1"/>
       <c r="G222" s="3"/>
-      <c r="H222" s="15" t="s">
-        <v>364</v>
-      </c>
+      <c r="H222" s="4"/>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -10596,27 +10627,15 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A223" s="51"/>
-      <c r="B223" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C223" s="2">
-        <v>3</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E223" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F223" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="1"/>
       <c r="G223" s="3"/>
-      <c r="H223" s="15" t="s">
-        <v>366</v>
-      </c>
+      <c r="H223" s="4"/>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -10635,26 +10654,28 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A224" s="51"/>
+    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A224" s="57" t="s">
+        <v>360</v>
+      </c>
       <c r="B224" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E224" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E224" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F224" s="26" t="s">
-        <v>22</v>
+      <c r="F224" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G224" s="3"/>
-      <c r="H224" s="15" t="s">
-        <v>368</v>
+      <c r="H224" s="16" t="s">
+        <v>362</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
@@ -10675,15 +10696,15 @@
       <c r="Y224" s="1"/>
     </row>
     <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A225" s="51"/>
+      <c r="A225" s="53"/>
       <c r="B225" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C225" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>9</v>
@@ -10692,8 +10713,8 @@
         <v>22</v>
       </c>
       <c r="G225" s="3"/>
-      <c r="H225" s="20" t="s">
-        <v>370</v>
+      <c r="H225" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
@@ -10714,25 +10735,25 @@
       <c r="Y225" s="1"/>
     </row>
     <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A226" s="51"/>
+      <c r="A226" s="53"/>
       <c r="B226" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C226" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F226" s="28" t="s">
-        <v>57</v>
+      <c r="F226" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G226" s="3"/>
       <c r="H226" s="15" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I226" s="3"/>
       <c r="J226" s="1"/>
@@ -10752,15 +10773,27 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="1"/>
+    <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A227" s="53"/>
+      <c r="B227" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C227" s="2">
+        <v>4</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G227" s="3"/>
-      <c r="H227" s="4"/>
+      <c r="H227" s="15" t="s">
+        <v>368</v>
+      </c>
       <c r="I227" s="3"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
@@ -10779,15 +10812,27 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="1"/>
+    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A228" s="53"/>
+      <c r="B228" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C228" s="2">
+        <v>5</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G228" s="3"/>
-      <c r="H228" s="4"/>
+      <c r="H228" s="20" t="s">
+        <v>370</v>
+      </c>
       <c r="I228" s="3"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -10806,27 +10851,27 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A229" s="57" t="s">
-        <v>409</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>422</v>
+    <row r="229" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A229" s="53"/>
+      <c r="B229" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="C229" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E229" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E229" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F229" s="41" t="s">
-        <v>419</v>
+      <c r="F229" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G229" s="3"/>
-      <c r="H229" s="4"/>
+      <c r="H229" s="15" t="s">
+        <v>372</v>
+      </c>
       <c r="I229" s="3"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -10846,22 +10891,12 @@
       <c r="Y229" s="1"/>
     </row>
     <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A230" s="51"/>
-      <c r="B230" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C230" s="2">
-        <v>2</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E230" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F230" s="41" t="s">
-        <v>419</v>
-      </c>
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="1"/>
       <c r="G230" s="3"/>
       <c r="H230" s="4"/>
       <c r="I230" s="3"/>
@@ -10883,22 +10918,12 @@
       <c r="Y230" s="1"/>
     </row>
     <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A231" s="51"/>
-      <c r="B231" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C231" s="2">
-        <v>3</v>
-      </c>
-      <c r="D231" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="E231" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F231" s="41" t="s">
-        <v>419</v>
-      </c>
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="1"/>
       <c r="G231" s="3"/>
       <c r="H231" s="4"/>
       <c r="I231" s="3"/>
@@ -10920,15 +10945,17 @@
       <c r="Y231" s="1"/>
     </row>
     <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A232" s="51"/>
-      <c r="B232" s="1" t="b">
-        <v>0</v>
+      <c r="A232" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="C232" s="2">
-        <v>4</v>
-      </c>
-      <c r="D232" s="24" t="s">
-        <v>427</v>
+        <v>1</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="E232" s="21" t="s">
         <v>9</v>
@@ -10957,16 +10984,22 @@
       <c r="Y232" s="1"/>
     </row>
     <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A233" s="51"/>
-      <c r="B233" s="1" t="b">
-        <v>0</v>
+      <c r="A233" s="53"/>
+      <c r="B233" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="C233" s="2">
-        <v>5</v>
-      </c>
-      <c r="D233" s="1"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E233" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" s="41" t="s">
+        <v>419</v>
+      </c>
       <c r="G233" s="3"/>
       <c r="H233" s="4"/>
       <c r="I233" s="3"/>
@@ -10988,16 +11021,22 @@
       <c r="Y233" s="1"/>
     </row>
     <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A234" s="51"/>
+      <c r="A234" s="53"/>
       <c r="B234" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C234" s="2">
-        <v>6</v>
-      </c>
-      <c r="D234" s="1"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D234" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E234" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" s="41" t="s">
+        <v>419</v>
+      </c>
       <c r="G234" s="3"/>
       <c r="H234" s="4"/>
       <c r="I234" s="3"/>
@@ -11019,16 +11058,22 @@
       <c r="Y234" s="1"/>
     </row>
     <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A235" s="51"/>
+      <c r="A235" s="53"/>
       <c r="B235" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C235" s="2">
-        <v>7</v>
-      </c>
-      <c r="D235" s="1"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D235" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="E235" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" s="41" t="s">
+        <v>419</v>
+      </c>
       <c r="G235" s="3"/>
       <c r="H235" s="4"/>
       <c r="I235" s="3"/>
@@ -11050,12 +11095,12 @@
       <c r="Y235" s="1"/>
     </row>
     <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A236" s="51"/>
+      <c r="A236" s="53"/>
       <c r="B236" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C236" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="3"/>
@@ -11081,12 +11126,12 @@
       <c r="Y236" s="1"/>
     </row>
     <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A237" s="51"/>
+      <c r="A237" s="53"/>
       <c r="B237" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C237" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="3"/>
@@ -11112,12 +11157,12 @@
       <c r="Y237" s="1"/>
     </row>
     <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A238" s="51"/>
+      <c r="A238" s="53"/>
       <c r="B238" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C238" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="3"/>
@@ -11143,12 +11188,12 @@
       <c r="Y238" s="1"/>
     </row>
     <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A239" s="51"/>
+      <c r="A239" s="53"/>
       <c r="B239" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C239" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="3"/>
@@ -11174,12 +11219,12 @@
       <c r="Y239" s="1"/>
     </row>
     <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A240" s="51"/>
+      <c r="A240" s="53"/>
       <c r="B240" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C240" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="3"/>
@@ -11205,12 +11250,12 @@
       <c r="Y240" s="1"/>
     </row>
     <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A241" s="51"/>
+      <c r="A241" s="53"/>
       <c r="B241" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C241" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="3"/>
@@ -11236,12 +11281,12 @@
       <c r="Y241" s="1"/>
     </row>
     <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A242" s="51"/>
+      <c r="A242" s="53"/>
       <c r="B242" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C242" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="3"/>
@@ -11267,12 +11312,12 @@
       <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A243" s="51"/>
+      <c r="A243" s="53"/>
       <c r="B243" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C243" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="3"/>
@@ -11298,9 +11343,13 @@
       <c r="Y243" s="1"/>
     </row>
     <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="51"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="2"/>
+      <c r="A244" s="53"/>
+      <c r="B244" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C244" s="2">
+        <v>13</v>
+      </c>
       <c r="D244" s="1"/>
       <c r="E244" s="3"/>
       <c r="F244" s="1"/>
@@ -11325,9 +11374,13 @@
       <c r="Y244" s="1"/>
     </row>
     <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A245" s="51"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="2"/>
+      <c r="A245" s="53"/>
+      <c r="B245" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C245" s="2">
+        <v>14</v>
+      </c>
       <c r="D245" s="1"/>
       <c r="E245" s="3"/>
       <c r="F245" s="1"/>
@@ -11352,9 +11405,13 @@
       <c r="Y245" s="1"/>
     </row>
     <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A246" s="51"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="2"/>
+      <c r="A246" s="53"/>
+      <c r="B246" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C246" s="2">
+        <v>15</v>
+      </c>
       <c r="D246" s="1"/>
       <c r="E246" s="3"/>
       <c r="F246" s="1"/>
@@ -11379,7 +11436,7 @@
       <c r="Y246" s="1"/>
     </row>
     <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A247" s="51"/>
+      <c r="A247" s="53"/>
       <c r="B247" s="1"/>
       <c r="C247" s="2"/>
       <c r="D247" s="1"/>
@@ -11406,7 +11463,7 @@
       <c r="Y247" s="1"/>
     </row>
     <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A248" s="51"/>
+      <c r="A248" s="53"/>
       <c r="B248" s="1"/>
       <c r="C248" s="2"/>
       <c r="D248" s="1"/>
@@ -11433,7 +11490,7 @@
       <c r="Y248" s="1"/>
     </row>
     <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="53"/>
       <c r="B249" s="1"/>
       <c r="C249" s="2"/>
       <c r="D249" s="1"/>
@@ -11460,7 +11517,7 @@
       <c r="Y249" s="1"/>
     </row>
     <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
+      <c r="A250" s="53"/>
       <c r="B250" s="1"/>
       <c r="C250" s="2"/>
       <c r="D250" s="1"/>
@@ -11487,7 +11544,7 @@
       <c r="Y250" s="1"/>
     </row>
     <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
+      <c r="A251" s="53"/>
       <c r="B251" s="1"/>
       <c r="C251" s="2"/>
       <c r="D251" s="1"/>
@@ -31898,25 +31955,106 @@
       <c r="X1006" s="1"/>
       <c r="Y1006" s="1"/>
     </row>
+    <row r="1007" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="1"/>
+      <c r="E1007" s="3"/>
+      <c r="F1007" s="1"/>
+      <c r="G1007" s="3"/>
+      <c r="H1007" s="4"/>
+      <c r="I1007" s="3"/>
+      <c r="J1007" s="1"/>
+      <c r="K1007" s="1"/>
+      <c r="L1007" s="1"/>
+      <c r="M1007" s="1"/>
+      <c r="N1007" s="1"/>
+      <c r="O1007" s="1"/>
+      <c r="P1007" s="1"/>
+      <c r="Q1007" s="1"/>
+      <c r="R1007" s="1"/>
+      <c r="S1007" s="1"/>
+      <c r="T1007" s="1"/>
+      <c r="U1007" s="1"/>
+      <c r="V1007" s="1"/>
+      <c r="W1007" s="1"/>
+      <c r="X1007" s="1"/>
+      <c r="Y1007" s="1"/>
+    </row>
+    <row r="1008" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="1"/>
+      <c r="C1008" s="2"/>
+      <c r="D1008" s="1"/>
+      <c r="E1008" s="3"/>
+      <c r="F1008" s="1"/>
+      <c r="G1008" s="3"/>
+      <c r="H1008" s="4"/>
+      <c r="I1008" s="3"/>
+      <c r="J1008" s="1"/>
+      <c r="K1008" s="1"/>
+      <c r="L1008" s="1"/>
+      <c r="M1008" s="1"/>
+      <c r="N1008" s="1"/>
+      <c r="O1008" s="1"/>
+      <c r="P1008" s="1"/>
+      <c r="Q1008" s="1"/>
+      <c r="R1008" s="1"/>
+      <c r="S1008" s="1"/>
+      <c r="T1008" s="1"/>
+      <c r="U1008" s="1"/>
+      <c r="V1008" s="1"/>
+      <c r="W1008" s="1"/>
+      <c r="X1008" s="1"/>
+      <c r="Y1008" s="1"/>
+    </row>
+    <row r="1009" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1009" s="1"/>
+      <c r="B1009" s="1"/>
+      <c r="C1009" s="2"/>
+      <c r="D1009" s="1"/>
+      <c r="E1009" s="3"/>
+      <c r="F1009" s="1"/>
+      <c r="G1009" s="3"/>
+      <c r="H1009" s="4"/>
+      <c r="I1009" s="3"/>
+      <c r="J1009" s="1"/>
+      <c r="K1009" s="1"/>
+      <c r="L1009" s="1"/>
+      <c r="M1009" s="1"/>
+      <c r="N1009" s="1"/>
+      <c r="O1009" s="1"/>
+      <c r="P1009" s="1"/>
+      <c r="Q1009" s="1"/>
+      <c r="R1009" s="1"/>
+      <c r="S1009" s="1"/>
+      <c r="T1009" s="1"/>
+      <c r="U1009" s="1"/>
+      <c r="V1009" s="1"/>
+      <c r="W1009" s="1"/>
+      <c r="X1009" s="1"/>
+      <c r="Y1009" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A229:A248"/>
-    <mergeCell ref="A46:A58"/>
-    <mergeCell ref="A61:A72"/>
-    <mergeCell ref="A198:A218"/>
-    <mergeCell ref="A221:A226"/>
-    <mergeCell ref="A75:A90"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="A110:A133"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A169:A195"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A7:A37"/>
     <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A232:A251"/>
+    <mergeCell ref="A46:A58"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="A201:A221"/>
+    <mergeCell ref="A224:A229"/>
+    <mergeCell ref="A75:A90"/>
+    <mergeCell ref="A93:A110"/>
+    <mergeCell ref="A113:A136"/>
+    <mergeCell ref="A140:A154"/>
+    <mergeCell ref="A157:A162"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A172:A198"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
@@ -31990,148 +32128,148 @@
     <hyperlink ref="E99" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
     <hyperlink ref="E101" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
     <hyperlink ref="G101" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E102" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G102" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E103" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G103" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E104" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G104" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E105" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G105" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E106" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G106" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E107" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E110" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G110" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E111" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G111" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E112" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G112" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E113" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E114" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G114" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E115" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="G115" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E116" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="G116" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E117" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G117" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E118" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E119" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="G119" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E120" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E121" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="G121" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E122" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E123" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E124" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G124" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E125" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="G125" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E126" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G126" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E127" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="G127" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E128" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E129" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="G129" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E130" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="G130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E137" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E138" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G138" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G139" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E140" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="G140" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E141" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="G141" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E142" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G142" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E143" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G143" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E144" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G144" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E145" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G145" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E146" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E147" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G147" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E148" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="G148" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E149" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G149" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E150" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E151" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="G151" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E154" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E155" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E156" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E157" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E158" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E159" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E164" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E165" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E166" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E169" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E171" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E172" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E173" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E174" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E175" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E176" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E177" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E178" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E179" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E180" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E181" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E182" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E183" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E184" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E185" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E187" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E189" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E191" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E192" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E193" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E194" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E195" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E198" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E199" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E200" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E201" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E202" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E203" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E204" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E205" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E206" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E207" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E208" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E209" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E210" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E211" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E212" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E213" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E214" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E215" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E216" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E217" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E218" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E221" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E222" r:id="rId206" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E223" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E224" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E225" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E226" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E196" r:id="rId211" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E135" r:id="rId212" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E134" r:id="rId213" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="E105" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G105" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E106" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G106" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E107" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G107" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E108" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G108" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E109" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G109" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E110" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G110" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E113" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G113" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E114" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G114" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E115" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G115" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E116" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E117" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G117" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E118" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G118" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E119" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G119" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E120" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G120" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E121" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E122" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G122" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E123" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E124" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G124" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E125" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E126" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E127" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G127" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E128" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G128" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E129" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G129" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E130" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G130" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E131" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E132" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G132" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E133" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G133" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E134" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E135" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E136" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E140" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E141" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G141" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E142" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G142" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E143" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G143" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="G144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G145" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E146" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G146" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E147" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G147" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E148" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G148" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E149" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E150" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G150" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E151" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G151" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E152" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G152" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E153" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E154" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G154" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E157" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E158" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E159" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E160" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E161" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E162" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E165" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E166" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E167" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E168" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E169" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E172" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E174" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E175" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E176" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E177" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E178" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E179" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E180" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E181" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E182" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E183" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E184" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E185" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E186" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E187" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E188" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E190" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E192" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E194" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E195" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E196" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E197" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E198" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E203" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E212" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E213" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E214" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E215" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E216" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E217" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E218" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E219" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E220" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E221" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E199" r:id="rId211" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E138" r:id="rId212" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E137" r:id="rId213" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
     <hyperlink ref="G68" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="E68" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
     <hyperlink ref="E67" r:id="rId216" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
@@ -32186,22 +32324,25 @@
     <hyperlink ref="E9" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G8" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E8" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E229" r:id="rId268" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E232" r:id="rId268" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
     <hyperlink ref="E21" r:id="rId269" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E230" r:id="rId270" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E233" r:id="rId270" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
     <hyperlink ref="E30" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="E12" r:id="rId272" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
-    <hyperlink ref="E231" r:id="rId273" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
-    <hyperlink ref="E232" r:id="rId274" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E234" r:id="rId273" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E235" r:id="rId274" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
     <hyperlink ref="E24" r:id="rId275" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
     <hyperlink ref="E19" r:id="rId276" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
-    <hyperlink ref="E190" r:id="rId277" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
-    <hyperlink ref="E186" r:id="rId278" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
-    <hyperlink ref="E170" r:id="rId279" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
-    <hyperlink ref="E188" r:id="rId280" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
+    <hyperlink ref="E193" r:id="rId277" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
+    <hyperlink ref="E189" r:id="rId278" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
+    <hyperlink ref="E173" r:id="rId279" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
+    <hyperlink ref="E191" r:id="rId280" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
     <hyperlink ref="E100" r:id="rId281" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
+    <hyperlink ref="E104" r:id="rId282" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
+    <hyperlink ref="E103" r:id="rId283" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
+    <hyperlink ref="E102" r:id="rId284" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId282"/>
+  <pageSetup orientation="portrait" r:id="rId285"/>
 </worksheet>
 </file>
--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84990D44-2DE4-4EFA-AC1A-086CC844EB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A213B7-6507-4642-9E9F-8D8696328AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="447">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -470,12 +470,6 @@
     <t xml:space="preserve">amazon, meta , microsoft, apple, visa , oracle, intuit, citadel, samsung, paypal , ebay </t>
   </si>
   <si>
-    <t xml:space="preserve">Celebrity Problem </t>
-  </si>
-  <si>
-    <t>linkedin, meta, microsoft, amazon, uber, salesforce, phonepe</t>
-  </si>
-  <si>
     <t>Get Min Element from Stack</t>
   </si>
   <si>
@@ -626,12 +620,6 @@
     <t xml:space="preserve"> Accolite Amazon Google Uber Microsoft Meta </t>
   </si>
   <si>
-    <t>LCA in BST</t>
-  </si>
-  <si>
-    <t>Meta, Amazon, Linkedin , Bloomberg, Oracle, Samsung , Apple</t>
-  </si>
-  <si>
     <t>Populate Next Right Pointers</t>
   </si>
   <si>
@@ -656,12 +644,6 @@
     <t xml:space="preserve">Meta , Amazon, Microsoft, Linkedin , Adobe </t>
   </si>
   <si>
-    <t>Flatten BST to Sorted list</t>
-  </si>
-  <si>
-    <t>Meta , microsoft, Amazon, Nvidia</t>
-  </si>
-  <si>
     <t>Inorder Successor</t>
   </si>
   <si>
@@ -1164,9 +1146,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/all-paths-from-source-to-target/submissions/1758682022/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      TRUE</t>
   </si>
   <si>
     <t>Reverse a LL(revised)</t>
@@ -1393,9 +1372,6 @@
     <t>Daily tempratues</t>
   </si>
   <si>
-    <t>HARD</t>
-  </si>
-  <si>
     <t>Asteriods</t>
   </si>
   <si>
@@ -1425,12 +1401,39 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t>make tree form sorted ll</t>
+  </si>
+  <si>
+    <t>Path sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count sums </t>
+  </si>
+  <si>
+    <t>merge k lists</t>
+  </si>
+  <si>
+    <t>My atoi</t>
+  </si>
+  <si>
+    <t>Roman to Int</t>
+  </si>
+  <si>
+    <t>Into to Roman</t>
+  </si>
+  <si>
+    <t>Reorganize string</t>
+  </si>
+  <si>
+    <t>longest palindrome Substring</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1615,8 +1618,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1713,6 +1723,12 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1727,7 +1743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1852,26 +1868,13 @@
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1880,6 +1883,25 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2100,11 +2122,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1009"/>
+  <dimension ref="A1:Y1015"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:A37"/>
+      <pane ySplit="4" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2123,11 +2145,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="D1" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -2152,14 +2174,14 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="60" t="s">
-        <v>417</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2275,19 +2297,19 @@
     <row r="6" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34"/>
@@ -2310,11 +2332,11 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C7" s="30">
         <v>2</v>
@@ -2355,9 +2377,9 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C8" s="30">
         <v>3</v>
@@ -2398,9 +2420,9 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C9" s="30">
         <v>4</v>
@@ -2437,9 +2459,9 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C10" s="30">
         <v>5</v>
@@ -2478,15 +2500,15 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C11" s="30">
         <v>6</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>9</v>
@@ -2515,13 +2537,13 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="29" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>9</v>
@@ -2550,9 +2572,9 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C13" s="30">
         <v>7</v>
@@ -2591,15 +2613,15 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C14" s="30">
         <v>8</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>9</v>
@@ -2628,9 +2650,9 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C15" s="30">
         <v>9</v>
@@ -2667,9 +2689,9 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C16" s="30">
         <v>10</v>
@@ -2708,9 +2730,9 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C17" s="30">
         <v>11</v>
@@ -2751,9 +2773,9 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C18" s="30">
         <v>12</v>
@@ -2794,13 +2816,13 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="29" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>9</v>
@@ -2829,9 +2851,9 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C20" s="30">
         <v>13</v>
@@ -2870,15 +2892,15 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C21" s="30">
         <v>14</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>9</v>
@@ -2907,9 +2929,9 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C22" s="30">
         <v>15</v>
@@ -2948,9 +2970,9 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C23" s="30">
         <v>16</v>
@@ -2991,15 +3013,15 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C24" s="30">
         <v>17</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>9</v>
@@ -3028,9 +3050,9 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C25" s="30">
         <v>18</v>
@@ -3069,9 +3091,9 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C26" s="30">
         <v>19</v>
@@ -3110,9 +3132,9 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C27" s="30">
         <v>20</v>
@@ -3151,9 +3173,9 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="62"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C28" s="30">
         <v>21</v>
@@ -3192,9 +3214,9 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="62"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="29" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C29" s="30">
         <v>22</v>
@@ -3233,9 +3255,9 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="62"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="29" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C30" s="30">
         <v>23</v>
@@ -3272,9 +3294,9 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="62"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C31" s="30">
         <v>24</v>
@@ -3315,15 +3337,15 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="62"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C32" s="30">
         <v>25</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>9</v>
@@ -3352,7 +3374,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="62"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="33" t="b">
         <v>0</v>
       </c>
@@ -3393,7 +3415,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="33" t="b">
         <v>1</v>
       </c>
@@ -3434,7 +3456,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="33" t="b">
         <v>0</v>
       </c>
@@ -3477,7 +3499,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="33" t="b">
         <v>0</v>
       </c>
@@ -3516,7 +3538,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="33" t="b">
         <v>1</v>
       </c>
@@ -3652,7 +3674,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="33" t="b">
         <v>1</v>
       </c>
@@ -3691,7 +3713,7 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="55"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="33" t="b">
         <v>1</v>
       </c>
@@ -3730,7 +3752,7 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="33" t="b">
         <v>0</v>
       </c>
@@ -3821,10 +3843,10 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="33" t="b">
+      <c r="B46" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="30">
@@ -3864,8 +3886,8 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="33" t="b">
+      <c r="A47" s="59"/>
+      <c r="B47" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="30">
@@ -3903,17 +3925,17 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
-      <c r="B48" s="33" t="b">
+      <c r="A48" s="59"/>
+      <c r="B48" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="30">
         <v>3</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="E48" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="E48" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="36" t="s">
@@ -3940,26 +3962,24 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="33" t="b">
+      <c r="A49" s="59"/>
+      <c r="B49" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C49" s="30">
         <v>4</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="E49" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="33"/>
-      <c r="H49" s="29" t="s">
-        <v>76</v>
-      </c>
+      <c r="H49" s="29"/>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3979,26 +3999,26 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="33" t="b">
+      <c r="A50" s="59"/>
+      <c r="B50" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="30">
         <v>5</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E50" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="34"/>
+      <c r="F50" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -4018,15 +4038,15 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
-      <c r="B51" s="33" t="b">
+      <c r="A51" s="59"/>
+      <c r="B51" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C51" s="30">
         <v>6</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" s="43" t="s">
         <v>9</v>
@@ -4057,28 +4077,24 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="55"/>
-      <c r="B52" s="33" t="b">
-        <v>0</v>
+      <c r="A52" s="59"/>
+      <c r="B52" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C52" s="30">
         <v>7</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="43" t="s">
+        <v>445</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>35</v>
-      </c>
+      <c r="G52" s="35"/>
+      <c r="H52" s="34"/>
       <c r="I52" s="3"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -4098,25 +4114,23 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
-      <c r="B53" s="33" t="b">
+      <c r="A53" s="59"/>
+      <c r="B53" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="30">
         <v>8</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G53" s="35"/>
       <c r="H53" s="34"/>
       <c r="I53" s="3"/>
       <c r="J53" s="1"/>
@@ -4137,26 +4151,24 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="55"/>
-      <c r="B54" s="33" t="b">
+      <c r="A54" s="59"/>
+      <c r="B54" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C54" s="30">
         <v>9</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="E54" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="33"/>
-      <c r="H54" s="34" t="s">
-        <v>82</v>
-      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="34"/>
       <c r="I54" s="3"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -4176,26 +4188,26 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="55"/>
-      <c r="B55" s="33" t="b">
-        <v>0</v>
+      <c r="A55" s="59"/>
+      <c r="B55" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C55" s="30">
         <v>10</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E55" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="29" t="s">
-        <v>84</v>
-      </c>
+      <c r="F55" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="34"/>
       <c r="I55" s="3"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4215,24 +4227,28 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="33" t="b">
-        <v>0</v>
+      <c r="A56" s="59"/>
+      <c r="B56" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C56" s="30">
         <v>11</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="E56" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G56" s="33"/>
-      <c r="H56" s="29"/>
+      <c r="F56" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>35</v>
+      </c>
       <c r="I56" s="3"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -4252,23 +4268,25 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="55"/>
-      <c r="B57" s="33" t="b">
-        <v>0</v>
+      <c r="A57" s="59"/>
+      <c r="B57" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C57" s="30">
         <v>12</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E57" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="33"/>
+      <c r="F57" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H57" s="34"/>
       <c r="I57" s="3"/>
       <c r="J57" s="1"/>
@@ -4289,23 +4307,23 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="55"/>
-      <c r="B58" s="33" t="b">
-        <v>0</v>
+      <c r="A58" s="59"/>
+      <c r="B58" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C58" s="30">
         <v>13</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="33"/>
+        <v>442</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="35"/>
       <c r="H58" s="34"/>
       <c r="I58" s="3"/>
       <c r="J58" s="1"/>
@@ -4325,11 +4343,27 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="2"/>
-      <c r="H59" s="11"/>
+    <row r="59" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="59"/>
+      <c r="B59" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="30">
+        <v>14</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="33"/>
+      <c r="H59" s="34" t="s">
+        <v>82</v>
+      </c>
       <c r="I59" s="3"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4348,15 +4382,27 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="4"/>
+    <row r="60" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="59"/>
+      <c r="B60" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="30">
+        <v>15</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="33"/>
+      <c r="H60" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="I60" s="3"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -4375,32 +4421,25 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="3" t="b">
+    <row r="61" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="59"/>
+      <c r="B61" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C61" s="2">
-        <f t="shared" ref="C61:C71" si="0">ROW(A1)</f>
-        <v>1</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" s="13" t="s">
+      <c r="C61" s="30">
+        <v>16</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="E61" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="F61" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="33"/>
+      <c r="H61" s="29"/>
       <c r="I61" s="3"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -4419,28 +4458,25 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="53"/>
-      <c r="B62" s="3" t="b">
+    <row r="62" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="59"/>
+      <c r="B62" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C62" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="13" t="s">
+      <c r="C62" s="30">
+        <v>17</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="F62" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="33"/>
+      <c r="H62" s="34"/>
       <c r="I62" s="3"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4459,30 +4495,25 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A63" s="53"/>
-      <c r="B63" s="3" t="b">
+    <row r="63" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="59"/>
+      <c r="B63" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C63" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>94</v>
-      </c>
+      <c r="C63" s="30">
+        <v>18</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4501,28 +4532,11 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="53"/>
-      <c r="B64" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="15" t="s">
-        <v>96</v>
-      </c>
+    <row r="64" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="2"/>
+      <c r="H64" s="11"/>
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4541,28 +4555,15 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="53"/>
-      <c r="B65" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C65" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="1"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="15" t="s">
-        <v>98</v>
-      </c>
+      <c r="H65" s="4"/>
       <c r="I65" s="3"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4582,16 +4583,18 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="53"/>
+      <c r="A66" s="62" t="s">
+        <v>88</v>
+      </c>
       <c r="B66" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C66" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="C66:C76" si="0">ROW(A1)</f>
+        <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>9</v>
@@ -4603,7 +4606,7 @@
         <v>11</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="1"/>
@@ -4624,25 +4627,27 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="53"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C67" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E67" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="15"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -4661,17 +4666,17 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
+    <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A68" s="54"/>
       <c r="B68" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>9</v>
@@ -4682,8 +4687,8 @@
       <c r="G68" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="16" t="s">
-        <v>101</v>
+      <c r="H68" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
@@ -4704,16 +4709,16 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="53"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>9</v>
@@ -4723,7 +4728,7 @@
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
@@ -4744,28 +4749,26 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="53"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="F70" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="3"/>
       <c r="H70" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
@@ -4785,29 +4788,29 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
+    <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A71" s="54"/>
       <c r="B71" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="28" t="s">
-        <v>57</v>
+      <c r="F71" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="16" t="s">
-        <v>106</v>
+      <c r="H71" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
@@ -4827,28 +4830,26 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
+    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A72" s="54"/>
       <c r="B72" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C72" s="2">
-        <f t="shared" ref="C72" si="1">ROW(A13)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E72" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="16" t="s">
-        <v>107</v>
-      </c>
+      <c r="F72" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="15"/>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -4868,14 +4869,29 @@
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="4"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="I73" s="3"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -4894,15 +4910,28 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="1"/>
+    <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A74" s="54"/>
+      <c r="B74" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G74" s="3"/>
-      <c r="H74" s="4"/>
+      <c r="H74" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -4921,30 +4950,29 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C75" s="30">
-        <v>1</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="E75" s="43" t="s">
+    <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A75" s="54"/>
+      <c r="B75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="35" t="s">
+      <c r="F75" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="45" t="s">
-        <v>109</v>
+      <c r="H75" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
@@ -4964,28 +4992,29 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="55"/>
-      <c r="B76" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C76" s="30">
-        <v>2</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="E76" s="43" t="s">
+    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="54"/>
+      <c r="B76" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="35" t="s">
+      <c r="F76" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="45" t="s">
-        <v>110</v>
+      <c r="H76" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
@@ -5005,28 +5034,27 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="55"/>
-      <c r="B77" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C77" s="30">
-        <v>3</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="E77" s="43" t="s">
+    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="54"/>
+      <c r="B77" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" ref="C77" si="1">ROW(A13)</f>
+        <v>13</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="45" t="s">
-        <v>111</v>
+      <c r="F77" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="1"/>
@@ -5046,27 +5074,15 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="55"/>
-      <c r="B78" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C78" s="30">
-        <v>4</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="E78" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="33"/>
-      <c r="H78" s="45" t="s">
-        <v>112</v>
-      </c>
+    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
       <c r="I78" s="3"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -5085,29 +5101,15 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="55"/>
-      <c r="B79" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C79" s="30">
-        <v>5</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="E79" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="45" t="s">
-        <v>113</v>
-      </c>
+    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
       <c r="I79" s="3"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -5127,27 +5129,29 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="55"/>
-      <c r="B80" s="33" t="b">
+      <c r="A80" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C80" s="30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="37" t="s">
-        <v>22</v>
+      <c r="F80" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H80" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="1"/>
@@ -5168,27 +5172,27 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="55"/>
-      <c r="B81" s="33" t="b">
+      <c r="A81" s="59"/>
+      <c r="B81" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C81" s="30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E81" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="37" t="s">
-        <v>22</v>
+      <c r="F81" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H81" s="45" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="1"/>
@@ -5209,27 +5213,27 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="55"/>
-      <c r="B82" s="33" t="b">
+      <c r="A82" s="59"/>
+      <c r="B82" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C82" s="30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>116</v>
+        <v>373</v>
       </c>
       <c r="E82" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="37" t="s">
-        <v>22</v>
+      <c r="F82" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G82" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H82" s="45" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="1"/>
@@ -5250,24 +5254,26 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
-      <c r="B83" s="33" t="b">
+      <c r="A83" s="59"/>
+      <c r="B83" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C83" s="30">
+        <v>4</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="E83" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="35"/>
-      <c r="H83" s="45"/>
+      <c r="F83" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="33"/>
+      <c r="H83" s="45" t="s">
+        <v>112</v>
+      </c>
       <c r="I83" s="3"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -5287,25 +5293,27 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="55"/>
-      <c r="B84" s="33" t="b">
+      <c r="A84" s="59"/>
+      <c r="B84" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C84" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>118</v>
+        <v>375</v>
       </c>
       <c r="E84" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="33"/>
+      <c r="F84" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H84" s="45" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="1"/>
@@ -5326,15 +5334,15 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="55"/>
-      <c r="B85" s="33" t="b">
+      <c r="A85" s="59"/>
+      <c r="B85" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C85" s="30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>120</v>
+        <v>376</v>
       </c>
       <c r="E85" s="43" t="s">
         <v>9</v>
@@ -5342,9 +5350,11 @@
       <c r="F85" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="33"/>
+      <c r="G85" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H85" s="45" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1"/>
@@ -5365,24 +5375,28 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="55"/>
-      <c r="B86" s="33" t="b">
+      <c r="A86" s="59"/>
+      <c r="B86" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C86" s="30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="E86" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="E86" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G86" s="35"/>
-      <c r="H86" s="45"/>
+      <c r="G86" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="45" t="s">
+        <v>115</v>
+      </c>
       <c r="I86" s="3"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -5402,24 +5416,28 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="55"/>
-      <c r="B87" s="33" t="b">
+      <c r="A87" s="59"/>
+      <c r="B87" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C87" s="30">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="E87" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G87" s="35"/>
-      <c r="H87" s="45"/>
+      <c r="G87" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="45" t="s">
+        <v>117</v>
+      </c>
       <c r="I87" s="3"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5439,15 +5457,15 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="55"/>
-      <c r="B88" s="33" t="b">
+      <c r="A88" s="59"/>
+      <c r="B88" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C88" s="30">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="E88" s="31" t="s">
         <v>9</v>
@@ -5476,15 +5494,15 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="55"/>
-      <c r="B89" s="33" t="b">
+      <c r="A89" s="59"/>
+      <c r="B89" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C89" s="30">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E89" s="43" t="s">
         <v>9</v>
@@ -5494,7 +5512,7 @@
       </c>
       <c r="G89" s="33"/>
       <c r="H89" s="45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="1"/>
@@ -5515,27 +5533,25 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="55"/>
-      <c r="B90" s="33" t="b">
+      <c r="A90" s="59"/>
+      <c r="B90" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C90" s="30">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G90" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="F90" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="33"/>
       <c r="H90" s="45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="1"/>
@@ -5556,24 +5572,24 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29" t="b">
+      <c r="A91" s="59"/>
+      <c r="B91" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C91" s="30">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="47" t="s">
+      <c r="F91" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G91" s="33"/>
-      <c r="H91" s="34"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="45"/>
       <c r="I91" s="3"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -5592,15 +5608,25 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="4"/>
+    <row r="92" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="59"/>
+      <c r="B92" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="30">
+        <v>13</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="35"/>
+      <c r="H92" s="45"/>
       <c r="I92" s="3"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -5620,30 +5646,24 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="54" t="s">
-        <v>126</v>
-      </c>
+      <c r="A93" s="59"/>
       <c r="B93" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C93" s="30">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E93" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="E93" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" s="45" t="s">
-        <v>128</v>
-      </c>
+      <c r="F93" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="35"/>
+      <c r="H93" s="45"/>
       <c r="I93" s="3"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -5663,27 +5683,25 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="55"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C94" s="30">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="F94" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="33"/>
       <c r="H94" s="45" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="1"/>
@@ -5704,28 +5722,22 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="55"/>
-      <c r="B95" s="50" t="b">
-        <v>1</v>
-      </c>
+      <c r="A95" s="59"/>
+      <c r="B95" s="50"/>
       <c r="C95" s="30">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E95" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="E95" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="45" t="s">
-        <v>132</v>
-      </c>
+      <c r="F95" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" s="33"/>
+      <c r="H95" s="45"/>
       <c r="I95" s="3"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -5745,27 +5757,25 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="55"/>
-      <c r="B96" s="50" t="b">
-        <v>1</v>
-      </c>
+      <c r="A96" s="59"/>
+      <c r="B96" s="50"/>
       <c r="C96" s="30">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E96" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="36" t="s">
-        <v>10</v>
+      <c r="F96" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="G96" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H96" s="45" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="1"/>
@@ -5786,28 +5796,24 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="55"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C97" s="30">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E97" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="E97" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="45" t="s">
-        <v>136</v>
-      </c>
+      <c r="F97" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="33"/>
+      <c r="H97" s="34"/>
       <c r="I97" s="3"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -5826,27 +5832,15 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="55"/>
-      <c r="B98" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C98" s="30">
-        <v>6</v>
-      </c>
-      <c r="D98" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E98" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="33"/>
-      <c r="H98" s="45" t="s">
-        <v>138</v>
-      </c>
+    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="4"/>
       <c r="I98" s="3"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -5866,15 +5860,17 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="55"/>
-      <c r="B99" s="33" t="b">
-        <v>0</v>
+      <c r="A99" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C99" s="30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E99" s="43" t="s">
         <v>9</v>
@@ -5882,9 +5878,11 @@
       <c r="F99" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="33"/>
+      <c r="G99" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H99" s="45" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="1"/>
@@ -5905,24 +5903,28 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="55"/>
-      <c r="B100" s="33" t="b">
+      <c r="A100" s="59"/>
+      <c r="B100" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C100" s="30">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="E100" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="33"/>
-      <c r="H100" s="45"/>
+      <c r="F100" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="45" t="s">
+        <v>130</v>
+      </c>
       <c r="I100" s="3"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -5942,27 +5944,27 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="55"/>
-      <c r="B101" s="33" t="b">
-        <v>0</v>
+      <c r="A101" s="59"/>
+      <c r="B101" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C101" s="30">
+        <v>3</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E101" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="46" t="s">
-        <v>22</v>
+      <c r="F101" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G101" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="1"/>
@@ -5983,24 +5985,28 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="55"/>
-      <c r="B102" s="33" t="b">
+      <c r="A102" s="59"/>
+      <c r="B102" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C102" s="30">
+        <v>4</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" s="35"/>
-      <c r="H102" s="45"/>
+      <c r="G102" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="45" t="s">
+        <v>134</v>
+      </c>
       <c r="I102" s="3"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -6020,24 +6026,28 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="55"/>
-      <c r="B103" s="33" t="b">
+      <c r="A103" s="59"/>
+      <c r="B103" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C103" s="30">
+        <v>5</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="29" t="s">
-        <v>443</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" s="35"/>
-      <c r="H103" s="45"/>
+      <c r="H103" s="45" t="s">
+        <v>136</v>
+      </c>
       <c r="I103" s="3"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -6057,24 +6067,26 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="55"/>
-      <c r="B104" s="33" t="b">
+      <c r="A104" s="59"/>
+      <c r="B104" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C104" s="30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="E104" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E104" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" s="35"/>
-      <c r="H104" s="45"/>
+      <c r="F104" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="33"/>
+      <c r="H104" s="45" t="s">
+        <v>138</v>
+      </c>
       <c r="I104" s="3"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -6094,27 +6106,25 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="55"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="33" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E105" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="F105" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="33"/>
       <c r="H105" s="45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
@@ -6135,28 +6145,24 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="55"/>
+      <c r="A106" s="59"/>
       <c r="B106" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="30">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E106" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="E106" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F106" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G106" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" s="45" t="s">
-        <v>146</v>
-      </c>
+      <c r="G106" s="33"/>
+      <c r="H106" s="45"/>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -6176,17 +6182,17 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="55"/>
+      <c r="A107" s="59"/>
       <c r="B107" s="33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="30">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E107" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E107" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F107" s="46" t="s">
@@ -6196,7 +6202,7 @@
         <v>11</v>
       </c>
       <c r="H107" s="45" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
@@ -6217,28 +6223,24 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="55"/>
+      <c r="A108" s="59"/>
       <c r="B108" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="30">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="E108" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="E108" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F108" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G108" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" s="45" t="s">
-        <v>150</v>
-      </c>
+      <c r="G108" s="35"/>
+      <c r="H108" s="45"/>
       <c r="I108" s="3"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -6258,28 +6260,24 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="55"/>
+      <c r="A109" s="59"/>
       <c r="B109" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C109" s="30">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E109" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="E109" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F109" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G109" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" s="45" t="s">
-        <v>153</v>
-      </c>
+      <c r="G109" s="35"/>
+      <c r="H109" s="45"/>
       <c r="I109" s="3"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -6299,28 +6297,24 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="55"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C110" s="30">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="E110" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="G110" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="F110" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="35"/>
+      <c r="H110" s="45"/>
       <c r="I110" s="3"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -6339,15 +6333,29 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="11"/>
+    <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="59"/>
+      <c r="B111" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="30">
+        <v>13</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="45" t="s">
+        <v>144</v>
+      </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -6366,15 +6374,29 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="4"/>
+    <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="59"/>
+      <c r="B112" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="30">
+        <v>15</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E112" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="45" t="s">
+        <v>146</v>
+      </c>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -6394,29 +6416,27 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="54" t="s">
-        <v>156</v>
-      </c>
+      <c r="A113" s="59"/>
       <c r="B113" s="33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="30">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>385</v>
+        <v>147</v>
       </c>
       <c r="E113" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="36" t="s">
-        <v>10</v>
+      <c r="F113" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="G113" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H113" s="45" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
@@ -6437,27 +6457,27 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="55"/>
+      <c r="A114" s="59"/>
       <c r="B114" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C114" s="30">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="E114" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="36" t="s">
-        <v>10</v>
+      <c r="F114" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="G114" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1"/>
@@ -6478,27 +6498,27 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="55"/>
+      <c r="A115" s="59"/>
       <c r="B115" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C115" s="30">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="E115" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="36" t="s">
-        <v>10</v>
+      <c r="F115" s="51" t="s">
+        <v>57</v>
       </c>
       <c r="G115" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H115" s="45" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="1"/>
@@ -6518,27 +6538,15 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="55"/>
-      <c r="B116" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C116" s="30">
-        <v>4</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="E116" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="33"/>
-      <c r="H116" s="45" t="s">
-        <v>160</v>
-      </c>
+    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="11"/>
       <c r="I116" s="3"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -6557,29 +6565,15 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="55"/>
-      <c r="B117" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C117" s="30">
-        <v>5</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="E117" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="H117" s="45" t="s">
-        <v>162</v>
-      </c>
+    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
       <c r="I117" s="3"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -6599,15 +6593,17 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="55"/>
-      <c r="B118" s="33" t="b">
+      <c r="A118" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C118" s="30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E118" s="43" t="s">
         <v>9</v>
@@ -6619,7 +6615,7 @@
         <v>11</v>
       </c>
       <c r="H118" s="45" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1"/>
@@ -6640,15 +6636,15 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="55"/>
-      <c r="B119" s="33" t="b">
+      <c r="A119" s="59"/>
+      <c r="B119" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C119" s="30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E119" s="43" t="s">
         <v>9</v>
@@ -6660,7 +6656,7 @@
         <v>11</v>
       </c>
       <c r="H119" s="45" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1"/>
@@ -6681,15 +6677,15 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="55"/>
-      <c r="B120" s="33" t="b">
+      <c r="A120" s="59"/>
+      <c r="B120" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C120" s="30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E120" s="43" t="s">
         <v>9</v>
@@ -6701,7 +6697,7 @@
         <v>11</v>
       </c>
       <c r="H120" s="45" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1"/>
@@ -6722,15 +6718,15 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="55"/>
-      <c r="B121" s="33" t="b">
+      <c r="A121" s="59"/>
+      <c r="B121" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C121" s="30">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E121" s="43" t="s">
         <v>9</v>
@@ -6740,7 +6736,7 @@
       </c>
       <c r="G121" s="33"/>
       <c r="H121" s="45" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1"/>
@@ -6761,15 +6757,15 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="55"/>
-      <c r="B122" s="33" t="b">
+      <c r="A122" s="59"/>
+      <c r="B122" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C122" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E122" s="43" t="s">
         <v>9</v>
@@ -6778,10 +6774,10 @@
         <v>10</v>
       </c>
       <c r="G122" s="35" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="H122" s="45" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1"/>
@@ -6802,15 +6798,15 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="55"/>
-      <c r="B123" s="33" t="b">
+      <c r="A123" s="59"/>
+      <c r="B123" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C123" s="30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E123" s="43" t="s">
         <v>9</v>
@@ -6818,9 +6814,11 @@
       <c r="F123" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G123" s="33"/>
+      <c r="G123" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H123" s="45" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1"/>
@@ -6841,27 +6839,27 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="55"/>
-      <c r="B124" s="33" t="b">
+      <c r="A124" s="59"/>
+      <c r="B124" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C124" s="30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E124" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="37" t="s">
-        <v>22</v>
+      <c r="F124" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G124" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H124" s="45" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6882,25 +6880,27 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="55"/>
-      <c r="B125" s="33" t="b">
+      <c r="A125" s="59"/>
+      <c r="B125" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C125" s="30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E125" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" s="33"/>
+      <c r="F125" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H125" s="45" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1"/>
@@ -6921,25 +6921,25 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="55"/>
-      <c r="B126" s="33" t="b">
+      <c r="A126" s="59"/>
+      <c r="B126" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C126" s="30">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E126" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="37" t="s">
-        <v>22</v>
+      <c r="F126" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G126" s="33"/>
       <c r="H126" s="45" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
@@ -6960,27 +6960,27 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="55"/>
-      <c r="B127" s="33" t="b">
+      <c r="A127" s="59"/>
+      <c r="B127" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C127" s="30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E127" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="37" t="s">
-        <v>22</v>
+      <c r="F127" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G127" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H127" s="45" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1"/>
@@ -7001,27 +7001,25 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="55"/>
-      <c r="B128" s="33" t="b">
+      <c r="A128" s="59"/>
+      <c r="B128" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C128" s="30">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>173</v>
+        <v>388</v>
       </c>
       <c r="E128" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="F128" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="33"/>
       <c r="H128" s="45" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="1"/>
@@ -7042,15 +7040,15 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="55"/>
-      <c r="B129" s="33" t="b">
+      <c r="A129" s="59"/>
+      <c r="B129" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C129" s="30">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="E129" s="43" t="s">
         <v>9</v>
@@ -7062,7 +7060,7 @@
         <v>11</v>
       </c>
       <c r="H129" s="45" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
@@ -7083,15 +7081,15 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="55"/>
-      <c r="B130" s="33" t="b">
+      <c r="A130" s="59"/>
+      <c r="B130" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C130" s="30">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>176</v>
+        <v>390</v>
       </c>
       <c r="E130" s="43" t="s">
         <v>9</v>
@@ -7099,11 +7097,9 @@
       <c r="F130" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G130" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G130" s="33"/>
       <c r="H130" s="45" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
@@ -7124,26 +7120,24 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="55"/>
-      <c r="B131" s="33" t="b">
+      <c r="A131" s="59"/>
+      <c r="B131" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C131" s="30">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E131" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="E131" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F131" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G131" s="33"/>
-      <c r="H131" s="45" t="s">
-        <v>179</v>
-      </c>
+      <c r="H131" s="45"/>
       <c r="I131" s="3"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -7163,28 +7157,24 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="55"/>
-      <c r="B132" s="33" t="b">
+      <c r="A132" s="59"/>
+      <c r="B132" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C132" s="30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="E132" s="43" t="s">
+        <v>440</v>
+      </c>
+      <c r="E132" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F132" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G132" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" s="45" t="s">
-        <v>180</v>
-      </c>
+      <c r="G132" s="33"/>
+      <c r="H132" s="45"/>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -7204,15 +7194,15 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="55"/>
-      <c r="B133" s="33" t="b">
-        <v>0</v>
+      <c r="A133" s="59"/>
+      <c r="B133" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C133" s="30">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>181</v>
+        <v>391</v>
       </c>
       <c r="E133" s="43" t="s">
         <v>9</v>
@@ -7220,11 +7210,9 @@
       <c r="F133" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G133" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G133" s="33"/>
       <c r="H133" s="45" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
@@ -7245,15 +7233,15 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="55"/>
-      <c r="B134" s="33" t="b">
+      <c r="A134" s="59"/>
+      <c r="B134" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C134" s="30">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>183</v>
+        <v>392</v>
       </c>
       <c r="E134" s="43" t="s">
         <v>9</v>
@@ -7261,9 +7249,11 @@
       <c r="F134" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G134" s="33"/>
+      <c r="G134" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H134" s="45" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="1"/>
@@ -7284,26 +7274,24 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="55"/>
-      <c r="B135" s="33" t="b">
+      <c r="A135" s="59"/>
+      <c r="B135" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C135" s="30">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="E135" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="E135" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F135" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G135" s="33"/>
-      <c r="H135" s="45" t="s">
-        <v>185</v>
-      </c>
+      <c r="F135" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="35"/>
+      <c r="H135" s="45"/>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -7323,25 +7311,27 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="55"/>
-      <c r="B136" s="33" t="b">
-        <v>0</v>
+      <c r="A136" s="59"/>
+      <c r="B136" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C136" s="30">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E136" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F136" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G136" s="33"/>
+      <c r="F136" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H136" s="45" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
@@ -7362,24 +7352,28 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="44"/>
-      <c r="B137" s="33" t="b">
+      <c r="A137" s="59"/>
+      <c r="B137" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C137" s="30">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E137" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="E137" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F137" s="47" t="s">
+      <c r="F137" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G137" s="33"/>
-      <c r="H137" s="45"/>
+      <c r="G137" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="45" t="s">
+        <v>173</v>
+      </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -7399,24 +7393,28 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="44"/>
-      <c r="B138" s="33" t="b">
+      <c r="A138" s="59"/>
+      <c r="B138" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C138" s="30">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D138" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="E138" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E138" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="47" t="s">
+      <c r="F138" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G138" s="33"/>
-      <c r="H138" s="45"/>
+      <c r="G138" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="45" t="s">
+        <v>175</v>
+      </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -7435,15 +7433,27 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="4"/>
+    <row r="139" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="59"/>
+      <c r="B139" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="30">
+        <v>22</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E139" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="33"/>
+      <c r="H139" s="45" t="s">
+        <v>177</v>
+      </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -7462,28 +7472,28 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A140" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="B140" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C140" s="2">
+    <row r="140" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="59"/>
+      <c r="B140" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E140" s="8" t="s">
+      <c r="C140" s="30">
+        <v>23</v>
+      </c>
+      <c r="D140" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="E140" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F140" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="15" t="s">
-        <v>190</v>
+      <c r="F140" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7503,28 +7513,28 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
-      <c r="B141" s="3" t="b">
+    <row r="141" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="59"/>
+      <c r="B141" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="C141" s="2">
-        <v>2</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E141" s="8" t="s">
+      <c r="C141" s="30">
+        <v>24</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E141" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F141" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="10" t="s">
+      <c r="F141" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H141" s="16" t="s">
-        <v>192</v>
+      <c r="H141" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7544,28 +7554,26 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A142" s="53"/>
-      <c r="B142" s="3" t="b">
+    <row r="142" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="59"/>
+      <c r="B142" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="C142" s="2">
-        <v>3</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E142" s="8" t="s">
+      <c r="C142" s="30">
+        <v>25</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E142" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="26" t="s">
+      <c r="F142" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G142" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" s="15" t="s">
-        <v>194</v>
+      <c r="G142" s="33"/>
+      <c r="H142" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7585,28 +7593,26 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A143" s="53"/>
-      <c r="B143" s="3" t="b">
+    <row r="143" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="59"/>
+      <c r="B143" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="C143" s="2">
-        <v>4</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E143" s="8" t="s">
+      <c r="C143" s="30">
+        <v>26</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="E143" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F143" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H143" s="15" t="s">
-        <v>196</v>
+      <c r="F143" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G143" s="33"/>
+      <c r="H143" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
@@ -7626,28 +7632,24 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A144" s="53"/>
-      <c r="B144" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C144" s="2">
-        <v>5</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E144" s="8" t="s">
+    <row r="144" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="59"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="30">
+        <v>27</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E144" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H144" s="15" t="s">
-        <v>198</v>
+      <c r="F144" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G144" s="33"/>
+      <c r="H144" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
@@ -7667,29 +7669,25 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="53"/>
-      <c r="B145" s="3" t="b">
+    <row r="145" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="44"/>
+      <c r="B145" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="C145" s="2">
-        <v>6</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E145" s="22" t="s">
+      <c r="C145" s="30">
+        <v>28</v>
+      </c>
+      <c r="D145" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E145" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F145" s="26" t="s">
+      <c r="F145" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G145" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H145" s="16" t="s">
-        <v>200</v>
-      </c>
+      <c r="G145" s="33"/>
+      <c r="H145" s="45"/>
       <c r="I145" s="3"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -7708,29 +7706,25 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="53"/>
-      <c r="B146" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C146" s="2">
-        <v>7</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E146" s="8" t="s">
+    <row r="146" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="44"/>
+      <c r="B146" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C146" s="30">
+        <v>29</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E146" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="26" t="s">
+      <c r="F146" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G146" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H146" s="16" t="s">
-        <v>202</v>
-      </c>
+      <c r="G146" s="33"/>
+      <c r="H146" s="45"/>
       <c r="I146" s="3"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -7749,29 +7743,15 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="53"/>
-      <c r="B147" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C147" s="2">
-        <v>8</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H147" s="15" t="s">
-        <v>204</v>
-      </c>
+    <row r="147" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="4"/>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -7790,28 +7770,28 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A148" s="53"/>
-      <c r="B148" s="3" t="b">
+    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A148" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B148" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C148" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F148" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" s="16" t="s">
-        <v>206</v>
+      <c r="F148" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
@@ -7831,26 +7811,28 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A149" s="53"/>
-      <c r="B149" s="3" t="b">
+    <row r="149" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="54"/>
+      <c r="B149" s="50" t="b">
         <v>1</v>
       </c>
       <c r="C149" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="15" t="s">
-        <v>208</v>
+      <c r="F149" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
@@ -7871,15 +7853,15 @@
       <c r="Y149" s="1"/>
     </row>
     <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A150" s="53"/>
-      <c r="B150" s="3" t="b">
-        <v>0</v>
+      <c r="A150" s="54"/>
+      <c r="B150" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C150" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>9</v>
@@ -7891,7 +7873,7 @@
         <v>11</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
@@ -7912,15 +7894,15 @@
       <c r="Y150" s="1"/>
     </row>
     <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A151" s="53"/>
-      <c r="B151" s="3" t="b">
-        <v>0</v>
+      <c r="A151" s="54"/>
+      <c r="B151" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="C151" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E151" s="8" t="s">
         <v>9</v>
@@ -7932,7 +7914,7 @@
         <v>11</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
@@ -7953,27 +7935,27 @@
       <c r="Y151" s="1"/>
     </row>
     <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="53"/>
+      <c r="A152" s="54"/>
       <c r="B152" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C152" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E152" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E152" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F152" s="28" t="s">
-        <v>57</v>
+      <c r="F152" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G152" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="1"/>
@@ -7994,25 +7976,27 @@
       <c r="Y152" s="1"/>
     </row>
     <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="53"/>
+      <c r="A153" s="54"/>
       <c r="B153" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C153" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F153" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G153" s="3"/>
+      <c r="F153" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H153" s="16" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="1"/>
@@ -8033,27 +8017,27 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A154" s="53"/>
+      <c r="A154" s="54"/>
       <c r="B154" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C154" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F154" s="28" t="s">
-        <v>57</v>
+      <c r="F154" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G154" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
@@ -8074,14 +8058,28 @@
       <c r="Y154" s="1"/>
     </row>
     <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="4"/>
+      <c r="A155" s="54"/>
+      <c r="B155" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C155" s="2">
+        <v>9</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" s="16" t="s">
+        <v>202</v>
+      </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -8100,15 +8098,29 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="4"/>
+    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A156" s="54"/>
+      <c r="B156" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C156" s="2">
+        <v>11</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H156" s="15" t="s">
+        <v>204</v>
+      </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -8128,27 +8140,27 @@
       <c r="Y156" s="1"/>
     </row>
     <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A157" s="57" t="s">
-        <v>219</v>
-      </c>
+      <c r="A157" s="54"/>
       <c r="B157" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E157" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F157" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="3"/>
+        <v>205</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H157" s="15" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -8168,26 +8180,28 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A158" s="53"/>
+    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A158" s="54"/>
       <c r="B158" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E158" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F158" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" s="3"/>
-      <c r="H158" s="15" t="s">
-        <v>225</v>
+        <v>207</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
@@ -8207,26 +8221,26 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A159" s="53"/>
+    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A159" s="54"/>
       <c r="B159" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E159" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="F159" s="26" t="s">
-        <v>22</v>
+        <v>209</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G159" s="3"/>
-      <c r="H159" s="15" t="s">
-        <v>228</v>
+      <c r="H159" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="1"/>
@@ -8247,25 +8261,27 @@
       <c r="Y159" s="1"/>
     </row>
     <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A160" s="53"/>
+      <c r="A160" s="54"/>
       <c r="B160" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E160" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="F160" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H160" s="15" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="1"/>
@@ -8285,27 +8301,15 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A161" s="53"/>
-      <c r="B161" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C161" s="2">
-        <v>5</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E161" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F161" s="28" t="s">
-        <v>57</v>
-      </c>
+    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="1"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="15" t="s">
-        <v>234</v>
-      </c>
+      <c r="H161" s="4"/>
       <c r="I161" s="3"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -8325,26 +8329,14 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="53"/>
-      <c r="B162" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C162" s="2">
-        <v>6</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E162" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="F162" s="28" t="s">
-        <v>57</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="1"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="16" t="s">
-        <v>237</v>
-      </c>
+      <c r="H162" s="4"/>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -8363,15 +8355,29 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="1"/>
+    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A163" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="B163" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C163" s="2">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E163" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F163" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G163" s="3"/>
-      <c r="H163" s="4"/>
+      <c r="H163" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -8390,15 +8396,27 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="1"/>
+    <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A164" s="54"/>
+      <c r="B164" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2">
+        <v>2</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F164" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G164" s="3"/>
-      <c r="H164" s="4"/>
+      <c r="H164" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -8418,27 +8436,25 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" s="57" t="s">
-        <v>238</v>
-      </c>
+      <c r="A165" s="54"/>
       <c r="B165" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F165" s="27" t="s">
-        <v>10</v>
+        <v>221</v>
+      </c>
+      <c r="F165" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="15" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
@@ -8459,25 +8475,25 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A166" s="53"/>
+      <c r="A166" s="54"/>
       <c r="B166" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E166" s="18" t="s">
-        <v>242</v>
+        <v>223</v>
+      </c>
+      <c r="E166" s="23" t="s">
+        <v>224</v>
       </c>
       <c r="F166" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="15" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
@@ -8497,26 +8513,26 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="53"/>
+    <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A167" s="54"/>
       <c r="B167" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C167" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F167" s="26" t="s">
-        <v>22</v>
+        <v>227</v>
+      </c>
+      <c r="F167" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G167" s="3"/>
-      <c r="H167" s="16" t="s">
-        <v>246</v>
+      <c r="H167" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="1"/>
@@ -8536,26 +8552,26 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A168" s="53"/>
+    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A168" s="54"/>
       <c r="B168" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C168" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F168" s="26" t="s">
-        <v>22</v>
+        <v>230</v>
+      </c>
+      <c r="F168" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G168" s="3"/>
-      <c r="H168" s="15" t="s">
-        <v>249</v>
+      <c r="H168" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="1"/>
@@ -8576,26 +8592,14 @@
       <c r="Y168" s="1"/>
     </row>
     <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="53"/>
-      <c r="B169" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C169" s="2">
-        <v>5</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E169" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F169" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="1"/>
       <c r="G169" s="3"/>
-      <c r="H169" s="16" t="s">
-        <v>246</v>
-      </c>
+      <c r="H169" s="4"/>
       <c r="I169" s="3"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -8615,7 +8619,7 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="17"/>
+      <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="2"/>
       <c r="D170" s="1"/>
@@ -8641,15 +8645,29 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="1"/>
+    <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A171" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B171" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C171" s="2">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E171" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F171" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G171" s="3"/>
-      <c r="H171" s="4"/>
+      <c r="H171" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -8669,27 +8687,25 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A172" s="57" t="s">
-        <v>252</v>
-      </c>
+      <c r="A172" s="54"/>
       <c r="B172" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="F172" s="27" t="s">
-        <v>10</v>
+        <v>236</v>
+      </c>
+      <c r="F172" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="15" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8709,25 +8725,27 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A173" s="57"/>
+    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A173" s="54"/>
       <c r="B173" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E173" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="F173" s="27" t="s">
-        <v>10</v>
+        <v>238</v>
+      </c>
+      <c r="E173" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F173" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G173" s="3"/>
-      <c r="H173" s="15"/>
+      <c r="H173" s="16" t="s">
+        <v>240</v>
+      </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -8747,25 +8765,25 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A174" s="53"/>
+      <c r="A174" s="54"/>
       <c r="B174" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E174" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
+      </c>
+      <c r="E174" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="F174" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="15" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8785,26 +8803,26 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A175" s="53"/>
+    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A175" s="54"/>
       <c r="B175" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
+      </c>
+      <c r="E175" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="F175" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G175" s="3"/>
-      <c r="H175" s="15" t="s">
-        <v>260</v>
+      <c r="H175" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
@@ -8824,27 +8842,15 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A176" s="53"/>
-      <c r="B176" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C176" s="2">
-        <v>5</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E176" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="F176" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A176" s="17"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="1"/>
       <c r="G176" s="3"/>
-      <c r="H176" s="15" t="s">
-        <v>263</v>
-      </c>
+      <c r="H176" s="4"/>
       <c r="I176" s="3"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -8863,27 +8869,15 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A177" s="53"/>
-      <c r="B177" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C177" s="2">
-        <v>6</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E177" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="F177" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="1"/>
       <c r="G177" s="3"/>
-      <c r="H177" s="15" t="s">
-        <v>266</v>
-      </c>
+      <c r="H177" s="4"/>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -8903,25 +8897,27 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="53"/>
-      <c r="B178" s="3" t="b">
+      <c r="A178" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="B178" s="64" t="b">
         <v>1</v>
       </c>
       <c r="C178" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E178" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="F178" s="26" t="s">
-        <v>22</v>
+        <v>247</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F178" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="15" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
@@ -8942,26 +8938,22 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="53"/>
-      <c r="B179" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="A179" s="63"/>
+      <c r="B179" s="64"/>
       <c r="C179" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E179" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="F179" s="26" t="s">
-        <v>22</v>
+        <v>429</v>
+      </c>
+      <c r="E179" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="F179" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G179" s="3"/>
-      <c r="H179" s="15" t="s">
-        <v>272</v>
-      </c>
+      <c r="H179" s="15"/>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -8980,26 +8972,26 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A180" s="53"/>
-      <c r="B180" s="3" t="b">
-        <v>0</v>
+    <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A180" s="54"/>
+      <c r="B180" s="64" t="b">
+        <v>1</v>
       </c>
       <c r="C180" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E180" s="18" t="s">
-        <v>274</v>
+        <v>250</v>
+      </c>
+      <c r="E180" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="F180" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G180" s="3"/>
-      <c r="H180" s="16" t="s">
-        <v>275</v>
+      <c r="H180" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -9020,25 +9012,25 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A181" s="53"/>
-      <c r="B181" s="3" t="b">
-        <v>0</v>
+      <c r="A181" s="54"/>
+      <c r="B181" s="64" t="b">
+        <v>1</v>
       </c>
       <c r="C181" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E181" s="18" t="s">
-        <v>277</v>
+        <v>253</v>
+      </c>
+      <c r="E181" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="F181" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="15" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -9059,25 +9051,25 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A182" s="53"/>
-      <c r="B182" s="3" t="b">
+      <c r="A182" s="54"/>
+      <c r="B182" s="64" t="b">
         <v>1</v>
       </c>
       <c r="C182" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E182" s="23" t="s">
-        <v>280</v>
+        <v>256</v>
+      </c>
+      <c r="E182" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="F182" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="15" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -9098,25 +9090,25 @@
       <c r="Y182" s="1"/>
     </row>
     <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A183" s="53"/>
-      <c r="B183" s="3" t="b">
+      <c r="A183" s="54"/>
+      <c r="B183" s="64" t="b">
         <v>1</v>
       </c>
       <c r="C183" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E183" s="18" t="s">
-        <v>283</v>
+        <v>259</v>
+      </c>
+      <c r="E183" s="23" t="s">
+        <v>258</v>
       </c>
       <c r="F183" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="15" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -9137,25 +9129,25 @@
       <c r="Y183" s="1"/>
     </row>
     <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A184" s="53"/>
-      <c r="B184" s="3" t="b">
+      <c r="A184" s="54"/>
+      <c r="B184" s="64" t="b">
         <v>1</v>
       </c>
       <c r="C184" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E184" s="18" t="s">
-        <v>285</v>
+        <v>261</v>
+      </c>
+      <c r="E184" s="23" t="s">
+        <v>262</v>
       </c>
       <c r="F184" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="15" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -9176,25 +9168,23 @@
       <c r="Y184" s="1"/>
     </row>
     <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A185" s="53"/>
-      <c r="B185" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="A185" s="54"/>
+      <c r="B185" s="64"/>
       <c r="C185" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="E185" s="18" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="F185" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="15" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -9214,26 +9204,24 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A186" s="53"/>
-      <c r="B186" s="3" t="b">
-        <v>1</v>
-      </c>
+    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A186" s="54"/>
+      <c r="B186" s="64"/>
       <c r="C186" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="E186" s="18" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="F186" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="15" t="s">
-        <v>292</v>
+      <c r="H186" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
@@ -9253,26 +9241,24 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A187" s="53"/>
-      <c r="B187" s="3" t="b">
-        <v>1</v>
-      </c>
+    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A187" s="54"/>
+      <c r="B187" s="64"/>
       <c r="C187" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="E187" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="F187" s="28" t="s">
-        <v>57</v>
+        <v>271</v>
+      </c>
+      <c r="F187" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G187" s="3"/>
-      <c r="H187" s="16" t="s">
-        <v>295</v>
+      <c r="H187" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
@@ -9293,25 +9279,25 @@
       <c r="Y187" s="1"/>
     </row>
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A188" s="53"/>
-      <c r="B188" s="3" t="b">
-        <v>0</v>
+      <c r="A188" s="54"/>
+      <c r="B188" s="64" t="b">
+        <v>1</v>
       </c>
       <c r="C188" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E188" s="18" t="s">
-        <v>297</v>
+        <v>273</v>
+      </c>
+      <c r="E188" s="23" t="s">
+        <v>274</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="15" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
@@ -9332,24 +9318,26 @@
       <c r="Y188" s="1"/>
     </row>
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A189" s="53"/>
-      <c r="B189" s="3" t="b">
+      <c r="A189" s="54"/>
+      <c r="B189" s="64" t="b">
         <v>1</v>
       </c>
       <c r="C189" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E189" s="23" t="s">
-        <v>434</v>
+        <v>276</v>
+      </c>
+      <c r="E189" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="F189" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="15"/>
+      <c r="H189" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -9369,25 +9357,25 @@
       <c r="Y189" s="1"/>
     </row>
     <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A190" s="53"/>
-      <c r="B190" s="3" t="b">
+      <c r="A190" s="54"/>
+      <c r="B190" s="64" t="b">
         <v>1</v>
       </c>
       <c r="C190" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="E190" s="18" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="F190" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="15" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
@@ -9408,24 +9396,26 @@
       <c r="Y190" s="1"/>
     </row>
     <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A191" s="53"/>
-      <c r="B191" s="3" t="b">
+      <c r="A191" s="54"/>
+      <c r="B191" s="64" t="b">
         <v>1</v>
       </c>
       <c r="C191" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E191" s="23" t="s">
-        <v>439</v>
+        <v>281</v>
+      </c>
+      <c r="E191" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="F191" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="3"/>
-      <c r="H191" s="15"/>
+      <c r="H191" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -9445,25 +9435,25 @@
       <c r="Y191" s="1"/>
     </row>
     <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A192" s="53"/>
-      <c r="B192" s="3" t="b">
-        <v>0</v>
+      <c r="A192" s="54"/>
+      <c r="B192" s="64" t="b">
+        <v>1</v>
       </c>
       <c r="C192" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="E192" s="18" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="F192" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="15" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9483,25 +9473,25 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A193" s="53"/>
-      <c r="B193" s="3" t="b">
-        <v>1</v>
-      </c>
+    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A193" s="54"/>
+      <c r="B193" s="3"/>
       <c r="C193" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E193" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="F193" s="26" t="s">
-        <v>22</v>
+        <v>287</v>
+      </c>
+      <c r="E193" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F193" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="15"/>
+      <c r="H193" s="16" t="s">
+        <v>289</v>
+      </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -9521,25 +9511,23 @@
       <c r="Y193" s="1"/>
     </row>
     <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A194" s="53"/>
-      <c r="B194" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="A194" s="54"/>
+      <c r="B194" s="3"/>
       <c r="C194" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E194" s="18" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F194" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="15" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
@@ -9559,27 +9547,25 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="53"/>
+    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A195" s="54"/>
       <c r="B195" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E195" s="18" t="s">
-        <v>308</v>
+        <v>428</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>427</v>
       </c>
       <c r="F195" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="16" t="s">
-        <v>309</v>
-      </c>
+      <c r="H195" s="15"/>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -9598,26 +9584,24 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A196" s="53"/>
-      <c r="B196" s="3" t="b">
-        <v>1</v>
-      </c>
+    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A196" s="54"/>
+      <c r="B196" s="3"/>
       <c r="C196" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>433</v>
+        <v>293</v>
       </c>
       <c r="E196" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="F196" s="28" t="s">
-        <v>57</v>
+        <v>251</v>
+      </c>
+      <c r="F196" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G196" s="3"/>
-      <c r="H196" s="16" t="s">
-        <v>311</v>
+      <c r="H196" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
@@ -9637,27 +9621,23 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A197" s="53"/>
-      <c r="B197" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A197" s="54"/>
+      <c r="B197" s="3"/>
       <c r="C197" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E197" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="F197" s="28" t="s">
-        <v>57</v>
+        <v>431</v>
+      </c>
+      <c r="E197" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="F197" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G197" s="3"/>
-      <c r="H197" s="16" t="s">
-        <v>314</v>
-      </c>
+      <c r="H197" s="15"/>
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -9677,25 +9657,23 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A198" s="53"/>
-      <c r="B198" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="A198" s="54"/>
+      <c r="B198" s="3"/>
       <c r="C198" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E198" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="F198" s="28" t="s">
-        <v>57</v>
+        <v>296</v>
+      </c>
+      <c r="F198" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="15" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
@@ -9715,25 +9693,23 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1" t="s">
-        <v>377</v>
-      </c>
+    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A199" s="54"/>
+      <c r="B199" s="3"/>
       <c r="C199" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="E199" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F199" s="49" t="s">
-        <v>10</v>
+        <v>425</v>
+      </c>
+      <c r="F199" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="4"/>
+      <c r="H199" s="15"/>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -9752,15 +9728,25 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="1"/>
+    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A200" s="54"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="2">
+        <v>23</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F200" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="4"/>
+      <c r="H200" s="15" t="s">
+        <v>300</v>
+      </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -9779,28 +9765,24 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A201" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="B201" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A201" s="54"/>
+      <c r="B201" s="3"/>
       <c r="C201" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F201" s="27" t="s">
-        <v>10</v>
+        <v>301</v>
+      </c>
+      <c r="E201" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="F201" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G201" s="3"/>
-      <c r="H201" s="15" t="s">
-        <v>319</v>
+      <c r="H201" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
@@ -9820,26 +9802,24 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A202" s="53"/>
-      <c r="B202" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A202" s="54"/>
+      <c r="B202" s="3"/>
       <c r="C202" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F202" s="26" t="s">
-        <v>22</v>
+        <v>426</v>
+      </c>
+      <c r="E202" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="F202" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G202" s="3"/>
-      <c r="H202" s="15" t="s">
-        <v>321</v>
+      <c r="H202" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
@@ -9860,25 +9840,23 @@
       <c r="Y202" s="1"/>
     </row>
     <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A203" s="53"/>
-      <c r="B203" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="A203" s="54"/>
+      <c r="B203" s="3"/>
       <c r="C203" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E203" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F203" s="26" t="s">
-        <v>22</v>
+        <v>306</v>
+      </c>
+      <c r="E203" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="F203" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9898,26 +9876,24 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="53"/>
-      <c r="B204" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A204" s="54"/>
+      <c r="B204" s="3"/>
       <c r="C204" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F204" s="26" t="s">
-        <v>22</v>
+        <v>309</v>
+      </c>
+      <c r="E204" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F204" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="16" t="s">
-        <v>325</v>
+      <c r="H204" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
@@ -9937,27 +9913,23 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A205" s="53"/>
-      <c r="B205" s="3" t="b">
-        <v>0</v>
-      </c>
+    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="3"/>
       <c r="C205" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" s="26" t="s">
-        <v>22</v>
+        <v>369</v>
+      </c>
+      <c r="E205" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="F205" s="49" t="s">
+        <v>10</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="15" t="s">
-        <v>327</v>
-      </c>
+      <c r="H205" s="4"/>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -9976,27 +9948,15 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A206" s="53"/>
-      <c r="B206" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C206" s="2">
-        <v>6</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F206" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="1"/>
       <c r="G206" s="3"/>
-      <c r="H206" s="15" t="s">
-        <v>329</v>
-      </c>
+      <c r="H206" s="4"/>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -10016,25 +9976,27 @@
       <c r="Y206" s="1"/>
     </row>
     <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A207" s="53"/>
+      <c r="A207" s="63" t="s">
+        <v>311</v>
+      </c>
       <c r="B207" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C207" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F207" s="26" t="s">
-        <v>22</v>
+      <c r="F207" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="15" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -10054,16 +10016,16 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A208" s="53"/>
+    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A208" s="54"/>
       <c r="B208" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C208" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>9</v>
@@ -10072,8 +10034,8 @@
         <v>22</v>
       </c>
       <c r="G208" s="3"/>
-      <c r="H208" s="16" t="s">
-        <v>333</v>
+      <c r="H208" s="15" t="s">
+        <v>315</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -10093,26 +10055,26 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A209" s="53"/>
+    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A209" s="54"/>
       <c r="B209" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E209" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E209" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F209" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="15" t="s">
-        <v>335</v>
+      <c r="H209" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -10132,16 +10094,16 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A210" s="53"/>
+    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A210" s="54"/>
       <c r="B210" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>9</v>
@@ -10150,8 +10112,8 @@
         <v>22</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="15" t="s">
-        <v>337</v>
+      <c r="H210" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
@@ -10171,16 +10133,16 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="53"/>
+    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A211" s="54"/>
       <c r="B211" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C211" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>9</v>
@@ -10189,8 +10151,8 @@
         <v>22</v>
       </c>
       <c r="G211" s="3"/>
-      <c r="H211" s="16" t="s">
-        <v>339</v>
+      <c r="H211" s="15" t="s">
+        <v>321</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
@@ -10211,15 +10173,15 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A212" s="53"/>
+      <c r="A212" s="54"/>
       <c r="B212" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>9</v>
@@ -10229,7 +10191,7 @@
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="15" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
@@ -10250,15 +10212,15 @@
       <c r="Y212" s="1"/>
     </row>
     <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A213" s="53"/>
+      <c r="A213" s="54"/>
       <c r="B213" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>9</v>
@@ -10268,7 +10230,7 @@
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="15" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10288,16 +10250,16 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A214" s="53"/>
+    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A214" s="54"/>
       <c r="B214" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>9</v>
@@ -10306,8 +10268,8 @@
         <v>22</v>
       </c>
       <c r="G214" s="3"/>
-      <c r="H214" s="15" t="s">
-        <v>345</v>
+      <c r="H214" s="16" t="s">
+        <v>327</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10327,16 +10289,16 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A215" s="53"/>
+    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A215" s="54"/>
       <c r="B215" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>9</v>
@@ -10345,8 +10307,8 @@
         <v>22</v>
       </c>
       <c r="G215" s="3"/>
-      <c r="H215" s="16" t="s">
-        <v>347</v>
+      <c r="H215" s="15" t="s">
+        <v>329</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10366,26 +10328,26 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A216" s="53"/>
+    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A216" s="54"/>
       <c r="B216" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F216" s="28" t="s">
-        <v>57</v>
+      <c r="F216" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="16" t="s">
-        <v>349</v>
+      <c r="H216" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10406,25 +10368,25 @@
       <c r="Y216" s="1"/>
     </row>
     <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A217" s="53"/>
+      <c r="A217" s="54"/>
       <c r="B217" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F217" s="28" t="s">
-        <v>57</v>
+      <c r="F217" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="16" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10444,26 +10406,26 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="53"/>
+    <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A218" s="54"/>
       <c r="B218" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C218" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F218" s="28" t="s">
-        <v>57</v>
+      <c r="F218" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G218" s="3"/>
-      <c r="H218" s="16" t="s">
-        <v>353</v>
+      <c r="H218" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
@@ -10484,25 +10446,25 @@
       <c r="Y218" s="1"/>
     </row>
     <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A219" s="53"/>
+      <c r="A219" s="54"/>
       <c r="B219" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C219" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F219" s="28" t="s">
-        <v>57</v>
+      <c r="F219" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G219" s="3"/>
       <c r="H219" s="15" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="I219" s="3"/>
       <c r="J219" s="1"/>
@@ -10523,25 +10485,25 @@
       <c r="Y219" s="1"/>
     </row>
     <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A220" s="53"/>
+      <c r="A220" s="54"/>
       <c r="B220" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C220" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F220" s="28" t="s">
-        <v>57</v>
+      <c r="F220" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="15" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
@@ -10562,25 +10524,25 @@
       <c r="Y220" s="1"/>
     </row>
     <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A221" s="53"/>
+      <c r="A221" s="54"/>
       <c r="B221" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C221" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F221" s="28" t="s">
-        <v>57</v>
+      <c r="F221" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="16" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10601,14 +10563,26 @@
       <c r="Y221" s="1"/>
     </row>
     <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="1"/>
+      <c r="A222" s="54"/>
+      <c r="B222" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C222" s="2">
+        <v>16</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G222" s="3"/>
-      <c r="H222" s="4"/>
+      <c r="H222" s="16" t="s">
+        <v>343</v>
+      </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -10628,14 +10602,26 @@
       <c r="Y222" s="1"/>
     </row>
     <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="1"/>
+      <c r="A223" s="54"/>
+      <c r="B223" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C223" s="2">
+        <v>17</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G223" s="3"/>
-      <c r="H223" s="4"/>
+      <c r="H223" s="16" t="s">
+        <v>345</v>
+      </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -10655,27 +10641,25 @@
       <c r="Y223" s="1"/>
     </row>
     <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A224" s="57" t="s">
-        <v>360</v>
-      </c>
+      <c r="A224" s="54"/>
       <c r="B224" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E224" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="E224" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F224" s="27" t="s">
-        <v>10</v>
+      <c r="F224" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G224" s="3"/>
       <c r="H224" s="16" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
@@ -10696,25 +10680,25 @@
       <c r="Y224" s="1"/>
     </row>
     <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A225" s="53"/>
+      <c r="A225" s="54"/>
       <c r="B225" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C225" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F225" s="26" t="s">
-        <v>22</v>
+      <c r="F225" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G225" s="3"/>
       <c r="H225" s="15" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
@@ -10735,25 +10719,25 @@
       <c r="Y225" s="1"/>
     </row>
     <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A226" s="53"/>
+      <c r="A226" s="54"/>
       <c r="B226" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C226" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F226" s="26" t="s">
-        <v>22</v>
+      <c r="F226" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G226" s="3"/>
       <c r="H226" s="15" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="I226" s="3"/>
       <c r="J226" s="1"/>
@@ -10773,26 +10757,26 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A227" s="53"/>
+    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A227" s="54"/>
       <c r="B227" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C227" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="E227" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F227" s="26" t="s">
-        <v>22</v>
+      <c r="F227" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G227" s="3"/>
-      <c r="H227" s="15" t="s">
-        <v>368</v>
+      <c r="H227" s="16" t="s">
+        <v>353</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="1"/>
@@ -10812,27 +10796,15 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A228" s="53"/>
-      <c r="B228" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C228" s="2">
-        <v>5</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E228" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F228" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="1"/>
       <c r="G228" s="3"/>
-      <c r="H228" s="20" t="s">
-        <v>370</v>
-      </c>
+      <c r="H228" s="4"/>
       <c r="I228" s="3"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -10851,27 +10823,15 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A229" s="53"/>
-      <c r="B229" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C229" s="2">
-        <v>6</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E229" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F229" s="28" t="s">
-        <v>57</v>
-      </c>
+    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="1"/>
       <c r="G229" s="3"/>
-      <c r="H229" s="15" t="s">
-        <v>372</v>
-      </c>
+      <c r="H229" s="4"/>
       <c r="I229" s="3"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -10891,14 +10851,28 @@
       <c r="Y229" s="1"/>
     </row>
     <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="1"/>
+      <c r="A230" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="B230" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2">
+        <v>1</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E230" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G230" s="3"/>
-      <c r="H230" s="4"/>
+      <c r="H230" s="16" t="s">
+        <v>356</v>
+      </c>
       <c r="I230" s="3"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
@@ -10917,15 +10891,27 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="1"/>
+    <row r="231" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A231" s="54"/>
+      <c r="B231" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C231" s="2">
+        <v>2</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G231" s="3"/>
-      <c r="H231" s="4"/>
+      <c r="H231" s="15" t="s">
+        <v>358</v>
+      </c>
       <c r="I231" s="3"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -10944,27 +10930,27 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A232" s="52" t="s">
-        <v>409</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>422</v>
+    <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A232" s="54"/>
+      <c r="B232" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="C232" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E232" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="E232" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F232" s="41" t="s">
-        <v>419</v>
+      <c r="F232" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G232" s="3"/>
-      <c r="H232" s="4"/>
+      <c r="H232" s="15" t="s">
+        <v>360</v>
+      </c>
       <c r="I232" s="3"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -10983,25 +10969,27 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A233" s="53"/>
-      <c r="B233" s="1" t="s">
-        <v>422</v>
+    <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A233" s="54"/>
+      <c r="B233" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="C233" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E233" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E233" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F233" s="41" t="s">
-        <v>419</v>
+      <c r="F233" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G233" s="3"/>
-      <c r="H233" s="4"/>
+      <c r="H233" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="I233" s="3"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -11020,25 +11008,27 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A234" s="53"/>
-      <c r="B234" s="1" t="b">
+    <row r="234" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A234" s="54"/>
+      <c r="B234" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C234" s="2">
-        <v>3</v>
-      </c>
-      <c r="D234" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="E234" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E234" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F234" s="41" t="s">
-        <v>419</v>
+      <c r="F234" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G234" s="3"/>
-      <c r="H234" s="4"/>
+      <c r="H234" s="20" t="s">
+        <v>364</v>
+      </c>
       <c r="I234" s="3"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -11057,25 +11047,27 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A235" s="53"/>
-      <c r="B235" s="1" t="b">
+    <row r="235" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A235" s="54"/>
+      <c r="B235" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C235" s="2">
-        <v>4</v>
-      </c>
-      <c r="D235" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="E235" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E235" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F235" s="41" t="s">
-        <v>419</v>
+      <c r="F235" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G235" s="3"/>
-      <c r="H235" s="4"/>
+      <c r="H235" s="15" t="s">
+        <v>366</v>
+      </c>
       <c r="I235" s="3"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -11095,13 +11087,9 @@
       <c r="Y235" s="1"/>
     </row>
     <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A236" s="53"/>
-      <c r="B236" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C236" s="2">
-        <v>5</v>
-      </c>
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="2"/>
       <c r="D236" s="1"/>
       <c r="E236" s="3"/>
       <c r="F236" s="1"/>
@@ -11126,13 +11114,9 @@
       <c r="Y236" s="1"/>
     </row>
     <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A237" s="53"/>
-      <c r="B237" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C237" s="2">
-        <v>6</v>
-      </c>
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="2"/>
       <c r="D237" s="1"/>
       <c r="E237" s="3"/>
       <c r="F237" s="1"/>
@@ -11157,16 +11141,24 @@
       <c r="Y237" s="1"/>
     </row>
     <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A238" s="53"/>
-      <c r="B238" s="1" t="b">
-        <v>0</v>
+      <c r="A238" s="60" t="s">
+        <v>402</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="C238" s="2">
-        <v>7</v>
-      </c>
-      <c r="D238" s="1"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E238" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="41" t="s">
+        <v>412</v>
+      </c>
       <c r="G238" s="3"/>
       <c r="H238" s="4"/>
       <c r="I238" s="3"/>
@@ -11188,16 +11180,22 @@
       <c r="Y238" s="1"/>
     </row>
     <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A239" s="53"/>
-      <c r="B239" s="1" t="b">
-        <v>0</v>
+      <c r="A239" s="54"/>
+      <c r="B239" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="C239" s="2">
-        <v>8</v>
-      </c>
-      <c r="D239" s="1"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E239" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="41" t="s">
+        <v>412</v>
+      </c>
       <c r="G239" s="3"/>
       <c r="H239" s="4"/>
       <c r="I239" s="3"/>
@@ -11219,16 +11217,22 @@
       <c r="Y239" s="1"/>
     </row>
     <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A240" s="53"/>
+      <c r="A240" s="54"/>
       <c r="B240" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C240" s="2">
+        <v>3</v>
+      </c>
+      <c r="D240" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E240" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D240" s="1"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="1"/>
+      <c r="F240" s="41" t="s">
+        <v>412</v>
+      </c>
       <c r="G240" s="3"/>
       <c r="H240" s="4"/>
       <c r="I240" s="3"/>
@@ -11250,16 +11254,22 @@
       <c r="Y240" s="1"/>
     </row>
     <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A241" s="53"/>
+      <c r="A241" s="54"/>
       <c r="B241" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C241" s="2">
-        <v>10</v>
-      </c>
-      <c r="D241" s="1"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D241" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="E241" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" s="41" t="s">
+        <v>412</v>
+      </c>
       <c r="G241" s="3"/>
       <c r="H241" s="4"/>
       <c r="I241" s="3"/>
@@ -11281,12 +11291,12 @@
       <c r="Y241" s="1"/>
     </row>
     <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A242" s="53"/>
+      <c r="A242" s="54"/>
       <c r="B242" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C242" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="3"/>
@@ -11312,12 +11322,12 @@
       <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A243" s="53"/>
+      <c r="A243" s="54"/>
       <c r="B243" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C243" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="3"/>
@@ -11343,12 +11353,12 @@
       <c r="Y243" s="1"/>
     </row>
     <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="53"/>
+      <c r="A244" s="54"/>
       <c r="B244" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C244" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="3"/>
@@ -11374,12 +11384,12 @@
       <c r="Y244" s="1"/>
     </row>
     <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A245" s="53"/>
+      <c r="A245" s="54"/>
       <c r="B245" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C245" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="3"/>
@@ -11405,12 +11415,12 @@
       <c r="Y245" s="1"/>
     </row>
     <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A246" s="53"/>
+      <c r="A246" s="54"/>
       <c r="B246" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C246" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="3"/>
@@ -11436,9 +11446,13 @@
       <c r="Y246" s="1"/>
     </row>
     <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A247" s="53"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="2"/>
+      <c r="A247" s="54"/>
+      <c r="B247" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C247" s="2">
+        <v>10</v>
+      </c>
       <c r="D247" s="1"/>
       <c r="E247" s="3"/>
       <c r="F247" s="1"/>
@@ -11463,9 +11477,13 @@
       <c r="Y247" s="1"/>
     </row>
     <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A248" s="53"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="2"/>
+      <c r="A248" s="54"/>
+      <c r="B248" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C248" s="2">
+        <v>11</v>
+      </c>
       <c r="D248" s="1"/>
       <c r="E248" s="3"/>
       <c r="F248" s="1"/>
@@ -11490,9 +11508,13 @@
       <c r="Y248" s="1"/>
     </row>
     <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A249" s="53"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="2"/>
+      <c r="A249" s="54"/>
+      <c r="B249" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C249" s="2">
+        <v>12</v>
+      </c>
       <c r="D249" s="1"/>
       <c r="E249" s="3"/>
       <c r="F249" s="1"/>
@@ -11517,9 +11539,13 @@
       <c r="Y249" s="1"/>
     </row>
     <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A250" s="53"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="2"/>
+      <c r="A250" s="54"/>
+      <c r="B250" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C250" s="2">
+        <v>13</v>
+      </c>
       <c r="D250" s="1"/>
       <c r="E250" s="3"/>
       <c r="F250" s="1"/>
@@ -11544,9 +11570,13 @@
       <c r="Y250" s="1"/>
     </row>
     <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A251" s="53"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="2"/>
+      <c r="A251" s="54"/>
+      <c r="B251" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C251" s="2">
+        <v>14</v>
+      </c>
       <c r="D251" s="1"/>
       <c r="E251" s="3"/>
       <c r="F251" s="1"/>
@@ -11571,9 +11601,13 @@
       <c r="Y251" s="1"/>
     </row>
     <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="2"/>
+      <c r="A252" s="54"/>
+      <c r="B252" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C252" s="2">
+        <v>15</v>
+      </c>
       <c r="D252" s="1"/>
       <c r="E252" s="3"/>
       <c r="F252" s="1"/>
@@ -11598,7 +11632,7 @@
       <c r="Y252" s="1"/>
     </row>
     <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
+      <c r="A253" s="54"/>
       <c r="B253" s="1"/>
       <c r="C253" s="2"/>
       <c r="D253" s="1"/>
@@ -11625,7 +11659,7 @@
       <c r="Y253" s="1"/>
     </row>
     <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="54"/>
       <c r="B254" s="1"/>
       <c r="C254" s="2"/>
       <c r="D254" s="1"/>
@@ -11652,7 +11686,7 @@
       <c r="Y254" s="1"/>
     </row>
     <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="54"/>
       <c r="B255" s="1"/>
       <c r="C255" s="2"/>
       <c r="D255" s="1"/>
@@ -11679,7 +11713,7 @@
       <c r="Y255" s="1"/>
     </row>
     <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
+      <c r="A256" s="54"/>
       <c r="B256" s="1"/>
       <c r="C256" s="2"/>
       <c r="D256" s="1"/>
@@ -11706,7 +11740,7 @@
       <c r="Y256" s="1"/>
     </row>
     <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
+      <c r="A257" s="54"/>
       <c r="B257" s="1"/>
       <c r="C257" s="2"/>
       <c r="D257" s="1"/>
@@ -32036,25 +32070,187 @@
       <c r="X1009" s="1"/>
       <c r="Y1009" s="1"/>
     </row>
+    <row r="1010" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1010" s="1"/>
+      <c r="B1010" s="1"/>
+      <c r="C1010" s="2"/>
+      <c r="D1010" s="1"/>
+      <c r="E1010" s="3"/>
+      <c r="F1010" s="1"/>
+      <c r="G1010" s="3"/>
+      <c r="H1010" s="4"/>
+      <c r="I1010" s="3"/>
+      <c r="J1010" s="1"/>
+      <c r="K1010" s="1"/>
+      <c r="L1010" s="1"/>
+      <c r="M1010" s="1"/>
+      <c r="N1010" s="1"/>
+      <c r="O1010" s="1"/>
+      <c r="P1010" s="1"/>
+      <c r="Q1010" s="1"/>
+      <c r="R1010" s="1"/>
+      <c r="S1010" s="1"/>
+      <c r="T1010" s="1"/>
+      <c r="U1010" s="1"/>
+      <c r="V1010" s="1"/>
+      <c r="W1010" s="1"/>
+      <c r="X1010" s="1"/>
+      <c r="Y1010" s="1"/>
+    </row>
+    <row r="1011" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1011" s="1"/>
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="2"/>
+      <c r="D1011" s="1"/>
+      <c r="E1011" s="3"/>
+      <c r="F1011" s="1"/>
+      <c r="G1011" s="3"/>
+      <c r="H1011" s="4"/>
+      <c r="I1011" s="3"/>
+      <c r="J1011" s="1"/>
+      <c r="K1011" s="1"/>
+      <c r="L1011" s="1"/>
+      <c r="M1011" s="1"/>
+      <c r="N1011" s="1"/>
+      <c r="O1011" s="1"/>
+      <c r="P1011" s="1"/>
+      <c r="Q1011" s="1"/>
+      <c r="R1011" s="1"/>
+      <c r="S1011" s="1"/>
+      <c r="T1011" s="1"/>
+      <c r="U1011" s="1"/>
+      <c r="V1011" s="1"/>
+      <c r="W1011" s="1"/>
+      <c r="X1011" s="1"/>
+      <c r="Y1011" s="1"/>
+    </row>
+    <row r="1012" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1012" s="1"/>
+      <c r="B1012" s="1"/>
+      <c r="C1012" s="2"/>
+      <c r="D1012" s="1"/>
+      <c r="E1012" s="3"/>
+      <c r="F1012" s="1"/>
+      <c r="G1012" s="3"/>
+      <c r="H1012" s="4"/>
+      <c r="I1012" s="3"/>
+      <c r="J1012" s="1"/>
+      <c r="K1012" s="1"/>
+      <c r="L1012" s="1"/>
+      <c r="M1012" s="1"/>
+      <c r="N1012" s="1"/>
+      <c r="O1012" s="1"/>
+      <c r="P1012" s="1"/>
+      <c r="Q1012" s="1"/>
+      <c r="R1012" s="1"/>
+      <c r="S1012" s="1"/>
+      <c r="T1012" s="1"/>
+      <c r="U1012" s="1"/>
+      <c r="V1012" s="1"/>
+      <c r="W1012" s="1"/>
+      <c r="X1012" s="1"/>
+      <c r="Y1012" s="1"/>
+    </row>
+    <row r="1013" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1013" s="1"/>
+      <c r="B1013" s="1"/>
+      <c r="C1013" s="2"/>
+      <c r="D1013" s="1"/>
+      <c r="E1013" s="3"/>
+      <c r="F1013" s="1"/>
+      <c r="G1013" s="3"/>
+      <c r="H1013" s="4"/>
+      <c r="I1013" s="3"/>
+      <c r="J1013" s="1"/>
+      <c r="K1013" s="1"/>
+      <c r="L1013" s="1"/>
+      <c r="M1013" s="1"/>
+      <c r="N1013" s="1"/>
+      <c r="O1013" s="1"/>
+      <c r="P1013" s="1"/>
+      <c r="Q1013" s="1"/>
+      <c r="R1013" s="1"/>
+      <c r="S1013" s="1"/>
+      <c r="T1013" s="1"/>
+      <c r="U1013" s="1"/>
+      <c r="V1013" s="1"/>
+      <c r="W1013" s="1"/>
+      <c r="X1013" s="1"/>
+      <c r="Y1013" s="1"/>
+    </row>
+    <row r="1014" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1014" s="1"/>
+      <c r="B1014" s="1"/>
+      <c r="C1014" s="2"/>
+      <c r="D1014" s="1"/>
+      <c r="E1014" s="3"/>
+      <c r="F1014" s="1"/>
+      <c r="G1014" s="3"/>
+      <c r="H1014" s="4"/>
+      <c r="I1014" s="3"/>
+      <c r="J1014" s="1"/>
+      <c r="K1014" s="1"/>
+      <c r="L1014" s="1"/>
+      <c r="M1014" s="1"/>
+      <c r="N1014" s="1"/>
+      <c r="O1014" s="1"/>
+      <c r="P1014" s="1"/>
+      <c r="Q1014" s="1"/>
+      <c r="R1014" s="1"/>
+      <c r="S1014" s="1"/>
+      <c r="T1014" s="1"/>
+      <c r="U1014" s="1"/>
+      <c r="V1014" s="1"/>
+      <c r="W1014" s="1"/>
+      <c r="X1014" s="1"/>
+      <c r="Y1014" s="1"/>
+    </row>
+    <row r="1015" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1015" s="1"/>
+      <c r="B1015" s="1"/>
+      <c r="C1015" s="2"/>
+      <c r="D1015" s="1"/>
+      <c r="E1015" s="3"/>
+      <c r="F1015" s="1"/>
+      <c r="G1015" s="3"/>
+      <c r="H1015" s="4"/>
+      <c r="I1015" s="3"/>
+      <c r="J1015" s="1"/>
+      <c r="K1015" s="1"/>
+      <c r="L1015" s="1"/>
+      <c r="M1015" s="1"/>
+      <c r="N1015" s="1"/>
+      <c r="O1015" s="1"/>
+      <c r="P1015" s="1"/>
+      <c r="Q1015" s="1"/>
+      <c r="R1015" s="1"/>
+      <c r="S1015" s="1"/>
+      <c r="T1015" s="1"/>
+      <c r="U1015" s="1"/>
+      <c r="V1015" s="1"/>
+      <c r="W1015" s="1"/>
+      <c r="X1015" s="1"/>
+      <c r="Y1015" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A238:A257"/>
+    <mergeCell ref="A46:A63"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="A207:A227"/>
+    <mergeCell ref="A230:A235"/>
+    <mergeCell ref="A80:A96"/>
+    <mergeCell ref="A99:A115"/>
+    <mergeCell ref="A118:A144"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A178:A204"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A7:A37"/>
     <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A232:A251"/>
-    <mergeCell ref="A46:A58"/>
-    <mergeCell ref="A61:A72"/>
-    <mergeCell ref="A201:A221"/>
-    <mergeCell ref="A224:A229"/>
-    <mergeCell ref="A75:A90"/>
-    <mergeCell ref="A93:A110"/>
-    <mergeCell ref="A113:A136"/>
-    <mergeCell ref="A140:A154"/>
-    <mergeCell ref="A157:A162"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A172:A198"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
@@ -32067,282 +32263,286 @@
     <hyperlink ref="E46" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="G46" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="E47" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E49" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G50" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E51" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E52" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G52" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E53" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G53" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E54" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E55" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E57" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E61" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G61" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E62" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E63" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G63" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E64" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E65" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E66" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G66" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E69" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E70" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G70" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E71" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G71" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E72" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E75" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="G75" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E76" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="G76" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E77" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="G77" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E78" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E79" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="G79" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E80" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="G80" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E81" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="G81" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E82" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="G82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E84" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E85" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E89" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E90" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="G90" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E93" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="G93" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E94" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="G94" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E95" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="G95" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E96" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="G96" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E97" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G97" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E98" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E99" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E101" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G101" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E105" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G105" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E106" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G106" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E107" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G107" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E108" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G108" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E109" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G109" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E110" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G110" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E113" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G113" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E114" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G114" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E115" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G115" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E116" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E117" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G117" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E118" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="G118" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E119" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="G119" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E120" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G120" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E121" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E122" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="G122" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E123" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E124" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="G124" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E125" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E126" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E127" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G127" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E128" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="G128" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E129" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G129" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E130" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="G130" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E131" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E132" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="G132" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E133" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="G133" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E134" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E135" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E136" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E140" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E141" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G141" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E142" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G142" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E143" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="G143" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="G144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G145" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E146" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G146" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E147" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G147" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E148" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G148" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E149" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E150" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G150" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E151" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="G151" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E152" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G152" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E153" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E154" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="G154" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E157" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E158" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E159" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E160" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E161" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E162" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E165" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E166" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E167" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E168" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E169" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E172" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E174" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E175" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E176" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E177" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E178" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E179" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E180" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E181" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E182" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E183" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E184" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E185" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E186" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E187" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E188" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E190" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E192" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E194" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E195" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E196" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E197" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E198" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E203" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E212" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E213" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E214" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E215" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E216" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E217" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E218" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E219" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E220" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E221" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E199" r:id="rId211" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E138" r:id="rId212" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E137" r:id="rId213" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
-    <hyperlink ref="G68" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E68" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E67" r:id="rId216" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
-    <hyperlink ref="E6" r:id="rId217" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
-    <hyperlink ref="E83" r:id="rId218" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
-    <hyperlink ref="E88" r:id="rId219" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
-    <hyperlink ref="E91" r:id="rId220" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
-    <hyperlink ref="E87" r:id="rId221" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
-    <hyperlink ref="E86" r:id="rId222" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
-    <hyperlink ref="E48" r:id="rId223" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
-    <hyperlink ref="E56" r:id="rId224" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
-    <hyperlink ref="E32" r:id="rId225" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
-    <hyperlink ref="E14" r:id="rId226" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
-    <hyperlink ref="E7" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E11" r:id="rId229" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
-    <hyperlink ref="G37" r:id="rId230" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E37" r:id="rId231" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E36" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G35" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E35" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G34" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E34" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E33" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G31" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E31" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G29" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E29" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E28" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E27" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E26" r:id="rId244" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E25" r:id="rId245" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G23" r:id="rId246" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E23" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G22" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E22" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G20" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E20" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G18" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E18" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G17" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E17" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G16" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E16" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G15" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E15" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G13" r:id="rId260" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E13" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G10" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E10" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G9" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E9" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G8" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E8" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E232" r:id="rId268" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
-    <hyperlink ref="E21" r:id="rId269" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E233" r:id="rId270" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
-    <hyperlink ref="E30" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E12" r:id="rId272" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
-    <hyperlink ref="E234" r:id="rId273" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
-    <hyperlink ref="E235" r:id="rId274" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
-    <hyperlink ref="E24" r:id="rId275" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
-    <hyperlink ref="E19" r:id="rId276" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
-    <hyperlink ref="E193" r:id="rId277" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
-    <hyperlink ref="E189" r:id="rId278" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
-    <hyperlink ref="E173" r:id="rId279" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
-    <hyperlink ref="E191" r:id="rId280" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
-    <hyperlink ref="E100" r:id="rId281" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
-    <hyperlink ref="E104" r:id="rId282" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
-    <hyperlink ref="E103" r:id="rId283" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
-    <hyperlink ref="E102" r:id="rId284" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
+    <hyperlink ref="E50" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E51" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G51" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E55" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G55" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E56" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G56" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E57" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E59" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E60" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E62" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E66" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G66" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E67" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E68" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G68" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E69" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E70" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E71" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G71" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E74" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E75" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G75" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E76" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G76" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E77" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E80" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G80" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E81" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G81" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E82" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G82" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E83" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E84" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G84" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E85" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G85" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E86" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G86" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E87" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G87" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E89" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E90" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E94" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E96" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G96" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E99" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G99" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E100" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G100" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E101" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G101" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E102" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G102" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E103" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G103" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E104" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E105" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E107" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G107" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E111" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G111" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E112" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G112" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E113" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G113" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E114" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G114" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E115" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G115" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E118" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G118" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E119" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G119" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E120" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G120" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E121" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E122" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G122" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E123" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G123" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E124" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G124" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E125" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G125" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E126" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E127" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G127" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E128" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E129" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G129" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E130" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E133" r:id="rId104" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E134" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G134" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E136" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G136" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E137" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G137" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E138" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G138" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E139" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E140" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G140" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E141" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G141" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E142" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E143" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E144" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E148" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E149" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G149" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E150" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G150" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E151" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G151" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E152" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G152" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E153" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G153" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E154" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G154" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E155" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G155" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E156" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G156" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E157" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G157" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E158" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G158" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E159" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E160" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G160" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E163" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E164" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E165" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E166" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E167" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E168" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E171" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E172" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E173" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E174" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E175" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E178" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E180" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E181" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E182" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E183" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E184" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E185" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E186" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E187" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E188" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E189" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E190" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E191" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E192" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E193" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E194" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E196" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E198" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E200" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E201" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E202" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E203" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E204" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E207" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E208" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E209" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E210" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E211" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E212" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E213" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E214" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E215" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E216" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E217" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E218" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E219" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E220" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E221" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E222" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E223" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E224" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E225" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E226" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E227" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E230" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E231" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E232" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E233" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E234" r:id="rId204" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E235" r:id="rId205" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E205" r:id="rId206" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E146" r:id="rId207" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E145" r:id="rId208" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="G73" r:id="rId209" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E73" r:id="rId210" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E72" r:id="rId211" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
+    <hyperlink ref="E6" r:id="rId212" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
+    <hyperlink ref="E88" r:id="rId213" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
+    <hyperlink ref="E93" r:id="rId214" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
+    <hyperlink ref="E92" r:id="rId215" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
+    <hyperlink ref="E91" r:id="rId216" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
+    <hyperlink ref="E49" r:id="rId217" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
+    <hyperlink ref="E61" r:id="rId218" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
+    <hyperlink ref="E32" r:id="rId219" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
+    <hyperlink ref="E14" r:id="rId220" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
+    <hyperlink ref="E7" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId222" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E11" r:id="rId223" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
+    <hyperlink ref="G37" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E37" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E36" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G35" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E35" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G34" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E34" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E33" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G31" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E31" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G29" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E29" r:id="rId235" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E28" r:id="rId236" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E27" r:id="rId237" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E26" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E25" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G23" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E23" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G22" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E22" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G20" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E20" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G18" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E18" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G17" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E17" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G16" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E16" r:id="rId251" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G15" r:id="rId252" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E15" r:id="rId253" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G13" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E13" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G10" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E10" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G9" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E9" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G8" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E238" r:id="rId262" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E21" r:id="rId263" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
+    <hyperlink ref="E239" r:id="rId264" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E30" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E12" r:id="rId266" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
+    <hyperlink ref="E240" r:id="rId267" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E241" r:id="rId268" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E24" r:id="rId269" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
+    <hyperlink ref="E19" r:id="rId270" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
+    <hyperlink ref="E199" r:id="rId271" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
+    <hyperlink ref="E195" r:id="rId272" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
+    <hyperlink ref="E179" r:id="rId273" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
+    <hyperlink ref="E197" r:id="rId274" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
+    <hyperlink ref="E106" r:id="rId275" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
+    <hyperlink ref="E110" r:id="rId276" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
+    <hyperlink ref="E109" r:id="rId277" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
+    <hyperlink ref="E108" r:id="rId278" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
+    <hyperlink ref="E135" r:id="rId279" xr:uid="{880B159A-370B-40EE-A5C8-AE68325F8994}"/>
+    <hyperlink ref="E131" r:id="rId280" xr:uid="{96ACD224-977A-4E66-9264-5617B21A7B5A}"/>
+    <hyperlink ref="E132" r:id="rId281" xr:uid="{7FD7344C-2A6A-4318-A67E-05F8EA153E88}"/>
+    <hyperlink ref="E95" r:id="rId282" xr:uid="{B6515FE2-AD7F-4A71-83EF-89020758DE37}"/>
+    <hyperlink ref="E97" r:id="rId283" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
+    <hyperlink ref="E58" r:id="rId284" xr:uid="{AB524FDC-322C-4129-B3D3-C0CD18DF6C39}"/>
+    <hyperlink ref="E48" r:id="rId285" xr:uid="{12F3604F-E330-4354-82A9-2E7144C6C69C}"/>
+    <hyperlink ref="E53" r:id="rId286" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
+    <hyperlink ref="E52" r:id="rId287" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
+    <hyperlink ref="E54" r:id="rId288" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId285"/>
+  <pageSetup orientation="portrait" r:id="rId289"/>
 </worksheet>
 </file>
--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A213B7-6507-4642-9E9F-8D8696328AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2F386B-7B72-4043-AE9B-6248CE15279E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="449">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -1280,36 +1280,9 @@
     <t>IS perfect SQRT</t>
   </si>
   <si>
-    <t xml:space="preserve">       TRUE</t>
-  </si>
-  <si>
     <t>HI</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  TRUE</t>
-    </r>
-  </si>
-  <si>
     <t>Two Sum 2</t>
   </si>
   <si>
@@ -1325,20 +1298,6 @@
     <t>3 Sum Word</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
     <t>Number of distinct islands</t>
   </si>
   <si>
@@ -1378,30 +1337,6 @@
     <t>Remove k digits</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>make tree form sorted ll</t>
   </si>
   <si>
@@ -1427,13 +1362,31 @@
   </si>
   <si>
     <t>longest palindrome Substring</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-in-binary-matrix/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/shortest-path-in-a-binary-maze-1655453161/1</t>
+  </si>
+  <si>
+    <t>Shortest distance in binary maze 4D</t>
+  </si>
+  <si>
+    <t>Shortest distance in binary maze  8D</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-with-minimum-effort/description/</t>
+  </si>
+  <si>
+    <t>Path with minimum effort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1559,12 +1512,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -1605,13 +1552,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
@@ -1621,8 +1561,8 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="Arial"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1743,7 +1683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1815,7 +1755,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1825,7 +1765,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1834,10 +1774,10 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1845,10 +1785,10 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1856,13 +1796,10 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1871,7 +1808,14 @@
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1884,14 +1828,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1899,9 +1843,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1919,6 +1860,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2122,11 +2080,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1015"/>
+  <dimension ref="A1:Y1017"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B200" sqref="B200"/>
+      <pane ySplit="4" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2104,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -2296,8 +2254,8 @@
     </row>
     <row r="6" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
-      <c r="B6" s="29" t="s">
-        <v>417</v>
+      <c r="B6" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C6" s="30">
         <v>1</v>
@@ -2335,8 +2293,8 @@
       <c r="A7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>417</v>
+      <c r="B7" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C7" s="30">
         <v>2</v>
@@ -2378,8 +2336,8 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="57"/>
-      <c r="B8" s="29" t="s">
-        <v>417</v>
+      <c r="B8" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C8" s="30">
         <v>3</v>
@@ -2421,8 +2379,8 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="57"/>
-      <c r="B9" s="29" t="s">
-        <v>417</v>
+      <c r="B9" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C9" s="30">
         <v>4</v>
@@ -2460,8 +2418,8 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="57"/>
-      <c r="B10" s="29" t="s">
-        <v>417</v>
+      <c r="B10" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C10" s="30">
         <v>5</v>
@@ -2501,8 +2459,8 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="57"/>
-      <c r="B11" s="29" t="s">
-        <v>417</v>
+      <c r="B11" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C11" s="30">
         <v>6</v>
@@ -2538,12 +2496,14 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="57"/>
-      <c r="B12" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="C12" s="30"/>
+      <c r="B12" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="30">
+        <v>7</v>
+      </c>
       <c r="D12" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>9</v>
@@ -2573,11 +2533,11 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="57"/>
-      <c r="B13" s="29" t="s">
-        <v>417</v>
+      <c r="B13" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C13" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>21</v>
@@ -2614,11 +2574,11 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="57"/>
-      <c r="B14" s="29" t="s">
-        <v>417</v>
+      <c r="B14" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C14" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>401</v>
@@ -2651,11 +2611,11 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="57"/>
-      <c r="B15" s="29" t="s">
-        <v>417</v>
+      <c r="B15" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C15" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>24</v>
@@ -2690,11 +2650,11 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="57"/>
-      <c r="B16" s="29" t="s">
-        <v>417</v>
+      <c r="B16" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C16" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>25</v>
@@ -2731,11 +2691,11 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="57"/>
-      <c r="B17" s="29" t="s">
-        <v>417</v>
+      <c r="B17" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C17" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>27</v>
@@ -2774,11 +2734,11 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57"/>
-      <c r="B18" s="29" t="s">
-        <v>417</v>
+      <c r="B18" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C18" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>29</v>
@@ -2817,12 +2777,14 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57"/>
-      <c r="B19" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="C19" s="30"/>
+      <c r="B19" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="30">
+        <v>14</v>
+      </c>
       <c r="D19" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>9</v>
@@ -2852,11 +2814,11 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57"/>
-      <c r="B20" s="29" t="s">
-        <v>417</v>
+      <c r="B20" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C20" s="30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>31</v>
@@ -2893,11 +2855,11 @@
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="57"/>
-      <c r="B21" s="29" t="s">
-        <v>417</v>
+      <c r="B21" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C21" s="30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>413</v>
@@ -2930,11 +2892,11 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57"/>
-      <c r="B22" s="29" t="s">
-        <v>417</v>
+      <c r="B22" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C22" s="30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>32</v>
@@ -2971,11 +2933,11 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="57"/>
-      <c r="B23" s="29" t="s">
-        <v>417</v>
+      <c r="B23" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C23" s="30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>34</v>
@@ -3014,14 +2976,14 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="57"/>
-      <c r="B24" s="29" t="s">
-        <v>417</v>
+      <c r="B24" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C24" s="30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>9</v>
@@ -3051,11 +3013,11 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="57"/>
-      <c r="B25" s="29" t="s">
-        <v>417</v>
+      <c r="B25" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C25" s="30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>36</v>
@@ -3092,11 +3054,11 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57"/>
-      <c r="B26" s="29" t="s">
-        <v>417</v>
+      <c r="B26" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C26" s="30">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>38</v>
@@ -3133,11 +3095,11 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57"/>
-      <c r="B27" s="29" t="s">
-        <v>417</v>
+      <c r="B27" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C27" s="30">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>41</v>
@@ -3174,11 +3136,11 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="57"/>
-      <c r="B28" s="29" t="s">
-        <v>417</v>
+      <c r="B28" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C28" s="30">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>44</v>
@@ -3215,11 +3177,11 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
-      <c r="B29" s="29" t="s">
-        <v>437</v>
+      <c r="B29" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C29" s="30">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>47</v>
@@ -3256,11 +3218,11 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57"/>
-      <c r="B30" s="29" t="s">
-        <v>423</v>
+      <c r="B30" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C30" s="30">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>49</v>
@@ -3295,11 +3257,11 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="57"/>
-      <c r="B31" s="29" t="s">
-        <v>417</v>
+      <c r="B31" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C31" s="30">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>50</v>
@@ -3338,11 +3300,11 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57"/>
-      <c r="B32" s="29" t="s">
-        <v>417</v>
+      <c r="B32" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C32" s="30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>403</v>
@@ -3375,11 +3337,11 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57"/>
-      <c r="B33" s="33" t="b">
+      <c r="B33" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C33" s="30">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>53</v>
@@ -3416,11 +3378,11 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="57"/>
-      <c r="B34" s="33" t="b">
-        <v>1</v>
+      <c r="B34" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C34" s="30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>56</v>
@@ -3457,11 +3419,11 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="57"/>
-      <c r="B35" s="33" t="b">
+      <c r="B35" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>59</v>
@@ -3500,11 +3462,11 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="57"/>
-      <c r="B36" s="33" t="b">
+      <c r="B36" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C36" s="30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>61</v>
@@ -3539,11 +3501,11 @@
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="57"/>
-      <c r="B37" s="33" t="b">
-        <v>1</v>
+      <c r="B37" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C37" s="30">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>62</v>
@@ -3576,16 +3538,16 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="3"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="3"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3603,15 +3565,31 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="9"/>
+    <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="30">
+        <v>1</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3631,17 +3609,15 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="33" t="b">
-        <v>1</v>
+      <c r="A40" s="59"/>
+      <c r="B40" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C40" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E40" s="43" t="s">
         <v>9</v>
@@ -3652,10 +3628,8 @@
       <c r="G40" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I40" s="3"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="12"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3675,14 +3649,14 @@
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="59"/>
-      <c r="B41" s="33" t="b">
-        <v>1</v>
+      <c r="B41" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C41" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E41" s="43" t="s">
         <v>9</v>
@@ -3693,8 +3667,8 @@
       <c r="G41" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="12"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3714,25 +3688,25 @@
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" s="59"/>
-      <c r="B42" s="33" t="b">
-        <v>1</v>
+      <c r="B42" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C42" s="30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="34"/>
+      <c r="F42" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3751,27 +3725,14 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" s="30">
-        <v>7</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="29" t="s">
-        <v>69</v>
-      </c>
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="3"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3790,14 +3751,14 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="2"/>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="3"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3816,14 +3777,31 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="4"/>
+    <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="30">
+        <v>1</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="I45" s="3"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3843,17 +3821,15 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="50" t="b">
-        <v>1</v>
+      <c r="A46" s="59"/>
+      <c r="B46" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C46" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E46" s="43" t="s">
         <v>9</v>
@@ -3861,11 +3837,9 @@
       <c r="F46" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G46" s="33"/>
       <c r="H46" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="1"/>
@@ -3887,25 +3861,23 @@
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="59"/>
-      <c r="B47" s="50" t="b">
-        <v>1</v>
+      <c r="B47" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C47" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="33"/>
-      <c r="H47" s="29" t="s">
-        <v>74</v>
-      </c>
+      <c r="H47" s="29"/>
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3926,16 +3898,16 @@
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A48" s="59"/>
-      <c r="B48" s="50" t="b">
-        <v>1</v>
+      <c r="B48" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C48" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>443</v>
-      </c>
-      <c r="E48" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="E48" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="36" t="s">
@@ -3963,23 +3935,25 @@
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" s="59"/>
-      <c r="B49" s="50" t="b">
-        <v>1</v>
+      <c r="B49" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C49" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="E49" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="33"/>
-      <c r="H49" s="29"/>
+      <c r="H49" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -4000,25 +3974,25 @@
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="59"/>
-      <c r="B50" s="50" t="b">
-        <v>1</v>
+      <c r="B50" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C50" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E50" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="33"/>
-      <c r="H50" s="29" t="s">
-        <v>76</v>
-      </c>
+      <c r="F50" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="34"/>
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -4039,24 +4013,22 @@
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="59"/>
-      <c r="B51" s="50" t="b">
-        <v>1</v>
+      <c r="B51" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C51" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G51" s="35"/>
       <c r="H51" s="34"/>
       <c r="I51" s="3"/>
       <c r="J51" s="1"/>
@@ -4078,14 +4050,14 @@
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="59"/>
-      <c r="B52" s="50" t="b">
-        <v>1</v>
+      <c r="B52" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C52" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>9</v>
@@ -4115,14 +4087,14 @@
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" s="59"/>
-      <c r="B53" s="50" t="b">
-        <v>1</v>
+      <c r="B53" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C53" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>9</v>
@@ -4152,22 +4124,24 @@
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="59"/>
-      <c r="B54" s="50" t="b">
-        <v>1</v>
+      <c r="B54" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C54" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="E54" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="35"/>
+      <c r="G54" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H54" s="34"/>
       <c r="I54" s="3"/>
       <c r="J54" s="1"/>
@@ -4189,14 +4163,14 @@
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="59"/>
-      <c r="B55" s="50" t="b">
-        <v>1</v>
+      <c r="B55" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C55" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E55" s="43" t="s">
         <v>9</v>
@@ -4207,7 +4181,9 @@
       <c r="G55" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="34"/>
+      <c r="H55" s="34" t="s">
+        <v>35</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4228,14 +4204,14 @@
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="59"/>
-      <c r="B56" s="50" t="b">
-        <v>1</v>
+      <c r="B56" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C56" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56" s="43" t="s">
         <v>9</v>
@@ -4246,9 +4222,7 @@
       <c r="G56" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="34" t="s">
-        <v>35</v>
-      </c>
+      <c r="H56" s="34"/>
       <c r="I56" s="3"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -4269,24 +4243,22 @@
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="59"/>
-      <c r="B57" s="50" t="b">
-        <v>1</v>
+      <c r="B57" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C57" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="E57" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G57" s="35"/>
       <c r="H57" s="34"/>
       <c r="I57" s="3"/>
       <c r="J57" s="1"/>
@@ -4308,23 +4280,25 @@
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="59"/>
-      <c r="B58" s="50" t="b">
-        <v>1</v>
+      <c r="B58" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C58" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="E58" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="34"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="34" t="s">
+        <v>82</v>
+      </c>
       <c r="I58" s="3"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -4345,24 +4319,24 @@
     </row>
     <row r="59" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="59"/>
-      <c r="B59" s="50" t="b">
-        <v>1</v>
+      <c r="B59" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C59" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="37" t="s">
-        <v>22</v>
+      <c r="F59" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="G59" s="33"/>
-      <c r="H59" s="34" t="s">
-        <v>82</v>
+      <c r="H59" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="1"/>
@@ -4384,25 +4358,23 @@
     </row>
     <row r="60" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A60" s="59"/>
-      <c r="B60" s="33" t="b">
+      <c r="B60" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C60" s="30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="E60" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="40" t="s">
         <v>57</v>
       </c>
       <c r="G60" s="33"/>
-      <c r="H60" s="29" t="s">
-        <v>84</v>
-      </c>
+      <c r="H60" s="29"/>
       <c r="I60" s="3"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -4423,23 +4395,23 @@
     </row>
     <row r="61" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A61" s="59"/>
-      <c r="B61" s="33" t="b">
+      <c r="B61" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C61" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="E61" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="40" t="s">
         <v>57</v>
       </c>
       <c r="G61" s="33"/>
-      <c r="H61" s="29"/>
+      <c r="H61" s="34"/>
       <c r="I61" s="3"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -4460,17 +4432,17 @@
     </row>
     <row r="62" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A62" s="59"/>
-      <c r="B62" s="33" t="b">
+      <c r="B62" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C62" s="30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>9</v>
+        <v>86</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="F62" s="40" t="s">
         <v>57</v>
@@ -4495,25 +4467,13 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="59"/>
-      <c r="B63" s="33" t="b">
+    <row r="63" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C63" s="30">
-        <v>18</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F63" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" s="33"/>
-      <c r="H63" s="34"/>
+      <c r="C63" s="2"/>
+      <c r="H63" s="11"/>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4532,11 +4492,17 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="3"/>
+    <row r="64" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C64" s="2"/>
-      <c r="H64" s="11"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4555,15 +4521,32 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="4"/>
+    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A65" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" ref="C65:C75" si="0">ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="I65" s="3"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4583,18 +4566,16 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="3" t="b">
+      <c r="A66" s="54"/>
+      <c r="B66" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C66" s="2">
-        <f t="shared" ref="C66:C76" si="0">ROW(A1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>9</v>
@@ -4602,11 +4583,9 @@
       <c r="F66" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G66" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G66" s="3"/>
       <c r="H66" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="1"/>
@@ -4628,15 +4607,15 @@
     </row>
     <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="54"/>
-      <c r="B67" s="3" t="b">
+      <c r="B67" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C67" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>9</v>
@@ -4644,9 +4623,11 @@
       <c r="F67" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="3"/>
+      <c r="G67" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H67" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
@@ -4668,15 +4649,15 @@
     </row>
     <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="54"/>
-      <c r="B68" s="3" t="b">
+      <c r="B68" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>9</v>
@@ -4684,11 +4665,9 @@
       <c r="F68" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G68" s="3"/>
       <c r="H68" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
@@ -4710,15 +4689,15 @@
     </row>
     <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="54"/>
-      <c r="B69" s="3" t="b">
+      <c r="B69" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>9</v>
@@ -4728,7 +4707,7 @@
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
@@ -4750,15 +4729,15 @@
     </row>
     <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="54"/>
-      <c r="B70" s="3" t="b">
+      <c r="B70" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>9</v>
@@ -4766,9 +4745,11 @@
       <c r="F70" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="3"/>
+      <c r="G70" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H70" s="15" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
@@ -4790,28 +4771,24 @@
     </row>
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="54"/>
-      <c r="B71" s="3" t="b">
+      <c r="B71" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E71" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E71" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="15"/>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4830,26 +4807,30 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="54"/>
-      <c r="B72" s="3" t="b">
+      <c r="B72" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E72" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="15"/>
+      <c r="G72" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -4868,17 +4849,17 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="54"/>
-      <c r="B73" s="3" t="b">
+      <c r="B73" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>9</v>
@@ -4886,11 +4867,9 @@
       <c r="F73" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G73" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>101</v>
+      <c r="G73" s="3"/>
+      <c r="H73" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="1"/>
@@ -4912,25 +4891,27 @@
     </row>
     <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="54"/>
-      <c r="B74" s="3" t="b">
+      <c r="B74" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="3"/>
+      <c r="F74" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H74" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
@@ -4950,17 +4931,17 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="54"/>
-      <c r="B75" s="3" t="b">
+      <c r="B75" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C75" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>9</v>
@@ -4971,8 +4952,8 @@
       <c r="G75" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="15" t="s">
-        <v>104</v>
+      <c r="H75" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
@@ -4992,17 +4973,17 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="54"/>
-      <c r="B76" s="3" t="b">
+      <c r="B76" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" ref="C76" si="1">ROW(A13)</f>
+        <v>13</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>9</v>
@@ -5010,11 +4991,9 @@
       <c r="F76" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G76" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G76" s="3"/>
       <c r="H76" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
@@ -5034,28 +5013,17 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="3" t="b">
+    <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C77" s="2">
-        <f t="shared" ref="C77" si="1">ROW(A13)</f>
-        <v>13</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>57</v>
-      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="1"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="16" t="s">
-        <v>107</v>
-      </c>
+      <c r="H77" s="4"/>
       <c r="I77" s="3"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -5074,9 +5042,11 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="1"/>
       <c r="E78" s="3"/>
@@ -5101,15 +5071,31 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="4"/>
+    <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="30">
+        <v>1</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="45" t="s">
+        <v>109</v>
+      </c>
       <c r="I79" s="3"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -5129,17 +5115,15 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="50" t="b">
-        <v>1</v>
+      <c r="A80" s="59"/>
+      <c r="B80" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C80" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>9</v>
@@ -5151,7 +5135,7 @@
         <v>11</v>
       </c>
       <c r="H80" s="45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="1"/>
@@ -5173,14 +5157,14 @@
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="59"/>
-      <c r="B81" s="50" t="b">
-        <v>1</v>
+      <c r="B81" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C81" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E81" s="43" t="s">
         <v>9</v>
@@ -5192,7 +5176,7 @@
         <v>11</v>
       </c>
       <c r="H81" s="45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="1"/>
@@ -5214,14 +5198,14 @@
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="59"/>
-      <c r="B82" s="50" t="b">
-        <v>1</v>
+      <c r="B82" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C82" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E82" s="43" t="s">
         <v>9</v>
@@ -5229,11 +5213,9 @@
       <c r="F82" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G82" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G82" s="33"/>
       <c r="H82" s="45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="1"/>
@@ -5255,14 +5237,14 @@
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="59"/>
-      <c r="B83" s="50" t="b">
-        <v>1</v>
+      <c r="B83" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C83" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E83" s="43" t="s">
         <v>9</v>
@@ -5270,9 +5252,11 @@
       <c r="F83" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="33"/>
+      <c r="G83" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H83" s="45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="1"/>
@@ -5294,26 +5278,26 @@
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="59"/>
-      <c r="B84" s="50" t="b">
-        <v>1</v>
+      <c r="B84" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C84" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E84" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="36" t="s">
-        <v>10</v>
+      <c r="F84" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="G84" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H84" s="45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="1"/>
@@ -5335,14 +5319,14 @@
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="59"/>
-      <c r="B85" s="50" t="b">
-        <v>1</v>
+      <c r="B85" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C85" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E85" s="43" t="s">
         <v>9</v>
@@ -5354,7 +5338,7 @@
         <v>11</v>
       </c>
       <c r="H85" s="45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1"/>
@@ -5376,14 +5360,14 @@
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="59"/>
-      <c r="B86" s="50" t="b">
-        <v>1</v>
+      <c r="B86" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C86" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>377</v>
+        <v>116</v>
       </c>
       <c r="E86" s="43" t="s">
         <v>9</v>
@@ -5395,7 +5379,7 @@
         <v>11</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="1"/>
@@ -5417,27 +5401,23 @@
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="59"/>
-      <c r="B87" s="50" t="b">
-        <v>1</v>
+      <c r="B87" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C87" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E87" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="E87" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G87" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" s="45" t="s">
-        <v>117</v>
-      </c>
+      <c r="G87" s="35"/>
+      <c r="H87" s="45"/>
       <c r="I87" s="3"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5458,23 +5438,25 @@
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="59"/>
-      <c r="B88" s="50" t="b">
-        <v>1</v>
+      <c r="B88" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C88" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="E88" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G88" s="35"/>
-      <c r="H88" s="45"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="45" t="s">
+        <v>119</v>
+      </c>
       <c r="I88" s="3"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -5495,14 +5477,14 @@
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="59"/>
-      <c r="B89" s="50" t="b">
-        <v>1</v>
+      <c r="B89" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C89" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="43" t="s">
         <v>9</v>
@@ -5512,7 +5494,7 @@
       </c>
       <c r="G89" s="33"/>
       <c r="H89" s="45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="1"/>
@@ -5534,25 +5516,23 @@
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="59"/>
-      <c r="B90" s="50" t="b">
-        <v>1</v>
+      <c r="B90" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C90" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E90" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="E90" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G90" s="33"/>
-      <c r="H90" s="45" t="s">
-        <v>121</v>
-      </c>
+      <c r="G90" s="35"/>
+      <c r="H90" s="45"/>
       <c r="I90" s="3"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -5573,14 +5553,14 @@
     </row>
     <row r="91" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="59"/>
-      <c r="B91" s="50" t="b">
-        <v>1</v>
+      <c r="B91" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C91" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>9</v>
@@ -5610,14 +5590,14 @@
     </row>
     <row r="92" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="59"/>
-      <c r="B92" s="50" t="b">
-        <v>1</v>
+      <c r="B92" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C92" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E92" s="31" t="s">
         <v>9</v>
@@ -5647,23 +5627,25 @@
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="59"/>
-      <c r="B93" s="50" t="b">
-        <v>1</v>
+      <c r="B93" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C93" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="E93" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E93" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G93" s="35"/>
-      <c r="H93" s="45"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="45" t="s">
+        <v>123</v>
+      </c>
       <c r="I93" s="3"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -5684,25 +5666,23 @@
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="59"/>
-      <c r="B94" s="50" t="b">
-        <v>1</v>
+      <c r="B94" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C94" s="30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E94" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="E94" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="37" t="s">
-        <v>22</v>
+      <c r="F94" s="51" t="s">
+        <v>57</v>
       </c>
       <c r="G94" s="33"/>
-      <c r="H94" s="45" t="s">
-        <v>123</v>
-      </c>
+      <c r="H94" s="45"/>
       <c r="I94" s="3"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -5723,21 +5703,27 @@
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="59"/>
-      <c r="B95" s="50"/>
+      <c r="B95" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C95" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="E95" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="52" t="s">
+      <c r="F95" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G95" s="33"/>
-      <c r="H95" s="45"/>
+      <c r="G95" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="45" t="s">
+        <v>125</v>
+      </c>
       <c r="I95" s="3"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -5757,26 +5743,24 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="59"/>
-      <c r="B96" s="50"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C96" s="30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="E96" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G96" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="45" t="s">
-        <v>125</v>
-      </c>
+      <c r="F96" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="33"/>
+      <c r="H96" s="34"/>
       <c r="I96" s="3"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -5796,24 +5780,16 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="29"/>
-      <c r="B97" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="C97" s="30">
-        <v>18</v>
-      </c>
-      <c r="D97" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="E97" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="33"/>
-      <c r="H97" s="34"/>
+      <c r="A97" s="1"/>
+      <c r="B97" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="4"/>
       <c r="I97" s="3"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -5832,15 +5808,31 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="4"/>
+    <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="30">
+        <v>1</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="45" t="s">
+        <v>128</v>
+      </c>
       <c r="I98" s="3"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -5860,17 +5852,15 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="50" t="b">
-        <v>1</v>
+      <c r="A99" s="59"/>
+      <c r="B99" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C99" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E99" s="43" t="s">
         <v>9</v>
@@ -5882,7 +5872,7 @@
         <v>11</v>
       </c>
       <c r="H99" s="45" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="1"/>
@@ -5904,14 +5894,14 @@
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="59"/>
-      <c r="B100" s="50" t="b">
-        <v>1</v>
+      <c r="B100" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C100" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E100" s="43" t="s">
         <v>9</v>
@@ -5923,7 +5913,7 @@
         <v>11</v>
       </c>
       <c r="H100" s="45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="1"/>
@@ -5945,14 +5935,14 @@
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="59"/>
-      <c r="B101" s="50" t="b">
-        <v>1</v>
+      <c r="B101" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C101" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E101" s="43" t="s">
         <v>9</v>
@@ -5964,7 +5954,7 @@
         <v>11</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="1"/>
@@ -5986,14 +5976,14 @@
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="59"/>
-      <c r="B102" s="50" t="b">
-        <v>1</v>
+      <c r="B102" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C102" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E102" s="43" t="s">
         <v>9</v>
@@ -6005,7 +5995,7 @@
         <v>11</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="1"/>
@@ -6027,14 +6017,14 @@
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="59"/>
-      <c r="B103" s="50" t="b">
-        <v>1</v>
+      <c r="B103" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C103" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E103" s="43" t="s">
         <v>9</v>
@@ -6042,11 +6032,9 @@
       <c r="F103" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G103" s="33"/>
       <c r="H103" s="45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="1"/>
@@ -6068,14 +6056,14 @@
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" s="59"/>
-      <c r="B104" s="50" t="b">
-        <v>1</v>
+      <c r="B104" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C104" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E104" s="43" t="s">
         <v>9</v>
@@ -6085,7 +6073,7 @@
       </c>
       <c r="G104" s="33"/>
       <c r="H104" s="45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="1"/>
@@ -6107,25 +6095,23 @@
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" s="59"/>
-      <c r="B105" s="33" t="b">
+      <c r="B105" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E105" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="E105" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="36" t="s">
-        <v>10</v>
+      <c r="F105" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="G105" s="33"/>
-      <c r="H105" s="45" t="s">
-        <v>140</v>
-      </c>
+      <c r="H105" s="45"/>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -6146,23 +6132,27 @@
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" s="59"/>
-      <c r="B106" s="33" t="b">
-        <v>1</v>
+      <c r="B106" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C106" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="E106" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E106" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F106" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G106" s="33"/>
-      <c r="H106" s="45"/>
+      <c r="G106" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="45" t="s">
+        <v>142</v>
+      </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -6183,27 +6173,23 @@
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="59"/>
-      <c r="B107" s="33" t="b">
+      <c r="B107" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C107" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E107" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="E107" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F107" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G107" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H107" s="45" t="s">
-        <v>142</v>
-      </c>
+      <c r="G107" s="35"/>
+      <c r="H107" s="45"/>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -6224,14 +6210,14 @@
     </row>
     <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="59"/>
-      <c r="B108" s="33" t="b">
-        <v>1</v>
+      <c r="B108" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C108" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E108" s="21" t="s">
         <v>9</v>
@@ -6261,14 +6247,14 @@
     </row>
     <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" s="59"/>
-      <c r="B109" s="33" t="b">
-        <v>1</v>
+      <c r="B109" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C109" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E109" s="21" t="s">
         <v>9</v>
@@ -6298,23 +6284,27 @@
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="59"/>
-      <c r="B110" s="33" t="b">
-        <v>1</v>
+      <c r="B110" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C110" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="E110" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E110" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F110" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G110" s="35"/>
-      <c r="H110" s="45"/>
+      <c r="G110" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="45" t="s">
+        <v>144</v>
+      </c>
       <c r="I110" s="3"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -6335,14 +6325,14 @@
     </row>
     <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" s="59"/>
-      <c r="B111" s="33" t="b">
+      <c r="B111" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C111" s="30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E111" s="43" t="s">
         <v>9</v>
@@ -6354,7 +6344,7 @@
         <v>11</v>
       </c>
       <c r="H111" s="45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
@@ -6376,14 +6366,14 @@
     </row>
     <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="59"/>
-      <c r="B112" s="33" t="b">
-        <v>1</v>
+      <c r="B112" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C112" s="30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E112" s="43" t="s">
         <v>9</v>
@@ -6395,7 +6385,7 @@
         <v>11</v>
       </c>
       <c r="H112" s="45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
@@ -6417,14 +6407,14 @@
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" s="59"/>
-      <c r="B113" s="33" t="b">
+      <c r="B113" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C113" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E113" s="43" t="s">
         <v>9</v>
@@ -6436,7 +6426,7 @@
         <v>11</v>
       </c>
       <c r="H113" s="45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
@@ -6458,26 +6448,26 @@
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A114" s="59"/>
-      <c r="B114" s="33" t="b">
-        <v>1</v>
+      <c r="B114" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C114" s="30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E114" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="46" t="s">
-        <v>22</v>
+      <c r="F114" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="G114" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1"/>
@@ -6498,28 +6488,16 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="59"/>
-      <c r="B115" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C115" s="30">
-        <v>18</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E115" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G115" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" s="45" t="s">
-        <v>153</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="11"/>
       <c r="I115" s="3"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -6538,15 +6516,17 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C116" s="2"/>
       <c r="D116" s="1"/>
       <c r="E116" s="3"/>
       <c r="F116" s="1"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="11"/>
+      <c r="H116" s="4"/>
       <c r="I116" s="3"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -6565,15 +6545,31 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="4"/>
+    <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" s="30">
+        <v>1</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E117" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="45" t="s">
+        <v>155</v>
+      </c>
       <c r="I117" s="3"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -6593,17 +6589,15 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="B118" s="50" t="b">
-        <v>1</v>
+      <c r="A118" s="59"/>
+      <c r="B118" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C118" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E118" s="43" t="s">
         <v>9</v>
@@ -6615,7 +6609,7 @@
         <v>11</v>
       </c>
       <c r="H118" s="45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1"/>
@@ -6637,14 +6631,14 @@
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A119" s="59"/>
-      <c r="B119" s="50" t="b">
-        <v>1</v>
+      <c r="B119" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C119" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E119" s="43" t="s">
         <v>9</v>
@@ -6656,7 +6650,7 @@
         <v>11</v>
       </c>
       <c r="H119" s="45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1"/>
@@ -6678,14 +6672,14 @@
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A120" s="59"/>
-      <c r="B120" s="50" t="b">
-        <v>1</v>
+      <c r="B120" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C120" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E120" s="43" t="s">
         <v>9</v>
@@ -6693,11 +6687,9 @@
       <c r="F120" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G120" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G120" s="33"/>
       <c r="H120" s="45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1"/>
@@ -6719,14 +6711,14 @@
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" s="59"/>
-      <c r="B121" s="50" t="b">
-        <v>1</v>
+      <c r="B121" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C121" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E121" s="43" t="s">
         <v>9</v>
@@ -6734,9 +6726,11 @@
       <c r="F121" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G121" s="33"/>
+      <c r="G121" s="35" t="s">
+        <v>159</v>
+      </c>
       <c r="H121" s="45" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1"/>
@@ -6758,14 +6752,14 @@
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A122" s="59"/>
-      <c r="B122" s="50" t="b">
-        <v>1</v>
+      <c r="B122" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C122" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E122" s="43" t="s">
         <v>9</v>
@@ -6774,10 +6768,10 @@
         <v>10</v>
       </c>
       <c r="G122" s="35" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="H122" s="45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1"/>
@@ -6799,14 +6793,14 @@
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A123" s="59"/>
-      <c r="B123" s="50" t="b">
-        <v>1</v>
+      <c r="B123" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C123" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E123" s="43" t="s">
         <v>9</v>
@@ -6818,7 +6812,7 @@
         <v>11</v>
       </c>
       <c r="H123" s="45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1"/>
@@ -6840,14 +6834,14 @@
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A124" s="59"/>
-      <c r="B124" s="50" t="b">
-        <v>1</v>
+      <c r="B124" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C124" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E124" s="43" t="s">
         <v>9</v>
@@ -6859,7 +6853,7 @@
         <v>11</v>
       </c>
       <c r="H124" s="45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6881,14 +6875,14 @@
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A125" s="59"/>
-      <c r="B125" s="50" t="b">
-        <v>1</v>
+      <c r="B125" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C125" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E125" s="43" t="s">
         <v>9</v>
@@ -6896,11 +6890,9 @@
       <c r="F125" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G125" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G125" s="33"/>
       <c r="H125" s="45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1"/>
@@ -6922,14 +6914,14 @@
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A126" s="59"/>
-      <c r="B126" s="50" t="b">
-        <v>1</v>
+      <c r="B126" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C126" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E126" s="43" t="s">
         <v>9</v>
@@ -6937,9 +6929,11 @@
       <c r="F126" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G126" s="33"/>
+      <c r="G126" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H126" s="45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
@@ -6961,14 +6955,14 @@
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A127" s="59"/>
-      <c r="B127" s="50" t="b">
-        <v>1</v>
+      <c r="B127" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C127" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E127" s="43" t="s">
         <v>9</v>
@@ -6976,11 +6970,9 @@
       <c r="F127" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G127" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G127" s="33"/>
       <c r="H127" s="45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1"/>
@@ -7002,24 +6994,26 @@
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A128" s="59"/>
-      <c r="B128" s="50" t="b">
-        <v>1</v>
+      <c r="B128" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C128" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E128" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="33"/>
+      <c r="F128" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H128" s="45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="1"/>
@@ -7041,14 +7035,14 @@
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A129" s="59"/>
-      <c r="B129" s="50" t="b">
-        <v>1</v>
+      <c r="B129" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C129" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E129" s="43" t="s">
         <v>9</v>
@@ -7056,11 +7050,9 @@
       <c r="F129" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G129" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G129" s="33"/>
       <c r="H129" s="45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
@@ -7082,25 +7074,23 @@
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" s="59"/>
-      <c r="B130" s="50" t="b">
-        <v>1</v>
+      <c r="B130" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C130" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="E130" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="E130" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F130" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G130" s="33"/>
-      <c r="H130" s="45" t="s">
-        <v>168</v>
-      </c>
+      <c r="H130" s="45"/>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -7121,14 +7111,14 @@
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A131" s="59"/>
-      <c r="B131" s="50" t="b">
-        <v>1</v>
+      <c r="B131" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C131" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E131" s="21" t="s">
         <v>9</v>
@@ -7158,23 +7148,25 @@
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" s="59"/>
-      <c r="B132" s="50" t="b">
-        <v>1</v>
+      <c r="B132" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C132" s="30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="E132" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="E132" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F132" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G132" s="33"/>
-      <c r="H132" s="45"/>
+      <c r="H132" s="45" t="s">
+        <v>169</v>
+      </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -7195,14 +7187,14 @@
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A133" s="59"/>
-      <c r="B133" s="50" t="b">
-        <v>1</v>
+      <c r="B133" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C133" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E133" s="43" t="s">
         <v>9</v>
@@ -7210,9 +7202,11 @@
       <c r="F133" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G133" s="33"/>
+      <c r="G133" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H133" s="45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
@@ -7234,27 +7228,23 @@
     </row>
     <row r="134" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A134" s="59"/>
-      <c r="B134" s="50" t="b">
-        <v>1</v>
+      <c r="B134" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C134" s="30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="E134" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="E134" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F134" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G134" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" s="45" t="s">
-        <v>170</v>
-      </c>
+      <c r="G134" s="35"/>
+      <c r="H134" s="45"/>
       <c r="I134" s="3"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -7275,23 +7265,27 @@
     </row>
     <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A135" s="59"/>
-      <c r="B135" s="50" t="b">
-        <v>1</v>
+      <c r="B135" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C135" s="30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="E135" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E135" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F135" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G135" s="35"/>
-      <c r="H135" s="45"/>
+      <c r="G135" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="45" t="s">
+        <v>172</v>
+      </c>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -7312,14 +7306,14 @@
     </row>
     <row r="136" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A136" s="59"/>
-      <c r="B136" s="50" t="b">
-        <v>1</v>
+      <c r="B136" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C136" s="30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>171</v>
+        <v>393</v>
       </c>
       <c r="E136" s="43" t="s">
         <v>9</v>
@@ -7331,7 +7325,7 @@
         <v>11</v>
       </c>
       <c r="H136" s="45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
@@ -7353,14 +7347,14 @@
     </row>
     <row r="137" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A137" s="59"/>
-      <c r="B137" s="50" t="b">
-        <v>1</v>
+      <c r="B137" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C137" s="30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>393</v>
+        <v>174</v>
       </c>
       <c r="E137" s="43" t="s">
         <v>9</v>
@@ -7372,7 +7366,7 @@
         <v>11</v>
       </c>
       <c r="H137" s="45" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
@@ -7394,14 +7388,14 @@
     </row>
     <row r="138" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A138" s="59"/>
-      <c r="B138" s="50" t="b">
-        <v>1</v>
+      <c r="B138" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C138" s="30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D138" s="29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E138" s="43" t="s">
         <v>9</v>
@@ -7409,11 +7403,9 @@
       <c r="F138" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G138" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G138" s="33"/>
       <c r="H138" s="45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
@@ -7435,14 +7427,14 @@
     </row>
     <row r="139" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A139" s="59"/>
-      <c r="B139" s="50" t="b">
-        <v>1</v>
+      <c r="B139" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C139" s="30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D139" s="29" t="s">
-        <v>176</v>
+        <v>394</v>
       </c>
       <c r="E139" s="43" t="s">
         <v>9</v>
@@ -7450,9 +7442,11 @@
       <c r="F139" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G139" s="33"/>
+      <c r="G139" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H139" s="45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
@@ -7474,14 +7468,14 @@
     </row>
     <row r="140" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A140" s="59"/>
-      <c r="B140" s="50" t="b">
-        <v>1</v>
+      <c r="B140" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C140" s="30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D140" s="29" t="s">
-        <v>394</v>
+        <v>179</v>
       </c>
       <c r="E140" s="43" t="s">
         <v>9</v>
@@ -7493,7 +7487,7 @@
         <v>11</v>
       </c>
       <c r="H140" s="45" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7515,14 +7509,14 @@
     </row>
     <row r="141" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A141" s="59"/>
-      <c r="B141" s="50" t="b">
-        <v>1</v>
+      <c r="B141" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C141" s="30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E141" s="43" t="s">
         <v>9</v>
@@ -7530,11 +7524,9 @@
       <c r="F141" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G141" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G141" s="33"/>
       <c r="H141" s="45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7556,24 +7548,24 @@
     </row>
     <row r="142" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A142" s="59"/>
-      <c r="B142" s="50" t="b">
-        <v>1</v>
+      <c r="B142" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C142" s="30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D142" s="29" t="s">
-        <v>181</v>
+        <v>395</v>
       </c>
       <c r="E142" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="37" t="s">
-        <v>22</v>
+      <c r="F142" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="G142" s="33"/>
       <c r="H142" s="45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7595,14 +7587,14 @@
     </row>
     <row r="143" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A143" s="59"/>
-      <c r="B143" s="50" t="b">
-        <v>1</v>
+      <c r="B143" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C143" s="30">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D143" s="29" t="s">
-        <v>395</v>
+        <v>184</v>
       </c>
       <c r="E143" s="43" t="s">
         <v>9</v>
@@ -7612,7 +7604,7 @@
       </c>
       <c r="G143" s="33"/>
       <c r="H143" s="45" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
@@ -7633,24 +7625,24 @@
       <c r="Y143" s="1"/>
     </row>
     <row r="144" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="59"/>
-      <c r="B144" s="50"/>
+      <c r="A144" s="44"/>
+      <c r="B144" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C144" s="30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E144" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="E144" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="40" t="s">
-        <v>57</v>
+      <c r="F144" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="G144" s="33"/>
-      <c r="H144" s="45" t="s">
-        <v>185</v>
-      </c>
+      <c r="H144" s="45"/>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -7671,14 +7663,14 @@
     </row>
     <row r="145" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A145" s="44"/>
-      <c r="B145" s="50" t="b">
-        <v>1</v>
+      <c r="B145" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C145" s="30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D145" s="29" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="E145" s="31" t="s">
         <v>9</v>
@@ -7707,24 +7699,16 @@
       <c r="Y145" s="1"/>
     </row>
     <row r="146" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="44"/>
-      <c r="B146" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="C146" s="30">
-        <v>29</v>
-      </c>
-      <c r="D146" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="E146" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" s="33"/>
-      <c r="H146" s="45"/>
+      <c r="A146" s="1"/>
+      <c r="B146" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="4"/>
       <c r="I146" s="3"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -7743,15 +7727,29 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
-      <c r="B147" s="50"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="1"/>
+    <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A147" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B147" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G147" s="3"/>
-      <c r="H147" s="4"/>
+      <c r="H147" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -7770,18 +7768,16 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A148" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="B148" s="50" t="b">
-        <v>1</v>
+    <row r="148" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="54"/>
+      <c r="B148" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C148" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>9</v>
@@ -7789,9 +7785,11 @@
       <c r="F148" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="15" t="s">
-        <v>188</v>
+      <c r="G148" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
@@ -7811,28 +7809,28 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A149" s="54"/>
-      <c r="B149" s="50" t="b">
-        <v>1</v>
+      <c r="B149" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C149" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="27" t="s">
-        <v>10</v>
+      <c r="F149" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G149" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H149" s="16" t="s">
-        <v>190</v>
+      <c r="H149" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
@@ -7854,14 +7852,14 @@
     </row>
     <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A150" s="54"/>
-      <c r="B150" s="50" t="b">
-        <v>1</v>
+      <c r="B150" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C150" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>9</v>
@@ -7873,7 +7871,7 @@
         <v>11</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
@@ -7893,18 +7891,18 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A151" s="54"/>
-      <c r="B151" s="50" t="b">
-        <v>1</v>
+      <c r="B151" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C151" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E151" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E151" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F151" s="26" t="s">
@@ -7913,8 +7911,8 @@
       <c r="G151" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H151" s="15" t="s">
-        <v>194</v>
+      <c r="H151" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
@@ -7934,18 +7932,18 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A152" s="54"/>
-      <c r="B152" s="3" t="b">
+      <c r="B152" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C152" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E152" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E152" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F152" s="26" t="s">
@@ -7955,7 +7953,7 @@
         <v>11</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="1"/>
@@ -7975,16 +7973,16 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A153" s="54"/>
-      <c r="B153" s="3" t="b">
+      <c r="B153" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C153" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>9</v>
@@ -7995,8 +7993,8 @@
       <c r="G153" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H153" s="16" t="s">
-        <v>198</v>
+      <c r="H153" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="1"/>
@@ -8016,16 +8014,16 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A154" s="54"/>
-      <c r="B154" s="3" t="b">
+      <c r="B154" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C154" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>9</v>
@@ -8036,8 +8034,8 @@
       <c r="G154" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H154" s="15" t="s">
-        <v>200</v>
+      <c r="H154" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
@@ -8057,16 +8055,16 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A155" s="54"/>
-      <c r="B155" s="3" t="b">
+      <c r="B155" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C155" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>9</v>
@@ -8077,8 +8075,8 @@
       <c r="G155" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H155" s="16" t="s">
-        <v>202</v>
+      <c r="H155" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
@@ -8100,14 +8098,14 @@
     </row>
     <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A156" s="54"/>
-      <c r="B156" s="3" t="b">
+      <c r="B156" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C156" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>9</v>
@@ -8119,7 +8117,7 @@
         <v>11</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
@@ -8139,28 +8137,28 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A157" s="54"/>
-      <c r="B157" s="3" t="b">
+      <c r="B157" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C157" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F157" s="26" t="s">
-        <v>22</v>
+      <c r="F157" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G157" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H157" s="15" t="s">
-        <v>206</v>
+      <c r="H157" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -8180,16 +8178,16 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A158" s="54"/>
-      <c r="B158" s="3" t="b">
+      <c r="B158" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C158" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>9</v>
@@ -8197,11 +8195,9 @@
       <c r="F158" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G158" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G158" s="3"/>
       <c r="H158" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
@@ -8221,16 +8217,16 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A159" s="54"/>
-      <c r="B159" s="3" t="b">
+      <c r="B159" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C159" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>9</v>
@@ -8238,9 +8234,11 @@
       <c r="F159" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="16" t="s">
-        <v>210</v>
+      <c r="G159" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" s="15" t="s">
+        <v>212</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="1"/>
@@ -8260,29 +8258,17 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A160" s="54"/>
-      <c r="B160" s="3" t="b">
+    <row r="160" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C160" s="2">
-        <v>15</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" s="15" t="s">
-        <v>212</v>
-      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="4"/>
       <c r="I160" s="3"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -8301,9 +8287,11 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="B161" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C161" s="2"/>
       <c r="D161" s="1"/>
       <c r="E161" s="3"/>
@@ -8328,15 +8316,29 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="1"/>
+    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A162" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="B162" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C162" s="2">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E162" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F162" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G162" s="3"/>
-      <c r="H162" s="4"/>
+      <c r="H162" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -8356,27 +8358,25 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="B163" s="3" t="b">
-        <v>1</v>
+      <c r="A163" s="54"/>
+      <c r="B163" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C163" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E163" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F163" s="27" t="s">
-        <v>10</v>
+        <v>217</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F163" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
@@ -8398,24 +8398,24 @@
     </row>
     <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A164" s="54"/>
-      <c r="B164" s="3" t="b">
-        <v>1</v>
+      <c r="B164" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C164" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F164" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="15" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
@@ -8437,24 +8437,24 @@
     </row>
     <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A165" s="54"/>
-      <c r="B165" s="3" t="b">
-        <v>1</v>
+      <c r="B165" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C165" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E165" s="18" t="s">
-        <v>221</v>
+        <v>223</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>224</v>
       </c>
       <c r="F165" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
@@ -8476,24 +8476,24 @@
     </row>
     <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A166" s="54"/>
-      <c r="B166" s="3" t="b">
-        <v>1</v>
+      <c r="B166" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C166" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E166" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="F166" s="26" t="s">
-        <v>22</v>
+        <v>226</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="F166" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="15" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
@@ -8513,26 +8513,26 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A167" s="54"/>
-      <c r="B167" s="3" t="b">
+      <c r="B167" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C167" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F167" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G167" s="3"/>
-      <c r="H167" s="15" t="s">
-        <v>228</v>
+      <c r="H167" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="1"/>
@@ -8552,27 +8552,17 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="54"/>
-      <c r="B168" s="3" t="b">
+    <row r="168" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C168" s="2">
-        <v>6</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E168" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="F168" s="28" t="s">
-        <v>57</v>
-      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="1"/>
       <c r="G168" s="3"/>
-      <c r="H168" s="16" t="s">
-        <v>231</v>
-      </c>
+      <c r="H168" s="4"/>
       <c r="I168" s="3"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -8591,9 +8581,11 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="B169" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C169" s="2"/>
       <c r="D169" s="1"/>
       <c r="E169" s="3"/>
@@ -8618,15 +8610,29 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="1"/>
+    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A170" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B170" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E170" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F170" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G170" s="3"/>
-      <c r="H170" s="4"/>
+      <c r="H170" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="I170" s="3"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -8646,27 +8652,25 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="B171" s="3" t="b">
+      <c r="A171" s="54"/>
+      <c r="B171" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C171" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F171" s="27" t="s">
-        <v>10</v>
+        <v>236</v>
+      </c>
+      <c r="F171" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
@@ -8686,26 +8690,26 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A172" s="54"/>
-      <c r="B172" s="3" t="b">
+      <c r="B172" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C172" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F172" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G172" s="3"/>
-      <c r="H172" s="15" t="s">
-        <v>237</v>
+      <c r="H172" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8725,26 +8729,26 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A173" s="54"/>
-      <c r="B173" s="3" t="b">
+      <c r="B173" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C173" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F173" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G173" s="3"/>
-      <c r="H173" s="16" t="s">
-        <v>240</v>
+      <c r="H173" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
@@ -8764,26 +8768,26 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A174" s="54"/>
-      <c r="B174" s="3" t="b">
+      <c r="B174" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C174" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F174" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="3"/>
-      <c r="H174" s="15" t="s">
-        <v>243</v>
+      <c r="H174" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8803,27 +8807,17 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="54"/>
-      <c r="B175" s="3" t="b">
+    <row r="175" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="17"/>
+      <c r="B175" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C175" s="2">
-        <v>5</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E175" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F175" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="1"/>
       <c r="G175" s="3"/>
-      <c r="H175" s="16" t="s">
-        <v>240</v>
-      </c>
+      <c r="H175" s="4"/>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -8842,9 +8836,11 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A176" s="17"/>
-      <c r="B176" s="1"/>
+    <row r="176" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C176" s="2"/>
       <c r="D176" s="1"/>
       <c r="E176" s="3"/>
@@ -8869,15 +8865,29 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="1"/>
+    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A177" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="B177" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C177" s="2">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F177" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G177" s="3"/>
-      <c r="H177" s="4"/>
+      <c r="H177" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -8897,28 +8907,24 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="B178" s="64" t="b">
-        <v>1</v>
+      <c r="A178" s="63"/>
+      <c r="B178" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C178" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E178" s="18" t="s">
-        <v>248</v>
+        <v>426</v>
+      </c>
+      <c r="E178" s="23" t="s">
+        <v>427</v>
       </c>
       <c r="F178" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="3"/>
-      <c r="H178" s="15" t="s">
-        <v>249</v>
-      </c>
+      <c r="H178" s="15"/>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -8938,22 +8944,26 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="63"/>
-      <c r="B179" s="64"/>
+      <c r="A179" s="54"/>
+      <c r="B179" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C179" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E179" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="F179" s="27" t="s">
-        <v>10</v>
+        <v>250</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="F179" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G179" s="3"/>
-      <c r="H179" s="15"/>
+      <c r="H179" s="15" t="s">
+        <v>252</v>
+      </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -8974,14 +8984,14 @@
     </row>
     <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A180" s="54"/>
-      <c r="B180" s="64" t="b">
-        <v>1</v>
+      <c r="B180" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C180" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E180" s="19" t="s">
         <v>251</v>
@@ -8991,7 +9001,7 @@
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -9013,24 +9023,24 @@
     </row>
     <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A181" s="54"/>
-      <c r="B181" s="64" t="b">
-        <v>1</v>
+      <c r="B181" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C181" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E181" s="19" t="s">
-        <v>251</v>
+        <v>256</v>
+      </c>
+      <c r="E181" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="F181" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -9052,24 +9062,24 @@
     </row>
     <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A182" s="54"/>
-      <c r="B182" s="64" t="b">
-        <v>1</v>
+      <c r="B182" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C182" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E182" s="18" t="s">
-        <v>255</v>
+        <v>259</v>
+      </c>
+      <c r="E182" s="23" t="s">
+        <v>258</v>
       </c>
       <c r="F182" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -9091,24 +9101,24 @@
     </row>
     <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A183" s="54"/>
-      <c r="B183" s="64" t="b">
-        <v>1</v>
+      <c r="B183" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C183" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E183" s="23" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F183" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="15" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -9130,24 +9140,24 @@
     </row>
     <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A184" s="54"/>
-      <c r="B184" s="64" t="b">
-        <v>1</v>
+      <c r="B184" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C184" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E184" s="23" t="s">
-        <v>262</v>
+        <v>264</v>
+      </c>
+      <c r="E184" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="F184" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="15" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -9167,24 +9177,26 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A185" s="54"/>
-      <c r="B185" s="64"/>
+      <c r="B185" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C185" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E185" s="18" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F185" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" s="15" t="s">
-        <v>266</v>
+      <c r="H185" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -9204,24 +9216,26 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A186" s="54"/>
-      <c r="B186" s="64"/>
+      <c r="B186" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C186" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E186" s="18" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F186" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="16" t="s">
-        <v>269</v>
+      <c r="H186" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
@@ -9243,22 +9257,24 @@
     </row>
     <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A187" s="54"/>
-      <c r="B187" s="64"/>
+      <c r="B187" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C187" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E187" s="18" t="s">
-        <v>271</v>
+        <v>273</v>
+      </c>
+      <c r="E187" s="23" t="s">
+        <v>274</v>
       </c>
       <c r="F187" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="15" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
@@ -9280,24 +9296,24 @@
     </row>
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A188" s="54"/>
-      <c r="B188" s="64" t="b">
-        <v>1</v>
+      <c r="B188" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C188" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E188" s="23" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="E188" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="15" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
@@ -9319,24 +9335,24 @@
     </row>
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A189" s="54"/>
-      <c r="B189" s="64" t="b">
-        <v>1</v>
+      <c r="B189" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C189" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="E189" s="18" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F189" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
@@ -9358,24 +9374,24 @@
     </row>
     <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A190" s="54"/>
-      <c r="B190" s="64" t="b">
-        <v>1</v>
+      <c r="B190" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C190" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="E190" s="18" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F190" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="15" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
@@ -9397,24 +9413,24 @@
     </row>
     <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A191" s="54"/>
-      <c r="B191" s="64" t="b">
-        <v>1</v>
+      <c r="B191" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C191" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F191" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="15" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9434,26 +9450,26 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A192" s="54"/>
-      <c r="B192" s="64" t="b">
-        <v>1</v>
+      <c r="B192" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C192" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E192" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="F192" s="26" t="s">
-        <v>22</v>
+        <v>288</v>
+      </c>
+      <c r="F192" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" s="15" t="s">
-        <v>286</v>
+      <c r="H192" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9473,24 +9489,26 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A193" s="54"/>
-      <c r="B193" s="3"/>
+      <c r="B193" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C193" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E193" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="F193" s="28" t="s">
-        <v>57</v>
+        <v>291</v>
+      </c>
+      <c r="F193" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="16" t="s">
-        <v>289</v>
+      <c r="H193" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
@@ -9512,23 +9530,23 @@
     </row>
     <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A194" s="54"/>
-      <c r="B194" s="3"/>
+      <c r="B194" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C194" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E194" s="18" t="s">
-        <v>291</v>
+        <v>425</v>
+      </c>
+      <c r="E194" s="23" t="s">
+        <v>424</v>
       </c>
       <c r="F194" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G194" s="3"/>
-      <c r="H194" s="15" t="s">
-        <v>292</v>
-      </c>
+      <c r="H194" s="15"/>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -9549,17 +9567,17 @@
     </row>
     <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A195" s="54"/>
-      <c r="B195" s="3" t="b">
-        <v>1</v>
+      <c r="B195" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="C195" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="E195" s="23" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="F195" s="26" t="s">
         <v>22</v>
@@ -9586,9 +9604,11 @@
     </row>
     <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A196" s="54"/>
-      <c r="B196" s="3"/>
+      <c r="B196" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C196" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>293</v>
@@ -9623,15 +9643,17 @@
     </row>
     <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A197" s="54"/>
-      <c r="B197" s="3"/>
+      <c r="B197" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C197" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="E197" s="23" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="F197" s="26" t="s">
         <v>22</v>
@@ -9658,23 +9680,23 @@
     </row>
     <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A198" s="54"/>
-      <c r="B198" s="3"/>
+      <c r="B198" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C198" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E198" s="18" t="s">
-        <v>296</v>
+        <v>446</v>
+      </c>
+      <c r="E198" s="23" t="s">
+        <v>443</v>
       </c>
       <c r="F198" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G198" s="3"/>
-      <c r="H198" s="15" t="s">
-        <v>297</v>
-      </c>
+      <c r="H198" s="15"/>
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
@@ -9695,15 +9717,17 @@
     </row>
     <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A199" s="54"/>
-      <c r="B199" s="3"/>
+      <c r="B199" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C199" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E199" s="23" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F199" s="26" t="s">
         <v>22</v>
@@ -9730,22 +9754,24 @@
     </row>
     <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A200" s="54"/>
-      <c r="B200" s="3"/>
+      <c r="B200" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C200" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E200" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F200" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
@@ -9765,25 +9791,25 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A201" s="54"/>
-      <c r="B201" s="3"/>
+      <c r="B201" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C201" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E201" s="18" t="s">
-        <v>302</v>
+        <v>421</v>
+      </c>
+      <c r="E201" s="23" t="s">
+        <v>422</v>
       </c>
       <c r="F201" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G201" s="3"/>
-      <c r="H201" s="16" t="s">
-        <v>303</v>
-      </c>
+      <c r="H201" s="15"/>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -9802,24 +9828,26 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A202" s="54"/>
-      <c r="B202" s="3"/>
+      <c r="B202" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C202" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>426</v>
+        <v>298</v>
       </c>
       <c r="E202" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="F202" s="28" t="s">
-        <v>57</v>
+        <v>299</v>
+      </c>
+      <c r="F202" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G202" s="3"/>
-      <c r="H202" s="16" t="s">
-        <v>305</v>
+      <c r="H202" s="15" t="s">
+        <v>300</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
@@ -9839,24 +9867,26 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A203" s="54"/>
-      <c r="B203" s="3"/>
+      <c r="B203" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C203" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E203" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="F203" s="28" t="s">
-        <v>57</v>
+        <v>302</v>
+      </c>
+      <c r="F203" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9876,24 +9906,26 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A204" s="54"/>
-      <c r="B204" s="3"/>
+      <c r="B204" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C204" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>309</v>
+        <v>423</v>
       </c>
       <c r="E204" s="18" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="F204" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="15" t="s">
-        <v>310</v>
+      <c r="H204" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
@@ -9913,23 +9945,27 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="3"/>
+    <row r="205" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="54"/>
+      <c r="B205" s="52" t="b">
+        <v>0</v>
+      </c>
       <c r="C205" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E205" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="F205" s="49" t="s">
-        <v>10</v>
+        <v>306</v>
+      </c>
+      <c r="E205" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="F205" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="4"/>
+      <c r="H205" s="16" t="s">
+        <v>308</v>
+      </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -9948,15 +9984,27 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="1"/>
+    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A206" s="54"/>
+      <c r="B206" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C206" s="2">
+        <v>30</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E206" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F206" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G206" s="3"/>
-      <c r="H206" s="4"/>
+      <c r="H206" s="15" t="s">
+        <v>310</v>
+      </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -9975,29 +10023,25 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A207" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="B207" s="3" t="b">
+    <row r="207" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C207" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E207" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F207" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="E207" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="F207" s="49" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="15" t="s">
-        <v>313</v>
-      </c>
+      <c r="H207" s="4"/>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -10016,27 +10060,17 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A208" s="54"/>
-      <c r="B208" s="3" t="b">
+    <row r="208" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C208" s="2">
-        <v>2</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F208" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="1"/>
       <c r="G208" s="3"/>
-      <c r="H208" s="15" t="s">
-        <v>315</v>
-      </c>
+      <c r="H208" s="4"/>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -10055,26 +10089,28 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A209" s="54"/>
-      <c r="B209" s="3" t="b">
+    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A209" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="B209" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E209" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="E209" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F209" s="26" t="s">
-        <v>22</v>
+      <c r="F209" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="16" t="s">
-        <v>317</v>
+      <c r="H209" s="15" t="s">
+        <v>313</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -10094,16 +10130,16 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A210" s="54"/>
-      <c r="B210" s="3" t="b">
+      <c r="B210" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>9</v>
@@ -10112,8 +10148,8 @@
         <v>22</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="16" t="s">
-        <v>319</v>
+      <c r="H210" s="15" t="s">
+        <v>315</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
@@ -10133,26 +10169,26 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A211" s="54"/>
-      <c r="B211" s="3" t="b">
+      <c r="B211" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C211" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E211" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E211" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F211" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G211" s="3"/>
-      <c r="H211" s="15" t="s">
-        <v>321</v>
+      <c r="H211" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
@@ -10172,16 +10208,16 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A212" s="54"/>
-      <c r="B212" s="3" t="b">
+      <c r="B212" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>9</v>
@@ -10190,8 +10226,8 @@
         <v>22</v>
       </c>
       <c r="G212" s="3"/>
-      <c r="H212" s="15" t="s">
-        <v>323</v>
+      <c r="H212" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
@@ -10213,14 +10249,14 @@
     </row>
     <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A213" s="54"/>
-      <c r="B213" s="3" t="b">
+      <c r="B213" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>9</v>
@@ -10230,7 +10266,7 @@
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10250,16 +10286,16 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A214" s="54"/>
-      <c r="B214" s="3" t="b">
+      <c r="B214" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>9</v>
@@ -10268,8 +10304,8 @@
         <v>22</v>
       </c>
       <c r="G214" s="3"/>
-      <c r="H214" s="16" t="s">
-        <v>327</v>
+      <c r="H214" s="15" t="s">
+        <v>323</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10291,14 +10327,14 @@
     </row>
     <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A215" s="54"/>
-      <c r="B215" s="3" t="b">
+      <c r="B215" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>9</v>
@@ -10308,7 +10344,7 @@
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10328,16 +10364,16 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A216" s="54"/>
-      <c r="B216" s="3" t="b">
+      <c r="B216" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>9</v>
@@ -10346,8 +10382,8 @@
         <v>22</v>
       </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="15" t="s">
-        <v>331</v>
+      <c r="H216" s="16" t="s">
+        <v>327</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10367,16 +10403,16 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A217" s="54"/>
-      <c r="B217" s="3" t="b">
+      <c r="B217" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>9</v>
@@ -10385,8 +10421,8 @@
         <v>22</v>
       </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="16" t="s">
-        <v>333</v>
+      <c r="H217" s="15" t="s">
+        <v>329</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10408,14 +10444,14 @@
     </row>
     <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A218" s="54"/>
-      <c r="B218" s="3" t="b">
+      <c r="B218" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C218" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>9</v>
@@ -10425,7 +10461,7 @@
       </c>
       <c r="G218" s="3"/>
       <c r="H218" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
@@ -10445,16 +10481,16 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A219" s="54"/>
-      <c r="B219" s="3" t="b">
+      <c r="B219" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C219" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>9</v>
@@ -10463,8 +10499,8 @@
         <v>22</v>
       </c>
       <c r="G219" s="3"/>
-      <c r="H219" s="15" t="s">
-        <v>337</v>
+      <c r="H219" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="I219" s="3"/>
       <c r="J219" s="1"/>
@@ -10486,14 +10522,14 @@
     </row>
     <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A220" s="54"/>
-      <c r="B220" s="3" t="b">
+      <c r="B220" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C220" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>9</v>
@@ -10503,7 +10539,7 @@
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
@@ -10523,16 +10559,16 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A221" s="54"/>
-      <c r="B221" s="3" t="b">
+      <c r="B221" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C221" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>9</v>
@@ -10541,8 +10577,8 @@
         <v>22</v>
       </c>
       <c r="G221" s="3"/>
-      <c r="H221" s="16" t="s">
-        <v>341</v>
+      <c r="H221" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10562,26 +10598,26 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A222" s="54"/>
-      <c r="B222" s="3" t="b">
+      <c r="B222" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C222" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F222" s="28" t="s">
-        <v>57</v>
+      <c r="F222" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G222" s="3"/>
-      <c r="H222" s="16" t="s">
-        <v>343</v>
+      <c r="H222" s="15" t="s">
+        <v>339</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
@@ -10601,26 +10637,26 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A223" s="54"/>
-      <c r="B223" s="3" t="b">
+      <c r="B223" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C223" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F223" s="28" t="s">
-        <v>57</v>
+      <c r="F223" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="16" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
@@ -10640,16 +10676,16 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A224" s="54"/>
-      <c r="B224" s="3" t="b">
+      <c r="B224" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C224" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>9</v>
@@ -10659,7 +10695,7 @@
       </c>
       <c r="G224" s="3"/>
       <c r="H224" s="16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
@@ -10679,16 +10715,16 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A225" s="54"/>
-      <c r="B225" s="3" t="b">
+      <c r="B225" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C225" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>9</v>
@@ -10697,8 +10733,8 @@
         <v>57</v>
       </c>
       <c r="G225" s="3"/>
-      <c r="H225" s="15" t="s">
-        <v>349</v>
+      <c r="H225" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
@@ -10718,16 +10754,16 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A226" s="54"/>
-      <c r="B226" s="3" t="b">
+      <c r="B226" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C226" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>9</v>
@@ -10736,8 +10772,8 @@
         <v>57</v>
       </c>
       <c r="G226" s="3"/>
-      <c r="H226" s="15" t="s">
-        <v>351</v>
+      <c r="H226" s="16" t="s">
+        <v>347</v>
       </c>
       <c r="I226" s="3"/>
       <c r="J226" s="1"/>
@@ -10757,16 +10793,16 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A227" s="54"/>
-      <c r="B227" s="3" t="b">
+      <c r="B227" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C227" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E227" s="8" t="s">
         <v>9</v>
@@ -10775,8 +10811,8 @@
         <v>57</v>
       </c>
       <c r="G227" s="3"/>
-      <c r="H227" s="16" t="s">
-        <v>353</v>
+      <c r="H227" s="15" t="s">
+        <v>349</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="1"/>
@@ -10796,15 +10832,27 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="1"/>
+    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A228" s="54"/>
+      <c r="B228" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C228" s="2">
+        <v>20</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G228" s="3"/>
-      <c r="H228" s="4"/>
+      <c r="H228" s="15" t="s">
+        <v>351</v>
+      </c>
       <c r="I228" s="3"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -10823,15 +10871,27 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="1"/>
+    <row r="229" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="54"/>
+      <c r="B229" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C229" s="2">
+        <v>21</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F229" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G229" s="3"/>
-      <c r="H229" s="4"/>
+      <c r="H229" s="16" t="s">
+        <v>353</v>
+      </c>
       <c r="I229" s="3"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -10850,29 +10910,17 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A230" s="63" t="s">
-        <v>354</v>
-      </c>
-      <c r="B230" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C230" s="2">
-        <v>1</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E230" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F230" s="27" t="s">
-        <v>10</v>
-      </c>
+    <row r="230" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="1"/>
       <c r="G230" s="3"/>
-      <c r="H230" s="16" t="s">
-        <v>356</v>
-      </c>
+      <c r="H230" s="4"/>
       <c r="I230" s="3"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
@@ -10891,27 +10939,17 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A231" s="54"/>
-      <c r="B231" s="3" t="b">
+    <row r="231" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C231" s="2">
-        <v>2</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E231" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F231" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="1"/>
       <c r="G231" s="3"/>
-      <c r="H231" s="15" t="s">
-        <v>358</v>
-      </c>
+      <c r="H231" s="4"/>
       <c r="I231" s="3"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -10930,26 +10968,28 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A232" s="54"/>
-      <c r="B232" s="3" t="b">
+    <row r="232" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="B232" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C232" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E232" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E232" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F232" s="26" t="s">
-        <v>22</v>
+      <c r="F232" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G232" s="3"/>
-      <c r="H232" s="15" t="s">
-        <v>360</v>
+      <c r="H232" s="16" t="s">
+        <v>356</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="1"/>
@@ -10971,14 +11011,14 @@
     </row>
     <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A233" s="54"/>
-      <c r="B233" s="3" t="b">
+      <c r="B233" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C233" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E233" s="8" t="s">
         <v>9</v>
@@ -10988,7 +11028,7 @@
       </c>
       <c r="G233" s="3"/>
       <c r="H233" s="15" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I233" s="3"/>
       <c r="J233" s="1"/>
@@ -11010,14 +11050,14 @@
     </row>
     <row r="234" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A234" s="54"/>
-      <c r="B234" s="3" t="b">
+      <c r="B234" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C234" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>9</v>
@@ -11026,8 +11066,8 @@
         <v>22</v>
       </c>
       <c r="G234" s="3"/>
-      <c r="H234" s="20" t="s">
-        <v>364</v>
+      <c r="H234" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="I234" s="3"/>
       <c r="J234" s="1"/>
@@ -11049,24 +11089,24 @@
     </row>
     <row r="235" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A235" s="54"/>
-      <c r="B235" s="3" t="b">
+      <c r="B235" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C235" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E235" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F235" s="28" t="s">
-        <v>57</v>
+      <c r="F235" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G235" s="3"/>
       <c r="H235" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I235" s="3"/>
       <c r="J235" s="1"/>
@@ -11086,15 +11126,27 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="1"/>
+    <row r="236" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A236" s="54"/>
+      <c r="B236" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C236" s="2">
+        <v>5</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G236" s="3"/>
-      <c r="H236" s="4"/>
+      <c r="H236" s="20" t="s">
+        <v>364</v>
+      </c>
       <c r="I236" s="3"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
@@ -11113,15 +11165,27 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="1"/>
+    <row r="237" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A237" s="54"/>
+      <c r="B237" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C237" s="2">
+        <v>6</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G237" s="3"/>
-      <c r="H237" s="4"/>
+      <c r="H237" s="15" t="s">
+        <v>366</v>
+      </c>
       <c r="I237" s="3"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
@@ -11140,25 +11204,15 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A238" s="60" t="s">
-        <v>402</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C238" s="2">
-        <v>1</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E238" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F238" s="41" t="s">
-        <v>412</v>
-      </c>
+    <row r="238" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="1"/>
+      <c r="B238" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="1"/>
       <c r="G238" s="3"/>
       <c r="H238" s="4"/>
       <c r="I238" s="3"/>
@@ -11179,23 +11233,15 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A239" s="54"/>
-      <c r="B239" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C239" s="2">
-        <v>2</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E239" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F239" s="41" t="s">
-        <v>412</v>
-      </c>
+    <row r="239" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A239" s="1"/>
+      <c r="B239" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C239" s="2"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="1"/>
       <c r="G239" s="3"/>
       <c r="H239" s="4"/>
       <c r="I239" s="3"/>
@@ -11216,16 +11262,18 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A240" s="54"/>
-      <c r="B240" s="1" t="b">
+    <row r="240" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A240" s="60" t="s">
+        <v>402</v>
+      </c>
+      <c r="B240" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C240" s="2">
-        <v>3</v>
-      </c>
-      <c r="D240" s="24" t="s">
-        <v>419</v>
+        <v>1</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="E240" s="21" t="s">
         <v>9</v>
@@ -11253,16 +11301,16 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A241" s="54"/>
-      <c r="B241" s="1" t="b">
+      <c r="B241" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C241" s="2">
-        <v>4</v>
-      </c>
-      <c r="D241" s="24" t="s">
-        <v>420</v>
+        <v>2</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="E241" s="21" t="s">
         <v>9</v>
@@ -11290,17 +11338,23 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A242" s="54"/>
-      <c r="B242" s="1" t="b">
+      <c r="B242" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C242" s="2">
-        <v>5</v>
-      </c>
-      <c r="D242" s="1"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D242" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="E242" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" s="41" t="s">
+        <v>412</v>
+      </c>
       <c r="G242" s="3"/>
       <c r="H242" s="4"/>
       <c r="I242" s="3"/>
@@ -11321,17 +11375,23 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A243" s="54"/>
-      <c r="B243" s="1" t="b">
+      <c r="B243" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C243" s="2">
-        <v>6</v>
-      </c>
-      <c r="D243" s="1"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D243" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E243" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" s="41" t="s">
+        <v>412</v>
+      </c>
       <c r="G243" s="3"/>
       <c r="H243" s="4"/>
       <c r="I243" s="3"/>
@@ -11352,13 +11412,13 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A244" s="54"/>
-      <c r="B244" s="1" t="b">
+      <c r="B244" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C244" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="3"/>
@@ -11383,13 +11443,13 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A245" s="54"/>
-      <c r="B245" s="1" t="b">
+      <c r="B245" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C245" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="3"/>
@@ -11414,13 +11474,13 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A246" s="54"/>
-      <c r="B246" s="1" t="b">
+      <c r="B246" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C246" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="3"/>
@@ -11445,13 +11505,13 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A247" s="54"/>
-      <c r="B247" s="1" t="b">
+      <c r="B247" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C247" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="3"/>
@@ -11476,13 +11536,13 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A248" s="54"/>
-      <c r="B248" s="1" t="b">
+      <c r="B248" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C248" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="3"/>
@@ -11507,13 +11567,13 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A249" s="54"/>
-      <c r="B249" s="1" t="b">
+      <c r="B249" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C249" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="3"/>
@@ -11538,13 +11598,13 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A250" s="54"/>
-      <c r="B250" s="1" t="b">
+      <c r="B250" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C250" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="3"/>
@@ -11569,13 +11629,13 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A251" s="54"/>
-      <c r="B251" s="1" t="b">
+      <c r="B251" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C251" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="3"/>
@@ -11600,13 +11660,13 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A252" s="54"/>
-      <c r="B252" s="1" t="b">
+      <c r="B252" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C252" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="3"/>
@@ -11631,10 +11691,14 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A253" s="54"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="2"/>
+      <c r="B253" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C253" s="2">
+        <v>14</v>
+      </c>
       <c r="D253" s="1"/>
       <c r="E253" s="3"/>
       <c r="F253" s="1"/>
@@ -11658,10 +11722,14 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A254" s="54"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="2"/>
+      <c r="B254" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C254" s="2">
+        <v>15</v>
+      </c>
       <c r="D254" s="1"/>
       <c r="E254" s="3"/>
       <c r="F254" s="1"/>
@@ -11767,7 +11835,7 @@
       <c r="Y257" s="1"/>
     </row>
     <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="54"/>
       <c r="B258" s="1"/>
       <c r="C258" s="2"/>
       <c r="D258" s="1"/>
@@ -11794,7 +11862,7 @@
       <c r="Y258" s="1"/>
     </row>
     <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="54"/>
       <c r="B259" s="1"/>
       <c r="C259" s="2"/>
       <c r="D259" s="1"/>
@@ -32232,245 +32300,299 @@
       <c r="X1015" s="1"/>
       <c r="Y1015" s="1"/>
     </row>
+    <row r="1016" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1016" s="1"/>
+      <c r="B1016" s="1"/>
+      <c r="C1016" s="2"/>
+      <c r="D1016" s="1"/>
+      <c r="E1016" s="3"/>
+      <c r="F1016" s="1"/>
+      <c r="G1016" s="3"/>
+      <c r="H1016" s="4"/>
+      <c r="I1016" s="3"/>
+      <c r="J1016" s="1"/>
+      <c r="K1016" s="1"/>
+      <c r="L1016" s="1"/>
+      <c r="M1016" s="1"/>
+      <c r="N1016" s="1"/>
+      <c r="O1016" s="1"/>
+      <c r="P1016" s="1"/>
+      <c r="Q1016" s="1"/>
+      <c r="R1016" s="1"/>
+      <c r="S1016" s="1"/>
+      <c r="T1016" s="1"/>
+      <c r="U1016" s="1"/>
+      <c r="V1016" s="1"/>
+      <c r="W1016" s="1"/>
+      <c r="X1016" s="1"/>
+      <c r="Y1016" s="1"/>
+    </row>
+    <row r="1017" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1017" s="1"/>
+      <c r="B1017" s="1"/>
+      <c r="C1017" s="2"/>
+      <c r="D1017" s="1"/>
+      <c r="E1017" s="3"/>
+      <c r="F1017" s="1"/>
+      <c r="G1017" s="3"/>
+      <c r="H1017" s="4"/>
+      <c r="I1017" s="3"/>
+      <c r="J1017" s="1"/>
+      <c r="K1017" s="1"/>
+      <c r="L1017" s="1"/>
+      <c r="M1017" s="1"/>
+      <c r="N1017" s="1"/>
+      <c r="O1017" s="1"/>
+      <c r="P1017" s="1"/>
+      <c r="Q1017" s="1"/>
+      <c r="R1017" s="1"/>
+      <c r="S1017" s="1"/>
+      <c r="T1017" s="1"/>
+      <c r="U1017" s="1"/>
+      <c r="V1017" s="1"/>
+      <c r="W1017" s="1"/>
+      <c r="X1017" s="1"/>
+      <c r="Y1017" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A238:A257"/>
-    <mergeCell ref="A46:A63"/>
-    <mergeCell ref="A66:A77"/>
-    <mergeCell ref="A207:A227"/>
-    <mergeCell ref="A230:A235"/>
-    <mergeCell ref="A80:A96"/>
-    <mergeCell ref="A99:A115"/>
-    <mergeCell ref="A118:A144"/>
-    <mergeCell ref="A148:A160"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="A178:A204"/>
+    <mergeCell ref="A240:A259"/>
+    <mergeCell ref="A45:A62"/>
+    <mergeCell ref="A65:A76"/>
+    <mergeCell ref="A209:A229"/>
+    <mergeCell ref="A232:A237"/>
+    <mergeCell ref="A79:A95"/>
+    <mergeCell ref="A98:A114"/>
+    <mergeCell ref="A117:A143"/>
+    <mergeCell ref="A147:A159"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="A177:A206"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A7:A37"/>
-    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G40" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E41" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G42" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E43" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E46" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G46" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E47" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E50" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E51" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G51" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E55" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G55" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E56" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G56" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E57" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E59" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E60" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E62" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E66" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G66" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E67" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E68" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G68" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E69" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E70" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E71" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G71" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E74" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E75" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G75" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E76" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G76" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E77" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E80" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="G80" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E81" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="G81" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E82" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="G82" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E83" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E84" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="G84" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E85" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="G85" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E86" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="G86" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E87" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="G87" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E89" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E90" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E94" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E96" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="G96" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E99" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="G99" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E100" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="G100" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E101" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="G101" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E102" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="G102" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E103" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G103" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E104" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E105" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E107" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G107" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E111" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G111" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E112" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G112" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E113" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G113" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E114" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G114" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E115" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G115" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E118" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G118" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E119" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G119" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E120" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G120" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E121" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E122" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G122" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E123" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="G123" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E124" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="G124" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E125" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G125" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E126" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E127" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="G127" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E128" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E129" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="G129" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E130" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E133" r:id="rId104" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E134" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G134" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E136" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="G136" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E137" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G137" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E138" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="G138" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E139" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E140" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="G140" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E141" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="G141" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E142" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E143" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E144" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E148" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E149" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G149" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E150" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G150" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E151" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="G151" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E152" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G152" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E153" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G153" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E154" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G154" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E155" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G155" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E156" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G156" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E157" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="G157" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E158" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G158" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E159" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E160" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="G160" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E163" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E164" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E165" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E166" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E167" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E168" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E171" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E172" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E173" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E174" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E175" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E178" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E180" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E181" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E182" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E183" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E184" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E185" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E186" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E187" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E188" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E189" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E190" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E191" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E192" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E193" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E194" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G39" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E41" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G41" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E42" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E45" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E46" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E49" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G50" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E54" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E55" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G55" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E56" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G56" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E58" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E59" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E61" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E65" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G65" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E66" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E67" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G67" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E68" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E69" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E70" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G70" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E73" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E74" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G74" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E75" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G75" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E76" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E79" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G79" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E80" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G80" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E81" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G81" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E82" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E83" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G83" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E84" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G84" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E85" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G85" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E86" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G86" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E88" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E89" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E93" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E95" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G95" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E98" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G98" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E99" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G99" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E100" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G100" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E101" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G101" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E102" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G102" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E103" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E104" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E106" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G106" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E110" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G110" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E111" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G111" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E112" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G112" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E113" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G113" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E114" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G114" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E117" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G117" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E118" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G118" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E119" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G119" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E120" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E121" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G121" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E122" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G122" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E123" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G123" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E124" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G124" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E125" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E126" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G126" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E127" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E128" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G128" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E129" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E132" r:id="rId104" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E133" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G133" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E135" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G135" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E136" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G136" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E137" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G137" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E138" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E139" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G139" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E140" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G140" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E141" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E142" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E143" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E147" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E148" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G148" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E149" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G149" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E150" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G150" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E151" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G151" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E152" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G152" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E153" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G153" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E154" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G154" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E155" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G155" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E156" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G156" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E157" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G157" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E158" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E159" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G159" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E162" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E163" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E164" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E165" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E166" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E167" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E170" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E171" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E172" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E173" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E174" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E177" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E179" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E180" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E181" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E182" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E183" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E184" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E185" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E186" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E187" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E188" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E189" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E190" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E191" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E192" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E193" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
     <hyperlink ref="E196" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E198" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E200" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E201" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E202" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E203" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E204" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E207" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E208" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E209" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E210" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E211" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E212" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E213" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E214" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E215" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E216" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E217" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E218" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E219" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E220" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E221" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E222" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E223" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E224" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E225" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E226" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E227" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E230" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E231" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E232" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E233" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E234" r:id="rId204" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E235" r:id="rId205" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E205" r:id="rId206" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E146" r:id="rId207" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E145" r:id="rId208" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
-    <hyperlink ref="G73" r:id="rId209" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E73" r:id="rId210" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E72" r:id="rId211" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
+    <hyperlink ref="E200" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E202" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E203" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E204" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E205" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E206" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E209" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E210" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E211" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E212" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E213" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E214" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E215" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E216" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E217" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E218" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E219" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E220" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E221" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E222" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E223" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E224" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E225" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E226" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E227" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E228" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E229" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E232" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E233" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E234" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E235" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E236" r:id="rId204" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E237" r:id="rId205" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E207" r:id="rId206" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E145" r:id="rId207" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E144" r:id="rId208" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="G72" r:id="rId209" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E72" r:id="rId210" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E71" r:id="rId211" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
     <hyperlink ref="E6" r:id="rId212" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
-    <hyperlink ref="E88" r:id="rId213" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
-    <hyperlink ref="E93" r:id="rId214" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
-    <hyperlink ref="E92" r:id="rId215" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
-    <hyperlink ref="E91" r:id="rId216" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
-    <hyperlink ref="E49" r:id="rId217" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
-    <hyperlink ref="E61" r:id="rId218" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
+    <hyperlink ref="E87" r:id="rId213" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
+    <hyperlink ref="E92" r:id="rId214" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
+    <hyperlink ref="E91" r:id="rId215" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
+    <hyperlink ref="E90" r:id="rId216" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
+    <hyperlink ref="E48" r:id="rId217" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
+    <hyperlink ref="E60" r:id="rId218" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
     <hyperlink ref="E32" r:id="rId219" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
     <hyperlink ref="E14" r:id="rId220" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
     <hyperlink ref="E7" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -32514,35 +32636,38 @@
     <hyperlink ref="E9" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G8" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E8" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E238" r:id="rId262" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E240" r:id="rId262" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
     <hyperlink ref="E21" r:id="rId263" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E239" r:id="rId264" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E241" r:id="rId264" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
     <hyperlink ref="E30" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="E12" r:id="rId266" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
-    <hyperlink ref="E240" r:id="rId267" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
-    <hyperlink ref="E241" r:id="rId268" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E242" r:id="rId267" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E243" r:id="rId268" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
     <hyperlink ref="E24" r:id="rId269" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
     <hyperlink ref="E19" r:id="rId270" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
-    <hyperlink ref="E199" r:id="rId271" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
-    <hyperlink ref="E195" r:id="rId272" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
-    <hyperlink ref="E179" r:id="rId273" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
-    <hyperlink ref="E197" r:id="rId274" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
-    <hyperlink ref="E106" r:id="rId275" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
-    <hyperlink ref="E110" r:id="rId276" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
-    <hyperlink ref="E109" r:id="rId277" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
-    <hyperlink ref="E108" r:id="rId278" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
-    <hyperlink ref="E135" r:id="rId279" xr:uid="{880B159A-370B-40EE-A5C8-AE68325F8994}"/>
-    <hyperlink ref="E131" r:id="rId280" xr:uid="{96ACD224-977A-4E66-9264-5617B21A7B5A}"/>
-    <hyperlink ref="E132" r:id="rId281" xr:uid="{7FD7344C-2A6A-4318-A67E-05F8EA153E88}"/>
-    <hyperlink ref="E95" r:id="rId282" xr:uid="{B6515FE2-AD7F-4A71-83EF-89020758DE37}"/>
-    <hyperlink ref="E97" r:id="rId283" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
-    <hyperlink ref="E58" r:id="rId284" xr:uid="{AB524FDC-322C-4129-B3D3-C0CD18DF6C39}"/>
-    <hyperlink ref="E48" r:id="rId285" xr:uid="{12F3604F-E330-4354-82A9-2E7144C6C69C}"/>
-    <hyperlink ref="E53" r:id="rId286" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
-    <hyperlink ref="E52" r:id="rId287" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
-    <hyperlink ref="E54" r:id="rId288" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
+    <hyperlink ref="E201" r:id="rId271" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
+    <hyperlink ref="E194" r:id="rId272" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
+    <hyperlink ref="E178" r:id="rId273" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
+    <hyperlink ref="E199" r:id="rId274" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
+    <hyperlink ref="E105" r:id="rId275" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
+    <hyperlink ref="E109" r:id="rId276" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
+    <hyperlink ref="E108" r:id="rId277" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
+    <hyperlink ref="E107" r:id="rId278" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
+    <hyperlink ref="E134" r:id="rId279" xr:uid="{880B159A-370B-40EE-A5C8-AE68325F8994}"/>
+    <hyperlink ref="E130" r:id="rId280" xr:uid="{96ACD224-977A-4E66-9264-5617B21A7B5A}"/>
+    <hyperlink ref="E131" r:id="rId281" xr:uid="{7FD7344C-2A6A-4318-A67E-05F8EA153E88}"/>
+    <hyperlink ref="E94" r:id="rId282" xr:uid="{B6515FE2-AD7F-4A71-83EF-89020758DE37}"/>
+    <hyperlink ref="E96" r:id="rId283" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
+    <hyperlink ref="E57" r:id="rId284" xr:uid="{AB524FDC-322C-4129-B3D3-C0CD18DF6C39}"/>
+    <hyperlink ref="E47" r:id="rId285" xr:uid="{12F3604F-E330-4354-82A9-2E7144C6C69C}"/>
+    <hyperlink ref="E52" r:id="rId286" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
+    <hyperlink ref="E51" r:id="rId287" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
+    <hyperlink ref="E53" r:id="rId288" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
+    <hyperlink ref="E198" r:id="rId289" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
+    <hyperlink ref="E197" r:id="rId290" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
+    <hyperlink ref="E195" r:id="rId291" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId289"/>
+  <pageSetup orientation="portrait" r:id="rId292"/>
 </worksheet>
 </file>
--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2F386B-7B72-4043-AE9B-6248CE15279E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D862E51A-7A21-4ACA-BDAE-74D4770800A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="446">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -834,15 +834,6 @@
   </si>
   <si>
     <t>Flipkart, Morgan Stanley, Accolite, Amazon , Microsoft, OYO , Samsung  , DE Shaw , Visa</t>
-  </si>
-  <si>
-    <t>Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/group-the-people-given-the-group-size-they-belong-to/description/</t>
-  </si>
-  <si>
-    <t>Amazon, Google, Meta, Salesforce, Intuit , Linkedin , Nvidia , Uber, Microsoft</t>
   </si>
   <si>
     <t>Floyd Warshall Algo</t>
@@ -1566,7 +1557,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1641,12 +1632,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
@@ -1683,7 +1668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1782,15 +1767,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1799,13 +1781,13 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1815,10 +1797,26 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1826,22 +1824,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2080,11 +2062,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1017"/>
+  <dimension ref="A1:Y1016"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D194" sqref="D194"/>
+      <pane ySplit="4" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2103,11 +2085,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="53" t="s">
-        <v>415</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="D1" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -2132,14 +2114,14 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="D2" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2254,20 +2236,20 @@
     </row>
     <row r="6" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
-      <c r="B6" s="52" t="b">
+      <c r="B6" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34"/>
@@ -2290,10 +2272,10 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="52" t="b">
+      <c r="B7" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="30">
@@ -2335,8 +2317,8 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="52" t="b">
+      <c r="A8" s="62"/>
+      <c r="B8" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C8" s="30">
@@ -2378,8 +2360,8 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
-      <c r="B9" s="52" t="b">
+      <c r="A9" s="62"/>
+      <c r="B9" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C9" s="30">
@@ -2417,8 +2399,8 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="57"/>
-      <c r="B10" s="52" t="b">
+      <c r="A10" s="62"/>
+      <c r="B10" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="30">
@@ -2458,15 +2440,15 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57"/>
-      <c r="B11" s="52" t="b">
+      <c r="A11" s="62"/>
+      <c r="B11" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C11" s="30">
         <v>6</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>9</v>
@@ -2495,20 +2477,20 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57"/>
-      <c r="B12" s="52" t="b">
+      <c r="A12" s="62"/>
+      <c r="B12" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="30">
         <v>7</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="33"/>
@@ -2532,8 +2514,8 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
-      <c r="B13" s="52" t="b">
+      <c r="A13" s="62"/>
+      <c r="B13" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C13" s="30">
@@ -2573,15 +2555,15 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="57"/>
-      <c r="B14" s="52" t="b">
+      <c r="A14" s="62"/>
+      <c r="B14" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C14" s="30">
         <v>9</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>9</v>
@@ -2610,8 +2592,8 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
-      <c r="B15" s="52" t="b">
+      <c r="A15" s="62"/>
+      <c r="B15" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="30">
@@ -2649,8 +2631,8 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="52" t="b">
+      <c r="A16" s="62"/>
+      <c r="B16" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C16" s="30">
@@ -2690,8 +2672,8 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="52" t="b">
+      <c r="A17" s="62"/>
+      <c r="B17" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="30">
@@ -2733,8 +2715,8 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="52" t="b">
+      <c r="A18" s="62"/>
+      <c r="B18" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C18" s="30">
@@ -2776,15 +2758,15 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
-      <c r="B19" s="52" t="b">
+      <c r="A19" s="62"/>
+      <c r="B19" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="30">
         <v>14</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>9</v>
@@ -2813,8 +2795,8 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
-      <c r="B20" s="52" t="b">
+      <c r="A20" s="62"/>
+      <c r="B20" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C20" s="30">
@@ -2854,21 +2836,21 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="52" t="b">
+      <c r="A21" s="62"/>
+      <c r="B21" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C21" s="30">
         <v>16</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="42" t="s">
-        <v>10</v>
+      <c r="F21" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="39"/>
@@ -2891,8 +2873,8 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
-      <c r="B22" s="52" t="b">
+      <c r="A22" s="62"/>
+      <c r="B22" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C22" s="30">
@@ -2932,8 +2914,8 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57"/>
-      <c r="B23" s="52" t="b">
+      <c r="A23" s="62"/>
+      <c r="B23" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C23" s="30">
@@ -2975,15 +2957,15 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
-      <c r="B24" s="52" t="b">
+      <c r="A24" s="62"/>
+      <c r="B24" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C24" s="30">
         <v>19</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>9</v>
@@ -3012,8 +2994,8 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="52" t="b">
+      <c r="A25" s="62"/>
+      <c r="B25" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C25" s="30">
@@ -3053,8 +3035,8 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="52" t="b">
+      <c r="A26" s="62"/>
+      <c r="B26" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C26" s="30">
@@ -3094,8 +3076,8 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57"/>
-      <c r="B27" s="52" t="b">
+      <c r="A27" s="62"/>
+      <c r="B27" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="30">
@@ -3135,8 +3117,8 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="52" t="b">
+      <c r="A28" s="62"/>
+      <c r="B28" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C28" s="30">
@@ -3176,8 +3158,8 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
-      <c r="B29" s="52" t="b">
+      <c r="A29" s="62"/>
+      <c r="B29" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C29" s="30">
@@ -3217,8 +3199,8 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57"/>
-      <c r="B30" s="52" t="b">
+      <c r="A30" s="62"/>
+      <c r="B30" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C30" s="30">
@@ -3256,8 +3238,8 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="57"/>
-      <c r="B31" s="52" t="b">
+      <c r="A31" s="62"/>
+      <c r="B31" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C31" s="30">
@@ -3299,15 +3281,15 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="57"/>
-      <c r="B32" s="52" t="b">
+      <c r="A32" s="62"/>
+      <c r="B32" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C32" s="30">
         <v>27</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>9</v>
@@ -3336,8 +3318,8 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57"/>
-      <c r="B33" s="52" t="b">
+      <c r="A33" s="62"/>
+      <c r="B33" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C33" s="30">
@@ -3377,8 +3359,8 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="57"/>
-      <c r="B34" s="52" t="b">
+      <c r="A34" s="62"/>
+      <c r="B34" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="30">
@@ -3418,8 +3400,8 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="57"/>
-      <c r="B35" s="52" t="b">
+      <c r="A35" s="62"/>
+      <c r="B35" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="30">
@@ -3461,8 +3443,8 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="57"/>
-      <c r="B36" s="52" t="b">
+      <c r="A36" s="62"/>
+      <c r="B36" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C36" s="30">
@@ -3500,8 +3482,8 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="57"/>
-      <c r="B37" s="52" t="b">
+      <c r="A37" s="62"/>
+      <c r="B37" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C37" s="30">
@@ -3569,7 +3551,7 @@
       <c r="A39" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="52" t="b">
+      <c r="B39" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C39" s="30">
@@ -3578,7 +3560,7 @@
       <c r="D39" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="37" t="s">
@@ -3609,8 +3591,8 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="52" t="b">
+      <c r="A40" s="55"/>
+      <c r="B40" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C40" s="30">
@@ -3619,7 +3601,7 @@
       <c r="D40" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="37" t="s">
@@ -3648,8 +3630,8 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="52" t="b">
+      <c r="A41" s="55"/>
+      <c r="B41" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C41" s="30">
@@ -3658,7 +3640,7 @@
       <c r="D41" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="37" t="s">
@@ -3687,8 +3669,8 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="52" t="b">
+      <c r="A42" s="55"/>
+      <c r="B42" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C42" s="30">
@@ -3697,7 +3679,7 @@
       <c r="D42" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="40" t="s">
@@ -3727,7 +3709,7 @@
     </row>
     <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
-      <c r="B43" s="52"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="2"/>
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
@@ -3753,7 +3735,7 @@
     </row>
     <row r="44" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="52"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="2"/>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
@@ -3778,10 +3760,10 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="61" t="s">
+      <c r="A45" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="52" t="b">
+      <c r="B45" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C45" s="30">
@@ -3790,7 +3772,7 @@
       <c r="D45" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="36" t="s">
@@ -3821,8 +3803,8 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="52" t="b">
+      <c r="A46" s="55"/>
+      <c r="B46" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C46" s="30">
@@ -3831,7 +3813,7 @@
       <c r="D46" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="36" t="s">
@@ -3860,15 +3842,15 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="52" t="b">
+      <c r="A47" s="55"/>
+      <c r="B47" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="30">
         <v>3</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>9</v>
@@ -3897,15 +3879,15 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="52" t="b">
+      <c r="A48" s="55"/>
+      <c r="B48" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C48" s="30">
         <v>4</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>9</v>
@@ -3934,8 +3916,8 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="52" t="b">
+      <c r="A49" s="55"/>
+      <c r="B49" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C49" s="30">
@@ -3944,7 +3926,7 @@
       <c r="D49" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="36" t="s">
@@ -3973,8 +3955,8 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="52" t="b">
+      <c r="A50" s="55"/>
+      <c r="B50" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C50" s="30">
@@ -3983,7 +3965,7 @@
       <c r="D50" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="37" t="s">
@@ -4012,15 +3994,15 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="52" t="b">
+      <c r="A51" s="55"/>
+      <c r="B51" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C51" s="30">
         <v>7</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>9</v>
@@ -4049,15 +4031,15 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
-      <c r="B52" s="52" t="b">
+      <c r="A52" s="55"/>
+      <c r="B52" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C52" s="30">
         <v>8</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>9</v>
@@ -4086,15 +4068,15 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
-      <c r="B53" s="52" t="b">
+      <c r="A53" s="55"/>
+      <c r="B53" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C53" s="30">
         <v>9</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>9</v>
@@ -4123,8 +4105,8 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
-      <c r="B54" s="52" t="b">
+      <c r="A54" s="55"/>
+      <c r="B54" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -4133,7 +4115,7 @@
       <c r="D54" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="37" t="s">
@@ -4162,8 +4144,8 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="52" t="b">
+      <c r="A55" s="55"/>
+      <c r="B55" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -4172,7 +4154,7 @@
       <c r="D55" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="E55" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="37" t="s">
@@ -4203,8 +4185,8 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="59"/>
-      <c r="B56" s="52" t="b">
+      <c r="A56" s="55"/>
+      <c r="B56" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -4213,7 +4195,7 @@
       <c r="D56" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="37" t="s">
@@ -4242,15 +4224,15 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="52" t="b">
+      <c r="A57" s="55"/>
+      <c r="B57" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C57" s="30">
         <v>13</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>9</v>
@@ -4279,8 +4261,8 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
-      <c r="B58" s="52" t="b">
+      <c r="A58" s="55"/>
+      <c r="B58" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C58" s="30">
@@ -4289,7 +4271,7 @@
       <c r="D58" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E58" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="37" t="s">
@@ -4318,8 +4300,8 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="59"/>
-      <c r="B59" s="52" t="b">
+      <c r="A59" s="55"/>
+      <c r="B59" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C59" s="30">
@@ -4328,7 +4310,7 @@
       <c r="D59" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E59" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="40" t="s">
@@ -4357,15 +4339,15 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="59"/>
-      <c r="B60" s="52" t="b">
+      <c r="A60" s="55"/>
+      <c r="B60" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C60" s="30">
         <v>16</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E60" s="31" t="s">
         <v>9</v>
@@ -4394,8 +4376,8 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="59"/>
-      <c r="B61" s="52" t="b">
+      <c r="A61" s="55"/>
+      <c r="B61" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -4404,7 +4386,7 @@
       <c r="D61" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="43" t="s">
+      <c r="E61" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="40" t="s">
@@ -4431,8 +4413,8 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="59"/>
-      <c r="B62" s="52" t="b">
+      <c r="A62" s="55"/>
+      <c r="B62" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -4469,7 +4451,7 @@
     </row>
     <row r="63" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
-      <c r="B63" s="52" t="b">
+      <c r="B63" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C63" s="2"/>
@@ -4494,7 +4476,7 @@
     </row>
     <row r="64" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="52" t="b">
+      <c r="B64" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C64" s="2"/>
@@ -4522,10 +4504,10 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="62" t="s">
+      <c r="A65" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="52" t="b">
+      <c r="B65" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C65" s="2">
@@ -4566,8 +4548,8 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="54"/>
-      <c r="B66" s="52" t="b">
+      <c r="A66" s="53"/>
+      <c r="B66" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C66" s="2">
@@ -4606,8 +4588,8 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="54"/>
-      <c r="B67" s="52" t="b">
+      <c r="A67" s="53"/>
+      <c r="B67" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C67" s="2">
@@ -4648,8 +4630,8 @@
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A68" s="54"/>
-      <c r="B68" s="52" t="b">
+      <c r="A68" s="53"/>
+      <c r="B68" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C68" s="2">
@@ -4688,8 +4670,8 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="54"/>
-      <c r="B69" s="52" t="b">
+      <c r="A69" s="53"/>
+      <c r="B69" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C69" s="2">
@@ -4728,8 +4710,8 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="54"/>
-      <c r="B70" s="52" t="b">
+      <c r="A70" s="53"/>
+      <c r="B70" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C70" s="2">
@@ -4770,8 +4752,8 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="54"/>
-      <c r="B71" s="52" t="b">
+      <c r="A71" s="53"/>
+      <c r="B71" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C71" s="2">
@@ -4779,7 +4761,7 @@
         <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>9</v>
@@ -4808,8 +4790,8 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="54"/>
-      <c r="B72" s="52" t="b">
+      <c r="A72" s="53"/>
+      <c r="B72" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C72" s="2">
@@ -4850,8 +4832,8 @@
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A73" s="54"/>
-      <c r="B73" s="52" t="b">
+      <c r="A73" s="53"/>
+      <c r="B73" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C73" s="2">
@@ -4890,8 +4872,8 @@
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A74" s="54"/>
-      <c r="B74" s="52" t="b">
+      <c r="A74" s="53"/>
+      <c r="B74" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C74" s="2">
@@ -4932,8 +4914,8 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="52" t="b">
+      <c r="A75" s="53"/>
+      <c r="B75" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C75" s="2">
@@ -4974,8 +4956,8 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="54"/>
-      <c r="B76" s="52" t="b">
+      <c r="A76" s="53"/>
+      <c r="B76" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C76" s="2">
@@ -5015,7 +4997,7 @@
     </row>
     <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="52" t="b">
+      <c r="B77" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C77" s="2"/>
@@ -5044,7 +5026,7 @@
     </row>
     <row r="78" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="52" t="b">
+      <c r="B78" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C78" s="2"/>
@@ -5075,16 +5057,16 @@
       <c r="A79" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="52" t="b">
+      <c r="B79" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C79" s="30">
         <v>1</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E79" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="E79" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="36" t="s">
@@ -5093,7 +5075,7 @@
       <c r="G79" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="45" t="s">
+      <c r="H79" s="44" t="s">
         <v>109</v>
       </c>
       <c r="I79" s="3"/>
@@ -5115,17 +5097,17 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="59"/>
-      <c r="B80" s="52" t="b">
+      <c r="A80" s="55"/>
+      <c r="B80" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C80" s="30">
         <v>2</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="E80" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="E80" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="36" t="s">
@@ -5134,7 +5116,7 @@
       <c r="G80" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="45" t="s">
+      <c r="H80" s="44" t="s">
         <v>110</v>
       </c>
       <c r="I80" s="3"/>
@@ -5156,17 +5138,17 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="59"/>
-      <c r="B81" s="52" t="b">
+      <c r="A81" s="55"/>
+      <c r="B81" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C81" s="30">
         <v>3</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E81" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="E81" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="36" t="s">
@@ -5175,7 +5157,7 @@
       <c r="G81" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="45" t="s">
+      <c r="H81" s="44" t="s">
         <v>111</v>
       </c>
       <c r="I81" s="3"/>
@@ -5197,24 +5179,24 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="59"/>
-      <c r="B82" s="52" t="b">
+      <c r="A82" s="55"/>
+      <c r="B82" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C82" s="30">
         <v>4</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="E82" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="E82" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="33"/>
-      <c r="H82" s="45" t="s">
+      <c r="H82" s="44" t="s">
         <v>112</v>
       </c>
       <c r="I82" s="3"/>
@@ -5236,17 +5218,17 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="59"/>
-      <c r="B83" s="52" t="b">
+      <c r="A83" s="55"/>
+      <c r="B83" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C83" s="30">
         <v>5</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="E83" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="E83" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="36" t="s">
@@ -5255,7 +5237,7 @@
       <c r="G83" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H83" s="45" t="s">
+      <c r="H83" s="44" t="s">
         <v>113</v>
       </c>
       <c r="I83" s="3"/>
@@ -5277,17 +5259,17 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="59"/>
-      <c r="B84" s="52" t="b">
+      <c r="A84" s="55"/>
+      <c r="B84" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C84" s="30">
         <v>6</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="E84" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="E84" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="37" t="s">
@@ -5296,7 +5278,7 @@
       <c r="G84" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H84" s="45" t="s">
+      <c r="H84" s="44" t="s">
         <v>114</v>
       </c>
       <c r="I84" s="3"/>
@@ -5318,17 +5300,17 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="59"/>
-      <c r="B85" s="52" t="b">
+      <c r="A85" s="55"/>
+      <c r="B85" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C85" s="30">
         <v>7</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="E85" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="E85" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="37" t="s">
@@ -5337,7 +5319,7 @@
       <c r="G85" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H85" s="45" t="s">
+      <c r="H85" s="44" t="s">
         <v>115</v>
       </c>
       <c r="I85" s="3"/>
@@ -5359,8 +5341,8 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="59"/>
-      <c r="B86" s="52" t="b">
+      <c r="A86" s="55"/>
+      <c r="B86" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C86" s="30">
@@ -5369,7 +5351,7 @@
       <c r="D86" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E86" s="43" t="s">
+      <c r="E86" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="37" t="s">
@@ -5378,7 +5360,7 @@
       <c r="G86" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="45" t="s">
+      <c r="H86" s="44" t="s">
         <v>117</v>
       </c>
       <c r="I86" s="3"/>
@@ -5400,15 +5382,15 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="59"/>
-      <c r="B87" s="52" t="b">
+      <c r="A87" s="55"/>
+      <c r="B87" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="30">
         <v>9</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E87" s="31" t="s">
         <v>9</v>
@@ -5417,7 +5399,7 @@
         <v>22</v>
       </c>
       <c r="G87" s="35"/>
-      <c r="H87" s="45"/>
+      <c r="H87" s="44"/>
       <c r="I87" s="3"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5437,8 +5419,8 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="59"/>
-      <c r="B88" s="52" t="b">
+      <c r="A88" s="55"/>
+      <c r="B88" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C88" s="30">
@@ -5447,14 +5429,14 @@
       <c r="D88" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E88" s="43" t="s">
+      <c r="E88" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G88" s="33"/>
-      <c r="H88" s="45" t="s">
+      <c r="H88" s="44" t="s">
         <v>119</v>
       </c>
       <c r="I88" s="3"/>
@@ -5476,8 +5458,8 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="59"/>
-      <c r="B89" s="52" t="b">
+      <c r="A89" s="55"/>
+      <c r="B89" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C89" s="30">
@@ -5486,14 +5468,14 @@
       <c r="D89" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E89" s="43" t="s">
+      <c r="E89" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G89" s="33"/>
-      <c r="H89" s="45" t="s">
+      <c r="H89" s="44" t="s">
         <v>121</v>
       </c>
       <c r="I89" s="3"/>
@@ -5515,15 +5497,15 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="59"/>
-      <c r="B90" s="52" t="b">
+      <c r="A90" s="55"/>
+      <c r="B90" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C90" s="30">
         <v>12</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E90" s="31" t="s">
         <v>9</v>
@@ -5532,7 +5514,7 @@
         <v>22</v>
       </c>
       <c r="G90" s="35"/>
-      <c r="H90" s="45"/>
+      <c r="H90" s="44"/>
       <c r="I90" s="3"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -5552,15 +5534,15 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="59"/>
-      <c r="B91" s="52" t="b">
+      <c r="A91" s="55"/>
+      <c r="B91" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="30">
         <v>13</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>9</v>
@@ -5569,7 +5551,7 @@
         <v>22</v>
       </c>
       <c r="G91" s="35"/>
-      <c r="H91" s="45"/>
+      <c r="H91" s="44"/>
       <c r="I91" s="3"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -5589,15 +5571,15 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="59"/>
-      <c r="B92" s="52" t="b">
+      <c r="A92" s="55"/>
+      <c r="B92" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="30">
         <v>14</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E92" s="31" t="s">
         <v>9</v>
@@ -5606,7 +5588,7 @@
         <v>22</v>
       </c>
       <c r="G92" s="35"/>
-      <c r="H92" s="45"/>
+      <c r="H92" s="44"/>
       <c r="I92" s="3"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -5626,8 +5608,8 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="59"/>
-      <c r="B93" s="52" t="b">
+      <c r="A93" s="55"/>
+      <c r="B93" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="30">
@@ -5636,14 +5618,14 @@
       <c r="D93" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E93" s="43" t="s">
+      <c r="E93" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G93" s="33"/>
-      <c r="H93" s="45" t="s">
+      <c r="H93" s="44" t="s">
         <v>123</v>
       </c>
       <c r="I93" s="3"/>
@@ -5665,24 +5647,24 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="59"/>
-      <c r="B94" s="52" t="b">
+      <c r="A94" s="55"/>
+      <c r="B94" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="30">
         <v>16</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="51" t="s">
+      <c r="F94" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G94" s="33"/>
-      <c r="H94" s="45"/>
+      <c r="H94" s="44"/>
       <c r="I94" s="3"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -5702,8 +5684,8 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="59"/>
-      <c r="B95" s="52" t="b">
+      <c r="A95" s="55"/>
+      <c r="B95" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C95" s="30">
@@ -5712,7 +5694,7 @@
       <c r="D95" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E95" s="43" t="s">
+      <c r="E95" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="40" t="s">
@@ -5721,7 +5703,7 @@
       <c r="G95" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H95" s="45" t="s">
+      <c r="H95" s="44" t="s">
         <v>125</v>
       </c>
       <c r="I95" s="3"/>
@@ -5744,19 +5726,19 @@
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="29"/>
-      <c r="B96" s="52" t="b">
+      <c r="B96" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C96" s="30">
         <v>18</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E96" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="47" t="s">
+      <c r="F96" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G96" s="33"/>
@@ -5781,7 +5763,7 @@
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="52" t="b">
+      <c r="B97" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C97" s="2"/>
@@ -5809,10 +5791,10 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="52" t="b">
+      <c r="B98" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C98" s="30">
@@ -5821,7 +5803,7 @@
       <c r="D98" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E98" s="43" t="s">
+      <c r="E98" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F98" s="36" t="s">
@@ -5830,7 +5812,7 @@
       <c r="G98" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H98" s="45" t="s">
+      <c r="H98" s="44" t="s">
         <v>128</v>
       </c>
       <c r="I98" s="3"/>
@@ -5852,8 +5834,8 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="59"/>
-      <c r="B99" s="52" t="b">
+      <c r="A99" s="55"/>
+      <c r="B99" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C99" s="30">
@@ -5862,7 +5844,7 @@
       <c r="D99" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E99" s="43" t="s">
+      <c r="E99" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F99" s="36" t="s">
@@ -5871,7 +5853,7 @@
       <c r="G99" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H99" s="45" t="s">
+      <c r="H99" s="44" t="s">
         <v>130</v>
       </c>
       <c r="I99" s="3"/>
@@ -5893,8 +5875,8 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="59"/>
-      <c r="B100" s="52" t="b">
+      <c r="A100" s="55"/>
+      <c r="B100" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C100" s="30">
@@ -5903,7 +5885,7 @@
       <c r="D100" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="43" t="s">
+      <c r="E100" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F100" s="36" t="s">
@@ -5912,7 +5894,7 @@
       <c r="G100" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H100" s="45" t="s">
+      <c r="H100" s="44" t="s">
         <v>132</v>
       </c>
       <c r="I100" s="3"/>
@@ -5934,8 +5916,8 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="59"/>
-      <c r="B101" s="52" t="b">
+      <c r="A101" s="55"/>
+      <c r="B101" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C101" s="30">
@@ -5944,7 +5926,7 @@
       <c r="D101" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F101" s="36" t="s">
@@ -5953,7 +5935,7 @@
       <c r="G101" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H101" s="45" t="s">
+      <c r="H101" s="44" t="s">
         <v>134</v>
       </c>
       <c r="I101" s="3"/>
@@ -5975,8 +5957,8 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="59"/>
-      <c r="B102" s="52" t="b">
+      <c r="A102" s="55"/>
+      <c r="B102" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C102" s="30">
@@ -5985,7 +5967,7 @@
       <c r="D102" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="E102" s="43" t="s">
+      <c r="E102" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F102" s="36" t="s">
@@ -5994,7 +5976,7 @@
       <c r="G102" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H102" s="45" t="s">
+      <c r="H102" s="44" t="s">
         <v>136</v>
       </c>
       <c r="I102" s="3"/>
@@ -6016,8 +5998,8 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="59"/>
-      <c r="B103" s="52" t="b">
+      <c r="A103" s="55"/>
+      <c r="B103" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C103" s="30">
@@ -6026,14 +6008,14 @@
       <c r="D103" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E103" s="43" t="s">
+      <c r="E103" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F103" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="33"/>
-      <c r="H103" s="45" t="s">
+      <c r="H103" s="44" t="s">
         <v>138</v>
       </c>
       <c r="I103" s="3"/>
@@ -6055,8 +6037,8 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="59"/>
-      <c r="B104" s="52" t="b">
+      <c r="A104" s="55"/>
+      <c r="B104" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C104" s="30">
@@ -6065,14 +6047,14 @@
       <c r="D104" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E104" s="43" t="s">
+      <c r="E104" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F104" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="33"/>
-      <c r="H104" s="45" t="s">
+      <c r="H104" s="44" t="s">
         <v>140</v>
       </c>
       <c r="I104" s="3"/>
@@ -6094,24 +6076,24 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="59"/>
-      <c r="B105" s="52" t="b">
+      <c r="A105" s="55"/>
+      <c r="B105" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="30">
         <v>8</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="46" t="s">
+      <c r="F105" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G105" s="33"/>
-      <c r="H105" s="45"/>
+      <c r="H105" s="44"/>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -6131,8 +6113,8 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="59"/>
-      <c r="B106" s="52" t="b">
+      <c r="A106" s="55"/>
+      <c r="B106" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C106" s="30">
@@ -6144,13 +6126,13 @@
       <c r="E106" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="46" t="s">
+      <c r="F106" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G106" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H106" s="45" t="s">
+      <c r="H106" s="44" t="s">
         <v>142</v>
       </c>
       <c r="I106" s="3"/>
@@ -6172,24 +6154,24 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="59"/>
-      <c r="B107" s="52" t="b">
+      <c r="A107" s="55"/>
+      <c r="B107" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C107" s="30">
         <v>10</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="46" t="s">
+      <c r="F107" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G107" s="35"/>
-      <c r="H107" s="45"/>
+      <c r="H107" s="44"/>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -6209,24 +6191,24 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="59"/>
-      <c r="B108" s="52" t="b">
+      <c r="A108" s="55"/>
+      <c r="B108" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C108" s="30">
         <v>11</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E108" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F108" s="46" t="s">
+      <c r="F108" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G108" s="35"/>
-      <c r="H108" s="45"/>
+      <c r="H108" s="44"/>
       <c r="I108" s="3"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -6246,24 +6228,24 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="59"/>
-      <c r="B109" s="52" t="b">
+      <c r="A109" s="55"/>
+      <c r="B109" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C109" s="30">
         <v>12</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E109" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="46" t="s">
+      <c r="F109" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G109" s="35"/>
-      <c r="H109" s="45"/>
+      <c r="H109" s="44"/>
       <c r="I109" s="3"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -6283,8 +6265,8 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="59"/>
-      <c r="B110" s="52" t="b">
+      <c r="A110" s="55"/>
+      <c r="B110" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C110" s="30">
@@ -6293,16 +6275,16 @@
       <c r="D110" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="E110" s="43" t="s">
+      <c r="E110" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="46" t="s">
+      <c r="F110" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G110" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H110" s="45" t="s">
+      <c r="H110" s="44" t="s">
         <v>144</v>
       </c>
       <c r="I110" s="3"/>
@@ -6324,8 +6306,8 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="59"/>
-      <c r="B111" s="52" t="b">
+      <c r="A111" s="55"/>
+      <c r="B111" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C111" s="30">
@@ -6334,16 +6316,16 @@
       <c r="D111" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E111" s="43" t="s">
+      <c r="E111" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="46" t="s">
+      <c r="F111" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G111" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H111" s="45" t="s">
+      <c r="H111" s="44" t="s">
         <v>146</v>
       </c>
       <c r="I111" s="3"/>
@@ -6365,8 +6347,8 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="59"/>
-      <c r="B112" s="52" t="b">
+      <c r="A112" s="55"/>
+      <c r="B112" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C112" s="30">
@@ -6375,16 +6357,16 @@
       <c r="D112" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="E112" s="43" t="s">
+      <c r="E112" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="46" t="s">
+      <c r="F112" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G112" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H112" s="45" t="s">
+      <c r="H112" s="44" t="s">
         <v>148</v>
       </c>
       <c r="I112" s="3"/>
@@ -6406,8 +6388,8 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="59"/>
-      <c r="B113" s="52" t="b">
+      <c r="A113" s="55"/>
+      <c r="B113" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C113" s="30">
@@ -6416,16 +6398,16 @@
       <c r="D113" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E113" s="43" t="s">
+      <c r="E113" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="46" t="s">
+      <c r="F113" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G113" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H113" s="45" t="s">
+      <c r="H113" s="44" t="s">
         <v>151</v>
       </c>
       <c r="I113" s="3"/>
@@ -6447,8 +6429,8 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="59"/>
-      <c r="B114" s="52" t="b">
+      <c r="A114" s="55"/>
+      <c r="B114" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C114" s="30">
@@ -6457,16 +6439,16 @@
       <c r="D114" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="E114" s="43" t="s">
+      <c r="E114" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="50" t="s">
+      <c r="F114" s="49" t="s">
         <v>57</v>
       </c>
       <c r="G114" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H114" s="45" t="s">
+      <c r="H114" s="44" t="s">
         <v>153</v>
       </c>
       <c r="I114" s="3"/>
@@ -6489,7 +6471,7 @@
     </row>
     <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
-      <c r="B115" s="52" t="b">
+      <c r="B115" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C115" s="2"/>
@@ -6518,7 +6500,7 @@
     </row>
     <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
-      <c r="B116" s="52" t="b">
+      <c r="B116" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C116" s="2"/>
@@ -6546,19 +6528,19 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="61" t="s">
+      <c r="A117" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="B117" s="52" t="b">
+      <c r="B117" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C117" s="30">
         <v>1</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="E117" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="E117" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F117" s="36" t="s">
@@ -6567,7 +6549,7 @@
       <c r="G117" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="45" t="s">
+      <c r="H117" s="44" t="s">
         <v>155</v>
       </c>
       <c r="I117" s="3"/>
@@ -6589,17 +6571,17 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="59"/>
-      <c r="B118" s="52" t="b">
+      <c r="A118" s="55"/>
+      <c r="B118" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C118" s="30">
         <v>2</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="E118" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="E118" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F118" s="36" t="s">
@@ -6608,7 +6590,7 @@
       <c r="G118" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H118" s="45" t="s">
+      <c r="H118" s="44" t="s">
         <v>156</v>
       </c>
       <c r="I118" s="3"/>
@@ -6630,17 +6612,17 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="59"/>
-      <c r="B119" s="52" t="b">
+      <c r="A119" s="55"/>
+      <c r="B119" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C119" s="30">
         <v>3</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="E119" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="E119" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F119" s="36" t="s">
@@ -6649,7 +6631,7 @@
       <c r="G119" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H119" s="45" t="s">
+      <c r="H119" s="44" t="s">
         <v>157</v>
       </c>
       <c r="I119" s="3"/>
@@ -6671,24 +6653,24 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="59"/>
-      <c r="B120" s="52" t="b">
+      <c r="A120" s="55"/>
+      <c r="B120" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C120" s="30">
         <v>4</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="E120" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="E120" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F120" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="33"/>
-      <c r="H120" s="45" t="s">
+      <c r="H120" s="44" t="s">
         <v>158</v>
       </c>
       <c r="I120" s="3"/>
@@ -6710,17 +6692,17 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="59"/>
-      <c r="B121" s="52" t="b">
+      <c r="A121" s="55"/>
+      <c r="B121" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C121" s="30">
         <v>5</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="E121" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="E121" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F121" s="36" t="s">
@@ -6729,7 +6711,7 @@
       <c r="G121" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="H121" s="45" t="s">
+      <c r="H121" s="44" t="s">
         <v>160</v>
       </c>
       <c r="I121" s="3"/>
@@ -6751,17 +6733,17 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="59"/>
-      <c r="B122" s="52" t="b">
+      <c r="A122" s="55"/>
+      <c r="B122" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C122" s="30">
         <v>6</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="E122" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="E122" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F122" s="36" t="s">
@@ -6770,7 +6752,7 @@
       <c r="G122" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H122" s="45" t="s">
+      <c r="H122" s="44" t="s">
         <v>161</v>
       </c>
       <c r="I122" s="3"/>
@@ -6792,17 +6774,17 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="59"/>
-      <c r="B123" s="52" t="b">
+      <c r="A123" s="55"/>
+      <c r="B123" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C123" s="30">
         <v>7</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="E123" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="E123" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F123" s="36" t="s">
@@ -6811,7 +6793,7 @@
       <c r="G123" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H123" s="45" t="s">
+      <c r="H123" s="44" t="s">
         <v>162</v>
       </c>
       <c r="I123" s="3"/>
@@ -6833,17 +6815,17 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="59"/>
-      <c r="B124" s="52" t="b">
+      <c r="A124" s="55"/>
+      <c r="B124" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C124" s="30">
         <v>8</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="E124" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="E124" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F124" s="36" t="s">
@@ -6852,7 +6834,7 @@
       <c r="G124" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H124" s="45" t="s">
+      <c r="H124" s="44" t="s">
         <v>163</v>
       </c>
       <c r="I124" s="3"/>
@@ -6874,24 +6856,24 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="59"/>
-      <c r="B125" s="52" t="b">
+      <c r="A125" s="55"/>
+      <c r="B125" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C125" s="30">
         <v>9</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="E125" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="E125" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F125" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="33"/>
-      <c r="H125" s="45" t="s">
+      <c r="H125" s="44" t="s">
         <v>164</v>
       </c>
       <c r="I125" s="3"/>
@@ -6913,17 +6895,17 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="59"/>
-      <c r="B126" s="52" t="b">
+      <c r="A126" s="55"/>
+      <c r="B126" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C126" s="30">
         <v>10</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="E126" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="E126" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F126" s="36" t="s">
@@ -6932,7 +6914,7 @@
       <c r="G126" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H126" s="45" t="s">
+      <c r="H126" s="44" t="s">
         <v>165</v>
       </c>
       <c r="I126" s="3"/>
@@ -6954,24 +6936,24 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="59"/>
-      <c r="B127" s="52" t="b">
+      <c r="A127" s="55"/>
+      <c r="B127" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C127" s="30">
         <v>11</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="E127" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="E127" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F127" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="33"/>
-      <c r="H127" s="45" t="s">
+      <c r="H127" s="44" t="s">
         <v>166</v>
       </c>
       <c r="I127" s="3"/>
@@ -6993,17 +6975,17 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="59"/>
-      <c r="B128" s="52" t="b">
+      <c r="A128" s="55"/>
+      <c r="B128" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C128" s="30">
         <v>12</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="E128" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="E128" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F128" s="37" t="s">
@@ -7012,7 +6994,7 @@
       <c r="G128" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H128" s="45" t="s">
+      <c r="H128" s="44" t="s">
         <v>167</v>
       </c>
       <c r="I128" s="3"/>
@@ -7034,24 +7016,24 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="59"/>
-      <c r="B129" s="52" t="b">
+      <c r="A129" s="55"/>
+      <c r="B129" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C129" s="30">
         <v>13</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="E129" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E129" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F129" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G129" s="33"/>
-      <c r="H129" s="45" t="s">
+      <c r="H129" s="44" t="s">
         <v>168</v>
       </c>
       <c r="I129" s="3"/>
@@ -7073,15 +7055,15 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="59"/>
-      <c r="B130" s="52" t="b">
+      <c r="A130" s="55"/>
+      <c r="B130" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C130" s="30">
         <v>14</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E130" s="21" t="s">
         <v>9</v>
@@ -7090,7 +7072,7 @@
         <v>22</v>
       </c>
       <c r="G130" s="33"/>
-      <c r="H130" s="45"/>
+      <c r="H130" s="44"/>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -7110,15 +7092,15 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="59"/>
-      <c r="B131" s="52" t="b">
+      <c r="A131" s="55"/>
+      <c r="B131" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C131" s="30">
         <v>15</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E131" s="21" t="s">
         <v>9</v>
@@ -7127,7 +7109,7 @@
         <v>22</v>
       </c>
       <c r="G131" s="33"/>
-      <c r="H131" s="45"/>
+      <c r="H131" s="44"/>
       <c r="I131" s="3"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -7147,24 +7129,24 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="59"/>
-      <c r="B132" s="52" t="b">
+      <c r="A132" s="55"/>
+      <c r="B132" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C132" s="30">
         <v>16</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="E132" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E132" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F132" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G132" s="33"/>
-      <c r="H132" s="45" t="s">
+      <c r="H132" s="44" t="s">
         <v>169</v>
       </c>
       <c r="I132" s="3"/>
@@ -7186,17 +7168,17 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="59"/>
-      <c r="B133" s="52" t="b">
+      <c r="A133" s="55"/>
+      <c r="B133" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C133" s="30">
         <v>17</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="E133" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="E133" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F133" s="37" t="s">
@@ -7205,7 +7187,7 @@
       <c r="G133" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="45" t="s">
+      <c r="H133" s="44" t="s">
         <v>170</v>
       </c>
       <c r="I133" s="3"/>
@@ -7227,15 +7209,15 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="59"/>
-      <c r="B134" s="52" t="b">
+      <c r="A134" s="55"/>
+      <c r="B134" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C134" s="30">
         <v>18</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E134" s="21" t="s">
         <v>9</v>
@@ -7244,7 +7226,7 @@
         <v>22</v>
       </c>
       <c r="G134" s="35"/>
-      <c r="H134" s="45"/>
+      <c r="H134" s="44"/>
       <c r="I134" s="3"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -7264,8 +7246,8 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="59"/>
-      <c r="B135" s="52" t="b">
+      <c r="A135" s="55"/>
+      <c r="B135" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C135" s="30">
@@ -7274,7 +7256,7 @@
       <c r="D135" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="E135" s="43" t="s">
+      <c r="E135" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F135" s="37" t="s">
@@ -7283,7 +7265,7 @@
       <c r="G135" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H135" s="45" t="s">
+      <c r="H135" s="44" t="s">
         <v>172</v>
       </c>
       <c r="I135" s="3"/>
@@ -7305,17 +7287,17 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="59"/>
-      <c r="B136" s="52" t="b">
+      <c r="A136" s="55"/>
+      <c r="B136" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C136" s="30">
         <v>20</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="E136" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="E136" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F136" s="37" t="s">
@@ -7324,7 +7306,7 @@
       <c r="G136" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H136" s="45" t="s">
+      <c r="H136" s="44" t="s">
         <v>173</v>
       </c>
       <c r="I136" s="3"/>
@@ -7346,8 +7328,8 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="59"/>
-      <c r="B137" s="52" t="b">
+      <c r="A137" s="55"/>
+      <c r="B137" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C137" s="30">
@@ -7356,7 +7338,7 @@
       <c r="D137" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E137" s="43" t="s">
+      <c r="E137" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F137" s="37" t="s">
@@ -7365,7 +7347,7 @@
       <c r="G137" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H137" s="45" t="s">
+      <c r="H137" s="44" t="s">
         <v>175</v>
       </c>
       <c r="I137" s="3"/>
@@ -7387,8 +7369,8 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="59"/>
-      <c r="B138" s="52" t="b">
+      <c r="A138" s="55"/>
+      <c r="B138" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C138" s="30">
@@ -7397,14 +7379,14 @@
       <c r="D138" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="E138" s="43" t="s">
+      <c r="E138" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F138" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G138" s="33"/>
-      <c r="H138" s="45" t="s">
+      <c r="H138" s="44" t="s">
         <v>177</v>
       </c>
       <c r="I138" s="3"/>
@@ -7426,17 +7408,17 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="59"/>
-      <c r="B139" s="52" t="b">
+      <c r="A139" s="55"/>
+      <c r="B139" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C139" s="30">
         <v>23</v>
       </c>
       <c r="D139" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="E139" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="E139" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F139" s="37" t="s">
@@ -7445,7 +7427,7 @@
       <c r="G139" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H139" s="45" t="s">
+      <c r="H139" s="44" t="s">
         <v>178</v>
       </c>
       <c r="I139" s="3"/>
@@ -7467,8 +7449,8 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="59"/>
-      <c r="B140" s="52" t="b">
+      <c r="A140" s="55"/>
+      <c r="B140" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C140" s="30">
@@ -7477,7 +7459,7 @@
       <c r="D140" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E140" s="43" t="s">
+      <c r="E140" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F140" s="37" t="s">
@@ -7486,7 +7468,7 @@
       <c r="G140" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H140" s="45" t="s">
+      <c r="H140" s="44" t="s">
         <v>180</v>
       </c>
       <c r="I140" s="3"/>
@@ -7508,8 +7490,8 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="59"/>
-      <c r="B141" s="52" t="b">
+      <c r="A141" s="55"/>
+      <c r="B141" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C141" s="30">
@@ -7518,14 +7500,14 @@
       <c r="D141" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="E141" s="43" t="s">
+      <c r="E141" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F141" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G141" s="33"/>
-      <c r="H141" s="45" t="s">
+      <c r="H141" s="44" t="s">
         <v>182</v>
       </c>
       <c r="I141" s="3"/>
@@ -7547,24 +7529,24 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="59"/>
-      <c r="B142" s="52" t="b">
+      <c r="A142" s="55"/>
+      <c r="B142" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C142" s="30">
         <v>26</v>
       </c>
       <c r="D142" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="E142" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="E142" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F142" s="40" t="s">
         <v>57</v>
       </c>
       <c r="G142" s="33"/>
-      <c r="H142" s="45" t="s">
+      <c r="H142" s="44" t="s">
         <v>183</v>
       </c>
       <c r="I142" s="3"/>
@@ -7586,8 +7568,8 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="59"/>
-      <c r="B143" s="52" t="b">
+      <c r="A143" s="55"/>
+      <c r="B143" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C143" s="30">
@@ -7596,14 +7578,14 @@
       <c r="D143" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E143" s="43" t="s">
+      <c r="E143" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F143" s="40" t="s">
         <v>57</v>
       </c>
       <c r="G143" s="33"/>
-      <c r="H143" s="45" t="s">
+      <c r="H143" s="44" t="s">
         <v>185</v>
       </c>
       <c r="I143" s="3"/>
@@ -7625,24 +7607,24 @@
       <c r="Y143" s="1"/>
     </row>
     <row r="144" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="44"/>
-      <c r="B144" s="52" t="b">
+      <c r="A144" s="43"/>
+      <c r="B144" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C144" s="30">
         <v>28</v>
       </c>
       <c r="D144" s="29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E144" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="47" t="s">
+      <c r="F144" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G144" s="33"/>
-      <c r="H144" s="45"/>
+      <c r="H144" s="44"/>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -7662,24 +7644,24 @@
       <c r="Y144" s="1"/>
     </row>
     <row r="145" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="44"/>
-      <c r="B145" s="52" t="b">
+      <c r="A145" s="43"/>
+      <c r="B145" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C145" s="30">
         <v>29</v>
       </c>
       <c r="D145" s="29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E145" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F145" s="47" t="s">
+      <c r="F145" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G145" s="33"/>
-      <c r="H145" s="45"/>
+      <c r="H145" s="44"/>
       <c r="I145" s="3"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -7700,7 +7682,7 @@
     </row>
     <row r="146" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
-      <c r="B146" s="52" t="b">
+      <c r="B146" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C146" s="2"/>
@@ -7728,10 +7710,10 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="63" t="s">
+      <c r="A147" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="B147" s="52" t="b">
+      <c r="B147" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C147" s="2">
@@ -7769,8 +7751,8 @@
       <c r="Y147" s="1"/>
     </row>
     <row r="148" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="54"/>
-      <c r="B148" s="52" t="b">
+      <c r="A148" s="53"/>
+      <c r="B148" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C148" s="2">
@@ -7810,8 +7792,8 @@
       <c r="Y148" s="1"/>
     </row>
     <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A149" s="54"/>
-      <c r="B149" s="52" t="b">
+      <c r="A149" s="53"/>
+      <c r="B149" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C149" s="2">
@@ -7851,8 +7833,8 @@
       <c r="Y149" s="1"/>
     </row>
     <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A150" s="54"/>
-      <c r="B150" s="52" t="b">
+      <c r="A150" s="53"/>
+      <c r="B150" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C150" s="2">
@@ -7892,8 +7874,8 @@
       <c r="Y150" s="1"/>
     </row>
     <row r="151" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="54"/>
-      <c r="B151" s="52" t="b">
+      <c r="A151" s="53"/>
+      <c r="B151" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C151" s="2">
@@ -7933,8 +7915,8 @@
       <c r="Y151" s="1"/>
     </row>
     <row r="152" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="54"/>
-      <c r="B152" s="52" t="b">
+      <c r="A152" s="53"/>
+      <c r="B152" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C152" s="2">
@@ -7974,8 +7956,8 @@
       <c r="Y152" s="1"/>
     </row>
     <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A153" s="54"/>
-      <c r="B153" s="52" t="b">
+      <c r="A153" s="53"/>
+      <c r="B153" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C153" s="2">
@@ -8015,8 +7997,8 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="54"/>
-      <c r="B154" s="52" t="b">
+      <c r="A154" s="53"/>
+      <c r="B154" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C154" s="2">
@@ -8056,8 +8038,8 @@
       <c r="Y154" s="1"/>
     </row>
     <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A155" s="54"/>
-      <c r="B155" s="52" t="b">
+      <c r="A155" s="53"/>
+      <c r="B155" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C155" s="2">
@@ -8097,8 +8079,8 @@
       <c r="Y155" s="1"/>
     </row>
     <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A156" s="54"/>
-      <c r="B156" s="52" t="b">
+      <c r="A156" s="53"/>
+      <c r="B156" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C156" s="2">
@@ -8138,8 +8120,8 @@
       <c r="Y156" s="1"/>
     </row>
     <row r="157" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="54"/>
-      <c r="B157" s="52" t="b">
+      <c r="A157" s="53"/>
+      <c r="B157" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C157" s="2">
@@ -8179,8 +8161,8 @@
       <c r="Y157" s="1"/>
     </row>
     <row r="158" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="54"/>
-      <c r="B158" s="52" t="b">
+      <c r="A158" s="53"/>
+      <c r="B158" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C158" s="2">
@@ -8218,8 +8200,8 @@
       <c r="Y158" s="1"/>
     </row>
     <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A159" s="54"/>
-      <c r="B159" s="52" t="b">
+      <c r="A159" s="53"/>
+      <c r="B159" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C159" s="2">
@@ -8260,7 +8242,7 @@
     </row>
     <row r="160" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
-      <c r="B160" s="52" t="b">
+      <c r="B160" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C160" s="2"/>
@@ -8289,7 +8271,7 @@
     </row>
     <row r="161" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
-      <c r="B161" s="52" t="b">
+      <c r="B161" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C161" s="2"/>
@@ -8317,10 +8299,10 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="63" t="s">
+      <c r="A162" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="B162" s="52" t="b">
+      <c r="B162" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C162" s="2">
@@ -8358,8 +8340,8 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="54"/>
-      <c r="B163" s="52" t="b">
+      <c r="A163" s="53"/>
+      <c r="B163" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C163" s="2">
@@ -8397,8 +8379,8 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A164" s="54"/>
-      <c r="B164" s="52" t="b">
+      <c r="A164" s="53"/>
+      <c r="B164" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C164" s="2">
@@ -8436,8 +8418,8 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" s="54"/>
-      <c r="B165" s="52" t="b">
+      <c r="A165" s="53"/>
+      <c r="B165" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C165" s="2">
@@ -8475,8 +8457,8 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A166" s="54"/>
-      <c r="B166" s="52" t="b">
+      <c r="A166" s="53"/>
+      <c r="B166" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C166" s="2">
@@ -8514,8 +8496,8 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="54"/>
-      <c r="B167" s="52" t="b">
+      <c r="A167" s="53"/>
+      <c r="B167" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C167" s="2">
@@ -8554,7 +8536,7 @@
     </row>
     <row r="168" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
-      <c r="B168" s="52" t="b">
+      <c r="B168" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C168" s="2"/>
@@ -8583,7 +8565,7 @@
     </row>
     <row r="169" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
-      <c r="B169" s="52" t="b">
+      <c r="B169" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C169" s="2"/>
@@ -8611,10 +8593,10 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="63" t="s">
+      <c r="A170" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="B170" s="52" t="b">
+      <c r="B170" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C170" s="2">
@@ -8652,8 +8634,8 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="54"/>
-      <c r="B171" s="52" t="b">
+      <c r="A171" s="53"/>
+      <c r="B171" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C171" s="2">
@@ -8691,8 +8673,8 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A172" s="54"/>
-      <c r="B172" s="52" t="b">
+      <c r="A172" s="53"/>
+      <c r="B172" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C172" s="2">
@@ -8730,8 +8712,8 @@
       <c r="Y172" s="1"/>
     </row>
     <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A173" s="54"/>
-      <c r="B173" s="52" t="b">
+      <c r="A173" s="53"/>
+      <c r="B173" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C173" s="2">
@@ -8769,8 +8751,8 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="54"/>
-      <c r="B174" s="52" t="b">
+      <c r="A174" s="53"/>
+      <c r="B174" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C174" s="2">
@@ -8807,12 +8789,10 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
-      <c r="B175" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C175" s="2"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
       <c r="D175" s="1"/>
       <c r="E175" s="3"/>
       <c r="F175" s="1"/>
@@ -8836,12 +8816,10 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A176" s="1"/>
-      <c r="B176" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C176" s="2"/>
+    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A176" s="17"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="17"/>
       <c r="D176" s="1"/>
       <c r="E176" s="3"/>
       <c r="F176" s="1"/>
@@ -8866,10 +8844,10 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A177" s="63" t="s">
+      <c r="A177" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="B177" s="52" t="b">
+      <c r="B177" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C177" s="2">
@@ -8907,18 +8885,18 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="63"/>
-      <c r="B178" s="52" t="b">
+      <c r="A178" s="57"/>
+      <c r="B178" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C178" s="2">
         <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E178" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F178" s="27" t="s">
         <v>10</v>
@@ -8944,8 +8922,8 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="54"/>
-      <c r="B179" s="52" t="b">
+      <c r="A179" s="53"/>
+      <c r="B179" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C179" s="2">
@@ -8983,8 +8961,8 @@
       <c r="Y179" s="1"/>
     </row>
     <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A180" s="54"/>
-      <c r="B180" s="52" t="b">
+      <c r="A180" s="53"/>
+      <c r="B180" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C180" s="2">
@@ -9022,8 +9000,8 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A181" s="54"/>
-      <c r="B181" s="52" t="b">
+      <c r="A181" s="53"/>
+      <c r="B181" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C181" s="2">
@@ -9061,8 +9039,8 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A182" s="54"/>
-      <c r="B182" s="52" t="b">
+      <c r="A182" s="53"/>
+      <c r="B182" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C182" s="2">
@@ -9100,8 +9078,8 @@
       <c r="Y182" s="1"/>
     </row>
     <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A183" s="54"/>
-      <c r="B183" s="52" t="b">
+      <c r="A183" s="53"/>
+      <c r="B183" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C183" s="2">
@@ -9139,8 +9117,8 @@
       <c r="Y183" s="1"/>
     </row>
     <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A184" s="54"/>
-      <c r="B184" s="52" t="b">
+      <c r="A184" s="53"/>
+      <c r="B184" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C184" s="2">
@@ -9177,13 +9155,13 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A185" s="54"/>
-      <c r="B185" s="52" t="b">
+    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A185" s="53"/>
+      <c r="B185" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C185" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>267</v>
@@ -9195,7 +9173,7 @@
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" s="16" t="s">
+      <c r="H185" s="15" t="s">
         <v>269</v>
       </c>
       <c r="I185" s="3"/>
@@ -9217,17 +9195,17 @@
       <c r="Y185" s="1"/>
     </row>
     <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A186" s="54"/>
-      <c r="B186" s="52" t="b">
+      <c r="A186" s="53"/>
+      <c r="B186" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C186" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E186" s="18" t="s">
+      <c r="E186" s="23" t="s">
         <v>271</v>
       </c>
       <c r="F186" s="26" t="s">
@@ -9256,17 +9234,17 @@
       <c r="Y186" s="1"/>
     </row>
     <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A187" s="54"/>
-      <c r="B187" s="52" t="b">
+      <c r="A187" s="53"/>
+      <c r="B187" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C187" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E187" s="23" t="s">
+      <c r="E187" s="18" t="s">
         <v>274</v>
       </c>
       <c r="F187" s="26" t="s">
@@ -9295,25 +9273,25 @@
       <c r="Y187" s="1"/>
     </row>
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A188" s="54"/>
-      <c r="B188" s="52" t="b">
+      <c r="A188" s="53"/>
+      <c r="B188" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C188" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E188" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="E188" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
@@ -9334,15 +9312,15 @@
       <c r="Y188" s="1"/>
     </row>
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A189" s="54"/>
-      <c r="B189" s="52" t="b">
+      <c r="A189" s="53"/>
+      <c r="B189" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C189" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
       <c r="E189" s="18" t="s">
         <v>279</v>
@@ -9373,12 +9351,12 @@
       <c r="Y189" s="1"/>
     </row>
     <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A190" s="54"/>
-      <c r="B190" s="52" t="b">
+      <c r="A190" s="53"/>
+      <c r="B190" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C190" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>281</v>
@@ -9411,13 +9389,13 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A191" s="54"/>
-      <c r="B191" s="52" t="b">
+    <row r="191" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="53"/>
+      <c r="B191" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C191" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>284</v>
@@ -9425,11 +9403,11 @@
       <c r="E191" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="F191" s="26" t="s">
-        <v>22</v>
+      <c r="F191" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G191" s="3"/>
-      <c r="H191" s="15" t="s">
+      <c r="H191" s="16" t="s">
         <v>286</v>
       </c>
       <c r="I191" s="3"/>
@@ -9450,13 +9428,13 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="54"/>
-      <c r="B192" s="52" t="b">
+    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A192" s="53"/>
+      <c r="B192" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C192" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>287</v>
@@ -9464,11 +9442,11 @@
       <c r="E192" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="F192" s="28" t="s">
-        <v>57</v>
+      <c r="F192" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" s="16" t="s">
+      <c r="H192" s="15" t="s">
         <v>289</v>
       </c>
       <c r="I192" s="3"/>
@@ -9490,26 +9468,24 @@
       <c r="Y192" s="1"/>
     </row>
     <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A193" s="54"/>
-      <c r="B193" s="52" t="b">
+      <c r="A193" s="53"/>
+      <c r="B193" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C193" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E193" s="18" t="s">
-        <v>291</v>
+        <v>422</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>421</v>
       </c>
       <c r="F193" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="15" t="s">
-        <v>292</v>
-      </c>
+      <c r="H193" s="15"/>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -9529,18 +9505,18 @@
       <c r="Y193" s="1"/>
     </row>
     <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A194" s="54"/>
-      <c r="B194" s="52" t="b">
+      <c r="A194" s="53"/>
+      <c r="B194" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C194" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E194" s="23" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="F194" s="26" t="s">
         <v>22</v>
@@ -9566,24 +9542,26 @@
       <c r="Y194" s="1"/>
     </row>
     <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A195" s="54"/>
-      <c r="B195" s="52" t="b">
+      <c r="A195" s="53"/>
+      <c r="B195" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C195" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E195" s="23" t="s">
-        <v>447</v>
+        <v>290</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="F195" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="15"/>
+      <c r="H195" s="15" t="s">
+        <v>291</v>
+      </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -9603,26 +9581,24 @@
       <c r="Y195" s="1"/>
     </row>
     <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A196" s="54"/>
-      <c r="B196" s="52" t="b">
+      <c r="A196" s="53"/>
+      <c r="B196" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C196" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E196" s="18" t="s">
-        <v>251</v>
+        <v>442</v>
+      </c>
+      <c r="E196" s="23" t="s">
+        <v>441</v>
       </c>
       <c r="F196" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G196" s="3"/>
-      <c r="H196" s="15" t="s">
-        <v>294</v>
-      </c>
+      <c r="H196" s="15"/>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -9642,18 +9618,18 @@
       <c r="Y196" s="1"/>
     </row>
     <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A197" s="54"/>
-      <c r="B197" s="52" t="b">
+      <c r="A197" s="53"/>
+      <c r="B197" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C197" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E197" s="23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F197" s="26" t="s">
         <v>22</v>
@@ -9679,18 +9655,18 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A198" s="54"/>
-      <c r="B198" s="52" t="b">
+      <c r="A198" s="53"/>
+      <c r="B198" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C198" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="F198" s="26" t="s">
         <v>22</v>
@@ -9716,24 +9692,26 @@
       <c r="Y198" s="1"/>
     </row>
     <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A199" s="54"/>
-      <c r="B199" s="52" t="b">
+      <c r="A199" s="53"/>
+      <c r="B199" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C199" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E199" s="23" t="s">
-        <v>429</v>
+        <v>292</v>
+      </c>
+      <c r="E199" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="F199" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="15"/>
+      <c r="H199" s="15" t="s">
+        <v>294</v>
+      </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -9753,26 +9731,24 @@
       <c r="Y199" s="1"/>
     </row>
     <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A200" s="54"/>
-      <c r="B200" s="52" t="b">
+      <c r="A200" s="53"/>
+      <c r="B200" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C200" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E200" s="18" t="s">
-        <v>296</v>
+        <v>418</v>
+      </c>
+      <c r="E200" s="23" t="s">
+        <v>419</v>
       </c>
       <c r="F200" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="15" t="s">
-        <v>297</v>
-      </c>
+      <c r="H200" s="15"/>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -9792,24 +9768,26 @@
       <c r="Y200" s="1"/>
     </row>
     <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A201" s="54"/>
-      <c r="B201" s="52" t="b">
+      <c r="A201" s="53"/>
+      <c r="B201" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C201" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E201" s="23" t="s">
-        <v>422</v>
+        <v>295</v>
+      </c>
+      <c r="E201" s="18" t="s">
+        <v>296</v>
       </c>
       <c r="F201" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G201" s="3"/>
-      <c r="H201" s="15"/>
+      <c r="H201" s="15" t="s">
+        <v>297</v>
+      </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -9828,13 +9806,13 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A202" s="54"/>
-      <c r="B202" s="52" t="b">
+    <row r="202" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="53"/>
+      <c r="B202" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C202" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>298</v>
@@ -9846,7 +9824,7 @@
         <v>22</v>
       </c>
       <c r="G202" s="3"/>
-      <c r="H202" s="15" t="s">
+      <c r="H202" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I202" s="3"/>
@@ -9868,25 +9846,25 @@
       <c r="Y202" s="1"/>
     </row>
     <row r="203" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="54"/>
-      <c r="B203" s="52" t="b">
+      <c r="A203" s="53"/>
+      <c r="B203" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D203" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E203" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="E203" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="F203" s="26" t="s">
-        <v>22</v>
+      <c r="F203" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9907,15 +9885,15 @@
       <c r="Y203" s="1"/>
     </row>
     <row r="204" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="54"/>
-      <c r="B204" s="52" t="b">
+      <c r="A204" s="53"/>
+      <c r="B204" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C204" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>423</v>
+        <v>303</v>
       </c>
       <c r="E204" s="18" t="s">
         <v>304</v>
@@ -9945,26 +9923,26 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="54"/>
-      <c r="B205" s="52" t="b">
+    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A205" s="53"/>
+      <c r="B205" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>306</v>
       </c>
       <c r="E205" s="18" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="F205" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="16" t="s">
-        <v>308</v>
+      <c r="H205" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9984,27 +9962,25 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A206" s="54"/>
-      <c r="B206" s="52" t="b">
+    <row r="206" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C206" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E206" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F206" s="28" t="s">
-        <v>57</v>
+        <v>366</v>
+      </c>
+      <c r="E206" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="F206" s="48" t="s">
+        <v>10</v>
       </c>
       <c r="G206" s="3"/>
-      <c r="H206" s="15" t="s">
-        <v>310</v>
-      </c>
+      <c r="H206" s="4"/>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -10023,23 +9999,13 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-      <c r="B207" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C207" s="2">
-        <v>31</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E207" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="F207" s="49" t="s">
-        <v>10</v>
-      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="1"/>
       <c r="G207" s="3"/>
       <c r="H207" s="4"/>
       <c r="I207" s="3"/>
@@ -10060,17 +10026,29 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="1"/>
-      <c r="B208" s="52" t="b">
+    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A208" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="B208" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="1"/>
+      <c r="C208" s="2">
+        <v>1</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G208" s="3"/>
-      <c r="H208" s="4"/>
+      <c r="H208" s="15" t="s">
+        <v>310</v>
+      </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -10090,27 +10068,25 @@
       <c r="Y208" s="1"/>
     </row>
     <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A209" s="63" t="s">
+      <c r="A209" s="53"/>
+      <c r="B209" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C209" s="2">
+        <v>2</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B209" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C209" s="2">
-        <v>1</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F209" s="27" t="s">
-        <v>10</v>
+      <c r="F209" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -10130,26 +10106,26 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A210" s="54"/>
-      <c r="B210" s="52" t="b">
+    <row r="210" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="53"/>
+      <c r="B210" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E210" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E210" s="47" t="s">
         <v>9</v>
       </c>
       <c r="F210" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="15" t="s">
-        <v>315</v>
+      <c r="H210" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
@@ -10170,17 +10146,17 @@
       <c r="Y210" s="1"/>
     </row>
     <row r="211" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A211" s="54"/>
-      <c r="B211" s="52" t="b">
+      <c r="A211" s="53"/>
+      <c r="B211" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C211" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E211" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="E211" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F211" s="26" t="s">
@@ -10188,7 +10164,7 @@
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
@@ -10208,16 +10184,16 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="54"/>
-      <c r="B212" s="52" t="b">
+    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A212" s="53"/>
+      <c r="B212" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>9</v>
@@ -10226,8 +10202,8 @@
         <v>22</v>
       </c>
       <c r="G212" s="3"/>
-      <c r="H212" s="16" t="s">
-        <v>319</v>
+      <c r="H212" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
@@ -10248,15 +10224,15 @@
       <c r="Y212" s="1"/>
     </row>
     <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A213" s="54"/>
-      <c r="B213" s="52" t="b">
+      <c r="A213" s="53"/>
+      <c r="B213" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>9</v>
@@ -10266,7 +10242,7 @@
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10287,15 +10263,15 @@
       <c r="Y213" s="1"/>
     </row>
     <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A214" s="54"/>
-      <c r="B214" s="52" t="b">
+      <c r="A214" s="53"/>
+      <c r="B214" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>9</v>
@@ -10305,7 +10281,7 @@
       </c>
       <c r="G214" s="3"/>
       <c r="H214" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10325,16 +10301,16 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A215" s="54"/>
-      <c r="B215" s="52" t="b">
+    <row r="215" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="53"/>
+      <c r="B215" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>9</v>
@@ -10343,8 +10319,8 @@
         <v>22</v>
       </c>
       <c r="G215" s="3"/>
-      <c r="H215" s="15" t="s">
-        <v>325</v>
+      <c r="H215" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10364,16 +10340,16 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A216" s="54"/>
-      <c r="B216" s="52" t="b">
+    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A216" s="53"/>
+      <c r="B216" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>9</v>
@@ -10382,8 +10358,8 @@
         <v>22</v>
       </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="16" t="s">
-        <v>327</v>
+      <c r="H216" s="15" t="s">
+        <v>326</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10404,15 +10380,15 @@
       <c r="Y216" s="1"/>
     </row>
     <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A217" s="54"/>
-      <c r="B217" s="52" t="b">
+      <c r="A217" s="53"/>
+      <c r="B217" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>9</v>
@@ -10422,7 +10398,7 @@
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10442,16 +10418,16 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A218" s="54"/>
-      <c r="B218" s="52" t="b">
+    <row r="218" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="53"/>
+      <c r="B218" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C218" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>9</v>
@@ -10460,8 +10436,8 @@
         <v>22</v>
       </c>
       <c r="G218" s="3"/>
-      <c r="H218" s="15" t="s">
-        <v>331</v>
+      <c r="H218" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
@@ -10481,16 +10457,16 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A219" s="54"/>
-      <c r="B219" s="52" t="b">
+    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A219" s="53"/>
+      <c r="B219" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C219" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>9</v>
@@ -10499,8 +10475,8 @@
         <v>22</v>
       </c>
       <c r="G219" s="3"/>
-      <c r="H219" s="16" t="s">
-        <v>333</v>
+      <c r="H219" s="15" t="s">
+        <v>332</v>
       </c>
       <c r="I219" s="3"/>
       <c r="J219" s="1"/>
@@ -10521,15 +10497,15 @@
       <c r="Y219" s="1"/>
     </row>
     <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A220" s="54"/>
-      <c r="B220" s="52" t="b">
+      <c r="A220" s="53"/>
+      <c r="B220" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C220" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>9</v>
@@ -10539,7 +10515,7 @@
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
@@ -10560,15 +10536,15 @@
       <c r="Y220" s="1"/>
     </row>
     <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A221" s="54"/>
-      <c r="B221" s="52" t="b">
+      <c r="A221" s="53"/>
+      <c r="B221" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C221" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>9</v>
@@ -10578,7 +10554,7 @@
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10598,16 +10574,16 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A222" s="54"/>
-      <c r="B222" s="52" t="b">
+    <row r="222" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="53"/>
+      <c r="B222" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C222" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>9</v>
@@ -10616,8 +10592,8 @@
         <v>22</v>
       </c>
       <c r="G222" s="3"/>
-      <c r="H222" s="15" t="s">
-        <v>339</v>
+      <c r="H222" s="16" t="s">
+        <v>338</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
@@ -10638,25 +10614,25 @@
       <c r="Y222" s="1"/>
     </row>
     <row r="223" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A223" s="54"/>
-      <c r="B223" s="52" t="b">
+      <c r="A223" s="53"/>
+      <c r="B223" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C223" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F223" s="26" t="s">
-        <v>22</v>
+      <c r="F223" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
@@ -10677,15 +10653,15 @@
       <c r="Y223" s="1"/>
     </row>
     <row r="224" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A224" s="54"/>
-      <c r="B224" s="52" t="b">
+      <c r="A224" s="53"/>
+      <c r="B224" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C224" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>9</v>
@@ -10695,7 +10671,7 @@
       </c>
       <c r="G224" s="3"/>
       <c r="H224" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
@@ -10716,15 +10692,15 @@
       <c r="Y224" s="1"/>
     </row>
     <row r="225" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A225" s="54"/>
-      <c r="B225" s="52" t="b">
+      <c r="A225" s="53"/>
+      <c r="B225" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C225" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>9</v>
@@ -10734,7 +10710,7 @@
       </c>
       <c r="G225" s="3"/>
       <c r="H225" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
@@ -10754,16 +10730,16 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A226" s="54"/>
-      <c r="B226" s="52" t="b">
+    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A226" s="53"/>
+      <c r="B226" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C226" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>9</v>
@@ -10772,8 +10748,8 @@
         <v>57</v>
       </c>
       <c r="G226" s="3"/>
-      <c r="H226" s="16" t="s">
-        <v>347</v>
+      <c r="H226" s="15" t="s">
+        <v>346</v>
       </c>
       <c r="I226" s="3"/>
       <c r="J226" s="1"/>
@@ -10794,15 +10770,15 @@
       <c r="Y226" s="1"/>
     </row>
     <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A227" s="54"/>
-      <c r="B227" s="52" t="b">
+      <c r="A227" s="53"/>
+      <c r="B227" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C227" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E227" s="8" t="s">
         <v>9</v>
@@ -10812,7 +10788,7 @@
       </c>
       <c r="G227" s="3"/>
       <c r="H227" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="1"/>
@@ -10832,16 +10808,16 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A228" s="54"/>
-      <c r="B228" s="52" t="b">
+    <row r="228" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="53"/>
+      <c r="B228" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C228" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E228" s="8" t="s">
         <v>9</v>
@@ -10850,8 +10826,8 @@
         <v>57</v>
       </c>
       <c r="G228" s="3"/>
-      <c r="H228" s="15" t="s">
-        <v>351</v>
+      <c r="H228" s="16" t="s">
+        <v>350</v>
       </c>
       <c r="I228" s="3"/>
       <c r="J228" s="1"/>
@@ -10872,26 +10848,16 @@
       <c r="Y228" s="1"/>
     </row>
     <row r="229" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A229" s="54"/>
-      <c r="B229" s="52" t="b">
+      <c r="A229" s="1"/>
+      <c r="B229" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="C229" s="2">
-        <v>21</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E229" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F229" s="28" t="s">
-        <v>57</v>
-      </c>
+      <c r="C229" s="2"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="1"/>
       <c r="G229" s="3"/>
-      <c r="H229" s="16" t="s">
-        <v>353</v>
-      </c>
+      <c r="H229" s="4"/>
       <c r="I229" s="3"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -10912,7 +10878,7 @@
     </row>
     <row r="230" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
-      <c r="B230" s="52" t="b">
+      <c r="B230" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C230" s="2"/>
@@ -10940,16 +10906,28 @@
       <c r="Y230" s="1"/>
     </row>
     <row r="231" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
-      <c r="B231" s="52" t="b">
+      <c r="A231" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="B231" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="1"/>
+      <c r="C231" s="2">
+        <v>1</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E231" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G231" s="3"/>
-      <c r="H231" s="4"/>
+      <c r="H231" s="16" t="s">
+        <v>353</v>
+      </c>
       <c r="I231" s="3"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -10968,28 +10946,26 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A232" s="63" t="s">
+    <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A232" s="53"/>
+      <c r="B232" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C232" s="2">
+        <v>2</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B232" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C232" s="2">
-        <v>1</v>
-      </c>
-      <c r="D232" s="1" t="s">
+      <c r="E232" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G232" s="3"/>
+      <c r="H232" s="15" t="s">
         <v>355</v>
-      </c>
-      <c r="E232" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F232" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="3"/>
-      <c r="H232" s="16" t="s">
-        <v>356</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="1"/>
@@ -11010,15 +10986,15 @@
       <c r="Y232" s="1"/>
     </row>
     <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A233" s="54"/>
-      <c r="B233" s="52" t="b">
+      <c r="A233" s="53"/>
+      <c r="B233" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C233" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E233" s="8" t="s">
         <v>9</v>
@@ -11028,7 +11004,7 @@
       </c>
       <c r="G233" s="3"/>
       <c r="H233" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I233" s="3"/>
       <c r="J233" s="1"/>
@@ -11049,15 +11025,15 @@
       <c r="Y233" s="1"/>
     </row>
     <row r="234" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A234" s="54"/>
-      <c r="B234" s="52" t="b">
+      <c r="A234" s="53"/>
+      <c r="B234" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C234" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>9</v>
@@ -11067,7 +11043,7 @@
       </c>
       <c r="G234" s="3"/>
       <c r="H234" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I234" s="3"/>
       <c r="J234" s="1"/>
@@ -11088,15 +11064,15 @@
       <c r="Y234" s="1"/>
     </row>
     <row r="235" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A235" s="54"/>
-      <c r="B235" s="52" t="b">
+      <c r="A235" s="53"/>
+      <c r="B235" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C235" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E235" s="8" t="s">
         <v>9</v>
@@ -11105,8 +11081,8 @@
         <v>22</v>
       </c>
       <c r="G235" s="3"/>
-      <c r="H235" s="15" t="s">
-        <v>362</v>
+      <c r="H235" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="I235" s="3"/>
       <c r="J235" s="1"/>
@@ -11127,25 +11103,25 @@
       <c r="Y235" s="1"/>
     </row>
     <row r="236" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A236" s="54"/>
-      <c r="B236" s="52" t="b">
+      <c r="A236" s="53"/>
+      <c r="B236" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C236" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E236" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F236" s="26" t="s">
-        <v>22</v>
+      <c r="F236" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G236" s="3"/>
-      <c r="H236" s="20" t="s">
-        <v>364</v>
+      <c r="H236" s="15" t="s">
+        <v>363</v>
       </c>
       <c r="I236" s="3"/>
       <c r="J236" s="1"/>
@@ -11165,27 +11141,17 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A237" s="54"/>
-      <c r="B237" s="52" t="b">
+    <row r="237" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+      <c r="B237" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="C237" s="2">
-        <v>6</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E237" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F237" s="28" t="s">
-        <v>57</v>
-      </c>
+      <c r="C237" s="2"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="1"/>
       <c r="G237" s="3"/>
-      <c r="H237" s="15" t="s">
-        <v>366</v>
-      </c>
+      <c r="H237" s="4"/>
       <c r="I237" s="3"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
@@ -11206,7 +11172,7 @@
     </row>
     <row r="238" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
-      <c r="B238" s="52" t="b">
+      <c r="B238" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C238" s="2"/>
@@ -11234,14 +11200,24 @@
       <c r="Y238" s="1"/>
     </row>
     <row r="239" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A239" s="1"/>
-      <c r="B239" s="52" t="b">
+      <c r="A239" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="B239" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="C239" s="2"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="1"/>
+      <c r="C239" s="2">
+        <v>1</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E239" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="41" t="s">
+        <v>409</v>
+      </c>
       <c r="G239" s="3"/>
       <c r="H239" s="4"/>
       <c r="I239" s="3"/>
@@ -11263,14 +11239,12 @@
       <c r="Y239" s="1"/>
     </row>
     <row r="240" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A240" s="60" t="s">
-        <v>402</v>
-      </c>
-      <c r="B240" s="52" t="b">
+      <c r="A240" s="53"/>
+      <c r="B240" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C240" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>411</v>
@@ -11279,7 +11253,7 @@
         <v>9</v>
       </c>
       <c r="F240" s="41" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G240" s="3"/>
       <c r="H240" s="4"/>
@@ -11302,21 +11276,21 @@
       <c r="Y240" s="1"/>
     </row>
     <row r="241" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="54"/>
-      <c r="B241" s="52" t="b">
+      <c r="A241" s="53"/>
+      <c r="B241" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C241" s="2">
-        <v>2</v>
-      </c>
-      <c r="D241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D241" s="24" t="s">
         <v>414</v>
       </c>
       <c r="E241" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F241" s="41" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G241" s="3"/>
       <c r="H241" s="4"/>
@@ -11339,21 +11313,21 @@
       <c r="Y241" s="1"/>
     </row>
     <row r="242" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="54"/>
-      <c r="B242" s="52" t="b">
+      <c r="A242" s="53"/>
+      <c r="B242" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C242" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E242" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F242" s="41" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G242" s="3"/>
       <c r="H242" s="4"/>
@@ -11376,22 +11350,16 @@
       <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="54"/>
-      <c r="B243" s="52" t="b">
+      <c r="A243" s="53"/>
+      <c r="B243" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C243" s="2">
-        <v>4</v>
-      </c>
-      <c r="D243" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="E243" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F243" s="41" t="s">
-        <v>412</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D243" s="1"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="1"/>
       <c r="G243" s="3"/>
       <c r="H243" s="4"/>
       <c r="I243" s="3"/>
@@ -11413,12 +11381,12 @@
       <c r="Y243" s="1"/>
     </row>
     <row r="244" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A244" s="54"/>
-      <c r="B244" s="52" t="b">
+      <c r="A244" s="53"/>
+      <c r="B244" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C244" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="3"/>
@@ -11444,12 +11412,12 @@
       <c r="Y244" s="1"/>
     </row>
     <row r="245" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A245" s="54"/>
-      <c r="B245" s="52" t="b">
+      <c r="A245" s="53"/>
+      <c r="B245" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C245" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="3"/>
@@ -11475,12 +11443,12 @@
       <c r="Y245" s="1"/>
     </row>
     <row r="246" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A246" s="54"/>
-      <c r="B246" s="52" t="b">
+      <c r="A246" s="53"/>
+      <c r="B246" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C246" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="3"/>
@@ -11506,12 +11474,12 @@
       <c r="Y246" s="1"/>
     </row>
     <row r="247" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A247" s="54"/>
-      <c r="B247" s="52" t="b">
+      <c r="A247" s="53"/>
+      <c r="B247" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C247" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="3"/>
@@ -11537,12 +11505,12 @@
       <c r="Y247" s="1"/>
     </row>
     <row r="248" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="54"/>
-      <c r="B248" s="52" t="b">
+      <c r="A248" s="53"/>
+      <c r="B248" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C248" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="3"/>
@@ -11568,12 +11536,12 @@
       <c r="Y248" s="1"/>
     </row>
     <row r="249" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A249" s="54"/>
-      <c r="B249" s="52" t="b">
+      <c r="A249" s="53"/>
+      <c r="B249" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C249" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="3"/>
@@ -11599,12 +11567,12 @@
       <c r="Y249" s="1"/>
     </row>
     <row r="250" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A250" s="54"/>
-      <c r="B250" s="52" t="b">
+      <c r="A250" s="53"/>
+      <c r="B250" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C250" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="3"/>
@@ -11630,12 +11598,12 @@
       <c r="Y250" s="1"/>
     </row>
     <row r="251" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A251" s="54"/>
-      <c r="B251" s="52" t="b">
+      <c r="A251" s="53"/>
+      <c r="B251" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C251" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="3"/>
@@ -11661,12 +11629,12 @@
       <c r="Y251" s="1"/>
     </row>
     <row r="252" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A252" s="54"/>
-      <c r="B252" s="52" t="b">
+      <c r="A252" s="53"/>
+      <c r="B252" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C252" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="3"/>
@@ -11692,12 +11660,12 @@
       <c r="Y252" s="1"/>
     </row>
     <row r="253" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A253" s="54"/>
-      <c r="B253" s="52" t="b">
+      <c r="A253" s="53"/>
+      <c r="B253" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C253" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="3"/>
@@ -11722,14 +11690,10 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A254" s="54"/>
-      <c r="B254" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C254" s="2">
-        <v>15</v>
-      </c>
+    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A254" s="53"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="2"/>
       <c r="D254" s="1"/>
       <c r="E254" s="3"/>
       <c r="F254" s="1"/>
@@ -11754,7 +11718,7 @@
       <c r="Y254" s="1"/>
     </row>
     <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A255" s="54"/>
+      <c r="A255" s="53"/>
       <c r="B255" s="1"/>
       <c r="C255" s="2"/>
       <c r="D255" s="1"/>
@@ -11781,7 +11745,7 @@
       <c r="Y255" s="1"/>
     </row>
     <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A256" s="54"/>
+      <c r="A256" s="53"/>
       <c r="B256" s="1"/>
       <c r="C256" s="2"/>
       <c r="D256" s="1"/>
@@ -11808,7 +11772,7 @@
       <c r="Y256" s="1"/>
     </row>
     <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A257" s="54"/>
+      <c r="A257" s="53"/>
       <c r="B257" s="1"/>
       <c r="C257" s="2"/>
       <c r="D257" s="1"/>
@@ -11835,7 +11799,7 @@
       <c r="Y257" s="1"/>
     </row>
     <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A258" s="54"/>
+      <c r="A258" s="53"/>
       <c r="B258" s="1"/>
       <c r="C258" s="2"/>
       <c r="D258" s="1"/>
@@ -11862,7 +11826,7 @@
       <c r="Y258" s="1"/>
     </row>
     <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A259" s="54"/>
+      <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="2"/>
       <c r="D259" s="1"/>
@@ -32327,52 +32291,25 @@
       <c r="X1016" s="1"/>
       <c r="Y1016" s="1"/>
     </row>
-    <row r="1017" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1017" s="1"/>
-      <c r="B1017" s="1"/>
-      <c r="C1017" s="2"/>
-      <c r="D1017" s="1"/>
-      <c r="E1017" s="3"/>
-      <c r="F1017" s="1"/>
-      <c r="G1017" s="3"/>
-      <c r="H1017" s="4"/>
-      <c r="I1017" s="3"/>
-      <c r="J1017" s="1"/>
-      <c r="K1017" s="1"/>
-      <c r="L1017" s="1"/>
-      <c r="M1017" s="1"/>
-      <c r="N1017" s="1"/>
-      <c r="O1017" s="1"/>
-      <c r="P1017" s="1"/>
-      <c r="Q1017" s="1"/>
-      <c r="R1017" s="1"/>
-      <c r="S1017" s="1"/>
-      <c r="T1017" s="1"/>
-      <c r="U1017" s="1"/>
-      <c r="V1017" s="1"/>
-      <c r="W1017" s="1"/>
-      <c r="X1017" s="1"/>
-      <c r="Y1017" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A240:A259"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A7:A37"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A239:A258"/>
     <mergeCell ref="A45:A62"/>
     <mergeCell ref="A65:A76"/>
-    <mergeCell ref="A209:A229"/>
-    <mergeCell ref="A232:A237"/>
+    <mergeCell ref="A208:A228"/>
+    <mergeCell ref="A231:A236"/>
     <mergeCell ref="A79:A95"/>
     <mergeCell ref="A98:A114"/>
     <mergeCell ref="A117:A143"/>
     <mergeCell ref="A147:A159"/>
     <mergeCell ref="A162:A167"/>
     <mergeCell ref="A170:A174"/>
-    <mergeCell ref="A177:A206"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A7:A37"/>
-    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A177:A205"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
@@ -32537,137 +32474,136 @@
     <hyperlink ref="E182" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
     <hyperlink ref="E183" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
     <hyperlink ref="E184" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E185" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E186" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E187" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E188" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E189" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E190" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E191" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E192" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E193" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E196" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E200" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E202" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E203" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E204" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E205" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E206" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E209" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E210" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E211" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E212" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E213" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E214" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E215" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E216" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E217" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E218" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E219" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E220" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E221" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E222" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E223" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E224" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E225" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E226" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E227" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E228" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E229" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E232" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E233" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E234" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E235" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E236" r:id="rId204" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E237" r:id="rId205" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E207" r:id="rId206" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E145" r:id="rId207" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E144" r:id="rId208" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
-    <hyperlink ref="G72" r:id="rId209" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E72" r:id="rId210" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E71" r:id="rId211" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
-    <hyperlink ref="E6" r:id="rId212" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
-    <hyperlink ref="E87" r:id="rId213" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
-    <hyperlink ref="E92" r:id="rId214" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
-    <hyperlink ref="E91" r:id="rId215" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
-    <hyperlink ref="E90" r:id="rId216" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
-    <hyperlink ref="E48" r:id="rId217" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
-    <hyperlink ref="E60" r:id="rId218" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
-    <hyperlink ref="E32" r:id="rId219" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
-    <hyperlink ref="E14" r:id="rId220" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
-    <hyperlink ref="E7" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId222" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E11" r:id="rId223" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
-    <hyperlink ref="G37" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E37" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E36" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G35" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E35" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G34" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E34" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E33" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G31" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E31" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G29" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E29" r:id="rId235" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E28" r:id="rId236" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E27" r:id="rId237" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E26" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E25" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G23" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E23" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G22" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E22" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G20" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E20" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G18" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E18" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G17" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E17" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G16" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E16" r:id="rId251" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G15" r:id="rId252" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E15" r:id="rId253" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G13" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E13" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G10" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E10" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G9" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E9" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G8" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E8" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E240" r:id="rId262" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
-    <hyperlink ref="E21" r:id="rId263" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E241" r:id="rId264" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
-    <hyperlink ref="E30" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E12" r:id="rId266" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
-    <hyperlink ref="E242" r:id="rId267" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
-    <hyperlink ref="E243" r:id="rId268" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
-    <hyperlink ref="E24" r:id="rId269" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
-    <hyperlink ref="E19" r:id="rId270" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
-    <hyperlink ref="E201" r:id="rId271" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
-    <hyperlink ref="E194" r:id="rId272" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
-    <hyperlink ref="E178" r:id="rId273" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
-    <hyperlink ref="E199" r:id="rId274" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
-    <hyperlink ref="E105" r:id="rId275" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
-    <hyperlink ref="E109" r:id="rId276" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
-    <hyperlink ref="E108" r:id="rId277" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
-    <hyperlink ref="E107" r:id="rId278" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
-    <hyperlink ref="E134" r:id="rId279" xr:uid="{880B159A-370B-40EE-A5C8-AE68325F8994}"/>
-    <hyperlink ref="E130" r:id="rId280" xr:uid="{96ACD224-977A-4E66-9264-5617B21A7B5A}"/>
-    <hyperlink ref="E131" r:id="rId281" xr:uid="{7FD7344C-2A6A-4318-A67E-05F8EA153E88}"/>
-    <hyperlink ref="E94" r:id="rId282" xr:uid="{B6515FE2-AD7F-4A71-83EF-89020758DE37}"/>
-    <hyperlink ref="E96" r:id="rId283" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
-    <hyperlink ref="E57" r:id="rId284" xr:uid="{AB524FDC-322C-4129-B3D3-C0CD18DF6C39}"/>
-    <hyperlink ref="E47" r:id="rId285" xr:uid="{12F3604F-E330-4354-82A9-2E7144C6C69C}"/>
-    <hyperlink ref="E52" r:id="rId286" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
-    <hyperlink ref="E51" r:id="rId287" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
-    <hyperlink ref="E53" r:id="rId288" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
-    <hyperlink ref="E198" r:id="rId289" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
-    <hyperlink ref="E197" r:id="rId290" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
-    <hyperlink ref="E195" r:id="rId291" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
+    <hyperlink ref="E185" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E186" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E187" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E188" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E189" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E190" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E191" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E192" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E195" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E199" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E201" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E202" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E203" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E204" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E205" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E208" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E209" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E210" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E211" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E212" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E213" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E214" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E215" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E216" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E217" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E218" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E219" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E220" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E221" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E222" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E223" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E224" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E225" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E226" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E227" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E228" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E231" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E232" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E233" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E234" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E235" r:id="rId203" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E236" r:id="rId204" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E206" r:id="rId205" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E145" r:id="rId206" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E144" r:id="rId207" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="G72" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E72" r:id="rId209" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E71" r:id="rId210" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
+    <hyperlink ref="E6" r:id="rId211" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
+    <hyperlink ref="E87" r:id="rId212" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
+    <hyperlink ref="E92" r:id="rId213" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
+    <hyperlink ref="E91" r:id="rId214" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
+    <hyperlink ref="E90" r:id="rId215" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
+    <hyperlink ref="E48" r:id="rId216" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
+    <hyperlink ref="E60" r:id="rId217" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
+    <hyperlink ref="E32" r:id="rId218" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
+    <hyperlink ref="E14" r:id="rId219" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
+    <hyperlink ref="E7" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E11" r:id="rId222" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
+    <hyperlink ref="G37" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E37" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E36" r:id="rId225" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G35" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E35" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G34" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E34" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E33" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G31" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E31" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G29" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E29" r:id="rId234" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E28" r:id="rId235" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E27" r:id="rId236" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E26" r:id="rId237" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E25" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G23" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E23" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G22" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E22" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G20" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E20" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G18" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E18" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G17" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E17" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G16" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E16" r:id="rId250" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G15" r:id="rId251" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E15" r:id="rId252" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G13" r:id="rId253" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E13" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G10" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E10" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G9" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E9" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G8" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E239" r:id="rId261" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E21" r:id="rId262" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
+    <hyperlink ref="E240" r:id="rId263" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E30" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E12" r:id="rId265" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
+    <hyperlink ref="E241" r:id="rId266" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E242" r:id="rId267" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E24" r:id="rId268" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
+    <hyperlink ref="E19" r:id="rId269" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
+    <hyperlink ref="E200" r:id="rId270" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
+    <hyperlink ref="E193" r:id="rId271" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
+    <hyperlink ref="E178" r:id="rId272" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
+    <hyperlink ref="E198" r:id="rId273" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
+    <hyperlink ref="E105" r:id="rId274" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
+    <hyperlink ref="E109" r:id="rId275" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
+    <hyperlink ref="E108" r:id="rId276" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
+    <hyperlink ref="E107" r:id="rId277" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
+    <hyperlink ref="E134" r:id="rId278" xr:uid="{880B159A-370B-40EE-A5C8-AE68325F8994}"/>
+    <hyperlink ref="E130" r:id="rId279" xr:uid="{96ACD224-977A-4E66-9264-5617B21A7B5A}"/>
+    <hyperlink ref="E131" r:id="rId280" xr:uid="{7FD7344C-2A6A-4318-A67E-05F8EA153E88}"/>
+    <hyperlink ref="E94" r:id="rId281" xr:uid="{B6515FE2-AD7F-4A71-83EF-89020758DE37}"/>
+    <hyperlink ref="E96" r:id="rId282" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
+    <hyperlink ref="E57" r:id="rId283" xr:uid="{AB524FDC-322C-4129-B3D3-C0CD18DF6C39}"/>
+    <hyperlink ref="E47" r:id="rId284" xr:uid="{12F3604F-E330-4354-82A9-2E7144C6C69C}"/>
+    <hyperlink ref="E52" r:id="rId285" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
+    <hyperlink ref="E51" r:id="rId286" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
+    <hyperlink ref="E53" r:id="rId287" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
+    <hyperlink ref="E197" r:id="rId288" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
+    <hyperlink ref="E196" r:id="rId289" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
+    <hyperlink ref="E194" r:id="rId290" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId292"/>
+  <pageSetup orientation="portrait" r:id="rId291"/>
 </worksheet>
 </file>
--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D862E51A-7A21-4ACA-BDAE-74D4770800A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494C8528-4BD7-4BB2-A174-A2B4F64BFAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="449">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -836,6 +836,12 @@
     <t>Flipkart, Morgan Stanley, Accolite, Amazon , Microsoft, OYO , Samsung  , DE Shaw , Visa</t>
   </si>
   <si>
+    <t>Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t>Amazon, Google, Meta, Salesforce, Intuit , Linkedin , Nvidia , Uber, Microsoft</t>
+  </si>
+  <si>
     <t>Floyd Warshall Algo</t>
   </si>
   <si>
@@ -1371,6 +1377,9 @@
   </si>
   <si>
     <t>Path with minimum effort</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/network-delay-time/submissions/</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1566,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1632,6 +1641,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
@@ -1668,7 +1683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1767,12 +1782,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1781,13 +1799,13 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1797,26 +1815,11 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1824,6 +1827,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2062,11 +2081,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1016"/>
+  <dimension ref="A1:Y1017"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D176" sqref="D176"/>
+      <pane ySplit="4" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2085,11 +2104,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="59" t="s">
-        <v>412</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="D1" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -2114,14 +2133,14 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="60" t="s">
-        <v>407</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2236,20 +2255,20 @@
     </row>
     <row r="6" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
-      <c r="B6" s="51" t="b">
+      <c r="B6" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34"/>
@@ -2272,10 +2291,10 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="51" t="b">
+      <c r="B7" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="30">
@@ -2317,8 +2336,8 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="51" t="b">
+      <c r="A8" s="58"/>
+      <c r="B8" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C8" s="30">
@@ -2360,8 +2379,8 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="51" t="b">
+      <c r="A9" s="58"/>
+      <c r="B9" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C9" s="30">
@@ -2399,8 +2418,8 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="51" t="b">
+      <c r="A10" s="58"/>
+      <c r="B10" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="30">
@@ -2440,15 +2459,15 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" s="51" t="b">
+      <c r="A11" s="58"/>
+      <c r="B11" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C11" s="30">
         <v>6</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>9</v>
@@ -2477,20 +2496,20 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
-      <c r="B12" s="51" t="b">
+      <c r="A12" s="58"/>
+      <c r="B12" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="30">
         <v>7</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="33"/>
@@ -2514,8 +2533,8 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="51" t="b">
+      <c r="A13" s="58"/>
+      <c r="B13" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C13" s="30">
@@ -2555,15 +2574,15 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="51" t="b">
+      <c r="A14" s="58"/>
+      <c r="B14" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C14" s="30">
         <v>9</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>9</v>
@@ -2592,8 +2611,8 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="51" t="b">
+      <c r="A15" s="58"/>
+      <c r="B15" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="30">
@@ -2631,8 +2650,8 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="51" t="b">
+      <c r="A16" s="58"/>
+      <c r="B16" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C16" s="30">
@@ -2672,8 +2691,8 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="51" t="b">
+      <c r="A17" s="58"/>
+      <c r="B17" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="30">
@@ -2715,8 +2734,8 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="51" t="b">
+      <c r="A18" s="58"/>
+      <c r="B18" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C18" s="30">
@@ -2758,15 +2777,15 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="51" t="b">
+      <c r="A19" s="58"/>
+      <c r="B19" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="30">
         <v>14</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>9</v>
@@ -2795,8 +2814,8 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="51" t="b">
+      <c r="A20" s="58"/>
+      <c r="B20" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C20" s="30">
@@ -2836,21 +2855,21 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
-      <c r="B21" s="51" t="b">
+      <c r="A21" s="58"/>
+      <c r="B21" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C21" s="30">
         <v>16</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>22</v>
+      <c r="F21" s="42" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="39"/>
@@ -2873,8 +2892,8 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62"/>
-      <c r="B22" s="51" t="b">
+      <c r="A22" s="58"/>
+      <c r="B22" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C22" s="30">
@@ -2914,8 +2933,8 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="51" t="b">
+      <c r="A23" s="58"/>
+      <c r="B23" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C23" s="30">
@@ -2957,15 +2976,15 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="51" t="b">
+      <c r="A24" s="58"/>
+      <c r="B24" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C24" s="30">
         <v>19</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>9</v>
@@ -2994,8 +3013,8 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="51" t="b">
+      <c r="A25" s="58"/>
+      <c r="B25" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C25" s="30">
@@ -3035,8 +3054,8 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="51" t="b">
+      <c r="A26" s="58"/>
+      <c r="B26" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C26" s="30">
@@ -3076,8 +3095,8 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="51" t="b">
+      <c r="A27" s="58"/>
+      <c r="B27" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="30">
@@ -3117,8 +3136,8 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="62"/>
-      <c r="B28" s="51" t="b">
+      <c r="A28" s="58"/>
+      <c r="B28" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C28" s="30">
@@ -3158,8 +3177,8 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="62"/>
-      <c r="B29" s="51" t="b">
+      <c r="A29" s="58"/>
+      <c r="B29" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C29" s="30">
@@ -3199,8 +3218,8 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="62"/>
-      <c r="B30" s="51" t="b">
+      <c r="A30" s="58"/>
+      <c r="B30" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C30" s="30">
@@ -3238,8 +3257,8 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="62"/>
-      <c r="B31" s="51" t="b">
+      <c r="A31" s="58"/>
+      <c r="B31" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C31" s="30">
@@ -3281,15 +3300,15 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="62"/>
-      <c r="B32" s="51" t="b">
+      <c r="A32" s="58"/>
+      <c r="B32" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C32" s="30">
         <v>27</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>9</v>
@@ -3318,8 +3337,8 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="62"/>
-      <c r="B33" s="51" t="b">
+      <c r="A33" s="58"/>
+      <c r="B33" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C33" s="30">
@@ -3359,8 +3378,8 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
-      <c r="B34" s="51" t="b">
+      <c r="A34" s="58"/>
+      <c r="B34" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="30">
@@ -3400,8 +3419,8 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="51" t="b">
+      <c r="A35" s="58"/>
+      <c r="B35" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="30">
@@ -3443,8 +3462,8 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="51" t="b">
+      <c r="A36" s="58"/>
+      <c r="B36" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C36" s="30">
@@ -3482,8 +3501,8 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
-      <c r="B37" s="51" t="b">
+      <c r="A37" s="58"/>
+      <c r="B37" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C37" s="30">
@@ -3548,10 +3567,10 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="51" t="b">
+      <c r="B39" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C39" s="30">
@@ -3560,7 +3579,7 @@
       <c r="D39" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="37" t="s">
@@ -3591,8 +3610,8 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="55"/>
-      <c r="B40" s="51" t="b">
+      <c r="A40" s="60"/>
+      <c r="B40" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C40" s="30">
@@ -3601,7 +3620,7 @@
       <c r="D40" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="37" t="s">
@@ -3630,8 +3649,8 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="51" t="b">
+      <c r="A41" s="60"/>
+      <c r="B41" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C41" s="30">
@@ -3640,7 +3659,7 @@
       <c r="D41" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="37" t="s">
@@ -3669,8 +3688,8 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="55"/>
-      <c r="B42" s="51" t="b">
+      <c r="A42" s="60"/>
+      <c r="B42" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C42" s="30">
@@ -3679,7 +3698,7 @@
       <c r="D42" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="40" t="s">
@@ -3709,7 +3728,7 @@
     </row>
     <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
-      <c r="B43" s="51"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="2"/>
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
@@ -3735,7 +3754,7 @@
     </row>
     <row r="44" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="51"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="2"/>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
@@ -3760,10 +3779,10 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="51" t="b">
+      <c r="B45" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C45" s="30">
@@ -3772,7 +3791,7 @@
       <c r="D45" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="36" t="s">
@@ -3803,8 +3822,8 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="51" t="b">
+      <c r="A46" s="60"/>
+      <c r="B46" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C46" s="30">
@@ -3813,7 +3832,7 @@
       <c r="D46" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="36" t="s">
@@ -3842,15 +3861,15 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="51" t="b">
+      <c r="A47" s="60"/>
+      <c r="B47" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="30">
         <v>3</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>9</v>
@@ -3879,15 +3898,15 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
-      <c r="B48" s="51" t="b">
+      <c r="A48" s="60"/>
+      <c r="B48" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C48" s="30">
         <v>4</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>9</v>
@@ -3916,8 +3935,8 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="51" t="b">
+      <c r="A49" s="60"/>
+      <c r="B49" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C49" s="30">
@@ -3926,7 +3945,7 @@
       <c r="D49" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="36" t="s">
@@ -3955,8 +3974,8 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="51" t="b">
+      <c r="A50" s="60"/>
+      <c r="B50" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C50" s="30">
@@ -3965,7 +3984,7 @@
       <c r="D50" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="37" t="s">
@@ -3994,15 +4013,15 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
-      <c r="B51" s="51" t="b">
+      <c r="A51" s="60"/>
+      <c r="B51" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C51" s="30">
         <v>7</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>9</v>
@@ -4031,15 +4050,15 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="55"/>
-      <c r="B52" s="51" t="b">
+      <c r="A52" s="60"/>
+      <c r="B52" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C52" s="30">
         <v>8</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>9</v>
@@ -4068,15 +4087,15 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
-      <c r="B53" s="51" t="b">
+      <c r="A53" s="60"/>
+      <c r="B53" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C53" s="30">
         <v>9</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>9</v>
@@ -4105,8 +4124,8 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="55"/>
-      <c r="B54" s="51" t="b">
+      <c r="A54" s="60"/>
+      <c r="B54" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -4115,7 +4134,7 @@
       <c r="D54" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="42" t="s">
+      <c r="E54" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="37" t="s">
@@ -4144,8 +4163,8 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="55"/>
-      <c r="B55" s="51" t="b">
+      <c r="A55" s="60"/>
+      <c r="B55" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -4154,7 +4173,7 @@
       <c r="D55" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="37" t="s">
@@ -4185,8 +4204,8 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="51" t="b">
+      <c r="A56" s="60"/>
+      <c r="B56" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -4195,7 +4214,7 @@
       <c r="D56" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="37" t="s">
@@ -4224,15 +4243,15 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="55"/>
-      <c r="B57" s="51" t="b">
+      <c r="A57" s="60"/>
+      <c r="B57" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C57" s="30">
         <v>13</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>9</v>
@@ -4261,8 +4280,8 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="55"/>
-      <c r="B58" s="51" t="b">
+      <c r="A58" s="60"/>
+      <c r="B58" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C58" s="30">
@@ -4271,7 +4290,7 @@
       <c r="D58" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="E58" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="37" t="s">
@@ -4300,8 +4319,8 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="55"/>
-      <c r="B59" s="51" t="b">
+      <c r="A59" s="60"/>
+      <c r="B59" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C59" s="30">
@@ -4310,7 +4329,7 @@
       <c r="D59" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="42" t="s">
+      <c r="E59" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="40" t="s">
@@ -4339,15 +4358,15 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="55"/>
-      <c r="B60" s="51" t="b">
+      <c r="A60" s="60"/>
+      <c r="B60" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C60" s="30">
         <v>16</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E60" s="31" t="s">
         <v>9</v>
@@ -4376,8 +4395,8 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="55"/>
-      <c r="B61" s="51" t="b">
+      <c r="A61" s="60"/>
+      <c r="B61" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -4386,7 +4405,7 @@
       <c r="D61" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="42" t="s">
+      <c r="E61" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="40" t="s">
@@ -4413,8 +4432,8 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="55"/>
-      <c r="B62" s="51" t="b">
+      <c r="A62" s="60"/>
+      <c r="B62" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -4451,7 +4470,7 @@
     </row>
     <row r="63" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
-      <c r="B63" s="51" t="b">
+      <c r="B63" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C63" s="2"/>
@@ -4476,7 +4495,7 @@
     </row>
     <row r="64" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="51" t="b">
+      <c r="B64" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C64" s="2"/>
@@ -4504,10 +4523,10 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="51" t="b">
+      <c r="B65" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C65" s="2">
@@ -4548,8 +4567,8 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="53"/>
-      <c r="B66" s="51" t="b">
+      <c r="A66" s="55"/>
+      <c r="B66" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C66" s="2">
@@ -4588,8 +4607,8 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="53"/>
-      <c r="B67" s="51" t="b">
+      <c r="A67" s="55"/>
+      <c r="B67" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C67" s="2">
@@ -4630,8 +4649,8 @@
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A68" s="53"/>
-      <c r="B68" s="51" t="b">
+      <c r="A68" s="55"/>
+      <c r="B68" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C68" s="2">
@@ -4670,8 +4689,8 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="53"/>
-      <c r="B69" s="51" t="b">
+      <c r="A69" s="55"/>
+      <c r="B69" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C69" s="2">
@@ -4710,8 +4729,8 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="53"/>
-      <c r="B70" s="51" t="b">
+      <c r="A70" s="55"/>
+      <c r="B70" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C70" s="2">
@@ -4752,8 +4771,8 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="53"/>
-      <c r="B71" s="51" t="b">
+      <c r="A71" s="55"/>
+      <c r="B71" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C71" s="2">
@@ -4761,7 +4780,7 @@
         <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>9</v>
@@ -4790,8 +4809,8 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="53"/>
-      <c r="B72" s="51" t="b">
+      <c r="A72" s="55"/>
+      <c r="B72" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C72" s="2">
@@ -4832,8 +4851,8 @@
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A73" s="53"/>
-      <c r="B73" s="51" t="b">
+      <c r="A73" s="55"/>
+      <c r="B73" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C73" s="2">
@@ -4872,8 +4891,8 @@
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A74" s="53"/>
-      <c r="B74" s="51" t="b">
+      <c r="A74" s="55"/>
+      <c r="B74" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C74" s="2">
@@ -4914,8 +4933,8 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="53"/>
-      <c r="B75" s="51" t="b">
+      <c r="A75" s="55"/>
+      <c r="B75" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C75" s="2">
@@ -4956,8 +4975,8 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="53"/>
-      <c r="B76" s="51" t="b">
+      <c r="A76" s="55"/>
+      <c r="B76" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C76" s="2">
@@ -4997,7 +5016,7 @@
     </row>
     <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="51" t="b">
+      <c r="B77" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C77" s="2"/>
@@ -5026,7 +5045,7 @@
     </row>
     <row r="78" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="51" t="b">
+      <c r="B78" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C78" s="2"/>
@@ -5054,19 +5073,19 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="58" t="s">
+      <c r="A79" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="51" t="b">
+      <c r="B79" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C79" s="30">
         <v>1</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="E79" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="E79" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="36" t="s">
@@ -5075,7 +5094,7 @@
       <c r="G79" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="44" t="s">
+      <c r="H79" s="45" t="s">
         <v>109</v>
       </c>
       <c r="I79" s="3"/>
@@ -5097,17 +5116,17 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="55"/>
-      <c r="B80" s="51" t="b">
+      <c r="A80" s="60"/>
+      <c r="B80" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C80" s="30">
         <v>2</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="E80" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="E80" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="36" t="s">
@@ -5116,7 +5135,7 @@
       <c r="G80" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="44" t="s">
+      <c r="H80" s="45" t="s">
         <v>110</v>
       </c>
       <c r="I80" s="3"/>
@@ -5138,17 +5157,17 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="55"/>
-      <c r="B81" s="51" t="b">
+      <c r="A81" s="60"/>
+      <c r="B81" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C81" s="30">
         <v>3</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="E81" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="E81" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="36" t="s">
@@ -5157,7 +5176,7 @@
       <c r="G81" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="44" t="s">
+      <c r="H81" s="45" t="s">
         <v>111</v>
       </c>
       <c r="I81" s="3"/>
@@ -5179,24 +5198,24 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="55"/>
-      <c r="B82" s="51" t="b">
+      <c r="A82" s="60"/>
+      <c r="B82" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C82" s="30">
         <v>4</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E82" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="E82" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="33"/>
-      <c r="H82" s="44" t="s">
+      <c r="H82" s="45" t="s">
         <v>112</v>
       </c>
       <c r="I82" s="3"/>
@@ -5218,17 +5237,17 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
-      <c r="B83" s="51" t="b">
+      <c r="A83" s="60"/>
+      <c r="B83" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C83" s="30">
         <v>5</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="E83" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="E83" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="36" t="s">
@@ -5237,7 +5256,7 @@
       <c r="G83" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H83" s="44" t="s">
+      <c r="H83" s="45" t="s">
         <v>113</v>
       </c>
       <c r="I83" s="3"/>
@@ -5259,17 +5278,17 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="55"/>
-      <c r="B84" s="51" t="b">
+      <c r="A84" s="60"/>
+      <c r="B84" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C84" s="30">
         <v>6</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E84" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="E84" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="37" t="s">
@@ -5278,7 +5297,7 @@
       <c r="G84" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H84" s="44" t="s">
+      <c r="H84" s="45" t="s">
         <v>114</v>
       </c>
       <c r="I84" s="3"/>
@@ -5300,17 +5319,17 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="55"/>
-      <c r="B85" s="51" t="b">
+      <c r="A85" s="60"/>
+      <c r="B85" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C85" s="30">
         <v>7</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="E85" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="E85" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="37" t="s">
@@ -5319,7 +5338,7 @@
       <c r="G85" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H85" s="44" t="s">
+      <c r="H85" s="45" t="s">
         <v>115</v>
       </c>
       <c r="I85" s="3"/>
@@ -5341,8 +5360,8 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="55"/>
-      <c r="B86" s="51" t="b">
+      <c r="A86" s="60"/>
+      <c r="B86" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C86" s="30">
@@ -5351,7 +5370,7 @@
       <c r="D86" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E86" s="42" t="s">
+      <c r="E86" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="37" t="s">
@@ -5360,7 +5379,7 @@
       <c r="G86" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="44" t="s">
+      <c r="H86" s="45" t="s">
         <v>117</v>
       </c>
       <c r="I86" s="3"/>
@@ -5382,15 +5401,15 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="55"/>
-      <c r="B87" s="51" t="b">
+      <c r="A87" s="60"/>
+      <c r="B87" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="30">
         <v>9</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E87" s="31" t="s">
         <v>9</v>
@@ -5399,7 +5418,7 @@
         <v>22</v>
       </c>
       <c r="G87" s="35"/>
-      <c r="H87" s="44"/>
+      <c r="H87" s="45"/>
       <c r="I87" s="3"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5419,8 +5438,8 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="55"/>
-      <c r="B88" s="51" t="b">
+      <c r="A88" s="60"/>
+      <c r="B88" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C88" s="30">
@@ -5429,14 +5448,14 @@
       <c r="D88" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E88" s="42" t="s">
+      <c r="E88" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G88" s="33"/>
-      <c r="H88" s="44" t="s">
+      <c r="H88" s="45" t="s">
         <v>119</v>
       </c>
       <c r="I88" s="3"/>
@@ -5458,8 +5477,8 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="55"/>
-      <c r="B89" s="51" t="b">
+      <c r="A89" s="60"/>
+      <c r="B89" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C89" s="30">
@@ -5468,14 +5487,14 @@
       <c r="D89" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G89" s="33"/>
-      <c r="H89" s="44" t="s">
+      <c r="H89" s="45" t="s">
         <v>121</v>
       </c>
       <c r="I89" s="3"/>
@@ -5497,15 +5516,15 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="55"/>
-      <c r="B90" s="51" t="b">
+      <c r="A90" s="60"/>
+      <c r="B90" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C90" s="30">
         <v>12</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E90" s="31" t="s">
         <v>9</v>
@@ -5514,7 +5533,7 @@
         <v>22</v>
       </c>
       <c r="G90" s="35"/>
-      <c r="H90" s="44"/>
+      <c r="H90" s="45"/>
       <c r="I90" s="3"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -5534,15 +5553,15 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="55"/>
-      <c r="B91" s="51" t="b">
+      <c r="A91" s="60"/>
+      <c r="B91" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="30">
         <v>13</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>9</v>
@@ -5551,7 +5570,7 @@
         <v>22</v>
       </c>
       <c r="G91" s="35"/>
-      <c r="H91" s="44"/>
+      <c r="H91" s="45"/>
       <c r="I91" s="3"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -5571,15 +5590,15 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="55"/>
-      <c r="B92" s="51" t="b">
+      <c r="A92" s="60"/>
+      <c r="B92" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="30">
         <v>14</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E92" s="31" t="s">
         <v>9</v>
@@ -5588,7 +5607,7 @@
         <v>22</v>
       </c>
       <c r="G92" s="35"/>
-      <c r="H92" s="44"/>
+      <c r="H92" s="45"/>
       <c r="I92" s="3"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -5608,8 +5627,8 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="55"/>
-      <c r="B93" s="51" t="b">
+      <c r="A93" s="60"/>
+      <c r="B93" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="30">
@@ -5618,14 +5637,14 @@
       <c r="D93" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E93" s="42" t="s">
+      <c r="E93" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G93" s="33"/>
-      <c r="H93" s="44" t="s">
+      <c r="H93" s="45" t="s">
         <v>123</v>
       </c>
       <c r="I93" s="3"/>
@@ -5647,24 +5666,24 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="55"/>
-      <c r="B94" s="51" t="b">
+      <c r="A94" s="60"/>
+      <c r="B94" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="30">
         <v>16</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="50" t="s">
+      <c r="F94" s="51" t="s">
         <v>57</v>
       </c>
       <c r="G94" s="33"/>
-      <c r="H94" s="44"/>
+      <c r="H94" s="45"/>
       <c r="I94" s="3"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -5684,8 +5703,8 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="55"/>
-      <c r="B95" s="51" t="b">
+      <c r="A95" s="60"/>
+      <c r="B95" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C95" s="30">
@@ -5694,7 +5713,7 @@
       <c r="D95" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E95" s="42" t="s">
+      <c r="E95" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="40" t="s">
@@ -5703,7 +5722,7 @@
       <c r="G95" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H95" s="44" t="s">
+      <c r="H95" s="45" t="s">
         <v>125</v>
       </c>
       <c r="I95" s="3"/>
@@ -5726,19 +5745,19 @@
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="29"/>
-      <c r="B96" s="51" t="b">
+      <c r="B96" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C96" s="30">
         <v>18</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E96" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="46" t="s">
+      <c r="F96" s="47" t="s">
         <v>22</v>
       </c>
       <c r="G96" s="33"/>
@@ -5763,7 +5782,7 @@
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="51" t="b">
+      <c r="B97" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C97" s="2"/>
@@ -5791,10 +5810,10 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="54" t="s">
+      <c r="A98" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="51" t="b">
+      <c r="B98" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C98" s="30">
@@ -5803,7 +5822,7 @@
       <c r="D98" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E98" s="42" t="s">
+      <c r="E98" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F98" s="36" t="s">
@@ -5812,7 +5831,7 @@
       <c r="G98" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H98" s="44" t="s">
+      <c r="H98" s="45" t="s">
         <v>128</v>
       </c>
       <c r="I98" s="3"/>
@@ -5834,8 +5853,8 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="55"/>
-      <c r="B99" s="51" t="b">
+      <c r="A99" s="60"/>
+      <c r="B99" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C99" s="30">
@@ -5844,7 +5863,7 @@
       <c r="D99" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E99" s="42" t="s">
+      <c r="E99" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F99" s="36" t="s">
@@ -5853,7 +5872,7 @@
       <c r="G99" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H99" s="44" t="s">
+      <c r="H99" s="45" t="s">
         <v>130</v>
       </c>
       <c r="I99" s="3"/>
@@ -5875,8 +5894,8 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="55"/>
-      <c r="B100" s="51" t="b">
+      <c r="A100" s="60"/>
+      <c r="B100" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C100" s="30">
@@ -5885,7 +5904,7 @@
       <c r="D100" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F100" s="36" t="s">
@@ -5894,7 +5913,7 @@
       <c r="G100" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H100" s="44" t="s">
+      <c r="H100" s="45" t="s">
         <v>132</v>
       </c>
       <c r="I100" s="3"/>
@@ -5916,8 +5935,8 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="55"/>
-      <c r="B101" s="51" t="b">
+      <c r="A101" s="60"/>
+      <c r="B101" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C101" s="30">
@@ -5926,7 +5945,7 @@
       <c r="D101" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E101" s="42" t="s">
+      <c r="E101" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F101" s="36" t="s">
@@ -5935,7 +5954,7 @@
       <c r="G101" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H101" s="44" t="s">
+      <c r="H101" s="45" t="s">
         <v>134</v>
       </c>
       <c r="I101" s="3"/>
@@ -5957,8 +5976,8 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="55"/>
-      <c r="B102" s="51" t="b">
+      <c r="A102" s="60"/>
+      <c r="B102" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C102" s="30">
@@ -5967,7 +5986,7 @@
       <c r="D102" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="E102" s="42" t="s">
+      <c r="E102" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F102" s="36" t="s">
@@ -5976,7 +5995,7 @@
       <c r="G102" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H102" s="44" t="s">
+      <c r="H102" s="45" t="s">
         <v>136</v>
       </c>
       <c r="I102" s="3"/>
@@ -5998,8 +6017,8 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="55"/>
-      <c r="B103" s="51" t="b">
+      <c r="A103" s="60"/>
+      <c r="B103" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C103" s="30">
@@ -6008,14 +6027,14 @@
       <c r="D103" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E103" s="42" t="s">
+      <c r="E103" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F103" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="33"/>
-      <c r="H103" s="44" t="s">
+      <c r="H103" s="45" t="s">
         <v>138</v>
       </c>
       <c r="I103" s="3"/>
@@ -6037,8 +6056,8 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="55"/>
-      <c r="B104" s="51" t="b">
+      <c r="A104" s="60"/>
+      <c r="B104" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C104" s="30">
@@ -6047,14 +6066,14 @@
       <c r="D104" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F104" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="33"/>
-      <c r="H104" s="44" t="s">
+      <c r="H104" s="45" t="s">
         <v>140</v>
       </c>
       <c r="I104" s="3"/>
@@ -6076,24 +6095,24 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="55"/>
-      <c r="B105" s="51" t="b">
+      <c r="A105" s="60"/>
+      <c r="B105" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="30">
         <v>8</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="45" t="s">
+      <c r="F105" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G105" s="33"/>
-      <c r="H105" s="44"/>
+      <c r="H105" s="45"/>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -6113,8 +6132,8 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="55"/>
-      <c r="B106" s="51" t="b">
+      <c r="A106" s="60"/>
+      <c r="B106" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C106" s="30">
@@ -6126,13 +6145,13 @@
       <c r="E106" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="45" t="s">
+      <c r="F106" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G106" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H106" s="44" t="s">
+      <c r="H106" s="45" t="s">
         <v>142</v>
       </c>
       <c r="I106" s="3"/>
@@ -6154,24 +6173,24 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="55"/>
-      <c r="B107" s="51" t="b">
+      <c r="A107" s="60"/>
+      <c r="B107" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C107" s="30">
         <v>10</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="45" t="s">
+      <c r="F107" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G107" s="35"/>
-      <c r="H107" s="44"/>
+      <c r="H107" s="45"/>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -6191,24 +6210,24 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="55"/>
-      <c r="B108" s="51" t="b">
+      <c r="A108" s="60"/>
+      <c r="B108" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C108" s="30">
         <v>11</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E108" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F108" s="45" t="s">
+      <c r="F108" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G108" s="35"/>
-      <c r="H108" s="44"/>
+      <c r="H108" s="45"/>
       <c r="I108" s="3"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -6228,24 +6247,24 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="55"/>
-      <c r="B109" s="51" t="b">
+      <c r="A109" s="60"/>
+      <c r="B109" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C109" s="30">
         <v>12</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E109" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="45" t="s">
+      <c r="F109" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G109" s="35"/>
-      <c r="H109" s="44"/>
+      <c r="H109" s="45"/>
       <c r="I109" s="3"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -6265,8 +6284,8 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="55"/>
-      <c r="B110" s="51" t="b">
+      <c r="A110" s="60"/>
+      <c r="B110" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C110" s="30">
@@ -6275,16 +6294,16 @@
       <c r="D110" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="E110" s="42" t="s">
+      <c r="E110" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="45" t="s">
+      <c r="F110" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G110" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H110" s="44" t="s">
+      <c r="H110" s="45" t="s">
         <v>144</v>
       </c>
       <c r="I110" s="3"/>
@@ -6306,8 +6325,8 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="55"/>
-      <c r="B111" s="51" t="b">
+      <c r="A111" s="60"/>
+      <c r="B111" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C111" s="30">
@@ -6316,16 +6335,16 @@
       <c r="D111" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E111" s="42" t="s">
+      <c r="E111" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="45" t="s">
+      <c r="F111" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G111" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H111" s="44" t="s">
+      <c r="H111" s="45" t="s">
         <v>146</v>
       </c>
       <c r="I111" s="3"/>
@@ -6347,8 +6366,8 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="55"/>
-      <c r="B112" s="51" t="b">
+      <c r="A112" s="60"/>
+      <c r="B112" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C112" s="30">
@@ -6357,16 +6376,16 @@
       <c r="D112" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="E112" s="42" t="s">
+      <c r="E112" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="45" t="s">
+      <c r="F112" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G112" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H112" s="44" t="s">
+      <c r="H112" s="45" t="s">
         <v>148</v>
       </c>
       <c r="I112" s="3"/>
@@ -6388,8 +6407,8 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="55"/>
-      <c r="B113" s="51" t="b">
+      <c r="A113" s="60"/>
+      <c r="B113" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C113" s="30">
@@ -6398,16 +6417,16 @@
       <c r="D113" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E113" s="42" t="s">
+      <c r="E113" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="45" t="s">
+      <c r="F113" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G113" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H113" s="44" t="s">
+      <c r="H113" s="45" t="s">
         <v>151</v>
       </c>
       <c r="I113" s="3"/>
@@ -6429,8 +6448,8 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="55"/>
-      <c r="B114" s="51" t="b">
+      <c r="A114" s="60"/>
+      <c r="B114" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C114" s="30">
@@ -6439,16 +6458,16 @@
       <c r="D114" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="E114" s="42" t="s">
+      <c r="E114" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="49" t="s">
+      <c r="F114" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G114" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H114" s="44" t="s">
+      <c r="H114" s="45" t="s">
         <v>153</v>
       </c>
       <c r="I114" s="3"/>
@@ -6471,7 +6490,7 @@
     </row>
     <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
-      <c r="B115" s="51" t="b">
+      <c r="B115" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C115" s="2"/>
@@ -6500,7 +6519,7 @@
     </row>
     <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
-      <c r="B116" s="51" t="b">
+      <c r="B116" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C116" s="2"/>
@@ -6528,19 +6547,19 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="54" t="s">
+      <c r="A117" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B117" s="51" t="b">
+      <c r="B117" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C117" s="30">
         <v>1</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="E117" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="E117" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F117" s="36" t="s">
@@ -6549,7 +6568,7 @@
       <c r="G117" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="44" t="s">
+      <c r="H117" s="45" t="s">
         <v>155</v>
       </c>
       <c r="I117" s="3"/>
@@ -6571,17 +6590,17 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="55"/>
-      <c r="B118" s="51" t="b">
+      <c r="A118" s="60"/>
+      <c r="B118" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C118" s="30">
         <v>2</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="E118" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="E118" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F118" s="36" t="s">
@@ -6590,7 +6609,7 @@
       <c r="G118" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H118" s="44" t="s">
+      <c r="H118" s="45" t="s">
         <v>156</v>
       </c>
       <c r="I118" s="3"/>
@@ -6612,17 +6631,17 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="55"/>
-      <c r="B119" s="51" t="b">
+      <c r="A119" s="60"/>
+      <c r="B119" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C119" s="30">
         <v>3</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="E119" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="E119" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F119" s="36" t="s">
@@ -6631,7 +6650,7 @@
       <c r="G119" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H119" s="44" t="s">
+      <c r="H119" s="45" t="s">
         <v>157</v>
       </c>
       <c r="I119" s="3"/>
@@ -6653,24 +6672,24 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="55"/>
-      <c r="B120" s="51" t="b">
+      <c r="A120" s="60"/>
+      <c r="B120" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C120" s="30">
         <v>4</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="E120" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="E120" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F120" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="33"/>
-      <c r="H120" s="44" t="s">
+      <c r="H120" s="45" t="s">
         <v>158</v>
       </c>
       <c r="I120" s="3"/>
@@ -6692,17 +6711,17 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="55"/>
-      <c r="B121" s="51" t="b">
+      <c r="A121" s="60"/>
+      <c r="B121" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C121" s="30">
         <v>5</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="E121" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="E121" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F121" s="36" t="s">
@@ -6711,7 +6730,7 @@
       <c r="G121" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="H121" s="44" t="s">
+      <c r="H121" s="45" t="s">
         <v>160</v>
       </c>
       <c r="I121" s="3"/>
@@ -6733,17 +6752,17 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="55"/>
-      <c r="B122" s="51" t="b">
+      <c r="A122" s="60"/>
+      <c r="B122" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C122" s="30">
         <v>6</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="E122" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="E122" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F122" s="36" t="s">
@@ -6752,7 +6771,7 @@
       <c r="G122" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H122" s="44" t="s">
+      <c r="H122" s="45" t="s">
         <v>161</v>
       </c>
       <c r="I122" s="3"/>
@@ -6774,17 +6793,17 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="55"/>
-      <c r="B123" s="51" t="b">
+      <c r="A123" s="60"/>
+      <c r="B123" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C123" s="30">
         <v>7</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="E123" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="E123" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F123" s="36" t="s">
@@ -6793,7 +6812,7 @@
       <c r="G123" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H123" s="44" t="s">
+      <c r="H123" s="45" t="s">
         <v>162</v>
       </c>
       <c r="I123" s="3"/>
@@ -6815,17 +6834,17 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="55"/>
-      <c r="B124" s="51" t="b">
+      <c r="A124" s="60"/>
+      <c r="B124" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C124" s="30">
         <v>8</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="E124" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="E124" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F124" s="36" t="s">
@@ -6834,7 +6853,7 @@
       <c r="G124" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H124" s="44" t="s">
+      <c r="H124" s="45" t="s">
         <v>163</v>
       </c>
       <c r="I124" s="3"/>
@@ -6856,24 +6875,24 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="55"/>
-      <c r="B125" s="51" t="b">
+      <c r="A125" s="60"/>
+      <c r="B125" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C125" s="30">
         <v>9</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="E125" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="E125" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F125" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="33"/>
-      <c r="H125" s="44" t="s">
+      <c r="H125" s="45" t="s">
         <v>164</v>
       </c>
       <c r="I125" s="3"/>
@@ -6895,17 +6914,17 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="55"/>
-      <c r="B126" s="51" t="b">
+      <c r="A126" s="60"/>
+      <c r="B126" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C126" s="30">
         <v>10</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="E126" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="E126" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F126" s="36" t="s">
@@ -6914,7 +6933,7 @@
       <c r="G126" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H126" s="44" t="s">
+      <c r="H126" s="45" t="s">
         <v>165</v>
       </c>
       <c r="I126" s="3"/>
@@ -6936,24 +6955,24 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="55"/>
-      <c r="B127" s="51" t="b">
+      <c r="A127" s="60"/>
+      <c r="B127" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C127" s="30">
         <v>11</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="E127" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="E127" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F127" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="33"/>
-      <c r="H127" s="44" t="s">
+      <c r="H127" s="45" t="s">
         <v>166</v>
       </c>
       <c r="I127" s="3"/>
@@ -6975,17 +6994,17 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="55"/>
-      <c r="B128" s="51" t="b">
+      <c r="A128" s="60"/>
+      <c r="B128" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C128" s="30">
         <v>12</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="E128" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="E128" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F128" s="37" t="s">
@@ -6994,7 +7013,7 @@
       <c r="G128" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H128" s="44" t="s">
+      <c r="H128" s="45" t="s">
         <v>167</v>
       </c>
       <c r="I128" s="3"/>
@@ -7016,24 +7035,24 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="55"/>
-      <c r="B129" s="51" t="b">
+      <c r="A129" s="60"/>
+      <c r="B129" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C129" s="30">
         <v>13</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="E129" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="E129" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F129" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G129" s="33"/>
-      <c r="H129" s="44" t="s">
+      <c r="H129" s="45" t="s">
         <v>168</v>
       </c>
       <c r="I129" s="3"/>
@@ -7055,15 +7074,15 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="55"/>
-      <c r="B130" s="51" t="b">
+      <c r="A130" s="60"/>
+      <c r="B130" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C130" s="30">
         <v>14</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E130" s="21" t="s">
         <v>9</v>
@@ -7072,7 +7091,7 @@
         <v>22</v>
       </c>
       <c r="G130" s="33"/>
-      <c r="H130" s="44"/>
+      <c r="H130" s="45"/>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -7092,15 +7111,15 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="55"/>
-      <c r="B131" s="51" t="b">
+      <c r="A131" s="60"/>
+      <c r="B131" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C131" s="30">
         <v>15</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E131" s="21" t="s">
         <v>9</v>
@@ -7109,7 +7128,7 @@
         <v>22</v>
       </c>
       <c r="G131" s="33"/>
-      <c r="H131" s="44"/>
+      <c r="H131" s="45"/>
       <c r="I131" s="3"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -7129,24 +7148,24 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="55"/>
-      <c r="B132" s="51" t="b">
+      <c r="A132" s="60"/>
+      <c r="B132" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C132" s="30">
         <v>16</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="E132" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="E132" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F132" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G132" s="33"/>
-      <c r="H132" s="44" t="s">
+      <c r="H132" s="45" t="s">
         <v>169</v>
       </c>
       <c r="I132" s="3"/>
@@ -7168,17 +7187,17 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="55"/>
-      <c r="B133" s="51" t="b">
+      <c r="A133" s="60"/>
+      <c r="B133" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C133" s="30">
         <v>17</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="E133" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="E133" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F133" s="37" t="s">
@@ -7187,7 +7206,7 @@
       <c r="G133" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="44" t="s">
+      <c r="H133" s="45" t="s">
         <v>170</v>
       </c>
       <c r="I133" s="3"/>
@@ -7209,15 +7228,15 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="55"/>
-      <c r="B134" s="51" t="b">
+      <c r="A134" s="60"/>
+      <c r="B134" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C134" s="30">
         <v>18</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E134" s="21" t="s">
         <v>9</v>
@@ -7226,7 +7245,7 @@
         <v>22</v>
       </c>
       <c r="G134" s="35"/>
-      <c r="H134" s="44"/>
+      <c r="H134" s="45"/>
       <c r="I134" s="3"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -7246,8 +7265,8 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="55"/>
-      <c r="B135" s="51" t="b">
+      <c r="A135" s="60"/>
+      <c r="B135" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C135" s="30">
@@ -7256,7 +7275,7 @@
       <c r="D135" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="E135" s="42" t="s">
+      <c r="E135" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F135" s="37" t="s">
@@ -7265,7 +7284,7 @@
       <c r="G135" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H135" s="44" t="s">
+      <c r="H135" s="45" t="s">
         <v>172</v>
       </c>
       <c r="I135" s="3"/>
@@ -7287,17 +7306,17 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="55"/>
-      <c r="B136" s="51" t="b">
+      <c r="A136" s="60"/>
+      <c r="B136" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C136" s="30">
         <v>20</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="E136" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="E136" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F136" s="37" t="s">
@@ -7306,7 +7325,7 @@
       <c r="G136" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H136" s="44" t="s">
+      <c r="H136" s="45" t="s">
         <v>173</v>
       </c>
       <c r="I136" s="3"/>
@@ -7328,8 +7347,8 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="55"/>
-      <c r="B137" s="51" t="b">
+      <c r="A137" s="60"/>
+      <c r="B137" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C137" s="30">
@@ -7338,7 +7357,7 @@
       <c r="D137" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E137" s="42" t="s">
+      <c r="E137" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F137" s="37" t="s">
@@ -7347,7 +7366,7 @@
       <c r="G137" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H137" s="44" t="s">
+      <c r="H137" s="45" t="s">
         <v>175</v>
       </c>
       <c r="I137" s="3"/>
@@ -7369,8 +7388,8 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="55"/>
-      <c r="B138" s="51" t="b">
+      <c r="A138" s="60"/>
+      <c r="B138" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C138" s="30">
@@ -7379,14 +7398,14 @@
       <c r="D138" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="E138" s="42" t="s">
+      <c r="E138" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F138" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G138" s="33"/>
-      <c r="H138" s="44" t="s">
+      <c r="H138" s="45" t="s">
         <v>177</v>
       </c>
       <c r="I138" s="3"/>
@@ -7408,17 +7427,17 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="55"/>
-      <c r="B139" s="51" t="b">
+      <c r="A139" s="60"/>
+      <c r="B139" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C139" s="30">
         <v>23</v>
       </c>
       <c r="D139" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="E139" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="E139" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F139" s="37" t="s">
@@ -7427,7 +7446,7 @@
       <c r="G139" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H139" s="44" t="s">
+      <c r="H139" s="45" t="s">
         <v>178</v>
       </c>
       <c r="I139" s="3"/>
@@ -7449,8 +7468,8 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="55"/>
-      <c r="B140" s="51" t="b">
+      <c r="A140" s="60"/>
+      <c r="B140" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C140" s="30">
@@ -7459,7 +7478,7 @@
       <c r="D140" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E140" s="42" t="s">
+      <c r="E140" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F140" s="37" t="s">
@@ -7468,7 +7487,7 @@
       <c r="G140" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H140" s="44" t="s">
+      <c r="H140" s="45" t="s">
         <v>180</v>
       </c>
       <c r="I140" s="3"/>
@@ -7490,8 +7509,8 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="55"/>
-      <c r="B141" s="51" t="b">
+      <c r="A141" s="60"/>
+      <c r="B141" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C141" s="30">
@@ -7500,14 +7519,14 @@
       <c r="D141" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="E141" s="42" t="s">
+      <c r="E141" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F141" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G141" s="33"/>
-      <c r="H141" s="44" t="s">
+      <c r="H141" s="45" t="s">
         <v>182</v>
       </c>
       <c r="I141" s="3"/>
@@ -7529,24 +7548,24 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="55"/>
-      <c r="B142" s="51" t="b">
+      <c r="A142" s="60"/>
+      <c r="B142" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C142" s="30">
         <v>26</v>
       </c>
       <c r="D142" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="E142" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="E142" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F142" s="40" t="s">
         <v>57</v>
       </c>
       <c r="G142" s="33"/>
-      <c r="H142" s="44" t="s">
+      <c r="H142" s="45" t="s">
         <v>183</v>
       </c>
       <c r="I142" s="3"/>
@@ -7568,8 +7587,8 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="55"/>
-      <c r="B143" s="51" t="b">
+      <c r="A143" s="60"/>
+      <c r="B143" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C143" s="30">
@@ -7578,14 +7597,14 @@
       <c r="D143" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E143" s="42" t="s">
+      <c r="E143" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F143" s="40" t="s">
         <v>57</v>
       </c>
       <c r="G143" s="33"/>
-      <c r="H143" s="44" t="s">
+      <c r="H143" s="45" t="s">
         <v>185</v>
       </c>
       <c r="I143" s="3"/>
@@ -7607,24 +7626,24 @@
       <c r="Y143" s="1"/>
     </row>
     <row r="144" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="43"/>
-      <c r="B144" s="51" t="b">
+      <c r="A144" s="44"/>
+      <c r="B144" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C144" s="30">
         <v>28</v>
       </c>
       <c r="D144" s="29" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E144" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="46" t="s">
+      <c r="F144" s="47" t="s">
         <v>22</v>
       </c>
       <c r="G144" s="33"/>
-      <c r="H144" s="44"/>
+      <c r="H144" s="45"/>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -7644,24 +7663,24 @@
       <c r="Y144" s="1"/>
     </row>
     <row r="145" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="43"/>
-      <c r="B145" s="51" t="b">
+      <c r="A145" s="44"/>
+      <c r="B145" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C145" s="30">
         <v>29</v>
       </c>
       <c r="D145" s="29" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E145" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F145" s="46" t="s">
+      <c r="F145" s="47" t="s">
         <v>22</v>
       </c>
       <c r="G145" s="33"/>
-      <c r="H145" s="44"/>
+      <c r="H145" s="45"/>
       <c r="I145" s="3"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -7682,7 +7701,7 @@
     </row>
     <row r="146" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
-      <c r="B146" s="51" t="b">
+      <c r="B146" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C146" s="2"/>
@@ -7710,10 +7729,10 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="57" t="s">
+      <c r="A147" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="B147" s="51" t="b">
+      <c r="B147" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C147" s="2">
@@ -7751,8 +7770,8 @@
       <c r="Y147" s="1"/>
     </row>
     <row r="148" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="53"/>
-      <c r="B148" s="51" t="b">
+      <c r="A148" s="55"/>
+      <c r="B148" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C148" s="2">
@@ -7792,8 +7811,8 @@
       <c r="Y148" s="1"/>
     </row>
     <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A149" s="53"/>
-      <c r="B149" s="51" t="b">
+      <c r="A149" s="55"/>
+      <c r="B149" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C149" s="2">
@@ -7833,8 +7852,8 @@
       <c r="Y149" s="1"/>
     </row>
     <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A150" s="53"/>
-      <c r="B150" s="51" t="b">
+      <c r="A150" s="55"/>
+      <c r="B150" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C150" s="2">
@@ -7874,8 +7893,8 @@
       <c r="Y150" s="1"/>
     </row>
     <row r="151" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="53"/>
-      <c r="B151" s="51" t="b">
+      <c r="A151" s="55"/>
+      <c r="B151" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C151" s="2">
@@ -7915,8 +7934,8 @@
       <c r="Y151" s="1"/>
     </row>
     <row r="152" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="53"/>
-      <c r="B152" s="51" t="b">
+      <c r="A152" s="55"/>
+      <c r="B152" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C152" s="2">
@@ -7956,8 +7975,8 @@
       <c r="Y152" s="1"/>
     </row>
     <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A153" s="53"/>
-      <c r="B153" s="51" t="b">
+      <c r="A153" s="55"/>
+      <c r="B153" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C153" s="2">
@@ -7997,8 +8016,8 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="53"/>
-      <c r="B154" s="51" t="b">
+      <c r="A154" s="55"/>
+      <c r="B154" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C154" s="2">
@@ -8038,8 +8057,8 @@
       <c r="Y154" s="1"/>
     </row>
     <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A155" s="53"/>
-      <c r="B155" s="51" t="b">
+      <c r="A155" s="55"/>
+      <c r="B155" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C155" s="2">
@@ -8079,8 +8098,8 @@
       <c r="Y155" s="1"/>
     </row>
     <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A156" s="53"/>
-      <c r="B156" s="51" t="b">
+      <c r="A156" s="55"/>
+      <c r="B156" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C156" s="2">
@@ -8120,8 +8139,8 @@
       <c r="Y156" s="1"/>
     </row>
     <row r="157" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="53"/>
-      <c r="B157" s="51" t="b">
+      <c r="A157" s="55"/>
+      <c r="B157" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C157" s="2">
@@ -8161,8 +8180,8 @@
       <c r="Y157" s="1"/>
     </row>
     <row r="158" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="53"/>
-      <c r="B158" s="51" t="b">
+      <c r="A158" s="55"/>
+      <c r="B158" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C158" s="2">
@@ -8200,8 +8219,8 @@
       <c r="Y158" s="1"/>
     </row>
     <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A159" s="53"/>
-      <c r="B159" s="51" t="b">
+      <c r="A159" s="55"/>
+      <c r="B159" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C159" s="2">
@@ -8242,7 +8261,7 @@
     </row>
     <row r="160" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
-      <c r="B160" s="51" t="b">
+      <c r="B160" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C160" s="2"/>
@@ -8271,7 +8290,7 @@
     </row>
     <row r="161" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
-      <c r="B161" s="51" t="b">
+      <c r="B161" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C161" s="2"/>
@@ -8299,10 +8318,10 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="57" t="s">
+      <c r="A162" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="B162" s="51" t="b">
+      <c r="B162" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C162" s="2">
@@ -8340,8 +8359,8 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="53"/>
-      <c r="B163" s="51" t="b">
+      <c r="A163" s="55"/>
+      <c r="B163" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C163" s="2">
@@ -8379,8 +8398,8 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A164" s="53"/>
-      <c r="B164" s="51" t="b">
+      <c r="A164" s="55"/>
+      <c r="B164" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C164" s="2">
@@ -8418,8 +8437,8 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" s="53"/>
-      <c r="B165" s="51" t="b">
+      <c r="A165" s="55"/>
+      <c r="B165" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C165" s="2">
@@ -8457,8 +8476,8 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A166" s="53"/>
-      <c r="B166" s="51" t="b">
+      <c r="A166" s="55"/>
+      <c r="B166" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C166" s="2">
@@ -8496,8 +8515,8 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="53"/>
-      <c r="B167" s="51" t="b">
+      <c r="A167" s="55"/>
+      <c r="B167" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C167" s="2">
@@ -8536,7 +8555,7 @@
     </row>
     <row r="168" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
-      <c r="B168" s="51" t="b">
+      <c r="B168" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C168" s="2"/>
@@ -8565,7 +8584,7 @@
     </row>
     <row r="169" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
-      <c r="B169" s="51" t="b">
+      <c r="B169" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C169" s="2"/>
@@ -8593,10 +8612,10 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="57" t="s">
+      <c r="A170" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="B170" s="51" t="b">
+      <c r="B170" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C170" s="2">
@@ -8634,8 +8653,8 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="53"/>
-      <c r="B171" s="51" t="b">
+      <c r="A171" s="55"/>
+      <c r="B171" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C171" s="2">
@@ -8673,8 +8692,8 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A172" s="53"/>
-      <c r="B172" s="51" t="b">
+      <c r="A172" s="55"/>
+      <c r="B172" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C172" s="2">
@@ -8712,8 +8731,8 @@
       <c r="Y172" s="1"/>
     </row>
     <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A173" s="53"/>
-      <c r="B173" s="51" t="b">
+      <c r="A173" s="55"/>
+      <c r="B173" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C173" s="2">
@@ -8751,8 +8770,8 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="53"/>
-      <c r="B174" s="51" t="b">
+      <c r="A174" s="55"/>
+      <c r="B174" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C174" s="2">
@@ -8789,10 +8808,12 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="17"/>
+      <c r="B175" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C175" s="2"/>
       <c r="D175" s="1"/>
       <c r="E175" s="3"/>
       <c r="F175" s="1"/>
@@ -8816,10 +8837,12 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A176" s="17"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="17"/>
+    <row r="176" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C176" s="2"/>
       <c r="D176" s="1"/>
       <c r="E176" s="3"/>
       <c r="F176" s="1"/>
@@ -8844,10 +8867,10 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A177" s="57" t="s">
+      <c r="A177" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="B177" s="51" t="b">
+      <c r="B177" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C177" s="2">
@@ -8885,18 +8908,18 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="57"/>
-      <c r="B178" s="51" t="b">
+      <c r="A178" s="64"/>
+      <c r="B178" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C178" s="2">
         <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E178" s="23" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F178" s="27" t="s">
         <v>10</v>
@@ -8922,8 +8945,8 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="53"/>
-      <c r="B179" s="51" t="b">
+      <c r="A179" s="55"/>
+      <c r="B179" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C179" s="2">
@@ -8961,8 +8984,8 @@
       <c r="Y179" s="1"/>
     </row>
     <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A180" s="53"/>
-      <c r="B180" s="51" t="b">
+      <c r="A180" s="55"/>
+      <c r="B180" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C180" s="2">
@@ -9000,8 +9023,8 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A181" s="53"/>
-      <c r="B181" s="51" t="b">
+      <c r="A181" s="55"/>
+      <c r="B181" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C181" s="2">
@@ -9039,8 +9062,8 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A182" s="53"/>
-      <c r="B182" s="51" t="b">
+      <c r="A182" s="55"/>
+      <c r="B182" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C182" s="2">
@@ -9078,8 +9101,8 @@
       <c r="Y182" s="1"/>
     </row>
     <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A183" s="53"/>
-      <c r="B183" s="51" t="b">
+      <c r="A183" s="55"/>
+      <c r="B183" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C183" s="2">
@@ -9117,8 +9140,8 @@
       <c r="Y183" s="1"/>
     </row>
     <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A184" s="53"/>
-      <c r="B184" s="51" t="b">
+      <c r="A184" s="55"/>
+      <c r="B184" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C184" s="2">
@@ -9155,26 +9178,26 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A185" s="53"/>
-      <c r="B185" s="51" t="b">
+    <row r="185" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="55"/>
+      <c r="B185" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C185" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E185" s="18" t="s">
-        <v>268</v>
+      <c r="E185" s="53" t="s">
+        <v>448</v>
       </c>
       <c r="F185" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" s="15" t="s">
-        <v>269</v>
+      <c r="H185" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -9195,25 +9218,25 @@
       <c r="Y185" s="1"/>
     </row>
     <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A186" s="53"/>
-      <c r="B186" s="51" t="b">
+      <c r="A186" s="55"/>
+      <c r="B186" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C186" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E186" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="E186" s="23" t="s">
-        <v>271</v>
       </c>
       <c r="F186" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
@@ -9234,25 +9257,25 @@
       <c r="Y186" s="1"/>
     </row>
     <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A187" s="53"/>
-      <c r="B187" s="51" t="b">
+      <c r="A187" s="55"/>
+      <c r="B187" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C187" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D187" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E187" s="23" t="s">
         <v>273</v>
-      </c>
-      <c r="E187" s="18" t="s">
-        <v>274</v>
       </c>
       <c r="F187" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
@@ -9273,15 +9296,15 @@
       <c r="Y187" s="1"/>
     </row>
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A188" s="53"/>
-      <c r="B188" s="51" t="b">
+      <c r="A188" s="55"/>
+      <c r="B188" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C188" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="E188" s="18" t="s">
         <v>276</v>
@@ -9312,25 +9335,25 @@
       <c r="Y188" s="1"/>
     </row>
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A189" s="53"/>
-      <c r="B189" s="51" t="b">
+      <c r="A189" s="55"/>
+      <c r="B189" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C189" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D189" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E189" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="E189" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="F189" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
@@ -9351,25 +9374,25 @@
       <c r="Y189" s="1"/>
     </row>
     <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A190" s="53"/>
-      <c r="B190" s="51" t="b">
+      <c r="A190" s="55"/>
+      <c r="B190" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C190" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D190" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E190" s="18" t="s">
         <v>281</v>
-      </c>
-      <c r="E190" s="18" t="s">
-        <v>282</v>
       </c>
       <c r="F190" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
@@ -9389,26 +9412,26 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="53"/>
-      <c r="B191" s="51" t="b">
+    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A191" s="55"/>
+      <c r="B191" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C191" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D191" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E191" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="E191" s="18" t="s">
+      <c r="F191" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G191" s="3"/>
+      <c r="H191" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="F191" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G191" s="3"/>
-      <c r="H191" s="16" t="s">
-        <v>286</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9428,26 +9451,26 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A192" s="53"/>
-      <c r="B192" s="51" t="b">
+    <row r="192" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="55"/>
+      <c r="B192" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C192" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D192" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E192" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="E192" s="18" t="s">
+      <c r="F192" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G192" s="3"/>
+      <c r="H192" s="16" t="s">
         <v>288</v>
-      </c>
-      <c r="F192" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G192" s="3"/>
-      <c r="H192" s="15" t="s">
-        <v>289</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9468,24 +9491,26 @@
       <c r="Y192" s="1"/>
     </row>
     <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A193" s="53"/>
-      <c r="B193" s="51" t="b">
+      <c r="A193" s="55"/>
+      <c r="B193" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C193" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E193" s="23" t="s">
-        <v>421</v>
+        <v>289</v>
+      </c>
+      <c r="E193" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="F193" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="15"/>
+      <c r="H193" s="15" t="s">
+        <v>291</v>
+      </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -9505,18 +9530,18 @@
       <c r="Y193" s="1"/>
     </row>
     <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A194" s="53"/>
-      <c r="B194" s="51" t="b">
+      <c r="A194" s="55"/>
+      <c r="B194" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C194" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="E194" s="23" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="F194" s="26" t="s">
         <v>22</v>
@@ -9542,26 +9567,24 @@
       <c r="Y194" s="1"/>
     </row>
     <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A195" s="53"/>
-      <c r="B195" s="51" t="b">
+      <c r="A195" s="55"/>
+      <c r="B195" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C195" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E195" s="18" t="s">
-        <v>251</v>
+        <v>447</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>446</v>
       </c>
       <c r="F195" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="15" t="s">
-        <v>291</v>
-      </c>
+      <c r="H195" s="15"/>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -9581,24 +9604,26 @@
       <c r="Y195" s="1"/>
     </row>
     <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A196" s="53"/>
-      <c r="B196" s="51" t="b">
+      <c r="A196" s="55"/>
+      <c r="B196" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C196" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E196" s="23" t="s">
-        <v>441</v>
+        <v>292</v>
+      </c>
+      <c r="E196" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="F196" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G196" s="3"/>
-      <c r="H196" s="15"/>
+      <c r="H196" s="15" t="s">
+        <v>293</v>
+      </c>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -9618,18 +9643,18 @@
       <c r="Y196" s="1"/>
     </row>
     <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A197" s="53"/>
-      <c r="B197" s="51" t="b">
+      <c r="A197" s="55"/>
+      <c r="B197" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C197" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D197" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E197" s="23" t="s">
         <v>443</v>
-      </c>
-      <c r="E197" s="23" t="s">
-        <v>440</v>
       </c>
       <c r="F197" s="26" t="s">
         <v>22</v>
@@ -9655,18 +9680,18 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A198" s="53"/>
-      <c r="B198" s="51" t="b">
+      <c r="A198" s="55"/>
+      <c r="B198" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C198" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="F198" s="26" t="s">
         <v>22</v>
@@ -9692,26 +9717,24 @@
       <c r="Y198" s="1"/>
     </row>
     <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A199" s="53"/>
-      <c r="B199" s="51" t="b">
+      <c r="A199" s="55"/>
+      <c r="B199" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C199" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E199" s="18" t="s">
-        <v>293</v>
+        <v>427</v>
+      </c>
+      <c r="E199" s="23" t="s">
+        <v>428</v>
       </c>
       <c r="F199" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="15" t="s">
-        <v>294</v>
-      </c>
+      <c r="H199" s="15"/>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -9731,24 +9754,26 @@
       <c r="Y199" s="1"/>
     </row>
     <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A200" s="53"/>
-      <c r="B200" s="51" t="b">
+      <c r="A200" s="55"/>
+      <c r="B200" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C200" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E200" s="23" t="s">
-        <v>419</v>
+        <v>294</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="F200" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="15"/>
+      <c r="H200" s="15" t="s">
+        <v>296</v>
+      </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -9768,26 +9793,24 @@
       <c r="Y200" s="1"/>
     </row>
     <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A201" s="53"/>
-      <c r="B201" s="51" t="b">
+      <c r="A201" s="55"/>
+      <c r="B201" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C201" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E201" s="18" t="s">
-        <v>296</v>
+        <v>420</v>
+      </c>
+      <c r="E201" s="23" t="s">
+        <v>421</v>
       </c>
       <c r="F201" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G201" s="3"/>
-      <c r="H201" s="15" t="s">
-        <v>297</v>
-      </c>
+      <c r="H201" s="15"/>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -9806,26 +9829,26 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A202" s="53"/>
-      <c r="B202" s="51" t="b">
+    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A202" s="55"/>
+      <c r="B202" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C202" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D202" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E202" s="18" t="s">
         <v>298</v>
-      </c>
-      <c r="E202" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="F202" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G202" s="3"/>
-      <c r="H202" s="16" t="s">
-        <v>300</v>
+      <c r="H202" s="15" t="s">
+        <v>299</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
@@ -9846,21 +9869,21 @@
       <c r="Y202" s="1"/>
     </row>
     <row r="203" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="53"/>
-      <c r="B203" s="51" t="b">
+      <c r="A203" s="55"/>
+      <c r="B203" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="E203" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="F203" s="28" t="s">
-        <v>57</v>
+      <c r="F203" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="16" t="s">
@@ -9885,25 +9908,25 @@
       <c r="Y203" s="1"/>
     </row>
     <row r="204" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="53"/>
-      <c r="B204" s="51" t="b">
+      <c r="A204" s="55"/>
+      <c r="B204" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C204" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D204" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E204" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="E204" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="F204" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
@@ -9923,25 +9946,25 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A205" s="53"/>
-      <c r="B205" s="51" t="b">
+    <row r="205" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="55"/>
+      <c r="B205" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D205" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E205" s="18" t="s">
         <v>306</v>
-      </c>
-      <c r="E205" s="18" t="s">
-        <v>265</v>
       </c>
       <c r="F205" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="15" t="s">
+      <c r="H205" s="16" t="s">
         <v>307</v>
       </c>
       <c r="I205" s="3"/>
@@ -9962,25 +9985,27 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="1"/>
-      <c r="B206" s="51" t="b">
+    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A206" s="55"/>
+      <c r="B206" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C206" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E206" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="F206" s="48" t="s">
-        <v>10</v>
+        <v>308</v>
+      </c>
+      <c r="E206" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F206" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G206" s="3"/>
-      <c r="H206" s="4"/>
+      <c r="H206" s="15" t="s">
+        <v>309</v>
+      </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -9999,13 +10024,23 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="1"/>
+      <c r="B207" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C207" s="2">
+        <v>31</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E207" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="F207" s="49" t="s">
+        <v>10</v>
+      </c>
       <c r="G207" s="3"/>
       <c r="H207" s="4"/>
       <c r="I207" s="3"/>
@@ -10026,29 +10061,17 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A208" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="B208" s="51" t="b">
+    <row r="208" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C208" s="2">
-        <v>1</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F208" s="27" t="s">
-        <v>10</v>
-      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="1"/>
       <c r="G208" s="3"/>
-      <c r="H208" s="15" t="s">
-        <v>310</v>
-      </c>
+      <c r="H208" s="4"/>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -10068,12 +10091,14 @@
       <c r="Y208" s="1"/>
     </row>
     <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A209" s="53"/>
-      <c r="B209" s="51" t="b">
+      <c r="A209" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="B209" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>311</v>
@@ -10081,8 +10106,8 @@
       <c r="E209" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F209" s="26" t="s">
-        <v>22</v>
+      <c r="F209" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="15" t="s">
@@ -10106,25 +10131,25 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="53"/>
-      <c r="B210" s="51" t="b">
+    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A210" s="55"/>
+      <c r="B210" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E210" s="47" t="s">
+      <c r="E210" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F210" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="16" t="s">
+      <c r="H210" s="15" t="s">
         <v>314</v>
       </c>
       <c r="I210" s="3"/>
@@ -10146,17 +10171,17 @@
       <c r="Y210" s="1"/>
     </row>
     <row r="211" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A211" s="53"/>
-      <c r="B211" s="51" t="b">
+      <c r="A211" s="55"/>
+      <c r="B211" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C211" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E211" s="8" t="s">
+      <c r="E211" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F211" s="26" t="s">
@@ -10184,13 +10209,13 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A212" s="53"/>
-      <c r="B212" s="51" t="b">
+    <row r="212" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="55"/>
+      <c r="B212" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>317</v>
@@ -10202,7 +10227,7 @@
         <v>22</v>
       </c>
       <c r="G212" s="3"/>
-      <c r="H212" s="15" t="s">
+      <c r="H212" s="16" t="s">
         <v>318</v>
       </c>
       <c r="I212" s="3"/>
@@ -10224,12 +10249,12 @@
       <c r="Y212" s="1"/>
     </row>
     <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A213" s="53"/>
-      <c r="B213" s="51" t="b">
+      <c r="A213" s="55"/>
+      <c r="B213" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>319</v>
@@ -10263,12 +10288,12 @@
       <c r="Y213" s="1"/>
     </row>
     <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A214" s="53"/>
-      <c r="B214" s="51" t="b">
+      <c r="A214" s="55"/>
+      <c r="B214" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>321</v>
@@ -10301,13 +10326,13 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="53"/>
-      <c r="B215" s="51" t="b">
+    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A215" s="55"/>
+      <c r="B215" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>323</v>
@@ -10319,7 +10344,7 @@
         <v>22</v>
       </c>
       <c r="G215" s="3"/>
-      <c r="H215" s="16" t="s">
+      <c r="H215" s="15" t="s">
         <v>324</v>
       </c>
       <c r="I215" s="3"/>
@@ -10340,13 +10365,13 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A216" s="53"/>
-      <c r="B216" s="51" t="b">
+    <row r="216" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="55"/>
+      <c r="B216" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>325</v>
@@ -10358,7 +10383,7 @@
         <v>22</v>
       </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="15" t="s">
+      <c r="H216" s="16" t="s">
         <v>326</v>
       </c>
       <c r="I216" s="3"/>
@@ -10380,12 +10405,12 @@
       <c r="Y216" s="1"/>
     </row>
     <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A217" s="53"/>
-      <c r="B217" s="51" t="b">
+      <c r="A217" s="55"/>
+      <c r="B217" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>327</v>
@@ -10418,13 +10443,13 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A218" s="53"/>
-      <c r="B218" s="51" t="b">
+    <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A218" s="55"/>
+      <c r="B218" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C218" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>329</v>
@@ -10436,7 +10461,7 @@
         <v>22</v>
       </c>
       <c r="G218" s="3"/>
-      <c r="H218" s="16" t="s">
+      <c r="H218" s="15" t="s">
         <v>330</v>
       </c>
       <c r="I218" s="3"/>
@@ -10457,13 +10482,13 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A219" s="53"/>
-      <c r="B219" s="51" t="b">
+    <row r="219" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="55"/>
+      <c r="B219" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C219" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>331</v>
@@ -10475,7 +10500,7 @@
         <v>22</v>
       </c>
       <c r="G219" s="3"/>
-      <c r="H219" s="15" t="s">
+      <c r="H219" s="16" t="s">
         <v>332</v>
       </c>
       <c r="I219" s="3"/>
@@ -10497,12 +10522,12 @@
       <c r="Y219" s="1"/>
     </row>
     <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A220" s="53"/>
-      <c r="B220" s="51" t="b">
+      <c r="A220" s="55"/>
+      <c r="B220" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C220" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>333</v>
@@ -10536,12 +10561,12 @@
       <c r="Y220" s="1"/>
     </row>
     <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A221" s="53"/>
-      <c r="B221" s="51" t="b">
+      <c r="A221" s="55"/>
+      <c r="B221" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C221" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>335</v>
@@ -10574,13 +10599,13 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="53"/>
-      <c r="B222" s="51" t="b">
+    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A222" s="55"/>
+      <c r="B222" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C222" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>337</v>
@@ -10592,7 +10617,7 @@
         <v>22</v>
       </c>
       <c r="G222" s="3"/>
-      <c r="H222" s="16" t="s">
+      <c r="H222" s="15" t="s">
         <v>338</v>
       </c>
       <c r="I222" s="3"/>
@@ -10614,12 +10639,12 @@
       <c r="Y222" s="1"/>
     </row>
     <row r="223" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A223" s="53"/>
-      <c r="B223" s="51" t="b">
+      <c r="A223" s="55"/>
+      <c r="B223" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C223" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>339</v>
@@ -10627,8 +10652,8 @@
       <c r="E223" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F223" s="28" t="s">
-        <v>57</v>
+      <c r="F223" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="16" t="s">
@@ -10653,12 +10678,12 @@
       <c r="Y223" s="1"/>
     </row>
     <row r="224" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A224" s="53"/>
-      <c r="B224" s="51" t="b">
+      <c r="A224" s="55"/>
+      <c r="B224" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C224" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>341</v>
@@ -10692,12 +10717,12 @@
       <c r="Y224" s="1"/>
     </row>
     <row r="225" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A225" s="53"/>
-      <c r="B225" s="51" t="b">
+      <c r="A225" s="55"/>
+      <c r="B225" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C225" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>343</v>
@@ -10730,13 +10755,13 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A226" s="53"/>
-      <c r="B226" s="51" t="b">
+    <row r="226" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="55"/>
+      <c r="B226" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C226" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>345</v>
@@ -10748,7 +10773,7 @@
         <v>57</v>
       </c>
       <c r="G226" s="3"/>
-      <c r="H226" s="15" t="s">
+      <c r="H226" s="16" t="s">
         <v>346</v>
       </c>
       <c r="I226" s="3"/>
@@ -10770,12 +10795,12 @@
       <c r="Y226" s="1"/>
     </row>
     <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A227" s="53"/>
-      <c r="B227" s="51" t="b">
+      <c r="A227" s="55"/>
+      <c r="B227" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C227" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>347</v>
@@ -10808,13 +10833,13 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="53"/>
-      <c r="B228" s="51" t="b">
+    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A228" s="55"/>
+      <c r="B228" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C228" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>349</v>
@@ -10826,7 +10851,7 @@
         <v>57</v>
       </c>
       <c r="G228" s="3"/>
-      <c r="H228" s="16" t="s">
+      <c r="H228" s="15" t="s">
         <v>350</v>
       </c>
       <c r="I228" s="3"/>
@@ -10848,16 +10873,26 @@
       <c r="Y228" s="1"/>
     </row>
     <row r="229" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A229" s="1"/>
-      <c r="B229" s="51" t="b">
+      <c r="A229" s="55"/>
+      <c r="B229" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C229" s="2"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="1"/>
+      <c r="C229" s="2">
+        <v>21</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F229" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G229" s="3"/>
-      <c r="H229" s="4"/>
+      <c r="H229" s="16" t="s">
+        <v>352</v>
+      </c>
       <c r="I229" s="3"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -10878,7 +10913,7 @@
     </row>
     <row r="230" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
-      <c r="B230" s="51" t="b">
+      <c r="B230" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C230" s="2"/>
@@ -10906,28 +10941,16 @@
       <c r="Y230" s="1"/>
     </row>
     <row r="231" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A231" s="57" t="s">
-        <v>351</v>
-      </c>
-      <c r="B231" s="51" t="b">
+      <c r="A231" s="1"/>
+      <c r="B231" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C231" s="2">
-        <v>1</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E231" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F231" s="27" t="s">
-        <v>10</v>
-      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="1"/>
       <c r="G231" s="3"/>
-      <c r="H231" s="16" t="s">
-        <v>353</v>
-      </c>
+      <c r="H231" s="4"/>
       <c r="I231" s="3"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -10946,25 +10969,27 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A232" s="53"/>
-      <c r="B232" s="51" t="b">
+    <row r="232" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="B232" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C232" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E232" s="8" t="s">
+      <c r="E232" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F232" s="26" t="s">
-        <v>22</v>
+      <c r="F232" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G232" s="3"/>
-      <c r="H232" s="15" t="s">
+      <c r="H232" s="16" t="s">
         <v>355</v>
       </c>
       <c r="I232" s="3"/>
@@ -10986,12 +11011,12 @@
       <c r="Y232" s="1"/>
     </row>
     <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A233" s="53"/>
-      <c r="B233" s="51" t="b">
+      <c r="A233" s="55"/>
+      <c r="B233" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C233" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>356</v>
@@ -11025,12 +11050,12 @@
       <c r="Y233" s="1"/>
     </row>
     <row r="234" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A234" s="53"/>
-      <c r="B234" s="51" t="b">
+      <c r="A234" s="55"/>
+      <c r="B234" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C234" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>358</v>
@@ -11064,12 +11089,12 @@
       <c r="Y234" s="1"/>
     </row>
     <row r="235" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A235" s="53"/>
-      <c r="B235" s="51" t="b">
+      <c r="A235" s="55"/>
+      <c r="B235" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C235" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>360</v>
@@ -11081,7 +11106,7 @@
         <v>22</v>
       </c>
       <c r="G235" s="3"/>
-      <c r="H235" s="20" t="s">
+      <c r="H235" s="15" t="s">
         <v>361</v>
       </c>
       <c r="I235" s="3"/>
@@ -11103,12 +11128,12 @@
       <c r="Y235" s="1"/>
     </row>
     <row r="236" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A236" s="53"/>
-      <c r="B236" s="51" t="b">
+      <c r="A236" s="55"/>
+      <c r="B236" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C236" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>362</v>
@@ -11116,11 +11141,11 @@
       <c r="E236" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F236" s="28" t="s">
-        <v>57</v>
+      <c r="F236" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G236" s="3"/>
-      <c r="H236" s="15" t="s">
+      <c r="H236" s="20" t="s">
         <v>363</v>
       </c>
       <c r="I236" s="3"/>
@@ -11141,17 +11166,27 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="1"/>
-      <c r="B237" s="51" t="b">
+    <row r="237" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A237" s="55"/>
+      <c r="B237" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C237" s="2"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="1"/>
+      <c r="C237" s="2">
+        <v>6</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G237" s="3"/>
-      <c r="H237" s="4"/>
+      <c r="H237" s="15" t="s">
+        <v>365</v>
+      </c>
       <c r="I237" s="3"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
@@ -11172,7 +11207,7 @@
     </row>
     <row r="238" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
-      <c r="B238" s="51" t="b">
+      <c r="B238" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C238" s="2"/>
@@ -11200,24 +11235,14 @@
       <c r="Y238" s="1"/>
     </row>
     <row r="239" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A239" s="52" t="s">
-        <v>399</v>
-      </c>
-      <c r="B239" s="51" t="b">
+      <c r="A239" s="1"/>
+      <c r="B239" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C239" s="2">
-        <v>1</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E239" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F239" s="41" t="s">
-        <v>409</v>
-      </c>
+      <c r="C239" s="2"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="1"/>
       <c r="G239" s="3"/>
       <c r="H239" s="4"/>
       <c r="I239" s="3"/>
@@ -11239,21 +11264,23 @@
       <c r="Y239" s="1"/>
     </row>
     <row r="240" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A240" s="53"/>
-      <c r="B240" s="51" t="b">
+      <c r="A240" s="61" t="s">
+        <v>401</v>
+      </c>
+      <c r="B240" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C240" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E240" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F240" s="41" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G240" s="3"/>
       <c r="H240" s="4"/>
@@ -11276,21 +11303,21 @@
       <c r="Y240" s="1"/>
     </row>
     <row r="241" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="53"/>
-      <c r="B241" s="51" t="b">
+      <c r="A241" s="55"/>
+      <c r="B241" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C241" s="2">
-        <v>3</v>
-      </c>
-      <c r="D241" s="24" t="s">
-        <v>414</v>
+        <v>2</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="E241" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F241" s="41" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G241" s="3"/>
       <c r="H241" s="4"/>
@@ -11313,21 +11340,21 @@
       <c r="Y241" s="1"/>
     </row>
     <row r="242" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="53"/>
-      <c r="B242" s="51" t="b">
+      <c r="A242" s="55"/>
+      <c r="B242" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C242" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E242" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F242" s="41" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G242" s="3"/>
       <c r="H242" s="4"/>
@@ -11350,16 +11377,22 @@
       <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="53"/>
-      <c r="B243" s="51" t="b">
+      <c r="A243" s="55"/>
+      <c r="B243" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C243" s="2">
-        <v>5</v>
-      </c>
-      <c r="D243" s="1"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D243" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="E243" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" s="41" t="s">
+        <v>411</v>
+      </c>
       <c r="G243" s="3"/>
       <c r="H243" s="4"/>
       <c r="I243" s="3"/>
@@ -11381,12 +11414,12 @@
       <c r="Y243" s="1"/>
     </row>
     <row r="244" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A244" s="53"/>
-      <c r="B244" s="51" t="b">
+      <c r="A244" s="55"/>
+      <c r="B244" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C244" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="3"/>
@@ -11412,12 +11445,12 @@
       <c r="Y244" s="1"/>
     </row>
     <row r="245" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A245" s="53"/>
-      <c r="B245" s="51" t="b">
+      <c r="A245" s="55"/>
+      <c r="B245" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C245" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="3"/>
@@ -11443,12 +11476,12 @@
       <c r="Y245" s="1"/>
     </row>
     <row r="246" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A246" s="53"/>
-      <c r="B246" s="51" t="b">
+      <c r="A246" s="55"/>
+      <c r="B246" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C246" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="3"/>
@@ -11474,12 +11507,12 @@
       <c r="Y246" s="1"/>
     </row>
     <row r="247" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A247" s="53"/>
-      <c r="B247" s="51" t="b">
+      <c r="A247" s="55"/>
+      <c r="B247" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C247" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="3"/>
@@ -11505,12 +11538,12 @@
       <c r="Y247" s="1"/>
     </row>
     <row r="248" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="53"/>
-      <c r="B248" s="51" t="b">
+      <c r="A248" s="55"/>
+      <c r="B248" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C248" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="3"/>
@@ -11536,12 +11569,12 @@
       <c r="Y248" s="1"/>
     </row>
     <row r="249" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A249" s="53"/>
-      <c r="B249" s="51" t="b">
+      <c r="A249" s="55"/>
+      <c r="B249" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C249" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="3"/>
@@ -11567,12 +11600,12 @@
       <c r="Y249" s="1"/>
     </row>
     <row r="250" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A250" s="53"/>
-      <c r="B250" s="51" t="b">
+      <c r="A250" s="55"/>
+      <c r="B250" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C250" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="3"/>
@@ -11598,12 +11631,12 @@
       <c r="Y250" s="1"/>
     </row>
     <row r="251" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A251" s="53"/>
-      <c r="B251" s="51" t="b">
+      <c r="A251" s="55"/>
+      <c r="B251" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C251" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="3"/>
@@ -11629,12 +11662,12 @@
       <c r="Y251" s="1"/>
     </row>
     <row r="252" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A252" s="53"/>
-      <c r="B252" s="51" t="b">
+      <c r="A252" s="55"/>
+      <c r="B252" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C252" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="3"/>
@@ -11660,12 +11693,12 @@
       <c r="Y252" s="1"/>
     </row>
     <row r="253" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A253" s="53"/>
-      <c r="B253" s="51" t="b">
+      <c r="A253" s="55"/>
+      <c r="B253" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C253" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="3"/>
@@ -11690,10 +11723,14 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A254" s="53"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="2"/>
+    <row r="254" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A254" s="55"/>
+      <c r="B254" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C254" s="2">
+        <v>15</v>
+      </c>
       <c r="D254" s="1"/>
       <c r="E254" s="3"/>
       <c r="F254" s="1"/>
@@ -11718,7 +11755,7 @@
       <c r="Y254" s="1"/>
     </row>
     <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A255" s="53"/>
+      <c r="A255" s="55"/>
       <c r="B255" s="1"/>
       <c r="C255" s="2"/>
       <c r="D255" s="1"/>
@@ -11745,7 +11782,7 @@
       <c r="Y255" s="1"/>
     </row>
     <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A256" s="53"/>
+      <c r="A256" s="55"/>
       <c r="B256" s="1"/>
       <c r="C256" s="2"/>
       <c r="D256" s="1"/>
@@ -11772,7 +11809,7 @@
       <c r="Y256" s="1"/>
     </row>
     <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A257" s="53"/>
+      <c r="A257" s="55"/>
       <c r="B257" s="1"/>
       <c r="C257" s="2"/>
       <c r="D257" s="1"/>
@@ -11799,7 +11836,7 @@
       <c r="Y257" s="1"/>
     </row>
     <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A258" s="53"/>
+      <c r="A258" s="55"/>
       <c r="B258" s="1"/>
       <c r="C258" s="2"/>
       <c r="D258" s="1"/>
@@ -11826,7 +11863,7 @@
       <c r="Y258" s="1"/>
     </row>
     <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="55"/>
       <c r="B259" s="1"/>
       <c r="C259" s="2"/>
       <c r="D259" s="1"/>
@@ -32291,25 +32328,52 @@
       <c r="X1016" s="1"/>
       <c r="Y1016" s="1"/>
     </row>
+    <row r="1017" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1017" s="1"/>
+      <c r="B1017" s="1"/>
+      <c r="C1017" s="2"/>
+      <c r="D1017" s="1"/>
+      <c r="E1017" s="3"/>
+      <c r="F1017" s="1"/>
+      <c r="G1017" s="3"/>
+      <c r="H1017" s="4"/>
+      <c r="I1017" s="3"/>
+      <c r="J1017" s="1"/>
+      <c r="K1017" s="1"/>
+      <c r="L1017" s="1"/>
+      <c r="M1017" s="1"/>
+      <c r="N1017" s="1"/>
+      <c r="O1017" s="1"/>
+      <c r="P1017" s="1"/>
+      <c r="Q1017" s="1"/>
+      <c r="R1017" s="1"/>
+      <c r="S1017" s="1"/>
+      <c r="T1017" s="1"/>
+      <c r="U1017" s="1"/>
+      <c r="V1017" s="1"/>
+      <c r="W1017" s="1"/>
+      <c r="X1017" s="1"/>
+      <c r="Y1017" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A7:A37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A239:A258"/>
+    <mergeCell ref="A240:A259"/>
     <mergeCell ref="A45:A62"/>
     <mergeCell ref="A65:A76"/>
-    <mergeCell ref="A208:A228"/>
-    <mergeCell ref="A231:A236"/>
+    <mergeCell ref="A209:A229"/>
+    <mergeCell ref="A232:A237"/>
     <mergeCell ref="A79:A95"/>
     <mergeCell ref="A98:A114"/>
     <mergeCell ref="A117:A143"/>
     <mergeCell ref="A147:A159"/>
     <mergeCell ref="A162:A167"/>
     <mergeCell ref="A170:A174"/>
-    <mergeCell ref="A177:A205"/>
+    <mergeCell ref="A177:A206"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A7:A37"/>
+    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
@@ -32474,49 +32538,49 @@
     <hyperlink ref="E182" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
     <hyperlink ref="E183" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
     <hyperlink ref="E184" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E185" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E186" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E187" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E188" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E189" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E190" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E191" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E192" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E195" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E199" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E201" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E202" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E203" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E204" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E205" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E208" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E209" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E210" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E211" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E212" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E213" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E214" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E215" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E216" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E217" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E218" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E219" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E220" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E221" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E222" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E223" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E224" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E225" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E226" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E227" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E228" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E231" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E232" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E233" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E234" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E235" r:id="rId203" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E236" r:id="rId204" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E206" r:id="rId205" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E186" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E187" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E188" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E189" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E190" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E191" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E192" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E193" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E196" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E200" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E202" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E203" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E204" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E205" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E206" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E209" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E210" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E211" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E212" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E213" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E214" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E215" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E216" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E217" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E218" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E219" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E220" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E221" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E222" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E223" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E224" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E225" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E226" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E227" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E228" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E229" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E232" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E233" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E234" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E235" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E236" r:id="rId203" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E237" r:id="rId204" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E207" r:id="rId205" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
     <hyperlink ref="E145" r:id="rId206" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
     <hyperlink ref="E144" r:id="rId207" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
     <hyperlink ref="G72" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
@@ -32572,19 +32636,19 @@
     <hyperlink ref="E9" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G8" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E8" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E239" r:id="rId261" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E240" r:id="rId261" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
     <hyperlink ref="E21" r:id="rId262" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E240" r:id="rId263" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E241" r:id="rId263" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
     <hyperlink ref="E30" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="E12" r:id="rId265" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
-    <hyperlink ref="E241" r:id="rId266" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
-    <hyperlink ref="E242" r:id="rId267" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E242" r:id="rId266" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E243" r:id="rId267" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
     <hyperlink ref="E24" r:id="rId268" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
     <hyperlink ref="E19" r:id="rId269" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
-    <hyperlink ref="E200" r:id="rId270" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
-    <hyperlink ref="E193" r:id="rId271" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
+    <hyperlink ref="E201" r:id="rId270" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
+    <hyperlink ref="E194" r:id="rId271" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
     <hyperlink ref="E178" r:id="rId272" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
-    <hyperlink ref="E198" r:id="rId273" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
+    <hyperlink ref="E199" r:id="rId273" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
     <hyperlink ref="E105" r:id="rId274" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
     <hyperlink ref="E109" r:id="rId275" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
     <hyperlink ref="E108" r:id="rId276" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
@@ -32599,11 +32663,12 @@
     <hyperlink ref="E52" r:id="rId285" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
     <hyperlink ref="E51" r:id="rId286" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
     <hyperlink ref="E53" r:id="rId287" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
-    <hyperlink ref="E197" r:id="rId288" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
-    <hyperlink ref="E196" r:id="rId289" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
-    <hyperlink ref="E194" r:id="rId290" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
+    <hyperlink ref="E198" r:id="rId288" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
+    <hyperlink ref="E197" r:id="rId289" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
+    <hyperlink ref="E195" r:id="rId290" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
+    <hyperlink ref="E185" r:id="rId291" xr:uid="{2401C9CC-8D34-433A-BAAD-C1FD2BC14D49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId291"/>
+  <pageSetup orientation="portrait" r:id="rId292"/>
 </worksheet>
 </file>
--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494C8528-4BD7-4BB2-A174-A2B4F64BFAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3A9F78-1842-4E76-AF34-590EA99C0937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA Series Sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="455">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -1380,6 +1380,24 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/network-delay-time/submissions/</t>
+  </si>
+  <si>
+    <t>Max area of island</t>
+  </si>
+  <si>
+    <t>https://neetcode.io/problems/max-area-of-island/history</t>
+  </si>
+  <si>
+    <t>Treasure and walls</t>
+  </si>
+  <si>
+    <t>https://neetcode.io/problems/islands-and-treasure/question?list=neetcode150</t>
+  </si>
+  <si>
+    <t>https://neetcode.io/problems/surrounded-regions/history</t>
+  </si>
+  <si>
+    <t>Surrounded regions</t>
   </si>
 </sst>
 </file>
@@ -1816,10 +1834,26 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1827,22 +1861,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2081,11 +2099,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1017"/>
+  <dimension ref="A1:Y1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2104,7 +2122,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="61" t="s">
         <v>414</v>
       </c>
       <c r="E1" s="55"/>
@@ -2133,13 +2151,13 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="62" t="s">
         <v>409</v>
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="57"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="55"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2291,7 +2309,7 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="52" t="b">
@@ -2336,7 +2354,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="52" t="b">
         <v>0</v>
       </c>
@@ -2379,7 +2397,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="52" t="b">
         <v>0</v>
       </c>
@@ -2418,7 +2436,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="52" t="b">
         <v>0</v>
       </c>
@@ -2459,7 +2477,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="52" t="b">
         <v>0</v>
       </c>
@@ -2496,7 +2514,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="52" t="b">
         <v>0</v>
       </c>
@@ -2533,7 +2551,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="52" t="b">
         <v>0</v>
       </c>
@@ -2574,7 +2592,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="52" t="b">
         <v>0</v>
       </c>
@@ -2611,7 +2629,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="52" t="b">
         <v>0</v>
       </c>
@@ -2650,7 +2668,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="52" t="b">
         <v>0</v>
       </c>
@@ -2691,7 +2709,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="52" t="b">
         <v>0</v>
       </c>
@@ -2734,7 +2752,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="52" t="b">
         <v>0</v>
       </c>
@@ -2777,7 +2795,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="52" t="b">
         <v>0</v>
       </c>
@@ -2814,7 +2832,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="52" t="b">
         <v>0</v>
       </c>
@@ -2855,7 +2873,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="52" t="b">
         <v>0</v>
       </c>
@@ -2892,7 +2910,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="52" t="b">
         <v>0</v>
       </c>
@@ -2933,7 +2951,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="52" t="b">
         <v>0</v>
       </c>
@@ -2976,7 +2994,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="52" t="b">
         <v>0</v>
       </c>
@@ -3013,7 +3031,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="52" t="b">
         <v>0</v>
       </c>
@@ -3054,7 +3072,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="52" t="b">
         <v>0</v>
       </c>
@@ -3095,7 +3113,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="52" t="b">
         <v>0</v>
       </c>
@@ -3136,7 +3154,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="52" t="b">
         <v>0</v>
       </c>
@@ -3177,7 +3195,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="52" t="b">
         <v>0</v>
       </c>
@@ -3218,7 +3236,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="52" t="b">
         <v>0</v>
       </c>
@@ -3257,7 +3275,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="52" t="b">
         <v>0</v>
       </c>
@@ -3300,7 +3318,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="52" t="b">
         <v>0</v>
       </c>
@@ -3337,7 +3355,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="52" t="b">
         <v>0</v>
       </c>
@@ -3378,7 +3396,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="52" t="b">
         <v>0</v>
       </c>
@@ -3419,7 +3437,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="52" t="b">
         <v>0</v>
       </c>
@@ -3462,7 +3480,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="52" t="b">
         <v>0</v>
       </c>
@@ -3501,7 +3519,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="52" t="b">
         <v>0</v>
       </c>
@@ -3567,7 +3585,7 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="60" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="52" t="b">
@@ -3610,7 +3628,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="52" t="b">
         <v>0</v>
       </c>
@@ -3649,7 +3667,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="52" t="b">
         <v>0</v>
       </c>
@@ -3688,7 +3706,7 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="52" t="b">
         <v>0</v>
       </c>
@@ -3779,7 +3797,7 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="56" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="52" t="b">
@@ -3822,7 +3840,7 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="60"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="52" t="b">
         <v>0</v>
       </c>
@@ -3861,7 +3879,7 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="60"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="52" t="b">
         <v>0</v>
       </c>
@@ -3898,7 +3916,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="60"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="52" t="b">
         <v>0</v>
       </c>
@@ -3935,7 +3953,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="60"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="52" t="b">
         <v>0</v>
       </c>
@@ -3974,7 +3992,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="60"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="52" t="b">
         <v>0</v>
       </c>
@@ -4013,7 +4031,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="60"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="52" t="b">
         <v>0</v>
       </c>
@@ -4050,7 +4068,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="60"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="52" t="b">
         <v>0</v>
       </c>
@@ -4087,7 +4105,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="60"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="52" t="b">
         <v>0</v>
       </c>
@@ -4124,7 +4142,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="60"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="52" t="b">
         <v>0</v>
       </c>
@@ -4163,7 +4181,7 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="60"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="52" t="b">
         <v>0</v>
       </c>
@@ -4204,7 +4222,7 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="60"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="52" t="b">
         <v>0</v>
       </c>
@@ -4243,7 +4261,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="60"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="52" t="b">
         <v>0</v>
       </c>
@@ -4280,7 +4298,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="60"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="52" t="b">
         <v>0</v>
       </c>
@@ -4319,7 +4337,7 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="60"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="52" t="b">
         <v>0</v>
       </c>
@@ -4358,7 +4376,7 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="60"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="52" t="b">
         <v>0</v>
       </c>
@@ -4395,7 +4413,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="60"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="52" t="b">
         <v>0</v>
       </c>
@@ -4432,7 +4450,7 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="60"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="52" t="b">
         <v>0</v>
       </c>
@@ -4523,7 +4541,7 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="58" t="s">
         <v>88</v>
       </c>
       <c r="B65" s="52" t="b">
@@ -5073,7 +5091,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="59" t="s">
+      <c r="A79" s="60" t="s">
         <v>108</v>
       </c>
       <c r="B79" s="52" t="b">
@@ -5116,7 +5134,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="60"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="52" t="b">
         <v>0</v>
       </c>
@@ -5157,7 +5175,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="60"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="52" t="b">
         <v>0</v>
       </c>
@@ -5198,7 +5216,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="60"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="52" t="b">
         <v>0</v>
       </c>
@@ -5237,7 +5255,7 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="60"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="52" t="b">
         <v>0</v>
       </c>
@@ -5278,7 +5296,7 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="52" t="b">
         <v>0</v>
       </c>
@@ -5319,7 +5337,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="52" t="b">
         <v>0</v>
       </c>
@@ -5360,7 +5378,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="60"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="52" t="b">
         <v>0</v>
       </c>
@@ -5401,7 +5419,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="60"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="52" t="b">
         <v>0</v>
       </c>
@@ -5438,7 +5456,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="60"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="52" t="b">
         <v>0</v>
       </c>
@@ -5477,7 +5495,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="60"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="52" t="b">
         <v>0</v>
       </c>
@@ -5516,7 +5534,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="60"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="52" t="b">
         <v>0</v>
       </c>
@@ -5553,7 +5571,7 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="60"/>
+      <c r="A91" s="57"/>
       <c r="B91" s="52" t="b">
         <v>0</v>
       </c>
@@ -5590,7 +5608,7 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="60"/>
+      <c r="A92" s="57"/>
       <c r="B92" s="52" t="b">
         <v>0</v>
       </c>
@@ -5627,7 +5645,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="60"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="52" t="b">
         <v>0</v>
       </c>
@@ -5666,7 +5684,7 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="60"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="52" t="b">
         <v>0</v>
       </c>
@@ -5703,7 +5721,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="60"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="52" t="b">
         <v>0</v>
       </c>
@@ -5810,7 +5828,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="62" t="s">
+      <c r="A98" s="56" t="s">
         <v>126</v>
       </c>
       <c r="B98" s="52" t="b">
@@ -5853,7 +5871,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="60"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="52" t="b">
         <v>0</v>
       </c>
@@ -5894,7 +5912,7 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="60"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="52" t="b">
         <v>0</v>
       </c>
@@ -5935,7 +5953,7 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="60"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="52" t="b">
         <v>0</v>
       </c>
@@ -5976,7 +5994,7 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="52" t="b">
         <v>0</v>
       </c>
@@ -6017,7 +6035,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="52" t="b">
         <v>0</v>
       </c>
@@ -6056,7 +6074,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="60"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="52" t="b">
         <v>0</v>
       </c>
@@ -6095,7 +6113,7 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="60"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="52" t="b">
         <v>0</v>
       </c>
@@ -6132,7 +6150,7 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="60"/>
+      <c r="A106" s="57"/>
       <c r="B106" s="52" t="b">
         <v>0</v>
       </c>
@@ -6173,7 +6191,7 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="60"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="52" t="b">
         <v>0</v>
       </c>
@@ -6210,7 +6228,7 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="60"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="52" t="b">
         <v>0</v>
       </c>
@@ -6247,7 +6265,7 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="60"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="52" t="b">
         <v>0</v>
       </c>
@@ -6284,7 +6302,7 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="60"/>
+      <c r="A110" s="57"/>
       <c r="B110" s="52" t="b">
         <v>0</v>
       </c>
@@ -6325,7 +6343,7 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="60"/>
+      <c r="A111" s="57"/>
       <c r="B111" s="52" t="b">
         <v>0</v>
       </c>
@@ -6366,7 +6384,7 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="60"/>
+      <c r="A112" s="57"/>
       <c r="B112" s="52" t="b">
         <v>0</v>
       </c>
@@ -6407,7 +6425,7 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="60"/>
+      <c r="A113" s="57"/>
       <c r="B113" s="52" t="b">
         <v>0</v>
       </c>
@@ -6448,7 +6466,7 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="60"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="52" t="b">
         <v>0</v>
       </c>
@@ -6547,7 +6565,7 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="62" t="s">
+      <c r="A117" s="56" t="s">
         <v>154</v>
       </c>
       <c r="B117" s="52" t="b">
@@ -6590,7 +6608,7 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="60"/>
+      <c r="A118" s="57"/>
       <c r="B118" s="52" t="b">
         <v>0</v>
       </c>
@@ -6631,7 +6649,7 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="60"/>
+      <c r="A119" s="57"/>
       <c r="B119" s="52" t="b">
         <v>0</v>
       </c>
@@ -6672,7 +6690,7 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="60"/>
+      <c r="A120" s="57"/>
       <c r="B120" s="52" t="b">
         <v>0</v>
       </c>
@@ -6711,7 +6729,7 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="60"/>
+      <c r="A121" s="57"/>
       <c r="B121" s="52" t="b">
         <v>0</v>
       </c>
@@ -6752,7 +6770,7 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="60"/>
+      <c r="A122" s="57"/>
       <c r="B122" s="52" t="b">
         <v>0</v>
       </c>
@@ -6793,7 +6811,7 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="60"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="52" t="b">
         <v>0</v>
       </c>
@@ -6834,7 +6852,7 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="60"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="52" t="b">
         <v>0</v>
       </c>
@@ -6875,7 +6893,7 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="60"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="52" t="b">
         <v>0</v>
       </c>
@@ -6914,7 +6932,7 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="60"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="52" t="b">
         <v>0</v>
       </c>
@@ -6955,7 +6973,7 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="60"/>
+      <c r="A127" s="57"/>
       <c r="B127" s="52" t="b">
         <v>0</v>
       </c>
@@ -6994,7 +7012,7 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="60"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="52" t="b">
         <v>0</v>
       </c>
@@ -7035,7 +7053,7 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="60"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="52" t="b">
         <v>0</v>
       </c>
@@ -7074,7 +7092,7 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="60"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="52" t="b">
         <v>0</v>
       </c>
@@ -7111,7 +7129,7 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="60"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="52" t="b">
         <v>0</v>
       </c>
@@ -7148,7 +7166,7 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="60"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="52" t="b">
         <v>0</v>
       </c>
@@ -7187,7 +7205,7 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="60"/>
+      <c r="A133" s="57"/>
       <c r="B133" s="52" t="b">
         <v>0</v>
       </c>
@@ -7228,7 +7246,7 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="60"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="52" t="b">
         <v>0</v>
       </c>
@@ -7265,7 +7283,7 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="60"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="52" t="b">
         <v>0</v>
       </c>
@@ -7306,7 +7324,7 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="60"/>
+      <c r="A136" s="57"/>
       <c r="B136" s="52" t="b">
         <v>0</v>
       </c>
@@ -7347,7 +7365,7 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="60"/>
+      <c r="A137" s="57"/>
       <c r="B137" s="52" t="b">
         <v>0</v>
       </c>
@@ -7388,7 +7406,7 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="60"/>
+      <c r="A138" s="57"/>
       <c r="B138" s="52" t="b">
         <v>0</v>
       </c>
@@ -7427,7 +7445,7 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="60"/>
+      <c r="A139" s="57"/>
       <c r="B139" s="52" t="b">
         <v>0</v>
       </c>
@@ -7468,7 +7486,7 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="60"/>
+      <c r="A140" s="57"/>
       <c r="B140" s="52" t="b">
         <v>0</v>
       </c>
@@ -7509,7 +7527,7 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="60"/>
+      <c r="A141" s="57"/>
       <c r="B141" s="52" t="b">
         <v>0</v>
       </c>
@@ -7548,7 +7566,7 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="60"/>
+      <c r="A142" s="57"/>
       <c r="B142" s="52" t="b">
         <v>0</v>
       </c>
@@ -7587,7 +7605,7 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="60"/>
+      <c r="A143" s="57"/>
       <c r="B143" s="52" t="b">
         <v>0</v>
       </c>
@@ -7729,7 +7747,7 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="64" t="s">
+      <c r="A147" s="59" t="s">
         <v>186</v>
       </c>
       <c r="B147" s="52" t="b">
@@ -8318,7 +8336,7 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="64" t="s">
+      <c r="A162" s="59" t="s">
         <v>213</v>
       </c>
       <c r="B162" s="52" t="b">
@@ -8612,7 +8630,7 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="64" t="s">
+      <c r="A170" s="59" t="s">
         <v>232</v>
       </c>
       <c r="B170" s="52" t="b">
@@ -8867,7 +8885,7 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A177" s="64" t="s">
+      <c r="A177" s="59" t="s">
         <v>246</v>
       </c>
       <c r="B177" s="52" t="b">
@@ -8908,7 +8926,7 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="64"/>
+      <c r="A178" s="59"/>
       <c r="B178" s="52" t="b">
         <v>0</v>
       </c>
@@ -9298,24 +9316,22 @@
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A188" s="55"/>
       <c r="B188" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" s="2">
         <v>12</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E188" s="18" t="s">
-        <v>276</v>
+        <v>454</v>
+      </c>
+      <c r="E188" s="23" t="s">
+        <v>453</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="3"/>
-      <c r="H188" s="15" t="s">
-        <v>277</v>
-      </c>
+      <c r="H188" s="15"/>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -9337,24 +9353,22 @@
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A189" s="55"/>
       <c r="B189" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" s="2">
         <v>13</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E189" s="18" t="s">
-        <v>278</v>
+        <v>449</v>
+      </c>
+      <c r="E189" s="23" t="s">
+        <v>450</v>
       </c>
       <c r="F189" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="15" t="s">
-        <v>279</v>
-      </c>
+      <c r="H189" s="15"/>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -9376,23 +9390,23 @@
     <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A190" s="55"/>
       <c r="B190" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" s="2">
         <v>14</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E190" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F190" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
@@ -9415,23 +9429,23 @@
     <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A191" s="55"/>
       <c r="B191" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" s="2">
         <v>15</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F191" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="15" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9451,27 +9465,25 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A192" s="55"/>
       <c r="B192" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" s="2">
         <v>16</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E192" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="F192" s="28" t="s">
-        <v>57</v>
+        <v>451</v>
+      </c>
+      <c r="E192" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="F192" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" s="16" t="s">
-        <v>288</v>
-      </c>
+      <c r="H192" s="15"/>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
@@ -9493,23 +9505,23 @@
     <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A193" s="55"/>
       <c r="B193" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" s="2">
         <v>17</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E193" s="18" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F193" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="15" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
@@ -9538,16 +9550,18 @@
         <v>18</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E194" s="23" t="s">
-        <v>423</v>
+        <v>283</v>
+      </c>
+      <c r="E194" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="F194" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G194" s="3"/>
-      <c r="H194" s="15"/>
+      <c r="H194" s="15" t="s">
+        <v>285</v>
+      </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -9566,7 +9580,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A195" s="55"/>
       <c r="B195" s="52" t="b">
         <v>0</v>
@@ -9575,16 +9589,18 @@
         <v>19</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E195" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="F195" s="26" t="s">
-        <v>22</v>
+        <v>286</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F195" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="15"/>
+      <c r="H195" s="16" t="s">
+        <v>288</v>
+      </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -9612,17 +9628,17 @@
         <v>20</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E196" s="18" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="F196" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
@@ -9651,10 +9667,10 @@
         <v>21</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="E197" s="23" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="F197" s="26" t="s">
         <v>22</v>
@@ -9688,10 +9704,10 @@
         <v>22</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F198" s="26" t="s">
         <v>22</v>
@@ -9725,16 +9741,18 @@
         <v>23</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E199" s="23" t="s">
-        <v>428</v>
+        <v>292</v>
+      </c>
+      <c r="E199" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="F199" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="15"/>
+      <c r="H199" s="15" t="s">
+        <v>293</v>
+      </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -9762,18 +9780,16 @@
         <v>24</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E200" s="18" t="s">
-        <v>295</v>
+        <v>444</v>
+      </c>
+      <c r="E200" s="23" t="s">
+        <v>443</v>
       </c>
       <c r="F200" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="15" t="s">
-        <v>296</v>
-      </c>
+      <c r="H200" s="15"/>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -9801,10 +9817,10 @@
         <v>25</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="E201" s="23" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="F201" s="26" t="s">
         <v>22</v>
@@ -9838,18 +9854,16 @@
         <v>26</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E202" s="18" t="s">
-        <v>298</v>
+        <v>427</v>
+      </c>
+      <c r="E202" s="23" t="s">
+        <v>428</v>
       </c>
       <c r="F202" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G202" s="3"/>
-      <c r="H202" s="15" t="s">
-        <v>299</v>
-      </c>
+      <c r="H202" s="15"/>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
@@ -9868,7 +9882,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A203" s="55"/>
       <c r="B203" s="52" t="b">
         <v>0</v>
@@ -9877,17 +9891,17 @@
         <v>27</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E203" s="18" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F203" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G203" s="3"/>
-      <c r="H203" s="16" t="s">
-        <v>302</v>
+      <c r="H203" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9907,7 +9921,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A204" s="55"/>
       <c r="B204" s="52" t="b">
         <v>0</v>
@@ -9916,18 +9930,16 @@
         <v>28</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E204" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="F204" s="28" t="s">
-        <v>57</v>
+        <v>420</v>
+      </c>
+      <c r="E204" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="F204" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="16" t="s">
-        <v>304</v>
-      </c>
+      <c r="H204" s="15"/>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -9946,7 +9958,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A205" s="55"/>
       <c r="B205" s="52" t="b">
         <v>0</v>
@@ -9955,17 +9967,17 @@
         <v>29</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E205" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="F205" s="28" t="s">
-        <v>57</v>
+        <v>298</v>
+      </c>
+      <c r="F205" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="16" t="s">
-        <v>307</v>
+      <c r="H205" s="15" t="s">
+        <v>299</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9985,7 +9997,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A206" s="55"/>
       <c r="B206" s="52" t="b">
         <v>0</v>
@@ -9994,17 +10006,17 @@
         <v>30</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E206" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F206" s="28" t="s">
-        <v>57</v>
+        <v>301</v>
+      </c>
+      <c r="F206" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G206" s="3"/>
-      <c r="H206" s="15" t="s">
-        <v>309</v>
+      <c r="H206" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
@@ -10025,7 +10037,7 @@
       <c r="Y206" s="1"/>
     </row>
     <row r="207" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="1"/>
+      <c r="A207" s="55"/>
       <c r="B207" s="52" t="b">
         <v>0</v>
       </c>
@@ -10033,16 +10045,18 @@
         <v>31</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E207" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="F207" s="49" t="s">
-        <v>10</v>
+        <v>422</v>
+      </c>
+      <c r="E207" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F207" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="4"/>
+      <c r="H207" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -10062,16 +10076,26 @@
       <c r="Y207" s="1"/>
     </row>
     <row r="208" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="1"/>
+      <c r="A208" s="55"/>
       <c r="B208" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="1"/>
+      <c r="C208" s="2">
+        <v>32</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E208" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F208" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G208" s="3"/>
-      <c r="H208" s="4"/>
+      <c r="H208" s="16" t="s">
+        <v>307</v>
+      </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -10091,27 +10115,25 @@
       <c r="Y208" s="1"/>
     </row>
     <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A209" s="64" t="s">
-        <v>310</v>
-      </c>
+      <c r="A209" s="55"/>
       <c r="B209" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F209" s="27" t="s">
-        <v>10</v>
+        <v>308</v>
+      </c>
+      <c r="E209" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F209" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -10131,27 +10153,25 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A210" s="55"/>
+    <row r="210" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
       <c r="B210" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E210" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F210" s="26" t="s">
-        <v>22</v>
+        <v>368</v>
+      </c>
+      <c r="E210" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="F210" s="49" t="s">
+        <v>10</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="15" t="s">
-        <v>314</v>
-      </c>
+      <c r="H210" s="4"/>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -10171,26 +10191,16 @@
       <c r="Y210" s="1"/>
     </row>
     <row r="211" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A211" s="55"/>
+      <c r="A211" s="1"/>
       <c r="B211" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C211" s="2">
-        <v>3</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E211" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="1"/>
       <c r="G211" s="3"/>
-      <c r="H211" s="16" t="s">
-        <v>316</v>
-      </c>
+      <c r="H211" s="4"/>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -10209,26 +10219,28 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="55"/>
+    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A212" s="59" t="s">
+        <v>310</v>
+      </c>
       <c r="B212" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F212" s="26" t="s">
-        <v>22</v>
+      <c r="F212" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G212" s="3"/>
-      <c r="H212" s="16" t="s">
-        <v>318</v>
+      <c r="H212" s="15" t="s">
+        <v>312</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
@@ -10254,10 +10266,10 @@
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>9</v>
@@ -10267,7 +10279,7 @@
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10287,26 +10299,26 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A214" s="55"/>
       <c r="B214" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E214" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E214" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F214" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G214" s="3"/>
-      <c r="H214" s="15" t="s">
-        <v>322</v>
+      <c r="H214" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10326,16 +10338,16 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A215" s="55"/>
       <c r="B215" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>9</v>
@@ -10344,8 +10356,8 @@
         <v>22</v>
       </c>
       <c r="G215" s="3"/>
-      <c r="H215" s="15" t="s">
-        <v>324</v>
+      <c r="H215" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10365,16 +10377,16 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A216" s="55"/>
       <c r="B216" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>9</v>
@@ -10383,8 +10395,8 @@
         <v>22</v>
       </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="16" t="s">
-        <v>326</v>
+      <c r="H216" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10410,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>9</v>
@@ -10423,7 +10435,7 @@
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="15" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10449,10 +10461,10 @@
         <v>0</v>
       </c>
       <c r="C218" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>9</v>
@@ -10462,7 +10474,7 @@
       </c>
       <c r="G218" s="3"/>
       <c r="H218" s="15" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
@@ -10488,10 +10500,10 @@
         <v>0</v>
       </c>
       <c r="C219" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>9</v>
@@ -10501,7 +10513,7 @@
       </c>
       <c r="G219" s="3"/>
       <c r="H219" s="16" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="I219" s="3"/>
       <c r="J219" s="1"/>
@@ -10527,10 +10539,10 @@
         <v>0</v>
       </c>
       <c r="C220" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>9</v>
@@ -10540,7 +10552,7 @@
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="15" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
@@ -10566,10 +10578,10 @@
         <v>0</v>
       </c>
       <c r="C221" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>9</v>
@@ -10579,7 +10591,7 @@
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="15" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10599,16 +10611,16 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A222" s="55"/>
       <c r="B222" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C222" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>9</v>
@@ -10617,8 +10629,8 @@
         <v>22</v>
       </c>
       <c r="G222" s="3"/>
-      <c r="H222" s="15" t="s">
-        <v>338</v>
+      <c r="H222" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
@@ -10638,16 +10650,16 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A223" s="55"/>
       <c r="B223" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C223" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>9</v>
@@ -10656,8 +10668,8 @@
         <v>22</v>
       </c>
       <c r="G223" s="3"/>
-      <c r="H223" s="16" t="s">
-        <v>340</v>
+      <c r="H223" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
@@ -10677,26 +10689,26 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A224" s="55"/>
       <c r="B224" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C224" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F224" s="28" t="s">
-        <v>57</v>
+      <c r="F224" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G224" s="3"/>
-      <c r="H224" s="16" t="s">
-        <v>342</v>
+      <c r="H224" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
@@ -10716,26 +10728,26 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A225" s="55"/>
       <c r="B225" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C225" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F225" s="28" t="s">
-        <v>57</v>
+      <c r="F225" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G225" s="3"/>
-      <c r="H225" s="16" t="s">
-        <v>344</v>
+      <c r="H225" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
@@ -10761,20 +10773,20 @@
         <v>0</v>
       </c>
       <c r="C226" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F226" s="28" t="s">
-        <v>57</v>
+      <c r="F226" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G226" s="3"/>
       <c r="H226" s="16" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I226" s="3"/>
       <c r="J226" s="1"/>
@@ -10794,16 +10806,16 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A227" s="55"/>
       <c r="B227" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C227" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E227" s="8" t="s">
         <v>9</v>
@@ -10812,8 +10824,8 @@
         <v>57</v>
       </c>
       <c r="G227" s="3"/>
-      <c r="H227" s="15" t="s">
-        <v>348</v>
+      <c r="H227" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="1"/>
@@ -10833,16 +10845,16 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A228" s="55"/>
       <c r="B228" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C228" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E228" s="8" t="s">
         <v>9</v>
@@ -10851,8 +10863,8 @@
         <v>57</v>
       </c>
       <c r="G228" s="3"/>
-      <c r="H228" s="15" t="s">
-        <v>350</v>
+      <c r="H228" s="16" t="s">
+        <v>344</v>
       </c>
       <c r="I228" s="3"/>
       <c r="J228" s="1"/>
@@ -10878,10 +10890,10 @@
         <v>0</v>
       </c>
       <c r="C229" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E229" s="8" t="s">
         <v>9</v>
@@ -10891,7 +10903,7 @@
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="16" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I229" s="3"/>
       <c r="J229" s="1"/>
@@ -10911,17 +10923,27 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A230" s="1"/>
+    <row r="230" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A230" s="55"/>
       <c r="B230" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C230" s="2"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="1"/>
+      <c r="C230" s="2">
+        <v>19</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G230" s="3"/>
-      <c r="H230" s="4"/>
+      <c r="H230" s="15" t="s">
+        <v>348</v>
+      </c>
       <c r="I230" s="3"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
@@ -10940,17 +10962,27 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
+    <row r="231" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A231" s="55"/>
       <c r="B231" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="1"/>
+      <c r="C231" s="2">
+        <v>20</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G231" s="3"/>
-      <c r="H231" s="4"/>
+      <c r="H231" s="15" t="s">
+        <v>350</v>
+      </c>
       <c r="I231" s="3"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -10970,27 +11002,25 @@
       <c r="Y231" s="1"/>
     </row>
     <row r="232" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A232" s="64" t="s">
-        <v>353</v>
-      </c>
+      <c r="A232" s="55"/>
       <c r="B232" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C232" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E232" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E232" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F232" s="27" t="s">
-        <v>10</v>
+      <c r="F232" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G232" s="3"/>
       <c r="H232" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="1"/>
@@ -11010,27 +11040,17 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A233" s="55"/>
+    <row r="233" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
       <c r="B233" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C233" s="2">
-        <v>2</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E233" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F233" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="1"/>
       <c r="G233" s="3"/>
-      <c r="H233" s="15" t="s">
-        <v>357</v>
-      </c>
+      <c r="H233" s="4"/>
       <c r="I233" s="3"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -11049,27 +11069,17 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A234" s="55"/>
+    <row r="234" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
       <c r="B234" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C234" s="2">
-        <v>3</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E234" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F234" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="1"/>
       <c r="G234" s="3"/>
-      <c r="H234" s="15" t="s">
-        <v>359</v>
-      </c>
+      <c r="H234" s="4"/>
       <c r="I234" s="3"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -11088,26 +11098,28 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A235" s="55"/>
+    <row r="235" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A235" s="59" t="s">
+        <v>353</v>
+      </c>
       <c r="B235" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C235" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E235" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E235" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F235" s="26" t="s">
-        <v>22</v>
+      <c r="F235" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G235" s="3"/>
-      <c r="H235" s="15" t="s">
-        <v>361</v>
+      <c r="H235" s="16" t="s">
+        <v>355</v>
       </c>
       <c r="I235" s="3"/>
       <c r="J235" s="1"/>
@@ -11133,10 +11145,10 @@
         <v>0</v>
       </c>
       <c r="C236" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E236" s="8" t="s">
         <v>9</v>
@@ -11145,8 +11157,8 @@
         <v>22</v>
       </c>
       <c r="G236" s="3"/>
-      <c r="H236" s="20" t="s">
-        <v>363</v>
+      <c r="H236" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="I236" s="3"/>
       <c r="J236" s="1"/>
@@ -11172,20 +11184,20 @@
         <v>0</v>
       </c>
       <c r="C237" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E237" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F237" s="28" t="s">
-        <v>57</v>
+      <c r="F237" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G237" s="3"/>
       <c r="H237" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I237" s="3"/>
       <c r="J237" s="1"/>
@@ -11205,17 +11217,27 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A238" s="1"/>
+    <row r="238" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A238" s="55"/>
       <c r="B238" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C238" s="2"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="1"/>
+      <c r="C238" s="2">
+        <v>4</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E238" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G238" s="3"/>
-      <c r="H238" s="4"/>
+      <c r="H238" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="I238" s="3"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
@@ -11234,17 +11256,27 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A239" s="1"/>
+    <row r="239" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A239" s="55"/>
       <c r="B239" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C239" s="2"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="1"/>
+      <c r="C239" s="2">
+        <v>5</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G239" s="3"/>
-      <c r="H239" s="4"/>
+      <c r="H239" s="20" t="s">
+        <v>363</v>
+      </c>
       <c r="I239" s="3"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
@@ -11263,27 +11295,27 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A240" s="61" t="s">
-        <v>401</v>
-      </c>
+    <row r="240" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A240" s="55"/>
       <c r="B240" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C240" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E240" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E240" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F240" s="41" t="s">
-        <v>411</v>
+      <c r="F240" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G240" s="3"/>
-      <c r="H240" s="4"/>
+      <c r="H240" s="15" t="s">
+        <v>365</v>
+      </c>
       <c r="I240" s="3"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -11303,22 +11335,14 @@
       <c r="Y240" s="1"/>
     </row>
     <row r="241" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="55"/>
+      <c r="A241" s="1"/>
       <c r="B241" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C241" s="2">
-        <v>2</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E241" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F241" s="41" t="s">
-        <v>411</v>
-      </c>
+      <c r="C241" s="2"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="1"/>
       <c r="G241" s="3"/>
       <c r="H241" s="4"/>
       <c r="I241" s="3"/>
@@ -11340,22 +11364,14 @@
       <c r="Y241" s="1"/>
     </row>
     <row r="242" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="55"/>
+      <c r="A242" s="1"/>
       <c r="B242" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C242" s="2">
-        <v>3</v>
-      </c>
-      <c r="D242" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="E242" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F242" s="41" t="s">
-        <v>411</v>
-      </c>
+      <c r="C242" s="2"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="1"/>
       <c r="G242" s="3"/>
       <c r="H242" s="4"/>
       <c r="I242" s="3"/>
@@ -11377,15 +11393,17 @@
       <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="55"/>
+      <c r="A243" s="54" t="s">
+        <v>401</v>
+      </c>
       <c r="B243" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C243" s="2">
-        <v>4</v>
-      </c>
-      <c r="D243" s="24" t="s">
-        <v>417</v>
+        <v>1</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="E243" s="21" t="s">
         <v>9</v>
@@ -11419,11 +11437,17 @@
         <v>0</v>
       </c>
       <c r="C244" s="2">
-        <v>5</v>
-      </c>
-      <c r="D244" s="1"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E244" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" s="41" t="s">
+        <v>411</v>
+      </c>
       <c r="G244" s="3"/>
       <c r="H244" s="4"/>
       <c r="I244" s="3"/>
@@ -11450,11 +11474,17 @@
         <v>0</v>
       </c>
       <c r="C245" s="2">
-        <v>6</v>
-      </c>
-      <c r="D245" s="1"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D245" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="E245" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" s="41" t="s">
+        <v>411</v>
+      </c>
       <c r="G245" s="3"/>
       <c r="H245" s="4"/>
       <c r="I245" s="3"/>
@@ -11481,11 +11511,17 @@
         <v>0</v>
       </c>
       <c r="C246" s="2">
-        <v>7</v>
-      </c>
-      <c r="D246" s="1"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D246" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="E246" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" s="41" t="s">
+        <v>411</v>
+      </c>
       <c r="G246" s="3"/>
       <c r="H246" s="4"/>
       <c r="I246" s="3"/>
@@ -11512,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="C247" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="3"/>
@@ -11543,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="C248" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="3"/>
@@ -11574,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="C249" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="3"/>
@@ -11605,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="C250" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="3"/>
@@ -11636,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="C251" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="3"/>
@@ -11667,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="C252" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="3"/>
@@ -11698,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="C253" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="3"/>
@@ -11729,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="C254" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="3"/>
@@ -11754,10 +11790,14 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A255" s="55"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="2"/>
+      <c r="B255" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C255" s="2">
+        <v>13</v>
+      </c>
       <c r="D255" s="1"/>
       <c r="E255" s="3"/>
       <c r="F255" s="1"/>
@@ -11781,10 +11821,14 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A256" s="55"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="2"/>
+      <c r="B256" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C256" s="2">
+        <v>14</v>
+      </c>
       <c r="D256" s="1"/>
       <c r="E256" s="3"/>
       <c r="F256" s="1"/>
@@ -11808,10 +11852,14 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A257" s="55"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="2"/>
+      <c r="B257" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C257" s="2">
+        <v>15</v>
+      </c>
       <c r="D257" s="1"/>
       <c r="E257" s="3"/>
       <c r="F257" s="1"/>
@@ -11890,7 +11938,7 @@
       <c r="Y259" s="1"/>
     </row>
     <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
+      <c r="A260" s="55"/>
       <c r="B260" s="1"/>
       <c r="C260" s="2"/>
       <c r="D260" s="1"/>
@@ -11917,7 +11965,7 @@
       <c r="Y260" s="1"/>
     </row>
     <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="55"/>
       <c r="B261" s="1"/>
       <c r="C261" s="2"/>
       <c r="D261" s="1"/>
@@ -11944,7 +11992,7 @@
       <c r="Y261" s="1"/>
     </row>
     <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="55"/>
       <c r="B262" s="1"/>
       <c r="C262" s="2"/>
       <c r="D262" s="1"/>
@@ -32355,25 +32403,106 @@
       <c r="X1017" s="1"/>
       <c r="Y1017" s="1"/>
     </row>
+    <row r="1018" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1018" s="1"/>
+      <c r="B1018" s="1"/>
+      <c r="C1018" s="2"/>
+      <c r="D1018" s="1"/>
+      <c r="E1018" s="3"/>
+      <c r="F1018" s="1"/>
+      <c r="G1018" s="3"/>
+      <c r="H1018" s="4"/>
+      <c r="I1018" s="3"/>
+      <c r="J1018" s="1"/>
+      <c r="K1018" s="1"/>
+      <c r="L1018" s="1"/>
+      <c r="M1018" s="1"/>
+      <c r="N1018" s="1"/>
+      <c r="O1018" s="1"/>
+      <c r="P1018" s="1"/>
+      <c r="Q1018" s="1"/>
+      <c r="R1018" s="1"/>
+      <c r="S1018" s="1"/>
+      <c r="T1018" s="1"/>
+      <c r="U1018" s="1"/>
+      <c r="V1018" s="1"/>
+      <c r="W1018" s="1"/>
+      <c r="X1018" s="1"/>
+      <c r="Y1018" s="1"/>
+    </row>
+    <row r="1019" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1019" s="1"/>
+      <c r="B1019" s="1"/>
+      <c r="C1019" s="2"/>
+      <c r="D1019" s="1"/>
+      <c r="E1019" s="3"/>
+      <c r="F1019" s="1"/>
+      <c r="G1019" s="3"/>
+      <c r="H1019" s="4"/>
+      <c r="I1019" s="3"/>
+      <c r="J1019" s="1"/>
+      <c r="K1019" s="1"/>
+      <c r="L1019" s="1"/>
+      <c r="M1019" s="1"/>
+      <c r="N1019" s="1"/>
+      <c r="O1019" s="1"/>
+      <c r="P1019" s="1"/>
+      <c r="Q1019" s="1"/>
+      <c r="R1019" s="1"/>
+      <c r="S1019" s="1"/>
+      <c r="T1019" s="1"/>
+      <c r="U1019" s="1"/>
+      <c r="V1019" s="1"/>
+      <c r="W1019" s="1"/>
+      <c r="X1019" s="1"/>
+      <c r="Y1019" s="1"/>
+    </row>
+    <row r="1020" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1020" s="1"/>
+      <c r="B1020" s="1"/>
+      <c r="C1020" s="2"/>
+      <c r="D1020" s="1"/>
+      <c r="E1020" s="3"/>
+      <c r="F1020" s="1"/>
+      <c r="G1020" s="3"/>
+      <c r="H1020" s="4"/>
+      <c r="I1020" s="3"/>
+      <c r="J1020" s="1"/>
+      <c r="K1020" s="1"/>
+      <c r="L1020" s="1"/>
+      <c r="M1020" s="1"/>
+      <c r="N1020" s="1"/>
+      <c r="O1020" s="1"/>
+      <c r="P1020" s="1"/>
+      <c r="Q1020" s="1"/>
+      <c r="R1020" s="1"/>
+      <c r="S1020" s="1"/>
+      <c r="T1020" s="1"/>
+      <c r="U1020" s="1"/>
+      <c r="V1020" s="1"/>
+      <c r="W1020" s="1"/>
+      <c r="X1020" s="1"/>
+      <c r="Y1020" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A240:A259"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A7:A37"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A243:A262"/>
     <mergeCell ref="A45:A62"/>
     <mergeCell ref="A65:A76"/>
-    <mergeCell ref="A209:A229"/>
-    <mergeCell ref="A232:A237"/>
+    <mergeCell ref="A212:A232"/>
+    <mergeCell ref="A235:A240"/>
     <mergeCell ref="A79:A95"/>
     <mergeCell ref="A98:A114"/>
     <mergeCell ref="A117:A143"/>
     <mergeCell ref="A147:A159"/>
     <mergeCell ref="A162:A167"/>
     <mergeCell ref="A170:A174"/>
-    <mergeCell ref="A177:A206"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A7:A37"/>
-    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A177:A209"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
@@ -32540,47 +32669,47 @@
     <hyperlink ref="E184" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
     <hyperlink ref="E186" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
     <hyperlink ref="E187" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E188" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E189" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E190" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E191" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E192" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E193" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E196" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E200" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E202" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E203" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E204" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E205" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E206" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E209" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E210" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E211" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E212" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E213" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E214" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E215" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E216" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E217" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E218" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E219" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E220" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E221" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E222" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E223" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E224" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E225" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E226" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E227" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E228" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E229" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E232" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E233" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E234" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E235" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E236" r:id="rId203" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E237" r:id="rId204" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E207" r:id="rId205" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E190" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E191" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E193" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E194" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E195" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E196" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E199" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E203" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E205" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E206" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E207" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E208" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E209" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E212" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E213" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E214" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E215" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E216" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E217" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E218" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E219" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E220" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E221" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E222" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E223" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E224" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E225" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E226" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E227" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E228" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E229" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E230" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E231" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E232" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E235" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E236" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E237" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E238" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E239" r:id="rId203" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E240" r:id="rId204" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E210" r:id="rId205" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
     <hyperlink ref="E145" r:id="rId206" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
     <hyperlink ref="E144" r:id="rId207" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
     <hyperlink ref="G72" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
@@ -32636,19 +32765,19 @@
     <hyperlink ref="E9" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G8" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E8" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E240" r:id="rId261" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E243" r:id="rId261" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
     <hyperlink ref="E21" r:id="rId262" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E241" r:id="rId263" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E244" r:id="rId263" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
     <hyperlink ref="E30" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="E12" r:id="rId265" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
-    <hyperlink ref="E242" r:id="rId266" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
-    <hyperlink ref="E243" r:id="rId267" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E245" r:id="rId266" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E246" r:id="rId267" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
     <hyperlink ref="E24" r:id="rId268" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
     <hyperlink ref="E19" r:id="rId269" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
-    <hyperlink ref="E201" r:id="rId270" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
-    <hyperlink ref="E194" r:id="rId271" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
+    <hyperlink ref="E204" r:id="rId270" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
+    <hyperlink ref="E197" r:id="rId271" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
     <hyperlink ref="E178" r:id="rId272" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
-    <hyperlink ref="E199" r:id="rId273" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
+    <hyperlink ref="E202" r:id="rId273" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
     <hyperlink ref="E105" r:id="rId274" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
     <hyperlink ref="E109" r:id="rId275" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
     <hyperlink ref="E108" r:id="rId276" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
@@ -32663,12 +32792,15 @@
     <hyperlink ref="E52" r:id="rId285" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
     <hyperlink ref="E51" r:id="rId286" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
     <hyperlink ref="E53" r:id="rId287" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
-    <hyperlink ref="E198" r:id="rId288" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
-    <hyperlink ref="E197" r:id="rId289" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
-    <hyperlink ref="E195" r:id="rId290" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
+    <hyperlink ref="E201" r:id="rId288" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
+    <hyperlink ref="E200" r:id="rId289" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
+    <hyperlink ref="E198" r:id="rId290" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
     <hyperlink ref="E185" r:id="rId291" xr:uid="{2401C9CC-8D34-433A-BAAD-C1FD2BC14D49}"/>
+    <hyperlink ref="E189" r:id="rId292" xr:uid="{D146BB8F-137F-4456-BBA2-EC755F8EBC46}"/>
+    <hyperlink ref="E192" r:id="rId293" xr:uid="{E360B755-600F-4776-B306-2E5CFACE17ED}"/>
+    <hyperlink ref="E188" r:id="rId294" xr:uid="{A5B75A0D-986A-4F1A-B094-7B65E143FDE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId292"/>
+  <pageSetup orientation="portrait" r:id="rId295"/>
 </worksheet>
 </file>
--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3A9F78-1842-4E76-AF34-590EA99C0937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AAC926-C88A-40E7-9276-B2B1285F3A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA Series Sheet" sheetId="1" r:id="rId1"/>
@@ -1834,26 +1834,10 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1861,6 +1845,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2102,8 +2102,8 @@
   <dimension ref="A1:Y1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2122,7 +2122,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="54" t="s">
         <v>414</v>
       </c>
       <c r="E1" s="55"/>
@@ -2151,13 +2151,13 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="56" t="s">
         <v>409</v>
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="63"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="55"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2309,7 +2309,7 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="52" t="b">
@@ -2354,7 +2354,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="52" t="b">
         <v>0</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="52" t="b">
         <v>0</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="52" t="b">
         <v>0</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="52" t="b">
         <v>0</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="52" t="b">
         <v>0</v>
       </c>
@@ -2551,7 +2551,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="52" t="b">
         <v>0</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="52" t="b">
         <v>0</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="52" t="b">
         <v>0</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="52" t="b">
         <v>0</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="52" t="b">
         <v>0</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="52" t="b">
         <v>0</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="52" t="b">
         <v>0</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="52" t="b">
         <v>0</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="52" t="b">
         <v>0</v>
       </c>
@@ -2910,7 +2910,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="52" t="b">
         <v>0</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="52" t="b">
         <v>0</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="52" t="b">
         <v>0</v>
       </c>
@@ -3031,7 +3031,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="52" t="b">
         <v>0</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="52" t="b">
         <v>0</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="52" t="b">
         <v>0</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="52" t="b">
         <v>0</v>
       </c>
@@ -3195,7 +3195,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="52" t="b">
         <v>0</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="52" t="b">
         <v>0</v>
       </c>
@@ -3275,7 +3275,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="52" t="b">
         <v>0</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="52" t="b">
         <v>0</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="52" t="b">
         <v>0</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="52" t="b">
         <v>0</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="52" t="b">
         <v>0</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="52" t="b">
         <v>0</v>
       </c>
@@ -3519,7 +3519,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="52" t="b">
         <v>0</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="59" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="52" t="b">
@@ -3628,7 +3628,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="57"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="52" t="b">
         <v>0</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="57"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="52" t="b">
         <v>0</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="57"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="52" t="b">
         <v>0</v>
       </c>
@@ -3797,7 +3797,7 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="62" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="52" t="b">
@@ -3840,7 +3840,7 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="57"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="52" t="b">
         <v>0</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="57"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="52" t="b">
         <v>0</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="57"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="52" t="b">
         <v>0</v>
       </c>
@@ -3953,7 +3953,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="57"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="52" t="b">
         <v>0</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="57"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="52" t="b">
         <v>0</v>
       </c>
@@ -4031,7 +4031,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="57"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="52" t="b">
         <v>0</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="57"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="52" t="b">
         <v>0</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="57"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="52" t="b">
         <v>0</v>
       </c>
@@ -4142,7 +4142,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="57"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="52" t="b">
         <v>0</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="57"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="52" t="b">
         <v>0</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="57"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="52" t="b">
         <v>0</v>
       </c>
@@ -4261,7 +4261,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="57"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="52" t="b">
         <v>0</v>
       </c>
@@ -4298,7 +4298,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="57"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="52" t="b">
         <v>0</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="57"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="52" t="b">
         <v>0</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="57"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="52" t="b">
         <v>0</v>
       </c>
@@ -4413,7 +4413,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="52" t="b">
         <v>0</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="57"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="52" t="b">
         <v>0</v>
       </c>
@@ -4541,11 +4541,11 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="58" t="s">
+      <c r="A65" s="63" t="s">
         <v>88</v>
       </c>
       <c r="B65" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" ref="C65:C75" si="0">ROW(A1)</f>
@@ -4587,7 +4587,7 @@
     <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="55"/>
       <c r="B66" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="2">
         <f t="shared" si="0"/>
@@ -4627,7 +4627,7 @@
     <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="55"/>
       <c r="B67" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2">
         <f t="shared" si="0"/>
@@ -4791,7 +4791,7 @@
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="55"/>
       <c r="B71" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" si="0"/>
@@ -4829,7 +4829,7 @@
     <row r="72" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="55"/>
       <c r="B72" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" si="0"/>
@@ -5091,7 +5091,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="60" t="s">
+      <c r="A79" s="59" t="s">
         <v>108</v>
       </c>
       <c r="B79" s="52" t="b">
@@ -5134,7 +5134,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="57"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="52" t="b">
         <v>0</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="57"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="52" t="b">
         <v>0</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="57"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="52" t="b">
         <v>0</v>
       </c>
@@ -5255,7 +5255,7 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="57"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="52" t="b">
         <v>0</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="57"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="52" t="b">
         <v>0</v>
       </c>
@@ -5337,7 +5337,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="57"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="52" t="b">
         <v>0</v>
       </c>
@@ -5378,7 +5378,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="57"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="52" t="b">
         <v>0</v>
       </c>
@@ -5419,7 +5419,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="57"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="52" t="b">
         <v>0</v>
       </c>
@@ -5456,7 +5456,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="57"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="52" t="b">
         <v>0</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="57"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="52" t="b">
         <v>0</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="57"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="52" t="b">
         <v>0</v>
       </c>
@@ -5571,7 +5571,7 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="57"/>
+      <c r="A91" s="60"/>
       <c r="B91" s="52" t="b">
         <v>0</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="57"/>
+      <c r="A92" s="60"/>
       <c r="B92" s="52" t="b">
         <v>0</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="57"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="52" t="b">
         <v>0</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="57"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="52" t="b">
         <v>0</v>
       </c>
@@ -5721,7 +5721,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="57"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="52" t="b">
         <v>0</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="62" t="s">
         <v>126</v>
       </c>
       <c r="B98" s="52" t="b">
@@ -5871,7 +5871,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="57"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="52" t="b">
         <v>0</v>
       </c>
@@ -5912,7 +5912,7 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="57"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="52" t="b">
         <v>0</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="57"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="52" t="b">
         <v>0</v>
       </c>
@@ -5994,7 +5994,7 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="57"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="52" t="b">
         <v>0</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="57"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="52" t="b">
         <v>0</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="57"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="52" t="b">
         <v>0</v>
       </c>
@@ -6113,7 +6113,7 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="57"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="52" t="b">
         <v>0</v>
       </c>
@@ -6150,7 +6150,7 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="57"/>
+      <c r="A106" s="60"/>
       <c r="B106" s="52" t="b">
         <v>0</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="57"/>
+      <c r="A107" s="60"/>
       <c r="B107" s="52" t="b">
         <v>0</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="57"/>
+      <c r="A108" s="60"/>
       <c r="B108" s="52" t="b">
         <v>0</v>
       </c>
@@ -6265,7 +6265,7 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="57"/>
+      <c r="A109" s="60"/>
       <c r="B109" s="52" t="b">
         <v>0</v>
       </c>
@@ -6302,7 +6302,7 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="57"/>
+      <c r="A110" s="60"/>
       <c r="B110" s="52" t="b">
         <v>0</v>
       </c>
@@ -6343,7 +6343,7 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="57"/>
+      <c r="A111" s="60"/>
       <c r="B111" s="52" t="b">
         <v>0</v>
       </c>
@@ -6384,7 +6384,7 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="57"/>
+      <c r="A112" s="60"/>
       <c r="B112" s="52" t="b">
         <v>0</v>
       </c>
@@ -6425,7 +6425,7 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="57"/>
+      <c r="A113" s="60"/>
       <c r="B113" s="52" t="b">
         <v>0</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="57"/>
+      <c r="A114" s="60"/>
       <c r="B114" s="52" t="b">
         <v>0</v>
       </c>
@@ -6565,7 +6565,7 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="56" t="s">
+      <c r="A117" s="62" t="s">
         <v>154</v>
       </c>
       <c r="B117" s="52" t="b">
@@ -6608,7 +6608,7 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="57"/>
+      <c r="A118" s="60"/>
       <c r="B118" s="52" t="b">
         <v>0</v>
       </c>
@@ -6649,7 +6649,7 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="57"/>
+      <c r="A119" s="60"/>
       <c r="B119" s="52" t="b">
         <v>0</v>
       </c>
@@ -6690,7 +6690,7 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="57"/>
+      <c r="A120" s="60"/>
       <c r="B120" s="52" t="b">
         <v>0</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="57"/>
+      <c r="A121" s="60"/>
       <c r="B121" s="52" t="b">
         <v>0</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="57"/>
+      <c r="A122" s="60"/>
       <c r="B122" s="52" t="b">
         <v>0</v>
       </c>
@@ -6811,7 +6811,7 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="57"/>
+      <c r="A123" s="60"/>
       <c r="B123" s="52" t="b">
         <v>0</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="57"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="52" t="b">
         <v>0</v>
       </c>
@@ -6893,7 +6893,7 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="57"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="52" t="b">
         <v>0</v>
       </c>
@@ -6932,7 +6932,7 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="57"/>
+      <c r="A126" s="60"/>
       <c r="B126" s="52" t="b">
         <v>0</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="57"/>
+      <c r="A127" s="60"/>
       <c r="B127" s="52" t="b">
         <v>0</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="57"/>
+      <c r="A128" s="60"/>
       <c r="B128" s="52" t="b">
         <v>0</v>
       </c>
@@ -7053,7 +7053,7 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="57"/>
+      <c r="A129" s="60"/>
       <c r="B129" s="52" t="b">
         <v>0</v>
       </c>
@@ -7092,7 +7092,7 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="57"/>
+      <c r="A130" s="60"/>
       <c r="B130" s="52" t="b">
         <v>0</v>
       </c>
@@ -7129,7 +7129,7 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="57"/>
+      <c r="A131" s="60"/>
       <c r="B131" s="52" t="b">
         <v>0</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="57"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="52" t="b">
         <v>0</v>
       </c>
@@ -7205,7 +7205,7 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="57"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="52" t="b">
         <v>0</v>
       </c>
@@ -7246,7 +7246,7 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="57"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="52" t="b">
         <v>0</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="57"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="52" t="b">
         <v>0</v>
       </c>
@@ -7324,7 +7324,7 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="57"/>
+      <c r="A136" s="60"/>
       <c r="B136" s="52" t="b">
         <v>0</v>
       </c>
@@ -7365,7 +7365,7 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="57"/>
+      <c r="A137" s="60"/>
       <c r="B137" s="52" t="b">
         <v>0</v>
       </c>
@@ -7406,7 +7406,7 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="57"/>
+      <c r="A138" s="60"/>
       <c r="B138" s="52" t="b">
         <v>0</v>
       </c>
@@ -7445,7 +7445,7 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="57"/>
+      <c r="A139" s="60"/>
       <c r="B139" s="52" t="b">
         <v>0</v>
       </c>
@@ -7486,7 +7486,7 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="57"/>
+      <c r="A140" s="60"/>
       <c r="B140" s="52" t="b">
         <v>0</v>
       </c>
@@ -7527,7 +7527,7 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="57"/>
+      <c r="A141" s="60"/>
       <c r="B141" s="52" t="b">
         <v>0</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="57"/>
+      <c r="A142" s="60"/>
       <c r="B142" s="52" t="b">
         <v>0</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="57"/>
+      <c r="A143" s="60"/>
       <c r="B143" s="52" t="b">
         <v>0</v>
       </c>
@@ -7747,7 +7747,7 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="59" t="s">
+      <c r="A147" s="64" t="s">
         <v>186</v>
       </c>
       <c r="B147" s="52" t="b">
@@ -8336,7 +8336,7 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="59" t="s">
+      <c r="A162" s="64" t="s">
         <v>213</v>
       </c>
       <c r="B162" s="52" t="b">
@@ -8630,7 +8630,7 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="59" t="s">
+      <c r="A170" s="64" t="s">
         <v>232</v>
       </c>
       <c r="B170" s="52" t="b">
@@ -8885,7 +8885,7 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A177" s="59" t="s">
+      <c r="A177" s="64" t="s">
         <v>246</v>
       </c>
       <c r="B177" s="52" t="b">
@@ -8926,7 +8926,7 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="59"/>
+      <c r="A178" s="64"/>
       <c r="B178" s="52" t="b">
         <v>0</v>
       </c>
@@ -10220,7 +10220,7 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A212" s="59" t="s">
+      <c r="A212" s="64" t="s">
         <v>310</v>
       </c>
       <c r="B212" s="52" t="b">
@@ -11099,7 +11099,7 @@
       <c r="Y234" s="1"/>
     </row>
     <row r="235" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="59" t="s">
+      <c r="A235" s="64" t="s">
         <v>353</v>
       </c>
       <c r="B235" s="52" t="b">
@@ -11393,7 +11393,7 @@
       <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="54" t="s">
+      <c r="A243" s="61" t="s">
         <v>401</v>
       </c>
       <c r="B243" s="52" t="b">
@@ -32486,11 +32486,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A7:A37"/>
-    <mergeCell ref="A39:A42"/>
     <mergeCell ref="A243:A262"/>
     <mergeCell ref="A45:A62"/>
     <mergeCell ref="A65:A76"/>
@@ -32503,6 +32498,11 @@
     <mergeCell ref="A162:A167"/>
     <mergeCell ref="A170:A174"/>
     <mergeCell ref="A177:A209"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A7:A37"/>
+    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>

--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AAC926-C88A-40E7-9276-B2B1285F3A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129D3CEF-18F7-460B-9FFC-5F6477BAEA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2102,8 +2102,8 @@
   <dimension ref="A1:Y1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <pane ySplit="4" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
-      <c r="B43" s="52"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
@@ -3770,9 +3770,9 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="52"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="2"/>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
@@ -4486,12 +4486,11 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
-      <c r="B63" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C63" s="2"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
       <c r="H63" s="11"/>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
@@ -4511,13 +4510,11 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="1"/>
+    <row r="64" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="3"/>
       <c r="F64" s="1"/>
       <c r="G64" s="3"/>
@@ -4669,7 +4666,7 @@
     <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="55"/>
       <c r="B68" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" si="0"/>
@@ -4911,7 +4908,7 @@
     <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="55"/>
       <c r="B74" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" si="0"/>
@@ -4953,7 +4950,7 @@
     <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="55"/>
       <c r="B75" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="2">
         <f t="shared" si="0"/>
@@ -5032,12 +5029,10 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="3"/>
       <c r="F77" s="1"/>
@@ -5061,12 +5056,10 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="3"/>
       <c r="F78" s="1"/>
@@ -8826,17 +8819,15 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
-      <c r="B175" s="52" t="b">
-        <v>0</v>
-      </c>
+      <c r="B175" s="17"/>
       <c r="C175" s="2"/>
       <c r="D175" s="1"/>
       <c r="E175" s="3"/>
       <c r="F175" s="1"/>
       <c r="G175" s="3"/>
-      <c r="H175" s="4"/>
+      <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -8855,17 +8846,15 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A176" s="1"/>
-      <c r="B176" s="52" t="b">
-        <v>0</v>
-      </c>
+    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A176" s="17"/>
+      <c r="B176" s="17"/>
       <c r="C176" s="2"/>
       <c r="D176" s="1"/>
       <c r="E176" s="3"/>
       <c r="F176" s="1"/>
       <c r="G176" s="3"/>
-      <c r="H176" s="4"/>
+      <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -10190,12 +10179,10 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
-      <c r="B211" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C211" s="2"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="3"/>
       <c r="F211" s="1"/>

--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129D3CEF-18F7-460B-9FFC-5F6477BAEA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7ACAFD-BC9C-4A95-9CA9-0539CF594A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1834,10 +1834,26 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1845,22 +1861,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2102,8 +2102,8 @@
   <dimension ref="A1:Y1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <pane ySplit="4" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2122,7 +2122,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="61" t="s">
         <v>414</v>
       </c>
       <c r="E1" s="55"/>
@@ -2151,13 +2151,13 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="62" t="s">
         <v>409</v>
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="57"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="55"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2309,7 +2309,7 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="52" t="b">
@@ -2354,7 +2354,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="52" t="b">
         <v>0</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="52" t="b">
         <v>0</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="52" t="b">
         <v>0</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="52" t="b">
         <v>0</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="52" t="b">
         <v>0</v>
       </c>
@@ -2551,7 +2551,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="52" t="b">
         <v>0</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="52" t="b">
         <v>0</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="52" t="b">
         <v>0</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="52" t="b">
         <v>0</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="52" t="b">
         <v>0</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="52" t="b">
         <v>0</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="52" t="b">
         <v>0</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="52" t="b">
         <v>0</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="52" t="b">
         <v>0</v>
       </c>
@@ -2910,7 +2910,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="52" t="b">
         <v>0</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="52" t="b">
         <v>0</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="52" t="b">
         <v>0</v>
       </c>
@@ -3031,7 +3031,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="52" t="b">
         <v>0</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="52" t="b">
         <v>0</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="52" t="b">
         <v>0</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="52" t="b">
         <v>0</v>
       </c>
@@ -3195,7 +3195,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="52" t="b">
         <v>0</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="52" t="b">
         <v>0</v>
       </c>
@@ -3275,7 +3275,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="52" t="b">
         <v>0</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="52" t="b">
         <v>0</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="52" t="b">
         <v>0</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="52" t="b">
         <v>0</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="52" t="b">
         <v>0</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="52" t="b">
         <v>0</v>
       </c>
@@ -3519,7 +3519,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="52" t="b">
         <v>0</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="60" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="52" t="b">
@@ -3628,7 +3628,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="52" t="b">
         <v>0</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="52" t="b">
         <v>0</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="52" t="b">
         <v>0</v>
       </c>
@@ -3797,7 +3797,7 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="56" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="52" t="b">
@@ -3840,7 +3840,7 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="60"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="52" t="b">
         <v>0</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="60"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="52" t="b">
         <v>0</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="60"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="52" t="b">
         <v>0</v>
       </c>
@@ -3953,7 +3953,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="60"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="52" t="b">
         <v>0</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="60"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="52" t="b">
         <v>0</v>
       </c>
@@ -4031,7 +4031,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="60"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="52" t="b">
         <v>0</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="60"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="52" t="b">
         <v>0</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="60"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="52" t="b">
         <v>0</v>
       </c>
@@ -4142,7 +4142,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="60"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="52" t="b">
         <v>0</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="60"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="52" t="b">
         <v>0</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="60"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="52" t="b">
         <v>0</v>
       </c>
@@ -4261,7 +4261,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="60"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="52" t="b">
         <v>0</v>
       </c>
@@ -4298,7 +4298,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="60"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="52" t="b">
         <v>0</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="60"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="52" t="b">
         <v>0</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="60"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="52" t="b">
         <v>0</v>
       </c>
@@ -4413,7 +4413,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="60"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="52" t="b">
         <v>0</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="60"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="52" t="b">
         <v>0</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="58" t="s">
         <v>88</v>
       </c>
       <c r="B65" s="52" t="b">
@@ -4706,7 +4706,7 @@
     <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="55"/>
       <c r="B69" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" si="0"/>
@@ -4746,7 +4746,7 @@
     <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="55"/>
       <c r="B70" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" si="0"/>
@@ -5084,7 +5084,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="59" t="s">
+      <c r="A79" s="60" t="s">
         <v>108</v>
       </c>
       <c r="B79" s="52" t="b">
@@ -5127,7 +5127,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="60"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="52" t="b">
         <v>0</v>
       </c>
@@ -5168,7 +5168,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="60"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="52" t="b">
         <v>0</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="60"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="52" t="b">
         <v>0</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="60"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="52" t="b">
         <v>0</v>
       </c>
@@ -5289,7 +5289,7 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="52" t="b">
         <v>0</v>
       </c>
@@ -5330,7 +5330,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="52" t="b">
         <v>0</v>
       </c>
@@ -5371,7 +5371,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="60"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="52" t="b">
         <v>0</v>
       </c>
@@ -5412,7 +5412,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="60"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="52" t="b">
         <v>0</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="60"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="52" t="b">
         <v>0</v>
       </c>
@@ -5488,7 +5488,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="60"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="52" t="b">
         <v>0</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="60"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="52" t="b">
         <v>0</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="60"/>
+      <c r="A91" s="57"/>
       <c r="B91" s="52" t="b">
         <v>0</v>
       </c>
@@ -5601,7 +5601,7 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="60"/>
+      <c r="A92" s="57"/>
       <c r="B92" s="52" t="b">
         <v>0</v>
       </c>
@@ -5638,7 +5638,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="60"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="52" t="b">
         <v>0</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="60"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="52" t="b">
         <v>0</v>
       </c>
@@ -5714,7 +5714,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="60"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="52" t="b">
         <v>0</v>
       </c>
@@ -5821,7 +5821,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="62" t="s">
+      <c r="A98" s="56" t="s">
         <v>126</v>
       </c>
       <c r="B98" s="52" t="b">
@@ -5864,7 +5864,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="60"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="52" t="b">
         <v>0</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="60"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="52" t="b">
         <v>0</v>
       </c>
@@ -5946,7 +5946,7 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="60"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="52" t="b">
         <v>0</v>
       </c>
@@ -5987,7 +5987,7 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="52" t="b">
         <v>0</v>
       </c>
@@ -6028,7 +6028,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="52" t="b">
         <v>0</v>
       </c>
@@ -6067,7 +6067,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="60"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="52" t="b">
         <v>0</v>
       </c>
@@ -6106,7 +6106,7 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="60"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="52" t="b">
         <v>0</v>
       </c>
@@ -6143,7 +6143,7 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="60"/>
+      <c r="A106" s="57"/>
       <c r="B106" s="52" t="b">
         <v>0</v>
       </c>
@@ -6184,7 +6184,7 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="60"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="52" t="b">
         <v>0</v>
       </c>
@@ -6221,7 +6221,7 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="60"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="52" t="b">
         <v>0</v>
       </c>
@@ -6258,7 +6258,7 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="60"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="52" t="b">
         <v>0</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="60"/>
+      <c r="A110" s="57"/>
       <c r="B110" s="52" t="b">
         <v>0</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="60"/>
+      <c r="A111" s="57"/>
       <c r="B111" s="52" t="b">
         <v>0</v>
       </c>
@@ -6377,7 +6377,7 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="60"/>
+      <c r="A112" s="57"/>
       <c r="B112" s="52" t="b">
         <v>0</v>
       </c>
@@ -6418,7 +6418,7 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="60"/>
+      <c r="A113" s="57"/>
       <c r="B113" s="52" t="b">
         <v>0</v>
       </c>
@@ -6459,7 +6459,7 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="60"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="52" t="b">
         <v>0</v>
       </c>
@@ -6558,7 +6558,7 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="62" t="s">
+      <c r="A117" s="56" t="s">
         <v>154</v>
       </c>
       <c r="B117" s="52" t="b">
@@ -6601,7 +6601,7 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="60"/>
+      <c r="A118" s="57"/>
       <c r="B118" s="52" t="b">
         <v>0</v>
       </c>
@@ -6642,7 +6642,7 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="60"/>
+      <c r="A119" s="57"/>
       <c r="B119" s="52" t="b">
         <v>0</v>
       </c>
@@ -6683,7 +6683,7 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="60"/>
+      <c r="A120" s="57"/>
       <c r="B120" s="52" t="b">
         <v>0</v>
       </c>
@@ -6722,7 +6722,7 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="60"/>
+      <c r="A121" s="57"/>
       <c r="B121" s="52" t="b">
         <v>0</v>
       </c>
@@ -6763,7 +6763,7 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="60"/>
+      <c r="A122" s="57"/>
       <c r="B122" s="52" t="b">
         <v>0</v>
       </c>
@@ -6804,7 +6804,7 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="60"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="52" t="b">
         <v>0</v>
       </c>
@@ -6845,7 +6845,7 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="60"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="52" t="b">
         <v>0</v>
       </c>
@@ -6886,7 +6886,7 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="60"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="52" t="b">
         <v>0</v>
       </c>
@@ -6925,7 +6925,7 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="60"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="52" t="b">
         <v>0</v>
       </c>
@@ -6966,7 +6966,7 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="60"/>
+      <c r="A127" s="57"/>
       <c r="B127" s="52" t="b">
         <v>0</v>
       </c>
@@ -7005,7 +7005,7 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="60"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="52" t="b">
         <v>0</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="60"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="52" t="b">
         <v>0</v>
       </c>
@@ -7085,7 +7085,7 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="60"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="52" t="b">
         <v>0</v>
       </c>
@@ -7122,7 +7122,7 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="60"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="52" t="b">
         <v>0</v>
       </c>
@@ -7159,7 +7159,7 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="60"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="52" t="b">
         <v>0</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="60"/>
+      <c r="A133" s="57"/>
       <c r="B133" s="52" t="b">
         <v>0</v>
       </c>
@@ -7239,7 +7239,7 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="60"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="52" t="b">
         <v>0</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="60"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="52" t="b">
         <v>0</v>
       </c>
@@ -7317,7 +7317,7 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="60"/>
+      <c r="A136" s="57"/>
       <c r="B136" s="52" t="b">
         <v>0</v>
       </c>
@@ -7358,7 +7358,7 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="60"/>
+      <c r="A137" s="57"/>
       <c r="B137" s="52" t="b">
         <v>0</v>
       </c>
@@ -7399,7 +7399,7 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="60"/>
+      <c r="A138" s="57"/>
       <c r="B138" s="52" t="b">
         <v>0</v>
       </c>
@@ -7438,7 +7438,7 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="60"/>
+      <c r="A139" s="57"/>
       <c r="B139" s="52" t="b">
         <v>0</v>
       </c>
@@ -7479,7 +7479,7 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="60"/>
+      <c r="A140" s="57"/>
       <c r="B140" s="52" t="b">
         <v>0</v>
       </c>
@@ -7520,7 +7520,7 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="60"/>
+      <c r="A141" s="57"/>
       <c r="B141" s="52" t="b">
         <v>0</v>
       </c>
@@ -7559,7 +7559,7 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="60"/>
+      <c r="A142" s="57"/>
       <c r="B142" s="52" t="b">
         <v>0</v>
       </c>
@@ -7598,7 +7598,7 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="60"/>
+      <c r="A143" s="57"/>
       <c r="B143" s="52" t="b">
         <v>0</v>
       </c>
@@ -7740,7 +7740,7 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="64" t="s">
+      <c r="A147" s="59" t="s">
         <v>186</v>
       </c>
       <c r="B147" s="52" t="b">
@@ -8329,7 +8329,7 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="64" t="s">
+      <c r="A162" s="59" t="s">
         <v>213</v>
       </c>
       <c r="B162" s="52" t="b">
@@ -8623,7 +8623,7 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="64" t="s">
+      <c r="A170" s="59" t="s">
         <v>232</v>
       </c>
       <c r="B170" s="52" t="b">
@@ -8874,7 +8874,7 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A177" s="64" t="s">
+      <c r="A177" s="59" t="s">
         <v>246</v>
       </c>
       <c r="B177" s="52" t="b">
@@ -8915,7 +8915,7 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="64"/>
+      <c r="A178" s="59"/>
       <c r="B178" s="52" t="b">
         <v>0</v>
       </c>
@@ -10207,7 +10207,7 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A212" s="64" t="s">
+      <c r="A212" s="59" t="s">
         <v>310</v>
       </c>
       <c r="B212" s="52" t="b">
@@ -11086,7 +11086,7 @@
       <c r="Y234" s="1"/>
     </row>
     <row r="235" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="64" t="s">
+      <c r="A235" s="59" t="s">
         <v>353</v>
       </c>
       <c r="B235" s="52" t="b">
@@ -11380,7 +11380,7 @@
       <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="61" t="s">
+      <c r="A243" s="54" t="s">
         <v>401</v>
       </c>
       <c r="B243" s="52" t="b">
@@ -32473,6 +32473,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A7:A37"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="A243:A262"/>
     <mergeCell ref="A45:A62"/>
     <mergeCell ref="A65:A76"/>
@@ -32485,11 +32490,6 @@
     <mergeCell ref="A162:A167"/>
     <mergeCell ref="A170:A174"/>
     <mergeCell ref="A177:A209"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A7:A37"/>
-    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>

--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7ACAFD-BC9C-4A95-9CA9-0539CF594A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92850831-A7D4-4C53-916F-2D786E1258B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="452">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -194,12 +194,6 @@
     <t>LL Cycles</t>
   </si>
   <si>
-    <t>Count Inversions</t>
-  </si>
-  <si>
-    <t>Adobe Amazon BankBazaar Flipkart Microsoft Myntra MakeMyTrip</t>
-  </si>
-  <si>
     <t>Merge Sort</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
     <t xml:space="preserve">Amazon, TCS , Apple, Meta ,Infosys , Oracle, Adobe, Hive </t>
   </si>
   <si>
-    <t xml:space="preserve">Google, amazon , salessforce </t>
-  </si>
-  <si>
     <t>LINKED LIST</t>
   </si>
   <si>
@@ -1262,9 +1253,6 @@
     <t>Count Anagrams</t>
   </si>
   <si>
-    <t>DSA Questions</t>
-  </si>
-  <si>
     <t>SQRT</t>
   </si>
   <si>
@@ -1277,9 +1265,6 @@
     <t>IS perfect SQRT</t>
   </si>
   <si>
-    <t>HI</t>
-  </si>
-  <si>
     <t>Two Sum 2</t>
   </si>
   <si>
@@ -1398,13 +1383,19 @@
   </si>
   <si>
     <t>Surrounded regions</t>
+  </si>
+  <si>
+    <t>Count inversions</t>
+  </si>
+  <si>
+    <t>kth Permutation sequence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1418,12 +1409,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1564,12 +1549,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
@@ -1584,24 +1563,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1699,9 +1666,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1713,154 +1680,148 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2102,8 +2063,8 @@
   <dimension ref="A1:Y1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <pane ySplit="4" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2122,11 +2083,9 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="61" t="s">
-        <v>414</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -2147,17 +2106,15 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="62" t="s">
-        <v>409</v>
-      </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="63"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="55"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2280,13 +2237,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34"/>
@@ -2309,7 +2266,7 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="56" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="52" t="b">
@@ -2354,7 +2311,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="52" t="b">
         <v>0</v>
       </c>
@@ -2397,7 +2354,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="52" t="b">
         <v>0</v>
       </c>
@@ -2436,7 +2393,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="52" t="b">
         <v>0</v>
       </c>
@@ -2477,7 +2434,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="52" t="b">
         <v>0</v>
       </c>
@@ -2485,7 +2442,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>9</v>
@@ -2514,7 +2471,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="52" t="b">
         <v>0</v>
       </c>
@@ -2522,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>9</v>
@@ -2551,7 +2508,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="52" t="b">
         <v>0</v>
       </c>
@@ -2592,7 +2549,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="52" t="b">
         <v>0</v>
       </c>
@@ -2600,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>9</v>
@@ -2629,7 +2586,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="52" t="b">
         <v>0</v>
       </c>
@@ -2668,7 +2625,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="52" t="b">
         <v>0</v>
       </c>
@@ -2709,7 +2666,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="52" t="b">
         <v>0</v>
       </c>
@@ -2752,7 +2709,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="52" t="b">
         <v>0</v>
       </c>
@@ -2795,7 +2752,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="52" t="b">
         <v>0</v>
       </c>
@@ -2803,7 +2760,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>9</v>
@@ -2832,7 +2789,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="52" t="b">
         <v>0</v>
       </c>
@@ -2873,7 +2830,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="52" t="b">
         <v>0</v>
       </c>
@@ -2881,7 +2838,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>9</v>
@@ -2910,7 +2867,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="52" t="b">
         <v>0</v>
       </c>
@@ -2951,7 +2908,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="52" t="b">
         <v>0</v>
       </c>
@@ -2994,7 +2951,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="52" t="b">
         <v>0</v>
       </c>
@@ -3002,7 +2959,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>9</v>
@@ -3031,7 +2988,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="52" t="b">
         <v>0</v>
       </c>
@@ -3072,7 +3029,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="52" t="b">
         <v>0</v>
       </c>
@@ -3113,7 +3070,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="52" t="b">
         <v>0</v>
       </c>
@@ -3154,7 +3111,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="52" t="b">
         <v>0</v>
       </c>
@@ -3195,7 +3152,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="52" t="b">
         <v>0</v>
       </c>
@@ -3236,7 +3193,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="52" t="b">
         <v>0</v>
       </c>
@@ -3275,7 +3232,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="52" t="b">
         <v>0</v>
       </c>
@@ -3318,7 +3275,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="52" t="b">
         <v>0</v>
       </c>
@@ -3326,7 +3283,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>9</v>
@@ -3355,29 +3312,29 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C33" s="30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="33" t="s">
         <v>55</v>
       </c>
+      <c r="G33" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="33"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3396,21 +3353,21 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>11</v>
@@ -3418,7 +3375,9 @@
       <c r="H34" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="33"/>
+      <c r="I34" s="33" t="s">
+        <v>14</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3437,12 +3396,12 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>59</v>
@@ -3451,16 +3410,12 @@
         <v>9</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>60</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
       <c r="I35" s="33" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3479,28 +3434,28 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
+    <row r="36" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="56"/>
       <c r="B36" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C36" s="30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="33"/>
+        <v>55</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H36" s="34"/>
-      <c r="I36" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="I36" s="33"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3518,28 +3473,16 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-      <c r="B37" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37" s="30">
-        <v>32</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="33"/>
+    <row r="37" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3557,16 +3500,32 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+    <row r="38" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="30">
+        <v>1</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3585,14 +3544,12 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="60" t="s">
-        <v>63</v>
-      </c>
+      <c r="A39" s="58"/>
       <c r="B39" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C39" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>64</v>
@@ -3606,10 +3563,8 @@
       <c r="G39" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="3"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="12"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3628,15 +3583,15 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="57"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C40" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="43" t="s">
         <v>9</v>
@@ -3647,8 +3602,8 @@
       <c r="G40" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="12"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3667,26 +3622,26 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="57"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C41" s="30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="34"/>
+      <c r="F41" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3705,27 +3660,14 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="57"/>
-      <c r="B42" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="30">
-        <v>7</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="29" t="s">
-        <v>69</v>
-      </c>
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3744,14 +3686,14 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="4"/>
       <c r="I43" s="3"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3770,14 +3712,31 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="4"/>
+    <row r="44" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="30">
+        <v>1</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3797,14 +3756,12 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
-        <v>70</v>
-      </c>
+      <c r="A45" s="58"/>
       <c r="B45" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C45" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>71</v>
@@ -3815,9 +3772,7 @@
       <c r="F45" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G45" s="33"/>
       <c r="H45" s="29" t="s">
         <v>72</v>
       </c>
@@ -3840,26 +3795,24 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="57"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C46" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="33"/>
-      <c r="H46" s="29" t="s">
-        <v>74</v>
-      </c>
+      <c r="H46" s="29"/>
       <c r="I46" s="3"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3879,17 +3832,17 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="57"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="E47" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="E47" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="36" t="s">
@@ -3916,24 +3869,26 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="57"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C48" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="E48" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="33"/>
-      <c r="H48" s="29"/>
+      <c r="H48" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3953,12 +3908,12 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="57"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C49" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>75</v>
@@ -3966,13 +3921,13 @@
       <c r="E49" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="29" t="s">
-        <v>76</v>
-      </c>
+      <c r="F49" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="34"/>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3992,25 +3947,23 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="57"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C50" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G50" s="35"/>
       <c r="H50" s="34"/>
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
@@ -4031,15 +3984,15 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="57"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C51" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>9</v>
@@ -4068,15 +4021,15 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="57"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C52" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>9</v>
@@ -4105,23 +4058,25 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="57"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C53" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="E53" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="35"/>
+      <c r="G53" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H53" s="34"/>
       <c r="I53" s="3"/>
       <c r="J53" s="1"/>
@@ -4142,15 +4097,15 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="57"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C54" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E54" s="43" t="s">
         <v>9</v>
@@ -4161,7 +4116,9 @@
       <c r="G54" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="34"/>
+      <c r="H54" s="34" t="s">
+        <v>35</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -4181,15 +4138,15 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="57"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C55" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="43" t="s">
         <v>9</v>
@@ -4200,9 +4157,7 @@
       <c r="G55" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="34" t="s">
-        <v>35</v>
-      </c>
+      <c r="H55" s="34"/>
       <c r="I55" s="3"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4222,25 +4177,23 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="57"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C56" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G56" s="35"/>
       <c r="H56" s="34"/>
       <c r="I56" s="3"/>
       <c r="J56" s="1"/>
@@ -4261,24 +4214,26 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="57"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C57" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="E57" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="34"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="34" t="s">
+        <v>80</v>
+      </c>
       <c r="I57" s="3"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4298,12 +4253,12 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="57"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C58" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>81</v>
@@ -4311,11 +4266,11 @@
       <c r="E58" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="37" t="s">
-        <v>22</v>
+      <c r="F58" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="34" t="s">
+      <c r="H58" s="29" t="s">
         <v>82</v>
       </c>
       <c r="I58" s="3"/>
@@ -4337,26 +4292,24 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="57"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C59" s="30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="E59" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G59" s="33"/>
-      <c r="H59" s="29" t="s">
-        <v>84</v>
-      </c>
+      <c r="H59" s="29"/>
       <c r="I59" s="3"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4376,24 +4329,24 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="57"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C60" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="E60" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G60" s="33"/>
-      <c r="H60" s="29"/>
+      <c r="H60" s="34"/>
       <c r="I60" s="3"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -4413,21 +4366,21 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C61" s="30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="43" t="s">
-        <v>9</v>
-      </c>
       <c r="F61" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
@@ -4449,25 +4402,12 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="57"/>
-      <c r="B62" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C62" s="30">
-        <v>18</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G62" s="33"/>
-      <c r="H62" s="34"/>
+    <row r="62" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="H62" s="11"/>
       <c r="I62" s="3"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4491,7 +4431,10 @@
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-      <c r="H63" s="11"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4510,15 +4453,32 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="4"/>
+    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4538,15 +4498,13 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="58" t="s">
-        <v>88</v>
-      </c>
+      <c r="A65" s="55"/>
       <c r="B65" s="52" t="b">
         <v>1</v>
       </c>
       <c r="C65" s="2">
-        <f t="shared" ref="C65:C75" si="0">ROW(A1)</f>
-        <v>1</v>
+        <f>ROW(A2)</f>
+        <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>89</v>
@@ -4557,9 +4515,7 @@
       <c r="F65" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G65" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G65" s="3"/>
       <c r="H65" s="15" t="s">
         <v>90</v>
       </c>
@@ -4587,8 +4543,8 @@
         <v>1</v>
       </c>
       <c r="C66" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>ROW(A3)</f>
+        <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>91</v>
@@ -4599,7 +4555,9 @@
       <c r="F66" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G66" s="3"/>
+      <c r="G66" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H66" s="15" t="s">
         <v>92</v>
       </c>
@@ -4627,8 +4585,8 @@
         <v>1</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>ROW(A4)</f>
+        <v>4</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>93</v>
@@ -4639,9 +4597,7 @@
       <c r="F67" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G67" s="3"/>
       <c r="H67" s="15" t="s">
         <v>94</v>
       </c>
@@ -4669,8 +4625,8 @@
         <v>1</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>ROW(A5)</f>
+        <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>95</v>
@@ -4709,8 +4665,8 @@
         <v>1</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>ROW(A6)</f>
+        <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>97</v>
@@ -4721,9 +4677,11 @@
       <c r="F69" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G69" s="3"/>
+      <c r="G69" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H69" s="15" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
@@ -4749,24 +4707,20 @@
         <v>1</v>
       </c>
       <c r="C70" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>ROW(A7)</f>
+        <v>7</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E70" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="E70" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="15"/>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -4785,26 +4739,30 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="55"/>
       <c r="B71" s="52" t="b">
         <v>1</v>
       </c>
       <c r="C71" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>ROW(A8)</f>
+        <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E71" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="15"/>
+      <c r="G71" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4823,17 +4781,17 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="55"/>
       <c r="B72" s="52" t="b">
         <v>1</v>
       </c>
       <c r="C72" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>ROW(A9)</f>
+        <v>9</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>9</v>
@@ -4841,11 +4799,9 @@
       <c r="F72" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G72" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>101</v>
+      <c r="G72" s="3"/>
+      <c r="H72" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
@@ -4868,22 +4824,24 @@
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="55"/>
       <c r="B73" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>ROW(A10)</f>
+        <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="3"/>
+      <c r="F73" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H73" s="15" t="s">
         <v>102</v>
       </c>
@@ -4911,24 +4869,20 @@
         <v>1</v>
       </c>
       <c r="C74" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>ROW(A11)</f>
+        <v>11</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E74" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="E74" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>104</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G74" s="10"/>
+      <c r="H74" s="15"/>
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -4947,30 +4901,26 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="55"/>
       <c r="B75" s="52" t="b">
         <v>1</v>
       </c>
       <c r="C75" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>ROW(A12)</f>
+        <v>12</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E75" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>106</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G75" s="10"/>
+      <c r="H75" s="15"/>
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -4992,24 +4942,26 @@
     <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="55"/>
       <c r="B76" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" ref="C76" si="1">ROW(A13)</f>
+        <f>ROW(A13)</f>
         <v>13</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G76" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H76" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
@@ -5084,8 +5036,8 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="60" t="s">
-        <v>108</v>
+      <c r="A79" s="57" t="s">
+        <v>105</v>
       </c>
       <c r="B79" s="52" t="b">
         <v>0</v>
@@ -5094,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E79" s="43" t="s">
         <v>9</v>
@@ -5106,7 +5058,7 @@
         <v>11</v>
       </c>
       <c r="H79" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="1"/>
@@ -5127,7 +5079,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="57"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="52" t="b">
         <v>0</v>
       </c>
@@ -5135,7 +5087,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>9</v>
@@ -5147,7 +5099,7 @@
         <v>11</v>
       </c>
       <c r="H80" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="1"/>
@@ -5168,7 +5120,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="57"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="52" t="b">
         <v>0</v>
       </c>
@@ -5176,7 +5128,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E81" s="43" t="s">
         <v>9</v>
@@ -5188,7 +5140,7 @@
         <v>11</v>
       </c>
       <c r="H81" s="45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="1"/>
@@ -5209,7 +5161,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="57"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="52" t="b">
         <v>0</v>
       </c>
@@ -5217,7 +5169,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E82" s="43" t="s">
         <v>9</v>
@@ -5227,7 +5179,7 @@
       </c>
       <c r="G82" s="33"/>
       <c r="H82" s="45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="1"/>
@@ -5248,7 +5200,7 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="57"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="52" t="b">
         <v>0</v>
       </c>
@@ -5256,7 +5208,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E83" s="43" t="s">
         <v>9</v>
@@ -5268,7 +5220,7 @@
         <v>11</v>
       </c>
       <c r="H83" s="45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="1"/>
@@ -5289,7 +5241,7 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="57"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="52" t="b">
         <v>0</v>
       </c>
@@ -5297,7 +5249,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E84" s="43" t="s">
         <v>9</v>
@@ -5309,7 +5261,7 @@
         <v>11</v>
       </c>
       <c r="H84" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="1"/>
@@ -5330,7 +5282,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="57"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="52" t="b">
         <v>0</v>
       </c>
@@ -5338,7 +5290,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E85" s="43" t="s">
         <v>9</v>
@@ -5350,7 +5302,7 @@
         <v>11</v>
       </c>
       <c r="H85" s="45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1"/>
@@ -5371,7 +5323,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="57"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="52" t="b">
         <v>0</v>
       </c>
@@ -5379,7 +5331,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E86" s="43" t="s">
         <v>9</v>
@@ -5391,7 +5343,7 @@
         <v>11</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="1"/>
@@ -5412,7 +5364,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="57"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="52" t="b">
         <v>0</v>
       </c>
@@ -5420,7 +5372,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E87" s="31" t="s">
         <v>9</v>
@@ -5449,7 +5401,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="57"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="52" t="b">
         <v>0</v>
       </c>
@@ -5457,7 +5409,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E88" s="43" t="s">
         <v>9</v>
@@ -5467,7 +5419,7 @@
       </c>
       <c r="G88" s="33"/>
       <c r="H88" s="45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="1"/>
@@ -5488,7 +5440,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="57"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="52" t="b">
         <v>0</v>
       </c>
@@ -5496,7 +5448,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E89" s="43" t="s">
         <v>9</v>
@@ -5506,7 +5458,7 @@
       </c>
       <c r="G89" s="33"/>
       <c r="H89" s="45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="1"/>
@@ -5527,7 +5479,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="57"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="52" t="b">
         <v>0</v>
       </c>
@@ -5535,7 +5487,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E90" s="31" t="s">
         <v>9</v>
@@ -5564,7 +5516,7 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="57"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="52" t="b">
         <v>0</v>
       </c>
@@ -5572,7 +5524,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>9</v>
@@ -5601,7 +5553,7 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="57"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="52" t="b">
         <v>0</v>
       </c>
@@ -5609,7 +5561,7 @@
         <v>14</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E92" s="31" t="s">
         <v>9</v>
@@ -5638,7 +5590,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="57"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="52" t="b">
         <v>0</v>
       </c>
@@ -5646,7 +5598,7 @@
         <v>15</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E93" s="43" t="s">
         <v>9</v>
@@ -5656,7 +5608,7 @@
       </c>
       <c r="G93" s="33"/>
       <c r="H93" s="45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="1"/>
@@ -5677,7 +5629,7 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="57"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="52" t="b">
         <v>0</v>
       </c>
@@ -5685,13 +5637,13 @@
         <v>16</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F94" s="51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G94" s="33"/>
       <c r="H94" s="45"/>
@@ -5714,7 +5666,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="57"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="52" t="b">
         <v>0</v>
       </c>
@@ -5722,19 +5674,19 @@
         <v>17</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E95" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G95" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H95" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="1"/>
@@ -5763,7 +5715,7 @@
         <v>18</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E96" s="31" t="s">
         <v>9</v>
@@ -5821,8 +5773,8 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="56" t="s">
-        <v>126</v>
+      <c r="A98" s="60" t="s">
+        <v>123</v>
       </c>
       <c r="B98" s="52" t="b">
         <v>0</v>
@@ -5831,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E98" s="43" t="s">
         <v>9</v>
@@ -5843,7 +5795,7 @@
         <v>11</v>
       </c>
       <c r="H98" s="45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="1"/>
@@ -5864,7 +5816,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="57"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="52" t="b">
         <v>0</v>
       </c>
@@ -5872,7 +5824,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E99" s="43" t="s">
         <v>9</v>
@@ -5884,7 +5836,7 @@
         <v>11</v>
       </c>
       <c r="H99" s="45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="1"/>
@@ -5905,7 +5857,7 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="57"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="52" t="b">
         <v>0</v>
       </c>
@@ -5913,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E100" s="43" t="s">
         <v>9</v>
@@ -5925,7 +5877,7 @@
         <v>11</v>
       </c>
       <c r="H100" s="45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="1"/>
@@ -5946,7 +5898,7 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="57"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="52" t="b">
         <v>0</v>
       </c>
@@ -5954,7 +5906,7 @@
         <v>4</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E101" s="43" t="s">
         <v>9</v>
@@ -5966,7 +5918,7 @@
         <v>11</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="1"/>
@@ -5987,7 +5939,7 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="57"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="52" t="b">
         <v>0</v>
       </c>
@@ -5995,7 +5947,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E102" s="43" t="s">
         <v>9</v>
@@ -6007,7 +5959,7 @@
         <v>11</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="1"/>
@@ -6028,7 +5980,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="57"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="52" t="b">
         <v>0</v>
       </c>
@@ -6036,7 +5988,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E103" s="43" t="s">
         <v>9</v>
@@ -6046,7 +5998,7 @@
       </c>
       <c r="G103" s="33"/>
       <c r="H103" s="45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="1"/>
@@ -6067,7 +6019,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="57"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="52" t="b">
         <v>0</v>
       </c>
@@ -6075,7 +6027,7 @@
         <v>7</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E104" s="43" t="s">
         <v>9</v>
@@ -6085,7 +6037,7 @@
       </c>
       <c r="G104" s="33"/>
       <c r="H104" s="45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="1"/>
@@ -6106,7 +6058,7 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="57"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="52" t="b">
         <v>0</v>
       </c>
@@ -6114,7 +6066,7 @@
         <v>8</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>9</v>
@@ -6143,7 +6095,7 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="57"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="52" t="b">
         <v>0</v>
       </c>
@@ -6151,7 +6103,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E106" s="35" t="s">
         <v>9</v>
@@ -6163,7 +6115,7 @@
         <v>11</v>
       </c>
       <c r="H106" s="45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
@@ -6184,7 +6136,7 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="57"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="52" t="b">
         <v>0</v>
       </c>
@@ -6192,7 +6144,7 @@
         <v>10</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>9</v>
@@ -6221,7 +6173,7 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="57"/>
+      <c r="A108" s="58"/>
       <c r="B108" s="52" t="b">
         <v>0</v>
       </c>
@@ -6229,7 +6181,7 @@
         <v>11</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E108" s="21" t="s">
         <v>9</v>
@@ -6258,7 +6210,7 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="57"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="52" t="b">
         <v>0</v>
       </c>
@@ -6266,7 +6218,7 @@
         <v>12</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E109" s="21" t="s">
         <v>9</v>
@@ -6295,7 +6247,7 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="57"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="52" t="b">
         <v>0</v>
       </c>
@@ -6303,7 +6255,7 @@
         <v>13</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E110" s="43" t="s">
         <v>9</v>
@@ -6315,7 +6267,7 @@
         <v>11</v>
       </c>
       <c r="H110" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="1"/>
@@ -6336,7 +6288,7 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="57"/>
+      <c r="A111" s="58"/>
       <c r="B111" s="52" t="b">
         <v>0</v>
       </c>
@@ -6344,7 +6296,7 @@
         <v>15</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E111" s="43" t="s">
         <v>9</v>
@@ -6356,7 +6308,7 @@
         <v>11</v>
       </c>
       <c r="H111" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
@@ -6377,7 +6329,7 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="57"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="52" t="b">
         <v>0</v>
       </c>
@@ -6385,7 +6337,7 @@
         <v>16</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E112" s="43" t="s">
         <v>9</v>
@@ -6397,7 +6349,7 @@
         <v>11</v>
       </c>
       <c r="H112" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
@@ -6418,7 +6370,7 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="57"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="52" t="b">
         <v>0</v>
       </c>
@@ -6426,7 +6378,7 @@
         <v>17</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E113" s="43" t="s">
         <v>9</v>
@@ -6438,7 +6390,7 @@
         <v>11</v>
       </c>
       <c r="H113" s="45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
@@ -6459,7 +6411,7 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="57"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="52" t="b">
         <v>0</v>
       </c>
@@ -6467,19 +6419,19 @@
         <v>18</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E114" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F114" s="50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G114" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1"/>
@@ -6499,11 +6451,9 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="52" t="b">
-        <v>0</v>
-      </c>
+      <c r="B115" s="1"/>
       <c r="C115" s="2"/>
       <c r="D115" s="1"/>
       <c r="E115" s="3"/>
@@ -6528,11 +6478,9 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="52" t="b">
-        <v>0</v>
-      </c>
+      <c r="B116" s="1"/>
       <c r="C116" s="2"/>
       <c r="D116" s="1"/>
       <c r="E116" s="3"/>
@@ -6558,8 +6506,8 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="56" t="s">
-        <v>154</v>
+      <c r="A117" s="60" t="s">
+        <v>151</v>
       </c>
       <c r="B117" s="52" t="b">
         <v>0</v>
@@ -6568,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E117" s="43" t="s">
         <v>9</v>
@@ -6580,7 +6528,7 @@
         <v>11</v>
       </c>
       <c r="H117" s="45" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="1"/>
@@ -6601,7 +6549,7 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="57"/>
+      <c r="A118" s="58"/>
       <c r="B118" s="52" t="b">
         <v>0</v>
       </c>
@@ -6609,7 +6557,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E118" s="43" t="s">
         <v>9</v>
@@ -6621,7 +6569,7 @@
         <v>11</v>
       </c>
       <c r="H118" s="45" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1"/>
@@ -6642,7 +6590,7 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="57"/>
+      <c r="A119" s="58"/>
       <c r="B119" s="52" t="b">
         <v>0</v>
       </c>
@@ -6650,7 +6598,7 @@
         <v>3</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E119" s="43" t="s">
         <v>9</v>
@@ -6662,7 +6610,7 @@
         <v>11</v>
       </c>
       <c r="H119" s="45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1"/>
@@ -6683,7 +6631,7 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="57"/>
+      <c r="A120" s="58"/>
       <c r="B120" s="52" t="b">
         <v>0</v>
       </c>
@@ -6691,7 +6639,7 @@
         <v>4</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E120" s="43" t="s">
         <v>9</v>
@@ -6701,7 +6649,7 @@
       </c>
       <c r="G120" s="33"/>
       <c r="H120" s="45" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1"/>
@@ -6722,7 +6670,7 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="57"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="52" t="b">
         <v>0</v>
       </c>
@@ -6730,7 +6678,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E121" s="43" t="s">
         <v>9</v>
@@ -6739,10 +6687,10 @@
         <v>10</v>
       </c>
       <c r="G121" s="35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H121" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1"/>
@@ -6763,7 +6711,7 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="57"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="52" t="b">
         <v>0</v>
       </c>
@@ -6771,7 +6719,7 @@
         <v>6</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E122" s="43" t="s">
         <v>9</v>
@@ -6783,7 +6731,7 @@
         <v>11</v>
       </c>
       <c r="H122" s="45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1"/>
@@ -6804,7 +6752,7 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="57"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="52" t="b">
         <v>0</v>
       </c>
@@ -6812,7 +6760,7 @@
         <v>7</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E123" s="43" t="s">
         <v>9</v>
@@ -6824,7 +6772,7 @@
         <v>11</v>
       </c>
       <c r="H123" s="45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1"/>
@@ -6845,7 +6793,7 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="57"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="52" t="b">
         <v>0</v>
       </c>
@@ -6853,7 +6801,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E124" s="43" t="s">
         <v>9</v>
@@ -6865,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="H124" s="45" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6886,7 +6834,7 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="57"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="52" t="b">
         <v>0</v>
       </c>
@@ -6894,7 +6842,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E125" s="43" t="s">
         <v>9</v>
@@ -6904,7 +6852,7 @@
       </c>
       <c r="G125" s="33"/>
       <c r="H125" s="45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1"/>
@@ -6925,7 +6873,7 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="57"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="52" t="b">
         <v>0</v>
       </c>
@@ -6933,7 +6881,7 @@
         <v>10</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E126" s="43" t="s">
         <v>9</v>
@@ -6945,7 +6893,7 @@
         <v>11</v>
       </c>
       <c r="H126" s="45" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
@@ -6966,7 +6914,7 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="57"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="52" t="b">
         <v>0</v>
       </c>
@@ -6974,7 +6922,7 @@
         <v>11</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E127" s="43" t="s">
         <v>9</v>
@@ -6984,7 +6932,7 @@
       </c>
       <c r="G127" s="33"/>
       <c r="H127" s="45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1"/>
@@ -7005,7 +6953,7 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="57"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="52" t="b">
         <v>0</v>
       </c>
@@ -7013,7 +6961,7 @@
         <v>12</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E128" s="43" t="s">
         <v>9</v>
@@ -7025,7 +6973,7 @@
         <v>11</v>
       </c>
       <c r="H128" s="45" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="1"/>
@@ -7046,7 +6994,7 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="57"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="52" t="b">
         <v>0</v>
       </c>
@@ -7054,7 +7002,7 @@
         <v>13</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E129" s="43" t="s">
         <v>9</v>
@@ -7064,7 +7012,7 @@
       </c>
       <c r="G129" s="33"/>
       <c r="H129" s="45" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
@@ -7085,7 +7033,7 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="57"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="52" t="b">
         <v>0</v>
       </c>
@@ -7093,7 +7041,7 @@
         <v>14</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E130" s="21" t="s">
         <v>9</v>
@@ -7122,7 +7070,7 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="57"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="52" t="b">
         <v>0</v>
       </c>
@@ -7130,7 +7078,7 @@
         <v>15</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E131" s="21" t="s">
         <v>9</v>
@@ -7159,7 +7107,7 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="57"/>
+      <c r="A132" s="58"/>
       <c r="B132" s="52" t="b">
         <v>0</v>
       </c>
@@ -7167,7 +7115,7 @@
         <v>16</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E132" s="43" t="s">
         <v>9</v>
@@ -7177,7 +7125,7 @@
       </c>
       <c r="G132" s="33"/>
       <c r="H132" s="45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
@@ -7198,7 +7146,7 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="57"/>
+      <c r="A133" s="58"/>
       <c r="B133" s="52" t="b">
         <v>0</v>
       </c>
@@ -7206,7 +7154,7 @@
         <v>17</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E133" s="43" t="s">
         <v>9</v>
@@ -7218,7 +7166,7 @@
         <v>11</v>
       </c>
       <c r="H133" s="45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
@@ -7239,7 +7187,7 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="57"/>
+      <c r="A134" s="58"/>
       <c r="B134" s="52" t="b">
         <v>0</v>
       </c>
@@ -7247,7 +7195,7 @@
         <v>18</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E134" s="21" t="s">
         <v>9</v>
@@ -7276,7 +7224,7 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="57"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="52" t="b">
         <v>0</v>
       </c>
@@ -7284,7 +7232,7 @@
         <v>19</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E135" s="43" t="s">
         <v>9</v>
@@ -7296,7 +7244,7 @@
         <v>11</v>
       </c>
       <c r="H135" s="45" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
@@ -7317,7 +7265,7 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="57"/>
+      <c r="A136" s="58"/>
       <c r="B136" s="52" t="b">
         <v>0</v>
       </c>
@@ -7325,7 +7273,7 @@
         <v>20</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E136" s="43" t="s">
         <v>9</v>
@@ -7337,7 +7285,7 @@
         <v>11</v>
       </c>
       <c r="H136" s="45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
@@ -7358,7 +7306,7 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="57"/>
+      <c r="A137" s="58"/>
       <c r="B137" s="52" t="b">
         <v>0</v>
       </c>
@@ -7366,7 +7314,7 @@
         <v>21</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E137" s="43" t="s">
         <v>9</v>
@@ -7378,7 +7326,7 @@
         <v>11</v>
       </c>
       <c r="H137" s="45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
@@ -7399,7 +7347,7 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="57"/>
+      <c r="A138" s="58"/>
       <c r="B138" s="52" t="b">
         <v>0</v>
       </c>
@@ -7407,7 +7355,7 @@
         <v>22</v>
       </c>
       <c r="D138" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E138" s="43" t="s">
         <v>9</v>
@@ -7417,7 +7365,7 @@
       </c>
       <c r="G138" s="33"/>
       <c r="H138" s="45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
@@ -7438,7 +7386,7 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="57"/>
+      <c r="A139" s="58"/>
       <c r="B139" s="52" t="b">
         <v>0</v>
       </c>
@@ -7446,7 +7394,7 @@
         <v>23</v>
       </c>
       <c r="D139" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E139" s="43" t="s">
         <v>9</v>
@@ -7458,7 +7406,7 @@
         <v>11</v>
       </c>
       <c r="H139" s="45" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
@@ -7479,7 +7427,7 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="57"/>
+      <c r="A140" s="58"/>
       <c r="B140" s="52" t="b">
         <v>0</v>
       </c>
@@ -7487,7 +7435,7 @@
         <v>24</v>
       </c>
       <c r="D140" s="29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E140" s="43" t="s">
         <v>9</v>
@@ -7499,7 +7447,7 @@
         <v>11</v>
       </c>
       <c r="H140" s="45" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7520,7 +7468,7 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="57"/>
+      <c r="A141" s="58"/>
       <c r="B141" s="52" t="b">
         <v>0</v>
       </c>
@@ -7528,7 +7476,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E141" s="43" t="s">
         <v>9</v>
@@ -7538,7 +7486,7 @@
       </c>
       <c r="G141" s="33"/>
       <c r="H141" s="45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7559,7 +7507,7 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="57"/>
+      <c r="A142" s="58"/>
       <c r="B142" s="52" t="b">
         <v>0</v>
       </c>
@@ -7567,17 +7515,17 @@
         <v>26</v>
       </c>
       <c r="D142" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E142" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F142" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G142" s="33"/>
       <c r="H142" s="45" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7598,7 +7546,7 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="57"/>
+      <c r="A143" s="58"/>
       <c r="B143" s="52" t="b">
         <v>0</v>
       </c>
@@ -7606,17 +7554,17 @@
         <v>27</v>
       </c>
       <c r="D143" s="29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E143" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F143" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G143" s="33"/>
       <c r="H143" s="45" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
@@ -7645,7 +7593,7 @@
         <v>28</v>
       </c>
       <c r="D144" s="29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E144" s="31" t="s">
         <v>9</v>
@@ -7682,7 +7630,7 @@
         <v>29</v>
       </c>
       <c r="D145" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E145" s="31" t="s">
         <v>9</v>
@@ -7740,8 +7688,8 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="59" t="s">
-        <v>186</v>
+      <c r="A147" s="62" t="s">
+        <v>183</v>
       </c>
       <c r="B147" s="52" t="b">
         <v>0</v>
@@ -7750,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>9</v>
@@ -7760,7 +7708,7 @@
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
@@ -7789,7 +7737,7 @@
         <v>2</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>9</v>
@@ -7801,7 +7749,7 @@
         <v>11</v>
       </c>
       <c r="H148" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
@@ -7830,7 +7778,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>9</v>
@@ -7842,7 +7790,7 @@
         <v>11</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
@@ -7871,7 +7819,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>9</v>
@@ -7883,7 +7831,7 @@
         <v>11</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
@@ -7912,7 +7860,7 @@
         <v>6</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E151" s="22" t="s">
         <v>9</v>
@@ -7924,7 +7872,7 @@
         <v>11</v>
       </c>
       <c r="H151" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
@@ -7953,7 +7901,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>9</v>
@@ -7965,7 +7913,7 @@
         <v>11</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="1"/>
@@ -7994,7 +7942,7 @@
         <v>8</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>9</v>
@@ -8006,7 +7954,7 @@
         <v>11</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="1"/>
@@ -8035,7 +7983,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>9</v>
@@ -8047,7 +7995,7 @@
         <v>11</v>
       </c>
       <c r="H154" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
@@ -8076,7 +8024,7 @@
         <v>11</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>9</v>
@@ -8088,7 +8036,7 @@
         <v>11</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
@@ -8117,7 +8065,7 @@
         <v>12</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>9</v>
@@ -8129,7 +8077,7 @@
         <v>11</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
@@ -8158,19 +8106,19 @@
         <v>13</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G157" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H157" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -8199,17 +8147,17 @@
         <v>14</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F158" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
@@ -8238,19 +8186,19 @@
         <v>15</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F159" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G159" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="1"/>
@@ -8329,8 +8277,8 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="59" t="s">
-        <v>213</v>
+      <c r="A162" s="62" t="s">
+        <v>210</v>
       </c>
       <c r="B162" s="52" t="b">
         <v>0</v>
@@ -8339,17 +8287,17 @@
         <v>1</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E162" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F162" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
@@ -8378,17 +8326,17 @@
         <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E163" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F163" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
@@ -8417,17 +8365,17 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F164" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
@@ -8456,17 +8404,17 @@
         <v>4</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E165" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F165" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
@@ -8495,17 +8443,17 @@
         <v>5</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E166" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
@@ -8534,17 +8482,17 @@
         <v>6</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="1"/>
@@ -8623,8 +8571,8 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="59" t="s">
-        <v>232</v>
+      <c r="A170" s="62" t="s">
+        <v>229</v>
       </c>
       <c r="B170" s="52" t="b">
         <v>0</v>
@@ -8633,17 +8581,17 @@
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F170" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="1"/>
@@ -8672,17 +8620,17 @@
         <v>2</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F171" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
@@ -8711,17 +8659,17 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F172" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8750,17 +8698,17 @@
         <v>4</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F173" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
@@ -8789,17 +8737,17 @@
         <v>5</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F174" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8874,8 +8822,8 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A177" s="59" t="s">
-        <v>246</v>
+      <c r="A177" s="62" t="s">
+        <v>243</v>
       </c>
       <c r="B177" s="52" t="b">
         <v>0</v>
@@ -8884,17 +8832,17 @@
         <v>1</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E177" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F177" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
@@ -8915,7 +8863,7 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="59"/>
+      <c r="A178" s="62"/>
       <c r="B178" s="52" t="b">
         <v>0</v>
       </c>
@@ -8923,10 +8871,10 @@
         <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E178" s="23" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F178" s="27" t="s">
         <v>10</v>
@@ -8960,17 +8908,17 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E179" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F179" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
@@ -8999,17 +8947,17 @@
         <v>4</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E180" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F180" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -9038,17 +8986,17 @@
         <v>5</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E181" s="18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F181" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -9077,17 +9025,17 @@
         <v>6</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E182" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F182" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -9116,17 +9064,17 @@
         <v>7</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E183" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F183" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -9155,17 +9103,17 @@
         <v>8</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E184" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F184" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -9194,17 +9142,17 @@
         <v>9</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E185" s="53" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F185" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -9233,17 +9181,17 @@
         <v>10</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E186" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F186" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
@@ -9272,17 +9220,17 @@
         <v>11</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E187" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F187" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
@@ -9311,10 +9259,10 @@
         <v>12</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E188" s="23" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>22</v>
@@ -9348,10 +9296,10 @@
         <v>13</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E189" s="23" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F189" s="26" t="s">
         <v>22</v>
@@ -9385,17 +9333,17 @@
         <v>14</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E190" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F190" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
@@ -9424,17 +9372,17 @@
         <v>15</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F191" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9463,10 +9411,10 @@
         <v>16</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E192" s="23" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F192" s="26" t="s">
         <v>22</v>
@@ -9500,17 +9448,17 @@
         <v>17</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E193" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F193" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
@@ -9539,17 +9487,17 @@
         <v>18</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E194" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F194" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
@@ -9578,17 +9526,17 @@
         <v>19</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E195" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F195" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
@@ -9617,17 +9565,17 @@
         <v>20</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E196" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F196" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
@@ -9656,10 +9604,10 @@
         <v>21</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E197" s="23" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F197" s="26" t="s">
         <v>22</v>
@@ -9693,10 +9641,10 @@
         <v>22</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F198" s="26" t="s">
         <v>22</v>
@@ -9730,17 +9678,17 @@
         <v>23</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E199" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F199" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
@@ -9769,10 +9717,10 @@
         <v>24</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E200" s="23" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F200" s="26" t="s">
         <v>22</v>
@@ -9806,10 +9754,10 @@
         <v>25</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E201" s="23" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F201" s="26" t="s">
         <v>22</v>
@@ -9843,10 +9791,10 @@
         <v>26</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E202" s="23" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F202" s="26" t="s">
         <v>22</v>
@@ -9880,17 +9828,17 @@
         <v>27</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E203" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F203" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9919,10 +9867,10 @@
         <v>28</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E204" s="23" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F204" s="26" t="s">
         <v>22</v>
@@ -9950,23 +9898,23 @@
     <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A205" s="55"/>
       <c r="B205" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" s="2">
         <v>29</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E205" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F205" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9995,17 +9943,17 @@
         <v>30</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E206" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F206" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
@@ -10034,17 +9982,17 @@
         <v>31</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E207" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F207" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -10073,17 +10021,17 @@
         <v>32</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E208" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F208" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -10112,17 +10060,17 @@
         <v>33</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E209" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F209" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -10151,10 +10099,10 @@
         <v>34</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E210" s="23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F210" s="49" t="s">
         <v>10</v>
@@ -10207,8 +10155,8 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A212" s="59" t="s">
-        <v>310</v>
+      <c r="A212" s="62" t="s">
+        <v>307</v>
       </c>
       <c r="B212" s="52" t="b">
         <v>0</v>
@@ -10217,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>9</v>
@@ -10227,7 +10175,7 @@
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
@@ -10256,7 +10204,7 @@
         <v>2</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>9</v>
@@ -10266,7 +10214,7 @@
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10295,7 +10243,7 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E214" s="48" t="s">
         <v>9</v>
@@ -10305,7 +10253,7 @@
       </c>
       <c r="G214" s="3"/>
       <c r="H214" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10334,7 +10282,7 @@
         <v>4</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>9</v>
@@ -10344,7 +10292,7 @@
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10373,7 +10321,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>9</v>
@@ -10383,7 +10331,7 @@
       </c>
       <c r="G216" s="3"/>
       <c r="H216" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10412,7 +10360,7 @@
         <v>6</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>9</v>
@@ -10422,7 +10370,7 @@
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10451,7 +10399,7 @@
         <v>7</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>9</v>
@@ -10461,7 +10409,7 @@
       </c>
       <c r="G218" s="3"/>
       <c r="H218" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
@@ -10490,7 +10438,7 @@
         <v>8</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>9</v>
@@ -10500,7 +10448,7 @@
       </c>
       <c r="G219" s="3"/>
       <c r="H219" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I219" s="3"/>
       <c r="J219" s="1"/>
@@ -10529,7 +10477,7 @@
         <v>9</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>9</v>
@@ -10539,7 +10487,7 @@
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
@@ -10568,7 +10516,7 @@
         <v>10</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>9</v>
@@ -10578,7 +10526,7 @@
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10607,7 +10555,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>9</v>
@@ -10617,7 +10565,7 @@
       </c>
       <c r="G222" s="3"/>
       <c r="H222" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
@@ -10646,7 +10594,7 @@
         <v>12</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>9</v>
@@ -10656,7 +10604,7 @@
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
@@ -10685,7 +10633,7 @@
         <v>13</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>9</v>
@@ -10695,7 +10643,7 @@
       </c>
       <c r="G224" s="3"/>
       <c r="H224" s="15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
@@ -10724,7 +10672,7 @@
         <v>14</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>9</v>
@@ -10734,7 +10682,7 @@
       </c>
       <c r="G225" s="3"/>
       <c r="H225" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
@@ -10763,7 +10711,7 @@
         <v>15</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>9</v>
@@ -10773,7 +10721,7 @@
       </c>
       <c r="G226" s="3"/>
       <c r="H226" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I226" s="3"/>
       <c r="J226" s="1"/>
@@ -10802,17 +10750,17 @@
         <v>16</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E227" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F227" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G227" s="3"/>
       <c r="H227" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="1"/>
@@ -10841,17 +10789,17 @@
         <v>17</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E228" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F228" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G228" s="3"/>
       <c r="H228" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I228" s="3"/>
       <c r="J228" s="1"/>
@@ -10880,17 +10828,17 @@
         <v>18</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E229" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F229" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I229" s="3"/>
       <c r="J229" s="1"/>
@@ -10919,17 +10867,17 @@
         <v>19</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E230" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F230" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G230" s="3"/>
       <c r="H230" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I230" s="3"/>
       <c r="J230" s="1"/>
@@ -10958,17 +10906,17 @@
         <v>20</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E231" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F231" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G231" s="3"/>
       <c r="H231" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I231" s="3"/>
       <c r="J231" s="1"/>
@@ -10997,17 +10945,17 @@
         <v>21</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E232" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F232" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G232" s="3"/>
       <c r="H232" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="1"/>
@@ -11086,8 +11034,8 @@
       <c r="Y234" s="1"/>
     </row>
     <row r="235" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="59" t="s">
-        <v>353</v>
+      <c r="A235" s="62" t="s">
+        <v>350</v>
       </c>
       <c r="B235" s="52" t="b">
         <v>0</v>
@@ -11096,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E235" s="22" t="s">
         <v>9</v>
@@ -11106,7 +11054,7 @@
       </c>
       <c r="G235" s="3"/>
       <c r="H235" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I235" s="3"/>
       <c r="J235" s="1"/>
@@ -11135,7 +11083,7 @@
         <v>2</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E236" s="8" t="s">
         <v>9</v>
@@ -11145,7 +11093,7 @@
       </c>
       <c r="G236" s="3"/>
       <c r="H236" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I236" s="3"/>
       <c r="J236" s="1"/>
@@ -11174,7 +11122,7 @@
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E237" s="8" t="s">
         <v>9</v>
@@ -11184,7 +11132,7 @@
       </c>
       <c r="G237" s="3"/>
       <c r="H237" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I237" s="3"/>
       <c r="J237" s="1"/>
@@ -11213,7 +11161,7 @@
         <v>4</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E238" s="8" t="s">
         <v>9</v>
@@ -11223,7 +11171,7 @@
       </c>
       <c r="G238" s="3"/>
       <c r="H238" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I238" s="3"/>
       <c r="J238" s="1"/>
@@ -11252,7 +11200,7 @@
         <v>5</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E239" s="8" t="s">
         <v>9</v>
@@ -11262,7 +11210,7 @@
       </c>
       <c r="G239" s="3"/>
       <c r="H239" s="20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I239" s="3"/>
       <c r="J239" s="1"/>
@@ -11291,17 +11239,17 @@
         <v>6</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E240" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F240" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G240" s="3"/>
       <c r="H240" s="15" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I240" s="3"/>
       <c r="J240" s="1"/>
@@ -11380,8 +11328,8 @@
       <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="54" t="s">
-        <v>401</v>
+      <c r="A243" s="59" t="s">
+        <v>398</v>
       </c>
       <c r="B243" s="52" t="b">
         <v>0</v>
@@ -11390,13 +11338,13 @@
         <v>1</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E243" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F243" s="41" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G243" s="3"/>
       <c r="H243" s="4"/>
@@ -11427,13 +11375,13 @@
         <v>2</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E244" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F244" s="41" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G244" s="3"/>
       <c r="H244" s="4"/>
@@ -11464,13 +11412,13 @@
         <v>3</v>
       </c>
       <c r="D245" s="24" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E245" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F245" s="41" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G245" s="3"/>
       <c r="H245" s="4"/>
@@ -11501,13 +11449,13 @@
         <v>4</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E246" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F246" s="41" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G246" s="3"/>
       <c r="H246" s="4"/>
@@ -32472,15 +32420,13 @@
       <c r="Y1020" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
+  <mergeCells count="15">
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A7:A37"/>
-    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A7:A36"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="A243:A262"/>
-    <mergeCell ref="A45:A62"/>
-    <mergeCell ref="A65:A76"/>
+    <mergeCell ref="A44:A61"/>
+    <mergeCell ref="A64:A76"/>
     <mergeCell ref="A212:A232"/>
     <mergeCell ref="A235:A240"/>
     <mergeCell ref="A79:A95"/>
@@ -32492,300 +32438,300 @@
     <mergeCell ref="A177:A209"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G39" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E41" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G41" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E42" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E45" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E46" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E49" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G50" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E54" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E55" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G55" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E56" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G56" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E58" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E59" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E61" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E65" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G65" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E66" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E67" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G67" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E68" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E69" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E70" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G70" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E73" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E74" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G74" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E75" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G75" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E76" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E79" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="G79" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E80" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="G80" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E81" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="G81" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E82" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E83" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="G83" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E84" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="G84" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E85" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="G85" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E86" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="G86" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E88" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E89" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E93" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E95" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="G95" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E98" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="G98" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E99" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="G99" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E100" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="G100" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E101" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="G101" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E102" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G102" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E103" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E104" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E106" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G106" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E110" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G110" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E111" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G111" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E112" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G112" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E113" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G113" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E114" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G114" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E117" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G117" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E118" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G118" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E119" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G119" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E120" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E121" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G121" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E122" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="G122" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E123" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="G123" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E124" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G124" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E125" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E126" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="G126" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E127" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E128" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="G128" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E129" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E132" r:id="rId104" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E133" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G133" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E135" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="G135" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E136" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G136" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E137" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="G137" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E138" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E139" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="G139" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E140" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="G140" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E141" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E142" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E143" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E147" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E148" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G148" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E149" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G149" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E150" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="G150" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E151" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G151" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E152" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G152" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E153" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G153" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E154" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G154" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E155" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G155" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E156" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="G156" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E157" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G157" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E158" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E159" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="G159" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E162" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E163" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E164" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E165" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E166" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E167" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E170" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E171" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E172" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E173" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E174" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E177" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E179" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E180" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E181" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E182" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E183" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E184" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E186" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E187" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E190" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E191" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E193" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E194" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E195" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E196" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E199" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E203" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E205" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E206" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E207" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E208" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E209" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E212" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E213" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E214" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E215" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E216" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E217" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E218" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E219" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E220" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E221" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E222" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E223" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E224" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E225" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E226" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E227" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E228" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E229" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E230" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E231" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E232" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E235" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E236" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E237" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E238" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E239" r:id="rId203" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E240" r:id="rId204" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E210" r:id="rId205" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E145" r:id="rId206" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E144" r:id="rId207" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
-    <hyperlink ref="G72" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E72" r:id="rId209" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E71" r:id="rId210" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
-    <hyperlink ref="E6" r:id="rId211" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
-    <hyperlink ref="E87" r:id="rId212" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
-    <hyperlink ref="E92" r:id="rId213" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
-    <hyperlink ref="E91" r:id="rId214" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
-    <hyperlink ref="E90" r:id="rId215" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
-    <hyperlink ref="E48" r:id="rId216" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
-    <hyperlink ref="E60" r:id="rId217" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
-    <hyperlink ref="E32" r:id="rId218" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
-    <hyperlink ref="E14" r:id="rId219" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
-    <hyperlink ref="E7" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E11" r:id="rId222" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
-    <hyperlink ref="G37" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E37" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E36" r:id="rId225" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G35" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E35" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G34" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E34" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E33" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G31" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E31" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G29" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E29" r:id="rId234" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E28" r:id="rId235" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E27" r:id="rId236" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E26" r:id="rId237" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E25" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G23" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E23" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G22" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E22" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G20" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E20" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G18" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E18" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G17" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E17" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G16" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E16" r:id="rId250" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G15" r:id="rId251" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E15" r:id="rId252" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G13" r:id="rId253" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E13" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G10" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E10" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G9" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E9" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G8" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E8" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E243" r:id="rId261" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
-    <hyperlink ref="E21" r:id="rId262" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E244" r:id="rId263" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
-    <hyperlink ref="E30" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E12" r:id="rId265" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
-    <hyperlink ref="E245" r:id="rId266" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
-    <hyperlink ref="E246" r:id="rId267" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
-    <hyperlink ref="E24" r:id="rId268" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
-    <hyperlink ref="E19" r:id="rId269" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
-    <hyperlink ref="E204" r:id="rId270" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
-    <hyperlink ref="E197" r:id="rId271" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
-    <hyperlink ref="E178" r:id="rId272" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
-    <hyperlink ref="E202" r:id="rId273" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
-    <hyperlink ref="E105" r:id="rId274" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
-    <hyperlink ref="E109" r:id="rId275" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
-    <hyperlink ref="E108" r:id="rId276" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
-    <hyperlink ref="E107" r:id="rId277" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
-    <hyperlink ref="E134" r:id="rId278" xr:uid="{880B159A-370B-40EE-A5C8-AE68325F8994}"/>
-    <hyperlink ref="E130" r:id="rId279" xr:uid="{96ACD224-977A-4E66-9264-5617B21A7B5A}"/>
-    <hyperlink ref="E131" r:id="rId280" xr:uid="{7FD7344C-2A6A-4318-A67E-05F8EA153E88}"/>
-    <hyperlink ref="E94" r:id="rId281" xr:uid="{B6515FE2-AD7F-4A71-83EF-89020758DE37}"/>
-    <hyperlink ref="E96" r:id="rId282" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
-    <hyperlink ref="E57" r:id="rId283" xr:uid="{AB524FDC-322C-4129-B3D3-C0CD18DF6C39}"/>
-    <hyperlink ref="E47" r:id="rId284" xr:uid="{12F3604F-E330-4354-82A9-2E7144C6C69C}"/>
-    <hyperlink ref="E52" r:id="rId285" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
-    <hyperlink ref="E51" r:id="rId286" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
-    <hyperlink ref="E53" r:id="rId287" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
-    <hyperlink ref="E201" r:id="rId288" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
-    <hyperlink ref="E200" r:id="rId289" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
-    <hyperlink ref="E198" r:id="rId290" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
-    <hyperlink ref="E185" r:id="rId291" xr:uid="{2401C9CC-8D34-433A-BAAD-C1FD2BC14D49}"/>
-    <hyperlink ref="E189" r:id="rId292" xr:uid="{D146BB8F-137F-4456-BBA2-EC755F8EBC46}"/>
-    <hyperlink ref="E192" r:id="rId293" xr:uid="{E360B755-600F-4776-B306-2E5CFACE17ED}"/>
-    <hyperlink ref="E188" r:id="rId294" xr:uid="{A5B75A0D-986A-4F1A-B094-7B65E143FDE2}"/>
+    <hyperlink ref="E38" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E39" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G39" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E40" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G40" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E41" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E44" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G44" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E45" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E48" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E49" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G49" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E53" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G53" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G54" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E55" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G55" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E57" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E58" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E60" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E64" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E65" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E66" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G66" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E67" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E68" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E69" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G69" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E72" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E73" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G73" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E76" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G76" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E79" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G79" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E80" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G80" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E81" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G81" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E82" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E83" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G83" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E84" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G84" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E85" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G85" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E86" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G86" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E88" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E89" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E93" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E95" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G95" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E98" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G98" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E99" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G99" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E100" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G100" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E101" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G101" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E102" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G102" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E103" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E104" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E106" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G106" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E110" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G110" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E111" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G111" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E112" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G112" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E113" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G113" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E114" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G114" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E117" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G117" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E118" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G118" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E119" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G119" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E120" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E121" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G121" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E122" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G122" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E123" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G123" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E124" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G124" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E125" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E126" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G126" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E127" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E128" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G128" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E129" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E132" r:id="rId103" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E133" r:id="rId104" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G133" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E135" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G135" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E136" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G136" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E137" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G137" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E138" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E139" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G139" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E140" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G140" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E141" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E142" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E143" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E147" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E148" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G148" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E149" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G149" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E150" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G150" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E151" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G151" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E152" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G152" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E153" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G153" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E154" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G154" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E155" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G155" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E156" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G156" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E157" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G157" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E158" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E159" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G159" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E162" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E163" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E164" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E165" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E166" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E167" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E170" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E171" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E172" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E173" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E174" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E177" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E179" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E180" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E181" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E182" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E183" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E184" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E186" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E187" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E190" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E191" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E193" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E194" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E195" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E196" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E199" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E203" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E205" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E206" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E207" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E208" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E209" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E212" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E213" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E214" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E215" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E216" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E217" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E218" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E219" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E220" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E221" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E222" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E223" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E224" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E225" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E226" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E227" r:id="rId192" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E228" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E229" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E230" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E231" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E232" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E235" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E236" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E237" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E238" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E239" r:id="rId202" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E240" r:id="rId203" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E210" r:id="rId204" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E145" r:id="rId205" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E144" r:id="rId206" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="G71" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E71" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E70" r:id="rId209" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
+    <hyperlink ref="E6" r:id="rId210" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
+    <hyperlink ref="E87" r:id="rId211" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
+    <hyperlink ref="E92" r:id="rId212" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
+    <hyperlink ref="E91" r:id="rId213" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
+    <hyperlink ref="E90" r:id="rId214" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
+    <hyperlink ref="E47" r:id="rId215" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
+    <hyperlink ref="E59" r:id="rId216" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
+    <hyperlink ref="E32" r:id="rId217" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
+    <hyperlink ref="E14" r:id="rId218" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
+    <hyperlink ref="E7" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E11" r:id="rId221" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
+    <hyperlink ref="G36" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E36" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E35" r:id="rId224" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G34" r:id="rId225" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E34" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G33" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E33" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G31" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E31" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G29" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E29" r:id="rId232" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E28" r:id="rId233" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E27" r:id="rId234" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E26" r:id="rId235" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E25" r:id="rId236" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G23" r:id="rId237" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E23" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G22" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E22" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G20" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E20" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G18" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E18" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G17" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E17" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G16" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E16" r:id="rId248" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G15" r:id="rId249" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E15" r:id="rId250" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G13" r:id="rId251" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E13" r:id="rId252" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G10" r:id="rId253" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E10" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G9" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E9" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G8" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E243" r:id="rId259" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E21" r:id="rId260" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
+    <hyperlink ref="E244" r:id="rId261" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E30" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E12" r:id="rId263" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
+    <hyperlink ref="E245" r:id="rId264" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E246" r:id="rId265" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E24" r:id="rId266" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
+    <hyperlink ref="E19" r:id="rId267" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
+    <hyperlink ref="E204" r:id="rId268" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
+    <hyperlink ref="E197" r:id="rId269" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
+    <hyperlink ref="E178" r:id="rId270" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
+    <hyperlink ref="E202" r:id="rId271" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
+    <hyperlink ref="E105" r:id="rId272" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
+    <hyperlink ref="E109" r:id="rId273" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
+    <hyperlink ref="E108" r:id="rId274" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
+    <hyperlink ref="E107" r:id="rId275" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
+    <hyperlink ref="E134" r:id="rId276" xr:uid="{880B159A-370B-40EE-A5C8-AE68325F8994}"/>
+    <hyperlink ref="E130" r:id="rId277" xr:uid="{96ACD224-977A-4E66-9264-5617B21A7B5A}"/>
+    <hyperlink ref="E131" r:id="rId278" xr:uid="{7FD7344C-2A6A-4318-A67E-05F8EA153E88}"/>
+    <hyperlink ref="E94" r:id="rId279" xr:uid="{B6515FE2-AD7F-4A71-83EF-89020758DE37}"/>
+    <hyperlink ref="E96" r:id="rId280" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
+    <hyperlink ref="E56" r:id="rId281" xr:uid="{AB524FDC-322C-4129-B3D3-C0CD18DF6C39}"/>
+    <hyperlink ref="E46" r:id="rId282" xr:uid="{12F3604F-E330-4354-82A9-2E7144C6C69C}"/>
+    <hyperlink ref="E51" r:id="rId283" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
+    <hyperlink ref="E50" r:id="rId284" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
+    <hyperlink ref="E52" r:id="rId285" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
+    <hyperlink ref="E201" r:id="rId286" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
+    <hyperlink ref="E200" r:id="rId287" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
+    <hyperlink ref="E198" r:id="rId288" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
+    <hyperlink ref="E185" r:id="rId289" xr:uid="{2401C9CC-8D34-433A-BAAD-C1FD2BC14D49}"/>
+    <hyperlink ref="E189" r:id="rId290" xr:uid="{D146BB8F-137F-4456-BBA2-EC755F8EBC46}"/>
+    <hyperlink ref="E192" r:id="rId291" xr:uid="{E360B755-600F-4776-B306-2E5CFACE17ED}"/>
+    <hyperlink ref="E188" r:id="rId292" xr:uid="{A5B75A0D-986A-4F1A-B094-7B65E143FDE2}"/>
+    <hyperlink ref="E74" r:id="rId293" xr:uid="{F858A3E3-5FB0-420A-93A4-648662EF60EA}"/>
+    <hyperlink ref="E75" r:id="rId294" xr:uid="{E4B29D74-9296-485B-83BA-F2FBF277CAEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId295"/>

--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92850831-A7D4-4C53-916F-2D786E1258B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16D3993-E500-45E6-8C08-3EE0A87E21DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="455">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -1389,6 +1389,15 @@
   </si>
   <si>
     <t>kth Permutation sequence</t>
+  </si>
+  <si>
+    <t>First missing positive</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/swim-in-rising-water/submissions/1847902470/</t>
+  </si>
+  <si>
+    <t>Dijkstra's Algorithm (SWIM WATER)</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1823,6 +1832,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2060,20 +2072,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1020"/>
+  <dimension ref="A1:Y1022"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E186" sqref="E186"/>
+      <pane ySplit="4" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
     <col min="8" max="8" width="70.5546875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
@@ -3434,26 +3447,24 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56"/>
       <c r="B36" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="30">
         <v>32</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G36" s="33"/>
       <c r="H36" s="34"/>
       <c r="I36" s="33"/>
       <c r="J36" s="1"/>
@@ -3473,16 +3484,28 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+    <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="56"/>
+      <c r="B37" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="30">
+        <v>33</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3500,32 +3523,16 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="30">
-        <v>1</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" s="3"/>
+    <row r="38" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3544,15 +3551,17 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
+      <c r="A39" s="57" t="s">
+        <v>61</v>
+      </c>
       <c r="B39" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C39" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E39" s="43" t="s">
         <v>9</v>
@@ -3563,8 +3572,10 @@
       <c r="G39" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="12"/>
+      <c r="H39" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="3"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3588,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="43" t="s">
         <v>9</v>
@@ -3602,8 +3613,8 @@
       <c r="G40" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="3"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="12"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3627,21 +3638,21 @@
         <v>0</v>
       </c>
       <c r="C41" s="30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="29" t="s">
-        <v>67</v>
-      </c>
+      <c r="F41" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="34"/>
       <c r="I41" s="3"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3660,14 +3671,27 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="9"/>
+    <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="58"/>
+      <c r="B42" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="30">
+        <v>7</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3686,14 +3710,14 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="3"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3712,31 +3736,14 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" s="30">
-        <v>1</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>70</v>
-      </c>
+    <row r="44" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="3"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3756,15 +3763,17 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
+      <c r="A45" s="60" t="s">
+        <v>68</v>
+      </c>
       <c r="B45" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C45" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E45" s="43" t="s">
         <v>9</v>
@@ -3772,9 +3781,11 @@
       <c r="F45" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="33"/>
+      <c r="G45" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H45" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="1"/>
@@ -3800,19 +3811,21 @@
         <v>0</v>
       </c>
       <c r="C46" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="E46" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="33"/>
-      <c r="H46" s="29"/>
+      <c r="H46" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="I46" s="3"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3837,12 +3850,12 @@
         <v>0</v>
       </c>
       <c r="C47" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="E47" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="36" t="s">
@@ -3874,21 +3887,19 @@
         <v>0</v>
       </c>
       <c r="C48" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="E48" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="33"/>
-      <c r="H48" s="29" t="s">
-        <v>74</v>
-      </c>
+      <c r="H48" s="29"/>
       <c r="I48" s="3"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3913,21 +3924,21 @@
         <v>0</v>
       </c>
       <c r="C49" s="30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="34"/>
+      <c r="F49" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3952,18 +3963,20 @@
         <v>0</v>
       </c>
       <c r="C50" s="30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="E50" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="35"/>
+      <c r="G50" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H50" s="34"/>
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
@@ -3989,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="C51" s="30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>9</v>
@@ -4026,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="C52" s="30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>9</v>
@@ -4063,20 +4076,18 @@
         <v>0</v>
       </c>
       <c r="C53" s="30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G53" s="35"/>
       <c r="H53" s="34"/>
       <c r="I53" s="3"/>
       <c r="J53" s="1"/>
@@ -4102,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="C54" s="30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" s="43" t="s">
         <v>9</v>
@@ -4116,9 +4127,7 @@
       <c r="G54" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="34" t="s">
-        <v>35</v>
-      </c>
+      <c r="H54" s="34"/>
       <c r="I54" s="3"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -4143,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="C55" s="30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E55" s="43" t="s">
         <v>9</v>
@@ -4157,7 +4166,9 @@
       <c r="G55" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="34"/>
+      <c r="H55" s="34" t="s">
+        <v>35</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4182,18 +4193,20 @@
         <v>0</v>
       </c>
       <c r="C56" s="30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="E56" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="35"/>
+      <c r="G56" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H56" s="34"/>
       <c r="I56" s="3"/>
       <c r="J56" s="1"/>
@@ -4219,21 +4232,19 @@
         <v>0</v>
       </c>
       <c r="C57" s="30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="E57" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="34" t="s">
-        <v>80</v>
-      </c>
+      <c r="G57" s="35"/>
+      <c r="H57" s="34"/>
       <c r="I57" s="3"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4258,20 +4269,20 @@
         <v>0</v>
       </c>
       <c r="C58" s="30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E58" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="40" t="s">
-        <v>55</v>
+      <c r="F58" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="29" t="s">
-        <v>82</v>
+      <c r="H58" s="34" t="s">
+        <v>80</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="1"/>
@@ -4297,19 +4308,21 @@
         <v>0</v>
       </c>
       <c r="C59" s="30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="E59" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="40" t="s">
         <v>55</v>
       </c>
       <c r="G59" s="33"/>
-      <c r="H59" s="29"/>
+      <c r="H59" s="29" t="s">
+        <v>82</v>
+      </c>
       <c r="I59" s="3"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4334,19 +4347,19 @@
         <v>0</v>
       </c>
       <c r="C60" s="30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="E60" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="40" t="s">
         <v>55</v>
       </c>
       <c r="G60" s="33"/>
-      <c r="H60" s="34"/>
+      <c r="H60" s="29"/>
       <c r="I60" s="3"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -4371,13 +4384,13 @@
         <v>0</v>
       </c>
       <c r="C61" s="30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="F61" s="40" t="s">
         <v>55</v>
@@ -4402,12 +4415,25 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="H62" s="11"/>
+    <row r="62" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="58"/>
+      <c r="B62" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="30">
+        <v>18</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="33"/>
+      <c r="H62" s="34"/>
       <c r="I62" s="3"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4431,10 +4457,7 @@
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="4"/>
+      <c r="H63" s="11"/>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4453,32 +4476,15 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2">
-        <f>ROW(A1)</f>
-        <v>1</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>88</v>
-      </c>
+    <row r="64" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4498,16 +4504,18 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="55"/>
+      <c r="A65" s="61" t="s">
+        <v>86</v>
+      </c>
       <c r="B65" s="52" t="b">
         <v>1</v>
       </c>
       <c r="C65" s="2">
-        <f>ROW(A2)</f>
-        <v>2</v>
+        <f t="shared" ref="C65:C77" si="0">ROW(A1)</f>
+        <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>9</v>
@@ -4515,9 +4523,11 @@
       <c r="F65" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G65" s="3"/>
+      <c r="G65" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H65" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="1"/>
@@ -4543,11 +4553,11 @@
         <v>1</v>
       </c>
       <c r="C66" s="2">
-        <f>ROW(A3)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>9</v>
@@ -4555,11 +4565,9 @@
       <c r="F66" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G66" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G66" s="3"/>
       <c r="H66" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="1"/>
@@ -4585,11 +4593,11 @@
         <v>1</v>
       </c>
       <c r="C67" s="2">
-        <f>ROW(A4)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>9</v>
@@ -4597,9 +4605,11 @@
       <c r="F67" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="3"/>
+      <c r="G67" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H67" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
@@ -4625,11 +4635,11 @@
         <v>1</v>
       </c>
       <c r="C68" s="2">
-        <f>ROW(A5)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>9</v>
@@ -4639,7 +4649,7 @@
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
@@ -4665,11 +4675,11 @@
         <v>1</v>
       </c>
       <c r="C69" s="2">
-        <f>ROW(A6)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>9</v>
@@ -4677,11 +4687,9 @@
       <c r="F69" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G69" s="3"/>
       <c r="H69" s="15" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
@@ -4707,20 +4715,24 @@
         <v>1</v>
       </c>
       <c r="C70" s="2">
-        <f>ROW(A7)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E70" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="15"/>
+      <c r="G70" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -4739,30 +4751,26 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="55"/>
       <c r="B71" s="52" t="b">
         <v>1</v>
       </c>
       <c r="C71" s="2">
-        <f>ROW(A8)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="E71" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>99</v>
-      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="15"/>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4781,17 +4789,17 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="55"/>
       <c r="B72" s="52" t="b">
         <v>1</v>
       </c>
       <c r="C72" s="2">
-        <f>ROW(A9)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>9</v>
@@ -4799,9 +4807,11 @@
       <c r="F72" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="15" t="s">
-        <v>100</v>
+      <c r="G72" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
@@ -4827,23 +4837,21 @@
         <v>1</v>
       </c>
       <c r="C73" s="2">
-        <f>ROW(A10)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="F73" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="3"/>
       <c r="H73" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="1"/>
@@ -4869,20 +4877,24 @@
         <v>1</v>
       </c>
       <c r="C74" s="2">
-        <f>ROW(A11)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E74" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G74" s="10"/>
-      <c r="H74" s="15"/>
+      <c r="G74" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -4907,11 +4919,11 @@
         <v>1</v>
       </c>
       <c r="C75" s="2">
-        <f>ROW(A12)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>9</v>
@@ -4939,30 +4951,26 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="55"/>
       <c r="B76" s="52" t="b">
         <v>1</v>
       </c>
       <c r="C76" s="2">
-        <f>ROW(A13)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="E76" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G76" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>104</v>
-      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="15"/>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -4981,15 +4989,30 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="4"/>
+    <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="55"/>
+      <c r="B77" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="I77" s="3"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -5035,31 +5058,15 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="B79" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C79" s="30">
-        <v>1</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="E79" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="45" t="s">
-        <v>106</v>
-      </c>
+    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
       <c r="I79" s="3"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -5079,15 +5086,17 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="58"/>
+      <c r="A80" s="57" t="s">
+        <v>105</v>
+      </c>
       <c r="B80" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C80" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>9</v>
@@ -5099,7 +5108,7 @@
         <v>11</v>
       </c>
       <c r="H80" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="1"/>
@@ -5125,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="C81" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E81" s="43" t="s">
         <v>9</v>
@@ -5140,7 +5149,7 @@
         <v>11</v>
       </c>
       <c r="H81" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="1"/>
@@ -5166,10 +5175,10 @@
         <v>0</v>
       </c>
       <c r="C82" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E82" s="43" t="s">
         <v>9</v>
@@ -5177,9 +5186,11 @@
       <c r="F82" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G82" s="33"/>
+      <c r="G82" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H82" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="1"/>
@@ -5205,10 +5216,10 @@
         <v>0</v>
       </c>
       <c r="C83" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E83" s="43" t="s">
         <v>9</v>
@@ -5216,11 +5227,9 @@
       <c r="F83" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G83" s="33"/>
       <c r="H83" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="1"/>
@@ -5246,22 +5255,22 @@
         <v>0</v>
       </c>
       <c r="C84" s="30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E84" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="37" t="s">
-        <v>22</v>
+      <c r="F84" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G84" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H84" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="1"/>
@@ -5287,10 +5296,10 @@
         <v>0</v>
       </c>
       <c r="C85" s="30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E85" s="43" t="s">
         <v>9</v>
@@ -5302,7 +5311,7 @@
         <v>11</v>
       </c>
       <c r="H85" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1"/>
@@ -5328,10 +5337,10 @@
         <v>0</v>
       </c>
       <c r="C86" s="30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>113</v>
+        <v>373</v>
       </c>
       <c r="E86" s="43" t="s">
         <v>9</v>
@@ -5343,7 +5352,7 @@
         <v>11</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="1"/>
@@ -5369,19 +5378,23 @@
         <v>0</v>
       </c>
       <c r="C87" s="30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="E87" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G87" s="35"/>
-      <c r="H87" s="45"/>
+      <c r="G87" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="45" t="s">
+        <v>114</v>
+      </c>
       <c r="I87" s="3"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5406,21 +5419,19 @@
         <v>0</v>
       </c>
       <c r="C88" s="30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E88" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="E88" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G88" s="33"/>
-      <c r="H88" s="45" t="s">
-        <v>116</v>
-      </c>
+      <c r="G88" s="35"/>
+      <c r="H88" s="45"/>
       <c r="I88" s="3"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -5445,10 +5456,10 @@
         <v>0</v>
       </c>
       <c r="C89" s="30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E89" s="43" t="s">
         <v>9</v>
@@ -5458,7 +5469,7 @@
       </c>
       <c r="G89" s="33"/>
       <c r="H89" s="45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="1"/>
@@ -5484,19 +5495,21 @@
         <v>0</v>
       </c>
       <c r="C90" s="30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="E90" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G90" s="35"/>
-      <c r="H90" s="45"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="I90" s="3"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -5521,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="C91" s="30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>9</v>
@@ -5558,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="C92" s="30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E92" s="31" t="s">
         <v>9</v>
@@ -5595,21 +5608,19 @@
         <v>0</v>
       </c>
       <c r="C93" s="30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E93" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="E93" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G93" s="33"/>
-      <c r="H93" s="45" t="s">
-        <v>120</v>
-      </c>
+      <c r="G93" s="35"/>
+      <c r="H93" s="45"/>
       <c r="I93" s="3"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -5634,19 +5645,21 @@
         <v>0</v>
       </c>
       <c r="C94" s="30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="E94" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E94" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="51" t="s">
-        <v>55</v>
+      <c r="F94" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="G94" s="33"/>
-      <c r="H94" s="45"/>
+      <c r="H94" s="45" t="s">
+        <v>120</v>
+      </c>
       <c r="I94" s="3"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -5671,23 +5684,19 @@
         <v>0</v>
       </c>
       <c r="C95" s="30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="E95" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="40" t="s">
+      <c r="F95" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G95" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="45" t="s">
-        <v>122</v>
-      </c>
+      <c r="G95" s="33"/>
+      <c r="H95" s="45"/>
       <c r="I95" s="3"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -5707,24 +5716,28 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="29"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C96" s="30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="E96" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="33"/>
-      <c r="H96" s="34"/>
+      <c r="F96" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G96" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="45" t="s">
+        <v>122</v>
+      </c>
       <c r="I96" s="3"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -5744,16 +5757,24 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="4"/>
+      <c r="C97" s="30">
+        <v>18</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="33"/>
+      <c r="H97" s="34"/>
       <c r="I97" s="3"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -5772,31 +5793,15 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C98" s="30">
-        <v>1</v>
-      </c>
-      <c r="D98" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E98" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="45" t="s">
-        <v>125</v>
-      </c>
+    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="4"/>
       <c r="I98" s="3"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -5816,15 +5821,17 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="58"/>
+      <c r="A99" s="60" t="s">
+        <v>123</v>
+      </c>
       <c r="B99" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C99" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E99" s="43" t="s">
         <v>9</v>
@@ -5836,7 +5843,7 @@
         <v>11</v>
       </c>
       <c r="H99" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="1"/>
@@ -5862,10 +5869,10 @@
         <v>0</v>
       </c>
       <c r="C100" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E100" s="43" t="s">
         <v>9</v>
@@ -5877,7 +5884,7 @@
         <v>11</v>
       </c>
       <c r="H100" s="45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="1"/>
@@ -5903,10 +5910,10 @@
         <v>0</v>
       </c>
       <c r="C101" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E101" s="43" t="s">
         <v>9</v>
@@ -5918,7 +5925,7 @@
         <v>11</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="1"/>
@@ -5944,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="C102" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E102" s="43" t="s">
         <v>9</v>
@@ -5959,7 +5966,7 @@
         <v>11</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="1"/>
@@ -5985,10 +5992,10 @@
         <v>0</v>
       </c>
       <c r="C103" s="30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E103" s="43" t="s">
         <v>9</v>
@@ -5996,9 +6003,11 @@
       <c r="F103" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="33"/>
+      <c r="G103" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H103" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="1"/>
@@ -6024,10 +6033,10 @@
         <v>0</v>
       </c>
       <c r="C104" s="30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E104" s="43" t="s">
         <v>9</v>
@@ -6037,7 +6046,7 @@
       </c>
       <c r="G104" s="33"/>
       <c r="H104" s="45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="1"/>
@@ -6063,19 +6072,21 @@
         <v>0</v>
       </c>
       <c r="C105" s="30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="E105" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E105" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="46" t="s">
-        <v>22</v>
+      <c r="F105" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G105" s="33"/>
-      <c r="H105" s="45"/>
+      <c r="H105" s="45" t="s">
+        <v>137</v>
+      </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -6100,23 +6111,19 @@
         <v>0</v>
       </c>
       <c r="C106" s="30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E106" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="E106" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F106" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G106" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" s="45" t="s">
-        <v>139</v>
-      </c>
+      <c r="G106" s="33"/>
+      <c r="H106" s="45"/>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -6141,19 +6148,23 @@
         <v>0</v>
       </c>
       <c r="C107" s="30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E107" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E107" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F107" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G107" s="35"/>
-      <c r="H107" s="45"/>
+      <c r="G107" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -6178,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="C108" s="30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E108" s="21" t="s">
         <v>9</v>
@@ -6215,10 +6226,10 @@
         <v>0</v>
       </c>
       <c r="C109" s="30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E109" s="21" t="s">
         <v>9</v>
@@ -6252,23 +6263,19 @@
         <v>0</v>
       </c>
       <c r="C110" s="30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="E110" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F110" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G110" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" s="45" t="s">
-        <v>141</v>
-      </c>
+      <c r="G110" s="35"/>
+      <c r="H110" s="45"/>
       <c r="I110" s="3"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -6293,10 +6300,10 @@
         <v>0</v>
       </c>
       <c r="C111" s="30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E111" s="43" t="s">
         <v>9</v>
@@ -6308,7 +6315,7 @@
         <v>11</v>
       </c>
       <c r="H111" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
@@ -6334,10 +6341,10 @@
         <v>0</v>
       </c>
       <c r="C112" s="30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E112" s="43" t="s">
         <v>9</v>
@@ -6349,7 +6356,7 @@
         <v>11</v>
       </c>
       <c r="H112" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
@@ -6375,10 +6382,10 @@
         <v>0</v>
       </c>
       <c r="C113" s="30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E113" s="43" t="s">
         <v>9</v>
@@ -6390,7 +6397,7 @@
         <v>11</v>
       </c>
       <c r="H113" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
@@ -6416,22 +6423,22 @@
         <v>0</v>
       </c>
       <c r="C114" s="30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E114" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="50" t="s">
-        <v>55</v>
+      <c r="F114" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="G114" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1"/>
@@ -6451,15 +6458,29 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="11"/>
+    <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="58"/>
+      <c r="B115" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" s="30">
+        <v>18</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G115" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="45" t="s">
+        <v>150</v>
+      </c>
       <c r="I115" s="3"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -6486,7 +6507,7 @@
       <c r="E116" s="3"/>
       <c r="F116" s="1"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="4"/>
+      <c r="H116" s="11"/>
       <c r="I116" s="3"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -6505,31 +6526,15 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="B117" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C117" s="30">
-        <v>1</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="E117" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" s="45" t="s">
-        <v>152</v>
-      </c>
+    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
       <c r="I117" s="3"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -6549,15 +6554,17 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="58"/>
+      <c r="A118" s="60" t="s">
+        <v>151</v>
+      </c>
       <c r="B118" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C118" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E118" s="43" t="s">
         <v>9</v>
@@ -6569,7 +6576,7 @@
         <v>11</v>
       </c>
       <c r="H118" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1"/>
@@ -6595,10 +6602,10 @@
         <v>0</v>
       </c>
       <c r="C119" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E119" s="43" t="s">
         <v>9</v>
@@ -6610,7 +6617,7 @@
         <v>11</v>
       </c>
       <c r="H119" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1"/>
@@ -6636,10 +6643,10 @@
         <v>0</v>
       </c>
       <c r="C120" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E120" s="43" t="s">
         <v>9</v>
@@ -6647,9 +6654,11 @@
       <c r="F120" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G120" s="33"/>
+      <c r="G120" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H120" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1"/>
@@ -6675,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="C121" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E121" s="43" t="s">
         <v>9</v>
@@ -6686,11 +6695,9 @@
       <c r="F121" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G121" s="35" t="s">
-        <v>156</v>
-      </c>
+      <c r="G121" s="33"/>
       <c r="H121" s="45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1"/>
@@ -6716,10 +6723,10 @@
         <v>0</v>
       </c>
       <c r="C122" s="30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E122" s="43" t="s">
         <v>9</v>
@@ -6728,10 +6735,10 @@
         <v>10</v>
       </c>
       <c r="G122" s="35" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="H122" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1"/>
@@ -6757,10 +6764,10 @@
         <v>0</v>
       </c>
       <c r="C123" s="30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E123" s="43" t="s">
         <v>9</v>
@@ -6772,7 +6779,7 @@
         <v>11</v>
       </c>
       <c r="H123" s="45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1"/>
@@ -6798,10 +6805,10 @@
         <v>0</v>
       </c>
       <c r="C124" s="30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E124" s="43" t="s">
         <v>9</v>
@@ -6813,7 +6820,7 @@
         <v>11</v>
       </c>
       <c r="H124" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6839,10 +6846,10 @@
         <v>0</v>
       </c>
       <c r="C125" s="30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E125" s="43" t="s">
         <v>9</v>
@@ -6850,9 +6857,11 @@
       <c r="F125" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G125" s="33"/>
+      <c r="G125" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H125" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1"/>
@@ -6878,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="C126" s="30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E126" s="43" t="s">
         <v>9</v>
@@ -6889,11 +6898,9 @@
       <c r="F126" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G126" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G126" s="33"/>
       <c r="H126" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
@@ -6919,10 +6926,10 @@
         <v>0</v>
       </c>
       <c r="C127" s="30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E127" s="43" t="s">
         <v>9</v>
@@ -6930,9 +6937,11 @@
       <c r="F127" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G127" s="33"/>
+      <c r="G127" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H127" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1"/>
@@ -6958,22 +6967,20 @@
         <v>0</v>
       </c>
       <c r="C128" s="30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E128" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="F128" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="33"/>
       <c r="H128" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="1"/>
@@ -6999,10 +7006,10 @@
         <v>0</v>
       </c>
       <c r="C129" s="30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E129" s="43" t="s">
         <v>9</v>
@@ -7010,9 +7017,11 @@
       <c r="F129" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G129" s="33"/>
+      <c r="G129" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H129" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
@@ -7038,19 +7047,21 @@
         <v>0</v>
       </c>
       <c r="C130" s="30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="E130" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E130" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F130" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G130" s="33"/>
-      <c r="H130" s="45"/>
+      <c r="H130" s="45" t="s">
+        <v>165</v>
+      </c>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -7075,10 +7086,10 @@
         <v>0</v>
       </c>
       <c r="C131" s="30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E131" s="21" t="s">
         <v>9</v>
@@ -7112,21 +7123,19 @@
         <v>0</v>
       </c>
       <c r="C132" s="30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="E132" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="E132" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F132" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G132" s="33"/>
-      <c r="H132" s="45" t="s">
-        <v>166</v>
-      </c>
+      <c r="H132" s="45"/>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -7151,10 +7160,10 @@
         <v>0</v>
       </c>
       <c r="C133" s="30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E133" s="43" t="s">
         <v>9</v>
@@ -7162,11 +7171,9 @@
       <c r="F133" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G133" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G133" s="33"/>
       <c r="H133" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
@@ -7192,19 +7199,23 @@
         <v>0</v>
       </c>
       <c r="C134" s="30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="E134" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="E134" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F134" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G134" s="35"/>
-      <c r="H134" s="45"/>
+      <c r="G134" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="45" t="s">
+        <v>167</v>
+      </c>
       <c r="I134" s="3"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -7229,23 +7240,19 @@
         <v>0</v>
       </c>
       <c r="C135" s="30">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="E135" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="E135" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F135" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G135" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" s="45" t="s">
-        <v>169</v>
-      </c>
+      <c r="G135" s="35"/>
+      <c r="H135" s="45"/>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -7270,10 +7277,10 @@
         <v>0</v>
       </c>
       <c r="C136" s="30">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>389</v>
+        <v>168</v>
       </c>
       <c r="E136" s="43" t="s">
         <v>9</v>
@@ -7285,7 +7292,7 @@
         <v>11</v>
       </c>
       <c r="H136" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
@@ -7311,10 +7318,10 @@
         <v>0</v>
       </c>
       <c r="C137" s="30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>171</v>
+        <v>389</v>
       </c>
       <c r="E137" s="43" t="s">
         <v>9</v>
@@ -7326,7 +7333,7 @@
         <v>11</v>
       </c>
       <c r="H137" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
@@ -7352,10 +7359,10 @@
         <v>0</v>
       </c>
       <c r="C138" s="30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D138" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E138" s="43" t="s">
         <v>9</v>
@@ -7363,9 +7370,11 @@
       <c r="F138" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G138" s="33"/>
+      <c r="G138" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H138" s="45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
@@ -7391,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="C139" s="30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D139" s="29" t="s">
-        <v>390</v>
+        <v>173</v>
       </c>
       <c r="E139" s="43" t="s">
         <v>9</v>
@@ -7402,11 +7411,9 @@
       <c r="F139" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G139" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G139" s="33"/>
       <c r="H139" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
@@ -7432,10 +7439,10 @@
         <v>0</v>
       </c>
       <c r="C140" s="30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D140" s="29" t="s">
-        <v>176</v>
+        <v>390</v>
       </c>
       <c r="E140" s="43" t="s">
         <v>9</v>
@@ -7447,7 +7454,7 @@
         <v>11</v>
       </c>
       <c r="H140" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7473,10 +7480,10 @@
         <v>0</v>
       </c>
       <c r="C141" s="30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E141" s="43" t="s">
         <v>9</v>
@@ -7484,9 +7491,11 @@
       <c r="F141" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G141" s="33"/>
+      <c r="G141" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H141" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7512,20 +7521,20 @@
         <v>0</v>
       </c>
       <c r="C142" s="30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D142" s="29" t="s">
-        <v>391</v>
+        <v>178</v>
       </c>
       <c r="E142" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="40" t="s">
-        <v>55</v>
+      <c r="F142" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="G142" s="33"/>
       <c r="H142" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7551,10 +7560,10 @@
         <v>0</v>
       </c>
       <c r="C143" s="30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D143" s="29" t="s">
-        <v>181</v>
+        <v>391</v>
       </c>
       <c r="E143" s="43" t="s">
         <v>9</v>
@@ -7564,7 +7573,7 @@
       </c>
       <c r="G143" s="33"/>
       <c r="H143" s="45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
@@ -7585,24 +7594,26 @@
       <c r="Y143" s="1"/>
     </row>
     <row r="144" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="44"/>
+      <c r="A144" s="58"/>
       <c r="B144" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C144" s="30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E144" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E144" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="47" t="s">
-        <v>22</v>
+      <c r="F144" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="G144" s="33"/>
-      <c r="H144" s="45"/>
+      <c r="H144" s="45" t="s">
+        <v>182</v>
+      </c>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -7627,10 +7638,10 @@
         <v>0</v>
       </c>
       <c r="C145" s="30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D145" s="29" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="E145" s="31" t="s">
         <v>9</v>
@@ -7659,16 +7670,24 @@
       <c r="Y145" s="1"/>
     </row>
     <row r="146" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
+      <c r="A146" s="44"/>
       <c r="B146" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="4"/>
+      <c r="C146" s="30">
+        <v>29</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="33"/>
+      <c r="H146" s="45"/>
       <c r="I146" s="3"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -7687,29 +7706,15 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="B147" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C147" s="2">
-        <v>1</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="27" t="s">
-        <v>10</v>
-      </c>
+    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="1"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="15" t="s">
-        <v>185</v>
-      </c>
+      <c r="H147" s="4"/>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -7728,16 +7733,18 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="55"/>
+    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A148" s="62" t="s">
+        <v>183</v>
+      </c>
       <c r="B148" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C148" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>9</v>
@@ -7745,11 +7752,9 @@
       <c r="F148" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G148" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" s="16" t="s">
-        <v>187</v>
+      <c r="G148" s="3"/>
+      <c r="H148" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
@@ -7769,28 +7774,28 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A149" s="55"/>
       <c r="B149" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C149" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="26" t="s">
-        <v>22</v>
+      <c r="F149" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G149" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H149" s="15" t="s">
-        <v>189</v>
+      <c r="H149" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
@@ -7816,10 +7821,10 @@
         <v>0</v>
       </c>
       <c r="C150" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>9</v>
@@ -7831,7 +7836,7 @@
         <v>11</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
@@ -7851,18 +7856,18 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A151" s="55"/>
       <c r="B151" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C151" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E151" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E151" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F151" s="26" t="s">
@@ -7871,8 +7876,8 @@
       <c r="G151" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H151" s="16" t="s">
-        <v>193</v>
+      <c r="H151" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
@@ -7898,12 +7903,12 @@
         <v>0</v>
       </c>
       <c r="C152" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E152" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E152" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F152" s="26" t="s">
@@ -7913,7 +7918,7 @@
         <v>11</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="1"/>
@@ -7933,16 +7938,16 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A153" s="55"/>
       <c r="B153" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C153" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>9</v>
@@ -7953,8 +7958,8 @@
       <c r="G153" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H153" s="15" t="s">
-        <v>197</v>
+      <c r="H153" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="1"/>
@@ -7974,16 +7979,16 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A154" s="55"/>
       <c r="B154" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C154" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>9</v>
@@ -7994,8 +7999,8 @@
       <c r="G154" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H154" s="16" t="s">
-        <v>199</v>
+      <c r="H154" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
@@ -8015,16 +8020,16 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A155" s="55"/>
       <c r="B155" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C155" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>9</v>
@@ -8035,8 +8040,8 @@
       <c r="G155" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H155" s="15" t="s">
-        <v>201</v>
+      <c r="H155" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
@@ -8062,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="C156" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>9</v>
@@ -8077,7 +8082,7 @@
         <v>11</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
@@ -8097,28 +8102,28 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A157" s="55"/>
       <c r="B157" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C157" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F157" s="28" t="s">
-        <v>55</v>
+      <c r="F157" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G157" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H157" s="16" t="s">
-        <v>205</v>
+      <c r="H157" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -8144,10 +8149,10 @@
         <v>0</v>
       </c>
       <c r="C158" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>9</v>
@@ -8155,9 +8160,11 @@
       <c r="F158" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G158" s="3"/>
+      <c r="G158" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H158" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
@@ -8177,16 +8184,16 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A159" s="55"/>
       <c r="B159" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C159" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>9</v>
@@ -8194,11 +8201,9 @@
       <c r="F159" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G159" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H159" s="15" t="s">
-        <v>209</v>
+      <c r="G159" s="3"/>
+      <c r="H159" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="1"/>
@@ -8218,17 +8223,29 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="1"/>
+    <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A160" s="55"/>
       <c r="B160" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="4"/>
+      <c r="C160" s="2">
+        <v>15</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>209</v>
+      </c>
       <c r="I160" s="3"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -8247,11 +8264,9 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="52" t="b">
-        <v>0</v>
-      </c>
+      <c r="B161" s="1"/>
       <c r="C161" s="2"/>
       <c r="D161" s="1"/>
       <c r="E161" s="3"/>
@@ -8276,29 +8291,15 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="B162" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C162" s="2">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E162" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F162" s="27" t="s">
-        <v>10</v>
-      </c>
+    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="1"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="15" t="s">
-        <v>213</v>
-      </c>
+      <c r="H162" s="4"/>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -8318,25 +8319,27 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="55"/>
+      <c r="A163" s="62" t="s">
+        <v>210</v>
+      </c>
       <c r="B163" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C163" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E163" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="F163" s="26" t="s">
-        <v>22</v>
+        <v>211</v>
+      </c>
+      <c r="E163" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F163" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
@@ -8362,20 +8365,20 @@
         <v>0</v>
       </c>
       <c r="C164" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F164" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
@@ -8401,20 +8404,20 @@
         <v>0</v>
       </c>
       <c r="C165" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E165" s="23" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="E165" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="F165" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
@@ -8440,20 +8443,20 @@
         <v>0</v>
       </c>
       <c r="C166" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E166" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F166" s="28" t="s">
-        <v>55</v>
+        <v>220</v>
+      </c>
+      <c r="E166" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F166" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
@@ -8473,26 +8476,26 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A167" s="55"/>
       <c r="B167" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C167" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F167" s="28" t="s">
         <v>55</v>
       </c>
       <c r="G167" s="3"/>
-      <c r="H167" s="16" t="s">
-        <v>228</v>
+      <c r="H167" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="1"/>
@@ -8513,16 +8516,26 @@
       <c r="Y167" s="1"/>
     </row>
     <row r="168" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
+      <c r="A168" s="55"/>
       <c r="B168" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="1"/>
+      <c r="C168" s="2">
+        <v>6</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="F168" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="G168" s="3"/>
-      <c r="H168" s="4"/>
+      <c r="H168" s="16" t="s">
+        <v>228</v>
+      </c>
       <c r="I168" s="3"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -8541,11 +8554,9 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="52" t="b">
-        <v>0</v>
-      </c>
+      <c r="B169" s="1"/>
       <c r="C169" s="2"/>
       <c r="D169" s="1"/>
       <c r="E169" s="3"/>
@@ -8570,29 +8581,15 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="B170" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C170" s="2">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E170" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="F170" s="27" t="s">
-        <v>10</v>
-      </c>
+    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="1"/>
       <c r="G170" s="3"/>
-      <c r="H170" s="15" t="s">
-        <v>231</v>
-      </c>
+      <c r="H170" s="4"/>
       <c r="I170" s="3"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -8612,25 +8609,27 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="55"/>
+      <c r="A171" s="62" t="s">
+        <v>229</v>
+      </c>
       <c r="B171" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C171" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F171" s="26" t="s">
-        <v>22</v>
+        <v>230</v>
+      </c>
+      <c r="F171" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
@@ -8650,26 +8649,26 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A172" s="55"/>
       <c r="B172" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C172" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F172" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G172" s="3"/>
-      <c r="H172" s="16" t="s">
-        <v>237</v>
+      <c r="H172" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8689,26 +8688,26 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A173" s="55"/>
       <c r="B173" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C173" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F173" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G173" s="3"/>
-      <c r="H173" s="15" t="s">
-        <v>240</v>
+      <c r="H173" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
@@ -8728,26 +8727,26 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A174" s="55"/>
       <c r="B174" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C174" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F174" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="3"/>
-      <c r="H174" s="16" t="s">
-        <v>237</v>
+      <c r="H174" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8767,15 +8766,27 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="17"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="1"/>
+    <row r="175" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="55"/>
+      <c r="B175" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C175" s="2">
+        <v>5</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E175" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F175" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
+      <c r="H175" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -8821,29 +8832,15 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A177" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="B177" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C177" s="2">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E177" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F177" s="27" t="s">
-        <v>10</v>
-      </c>
+    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A177" s="17"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="1"/>
       <c r="G177" s="3"/>
-      <c r="H177" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -8863,24 +8860,28 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="62"/>
+      <c r="A178" s="62" t="s">
+        <v>243</v>
+      </c>
       <c r="B178" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C178" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E178" s="23" t="s">
-        <v>421</v>
+        <v>244</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="F178" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="3"/>
-      <c r="H178" s="15"/>
+      <c r="H178" s="15" t="s">
+        <v>246</v>
+      </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -8900,26 +8901,24 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="55"/>
+      <c r="A179" s="62"/>
       <c r="B179" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C179" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="F179" s="26" t="s">
-        <v>22</v>
+        <v>420</v>
+      </c>
+      <c r="E179" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="F179" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G179" s="3"/>
-      <c r="H179" s="15" t="s">
-        <v>249</v>
-      </c>
+      <c r="H179" s="15"/>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -8944,10 +8943,10 @@
         <v>0</v>
       </c>
       <c r="C180" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E180" s="19" t="s">
         <v>248</v>
@@ -8957,7 +8956,7 @@
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -8983,20 +8982,20 @@
         <v>0</v>
       </c>
       <c r="C181" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E181" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
+      </c>
+      <c r="E181" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="F181" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -9022,20 +9021,20 @@
         <v>0</v>
       </c>
       <c r="C182" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E182" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="E182" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="F182" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -9061,20 +9060,20 @@
         <v>0</v>
       </c>
       <c r="C183" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E183" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F183" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -9100,20 +9099,20 @@
         <v>0</v>
       </c>
       <c r="C184" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E184" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
+      </c>
+      <c r="E184" s="23" t="s">
+        <v>259</v>
       </c>
       <c r="F184" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -9133,26 +9132,26 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A185" s="55"/>
       <c r="B185" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C185" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E185" s="53" t="s">
-        <v>443</v>
+        <v>261</v>
+      </c>
+      <c r="E185" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="F185" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" s="16" t="s">
-        <v>265</v>
+      <c r="H185" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -9172,26 +9171,26 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A186" s="55"/>
       <c r="B186" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C186" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E186" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="E186" s="53" t="s">
+        <v>443</v>
       </c>
       <c r="F186" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="15" t="s">
-        <v>268</v>
+      <c r="H186" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
@@ -9217,20 +9216,20 @@
         <v>0</v>
       </c>
       <c r="C187" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E187" s="23" t="s">
-        <v>270</v>
+        <v>266</v>
+      </c>
+      <c r="E187" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="F187" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
@@ -9253,22 +9252,24 @@
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A188" s="55"/>
       <c r="B188" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>449</v>
+        <v>269</v>
       </c>
       <c r="E188" s="23" t="s">
-        <v>448</v>
+        <v>270</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="3"/>
-      <c r="H188" s="15"/>
+      <c r="H188" s="15" t="s">
+        <v>271</v>
+      </c>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -9293,13 +9294,13 @@
         <v>1</v>
       </c>
       <c r="C189" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E189" s="23" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F189" s="26" t="s">
         <v>22</v>
@@ -9330,21 +9331,19 @@
         <v>1</v>
       </c>
       <c r="C190" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E190" s="18" t="s">
-        <v>273</v>
+        <v>444</v>
+      </c>
+      <c r="E190" s="23" t="s">
+        <v>445</v>
       </c>
       <c r="F190" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="3"/>
-      <c r="H190" s="15" t="s">
-        <v>274</v>
-      </c>
+      <c r="H190" s="15"/>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -9369,20 +9368,20 @@
         <v>1</v>
       </c>
       <c r="C191" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>146</v>
+        <v>272</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F191" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9408,19 +9407,21 @@
         <v>1</v>
       </c>
       <c r="C192" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E192" s="23" t="s">
-        <v>447</v>
+        <v>146</v>
+      </c>
+      <c r="E192" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="F192" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" s="15"/>
+      <c r="H192" s="15" t="s">
+        <v>276</v>
+      </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
@@ -9445,21 +9446,19 @@
         <v>1</v>
       </c>
       <c r="C193" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E193" s="18" t="s">
-        <v>278</v>
+        <v>446</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>447</v>
       </c>
       <c r="F193" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="15" t="s">
-        <v>279</v>
-      </c>
+      <c r="H193" s="15"/>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -9481,23 +9480,23 @@
     <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A194" s="55"/>
       <c r="B194" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E194" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F194" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
@@ -9517,26 +9516,26 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A195" s="55"/>
       <c r="B195" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C195" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E195" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="F195" s="28" t="s">
-        <v>55</v>
+        <v>281</v>
+      </c>
+      <c r="F195" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="16" t="s">
-        <v>285</v>
+      <c r="H195" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
@@ -9556,26 +9555,26 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A196" s="55"/>
       <c r="B196" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C196" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E196" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="F196" s="26" t="s">
-        <v>22</v>
+        <v>284</v>
+      </c>
+      <c r="F196" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="G196" s="3"/>
-      <c r="H196" s="15" t="s">
-        <v>288</v>
+      <c r="H196" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
@@ -9598,22 +9597,24 @@
     <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A197" s="55"/>
       <c r="B197" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E197" s="23" t="s">
-        <v>418</v>
+        <v>286</v>
+      </c>
+      <c r="E197" s="18" t="s">
+        <v>287</v>
       </c>
       <c r="F197" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G197" s="3"/>
-      <c r="H197" s="15"/>
+      <c r="H197" s="15" t="s">
+        <v>288</v>
+      </c>
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -9638,13 +9639,13 @@
         <v>0</v>
       </c>
       <c r="C198" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="F198" s="26" t="s">
         <v>22</v>
@@ -9675,21 +9676,19 @@
         <v>0</v>
       </c>
       <c r="C199" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E199" s="18" t="s">
-        <v>248</v>
+        <v>442</v>
+      </c>
+      <c r="E199" s="23" t="s">
+        <v>441</v>
       </c>
       <c r="F199" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="15" t="s">
-        <v>290</v>
-      </c>
+      <c r="H199" s="15"/>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -9714,19 +9713,21 @@
         <v>0</v>
       </c>
       <c r="C200" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E200" s="23" t="s">
-        <v>438</v>
+        <v>289</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="F200" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="15"/>
+      <c r="H200" s="15" t="s">
+        <v>290</v>
+      </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -9748,16 +9749,16 @@
     <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A201" s="55"/>
       <c r="B201" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E201" s="23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F201" s="26" t="s">
         <v>22</v>
@@ -9785,16 +9786,16 @@
     <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A202" s="55"/>
       <c r="B202" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="E202" s="23" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="F202" s="26" t="s">
         <v>22</v>
@@ -9825,21 +9826,19 @@
         <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E203" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F203" s="26" t="s">
-        <v>22</v>
+        <v>422</v>
+      </c>
+      <c r="E203" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="F203" s="63" t="s">
+        <v>55</v>
       </c>
       <c r="G203" s="3"/>
-      <c r="H203" s="15" t="s">
-        <v>293</v>
-      </c>
+      <c r="H203" s="15"/>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
@@ -9864,19 +9863,21 @@
         <v>0</v>
       </c>
       <c r="C204" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E204" s="23" t="s">
-        <v>416</v>
+        <v>291</v>
+      </c>
+      <c r="E204" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="F204" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="15"/>
+      <c r="H204" s="15" t="s">
+        <v>293</v>
+      </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -9898,24 +9899,22 @@
     <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A205" s="55"/>
       <c r="B205" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E205" s="18" t="s">
-        <v>295</v>
+        <v>415</v>
+      </c>
+      <c r="E205" s="23" t="s">
+        <v>416</v>
       </c>
       <c r="F205" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="15" t="s">
-        <v>296</v>
-      </c>
+      <c r="H205" s="15"/>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -9934,26 +9933,26 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A206" s="55"/>
       <c r="B206" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E206" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F206" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G206" s="3"/>
-      <c r="H206" s="16" t="s">
-        <v>299</v>
+      <c r="H206" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
@@ -9979,20 +9978,20 @@
         <v>0</v>
       </c>
       <c r="C207" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="E207" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F207" s="28" t="s">
-        <v>55</v>
+        <v>298</v>
+      </c>
+      <c r="F207" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -10018,20 +10017,20 @@
         <v>0</v>
       </c>
       <c r="C208" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>302</v>
+        <v>417</v>
       </c>
       <c r="E208" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F208" s="28" t="s">
         <v>55</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -10051,27 +10050,25 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A209" s="55"/>
       <c r="B209" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E209" s="18" t="s">
-        <v>262</v>
+        <v>454</v>
+      </c>
+      <c r="E209" s="23" t="s">
+        <v>453</v>
       </c>
       <c r="F209" s="28" t="s">
         <v>55</v>
       </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="15" t="s">
-        <v>306</v>
-      </c>
+      <c r="H209" s="16"/>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
@@ -10091,24 +10088,26 @@
       <c r="Y209" s="1"/>
     </row>
     <row r="210" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="1"/>
+      <c r="A210" s="55"/>
       <c r="B210" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E210" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="F210" s="49" t="s">
-        <v>10</v>
+        <v>302</v>
+      </c>
+      <c r="E210" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F210" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="4"/>
+      <c r="H210" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -10127,15 +10126,27 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="1"/>
+    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A211" s="55"/>
+      <c r="B211" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C211" s="2">
+        <v>34</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E211" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F211" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="G211" s="3"/>
-      <c r="H211" s="4"/>
+      <c r="H211" s="15" t="s">
+        <v>306</v>
+      </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -10154,29 +10165,25 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A212" s="62" t="s">
-        <v>307</v>
-      </c>
+    <row r="212" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="1"/>
       <c r="B212" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E212" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F212" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="E212" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="F212" s="49" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="3"/>
-      <c r="H212" s="15" t="s">
-        <v>309</v>
-      </c>
+      <c r="H212" s="4"/>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -10195,27 +10202,15 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A213" s="55"/>
-      <c r="B213" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C213" s="2">
-        <v>2</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E213" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F213" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="1"/>
       <c r="G213" s="3"/>
-      <c r="H213" s="15" t="s">
-        <v>311</v>
-      </c>
+      <c r="H213" s="4"/>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
@@ -10234,26 +10229,28 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A214" s="55"/>
+    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A214" s="62" t="s">
+        <v>307</v>
+      </c>
       <c r="B214" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E214" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="E214" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F214" s="26" t="s">
-        <v>22</v>
+      <c r="F214" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G214" s="3"/>
-      <c r="H214" s="16" t="s">
-        <v>313</v>
+      <c r="H214" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10273,16 +10270,16 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A215" s="55"/>
       <c r="B215" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>9</v>
@@ -10291,8 +10288,8 @@
         <v>22</v>
       </c>
       <c r="G215" s="3"/>
-      <c r="H215" s="16" t="s">
-        <v>315</v>
+      <c r="H215" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10312,26 +10309,26 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A216" s="55"/>
       <c r="B216" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E216" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E216" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F216" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="15" t="s">
-        <v>317</v>
+      <c r="H216" s="16" t="s">
+        <v>313</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10351,16 +10348,16 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A217" s="55"/>
       <c r="B217" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>9</v>
@@ -10369,8 +10366,8 @@
         <v>22</v>
       </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="15" t="s">
-        <v>319</v>
+      <c r="H217" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10396,10 +10393,10 @@
         <v>0</v>
       </c>
       <c r="C218" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>9</v>
@@ -10409,7 +10406,7 @@
       </c>
       <c r="G218" s="3"/>
       <c r="H218" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
@@ -10429,16 +10426,16 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A219" s="55"/>
       <c r="B219" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C219" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>9</v>
@@ -10447,8 +10444,8 @@
         <v>22</v>
       </c>
       <c r="G219" s="3"/>
-      <c r="H219" s="16" t="s">
-        <v>323</v>
+      <c r="H219" s="15" t="s">
+        <v>319</v>
       </c>
       <c r="I219" s="3"/>
       <c r="J219" s="1"/>
@@ -10474,10 +10471,10 @@
         <v>0</v>
       </c>
       <c r="C220" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>9</v>
@@ -10487,7 +10484,7 @@
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
@@ -10507,16 +10504,16 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A221" s="55"/>
       <c r="B221" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C221" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>9</v>
@@ -10525,8 +10522,8 @@
         <v>22</v>
       </c>
       <c r="G221" s="3"/>
-      <c r="H221" s="15" t="s">
-        <v>327</v>
+      <c r="H221" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10546,16 +10543,16 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A222" s="55"/>
       <c r="B222" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C222" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>9</v>
@@ -10564,8 +10561,8 @@
         <v>22</v>
       </c>
       <c r="G222" s="3"/>
-      <c r="H222" s="16" t="s">
-        <v>329</v>
+      <c r="H222" s="15" t="s">
+        <v>325</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
@@ -10591,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="C223" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>9</v>
@@ -10604,7 +10601,7 @@
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
@@ -10624,16 +10621,16 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A224" s="55"/>
       <c r="B224" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C224" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>9</v>
@@ -10642,8 +10639,8 @@
         <v>22</v>
       </c>
       <c r="G224" s="3"/>
-      <c r="H224" s="15" t="s">
-        <v>333</v>
+      <c r="H224" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
@@ -10669,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="C225" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>9</v>
@@ -10682,7 +10679,7 @@
       </c>
       <c r="G225" s="3"/>
       <c r="H225" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
@@ -10702,16 +10699,16 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A226" s="55"/>
       <c r="B226" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C226" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>9</v>
@@ -10720,8 +10717,8 @@
         <v>22</v>
       </c>
       <c r="G226" s="3"/>
-      <c r="H226" s="16" t="s">
-        <v>337</v>
+      <c r="H226" s="15" t="s">
+        <v>333</v>
       </c>
       <c r="I226" s="3"/>
       <c r="J226" s="1"/>
@@ -10741,26 +10738,26 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A227" s="55"/>
       <c r="B227" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C227" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E227" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F227" s="28" t="s">
-        <v>55</v>
+      <c r="F227" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G227" s="3"/>
-      <c r="H227" s="16" t="s">
-        <v>339</v>
+      <c r="H227" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="1"/>
@@ -10786,20 +10783,20 @@
         <v>0</v>
       </c>
       <c r="C228" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E228" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F228" s="28" t="s">
-        <v>55</v>
+      <c r="F228" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G228" s="3"/>
       <c r="H228" s="16" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I228" s="3"/>
       <c r="J228" s="1"/>
@@ -10825,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="C229" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E229" s="8" t="s">
         <v>9</v>
@@ -10838,7 +10835,7 @@
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="16" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I229" s="3"/>
       <c r="J229" s="1"/>
@@ -10858,16 +10855,16 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A230" s="55"/>
       <c r="B230" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C230" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E230" s="8" t="s">
         <v>9</v>
@@ -10876,8 +10873,8 @@
         <v>55</v>
       </c>
       <c r="G230" s="3"/>
-      <c r="H230" s="15" t="s">
-        <v>345</v>
+      <c r="H230" s="16" t="s">
+        <v>341</v>
       </c>
       <c r="I230" s="3"/>
       <c r="J230" s="1"/>
@@ -10897,16 +10894,16 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A231" s="55"/>
       <c r="B231" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C231" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E231" s="8" t="s">
         <v>9</v>
@@ -10915,8 +10912,8 @@
         <v>55</v>
       </c>
       <c r="G231" s="3"/>
-      <c r="H231" s="15" t="s">
-        <v>347</v>
+      <c r="H231" s="16" t="s">
+        <v>343</v>
       </c>
       <c r="I231" s="3"/>
       <c r="J231" s="1"/>
@@ -10936,16 +10933,16 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A232" s="55"/>
       <c r="B232" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C232" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E232" s="8" t="s">
         <v>9</v>
@@ -10954,8 +10951,8 @@
         <v>55</v>
       </c>
       <c r="G232" s="3"/>
-      <c r="H232" s="16" t="s">
-        <v>349</v>
+      <c r="H232" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="1"/>
@@ -10975,17 +10972,27 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A233" s="1"/>
+    <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A233" s="55"/>
       <c r="B233" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C233" s="2"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="1"/>
+      <c r="C233" s="2">
+        <v>20</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="G233" s="3"/>
-      <c r="H233" s="4"/>
+      <c r="H233" s="15" t="s">
+        <v>347</v>
+      </c>
       <c r="I233" s="3"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -11005,16 +11012,26 @@
       <c r="Y233" s="1"/>
     </row>
     <row r="234" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A234" s="1"/>
+      <c r="A234" s="55"/>
       <c r="B234" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C234" s="2"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="1"/>
+      <c r="C234" s="2">
+        <v>21</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="G234" s="3"/>
-      <c r="H234" s="4"/>
+      <c r="H234" s="16" t="s">
+        <v>349</v>
+      </c>
       <c r="I234" s="3"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -11033,29 +11050,15 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="B235" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C235" s="2">
-        <v>1</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E235" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F235" s="27" t="s">
-        <v>10</v>
-      </c>
+    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="1"/>
       <c r="G235" s="3"/>
-      <c r="H235" s="16" t="s">
-        <v>352</v>
-      </c>
+      <c r="H235" s="4"/>
       <c r="I235" s="3"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -11074,27 +11077,15 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A236" s="55"/>
-      <c r="B236" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C236" s="2">
-        <v>2</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E236" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F236" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="1"/>
       <c r="G236" s="3"/>
-      <c r="H236" s="15" t="s">
-        <v>354</v>
-      </c>
+      <c r="H236" s="4"/>
       <c r="I236" s="3"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
@@ -11113,26 +11104,28 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A237" s="55"/>
+    <row r="237" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="62" t="s">
+        <v>350</v>
+      </c>
       <c r="B237" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C237" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E237" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E237" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F237" s="26" t="s">
-        <v>22</v>
+      <c r="F237" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G237" s="3"/>
-      <c r="H237" s="15" t="s">
-        <v>356</v>
+      <c r="H237" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="I237" s="3"/>
       <c r="J237" s="1"/>
@@ -11158,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="C238" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E238" s="8" t="s">
         <v>9</v>
@@ -11171,7 +11164,7 @@
       </c>
       <c r="G238" s="3"/>
       <c r="H238" s="15" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I238" s="3"/>
       <c r="J238" s="1"/>
@@ -11197,10 +11190,10 @@
         <v>0</v>
       </c>
       <c r="C239" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E239" s="8" t="s">
         <v>9</v>
@@ -11209,8 +11202,8 @@
         <v>22</v>
       </c>
       <c r="G239" s="3"/>
-      <c r="H239" s="20" t="s">
-        <v>360</v>
+      <c r="H239" s="15" t="s">
+        <v>356</v>
       </c>
       <c r="I239" s="3"/>
       <c r="J239" s="1"/>
@@ -11236,20 +11229,20 @@
         <v>0</v>
       </c>
       <c r="C240" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E240" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F240" s="28" t="s">
-        <v>55</v>
+      <c r="F240" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G240" s="3"/>
       <c r="H240" s="15" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I240" s="3"/>
       <c r="J240" s="1"/>
@@ -11269,17 +11262,27 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="1"/>
+    <row r="241" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A241" s="55"/>
       <c r="B241" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C241" s="2"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="1"/>
+      <c r="C241" s="2">
+        <v>5</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E241" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G241" s="3"/>
-      <c r="H241" s="4"/>
+      <c r="H241" s="20" t="s">
+        <v>360</v>
+      </c>
       <c r="I241" s="3"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -11298,17 +11301,27 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="1"/>
+    <row r="242" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A242" s="55"/>
       <c r="B242" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C242" s="2"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="1"/>
+      <c r="C242" s="2">
+        <v>6</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="G242" s="3"/>
-      <c r="H242" s="4"/>
+      <c r="H242" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="I242" s="3"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
@@ -11328,24 +11341,14 @@
       <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="59" t="s">
-        <v>398</v>
-      </c>
+      <c r="A243" s="1"/>
       <c r="B243" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C243" s="2">
-        <v>1</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E243" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F243" s="41" t="s">
-        <v>407</v>
-      </c>
+      <c r="C243" s="2"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="1"/>
       <c r="G243" s="3"/>
       <c r="H243" s="4"/>
       <c r="I243" s="3"/>
@@ -11367,22 +11370,14 @@
       <c r="Y243" s="1"/>
     </row>
     <row r="244" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A244" s="55"/>
+      <c r="A244" s="1"/>
       <c r="B244" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C244" s="2">
-        <v>2</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E244" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F244" s="41" t="s">
-        <v>407</v>
-      </c>
+      <c r="C244" s="2"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="1"/>
       <c r="G244" s="3"/>
       <c r="H244" s="4"/>
       <c r="I244" s="3"/>
@@ -11404,15 +11399,17 @@
       <c r="Y244" s="1"/>
     </row>
     <row r="245" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A245" s="55"/>
+      <c r="A245" s="59" t="s">
+        <v>398</v>
+      </c>
       <c r="B245" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C245" s="2">
-        <v>3</v>
-      </c>
-      <c r="D245" s="24" t="s">
-        <v>411</v>
+        <v>1</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="E245" s="21" t="s">
         <v>9</v>
@@ -11446,10 +11443,10 @@
         <v>0</v>
       </c>
       <c r="C246" s="2">
-        <v>4</v>
-      </c>
-      <c r="D246" s="24" t="s">
-        <v>412</v>
+        <v>2</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="E246" s="21" t="s">
         <v>9</v>
@@ -11483,11 +11480,17 @@
         <v>0</v>
       </c>
       <c r="C247" s="2">
-        <v>5</v>
-      </c>
-      <c r="D247" s="1"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D247" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E247" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" s="41" t="s">
+        <v>407</v>
+      </c>
       <c r="G247" s="3"/>
       <c r="H247" s="4"/>
       <c r="I247" s="3"/>
@@ -11514,11 +11517,17 @@
         <v>0</v>
       </c>
       <c r="C248" s="2">
-        <v>6</v>
-      </c>
-      <c r="D248" s="1"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D248" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E248" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" s="41" t="s">
+        <v>407</v>
+      </c>
       <c r="G248" s="3"/>
       <c r="H248" s="4"/>
       <c r="I248" s="3"/>
@@ -11545,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="C249" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="3"/>
@@ -11576,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="C250" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="3"/>
@@ -11607,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="C251" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="3"/>
@@ -11638,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="C252" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="3"/>
@@ -11669,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="C253" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="3"/>
@@ -11700,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="C254" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="3"/>
@@ -11731,7 +11740,7 @@
         <v>0</v>
       </c>
       <c r="C255" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="3"/>
@@ -11762,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="C256" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="3"/>
@@ -11793,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="C257" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="3"/>
@@ -11818,10 +11827,14 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A258" s="55"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="2"/>
+      <c r="B258" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C258" s="2">
+        <v>14</v>
+      </c>
       <c r="D258" s="1"/>
       <c r="E258" s="3"/>
       <c r="F258" s="1"/>
@@ -11845,10 +11858,14 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A259" s="55"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="2"/>
+      <c r="B259" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C259" s="2">
+        <v>15</v>
+      </c>
       <c r="D259" s="1"/>
       <c r="E259" s="3"/>
       <c r="F259" s="1"/>
@@ -11954,7 +11971,7 @@
       <c r="Y262" s="1"/>
     </row>
     <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
+      <c r="A263" s="55"/>
       <c r="B263" s="1"/>
       <c r="C263" s="2"/>
       <c r="D263" s="1"/>
@@ -11981,7 +11998,7 @@
       <c r="Y263" s="1"/>
     </row>
     <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
+      <c r="A264" s="55"/>
       <c r="B264" s="1"/>
       <c r="C264" s="2"/>
       <c r="D264" s="1"/>
@@ -32419,248 +32436,302 @@
       <c r="X1020" s="1"/>
       <c r="Y1020" s="1"/>
     </row>
+    <row r="1021" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1021" s="1"/>
+      <c r="B1021" s="1"/>
+      <c r="C1021" s="2"/>
+      <c r="D1021" s="1"/>
+      <c r="E1021" s="3"/>
+      <c r="F1021" s="1"/>
+      <c r="G1021" s="3"/>
+      <c r="H1021" s="4"/>
+      <c r="I1021" s="3"/>
+      <c r="J1021" s="1"/>
+      <c r="K1021" s="1"/>
+      <c r="L1021" s="1"/>
+      <c r="M1021" s="1"/>
+      <c r="N1021" s="1"/>
+      <c r="O1021" s="1"/>
+      <c r="P1021" s="1"/>
+      <c r="Q1021" s="1"/>
+      <c r="R1021" s="1"/>
+      <c r="S1021" s="1"/>
+      <c r="T1021" s="1"/>
+      <c r="U1021" s="1"/>
+      <c r="V1021" s="1"/>
+      <c r="W1021" s="1"/>
+      <c r="X1021" s="1"/>
+      <c r="Y1021" s="1"/>
+    </row>
+    <row r="1022" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1022" s="1"/>
+      <c r="B1022" s="1"/>
+      <c r="C1022" s="2"/>
+      <c r="D1022" s="1"/>
+      <c r="E1022" s="3"/>
+      <c r="F1022" s="1"/>
+      <c r="G1022" s="3"/>
+      <c r="H1022" s="4"/>
+      <c r="I1022" s="3"/>
+      <c r="J1022" s="1"/>
+      <c r="K1022" s="1"/>
+      <c r="L1022" s="1"/>
+      <c r="M1022" s="1"/>
+      <c r="N1022" s="1"/>
+      <c r="O1022" s="1"/>
+      <c r="P1022" s="1"/>
+      <c r="Q1022" s="1"/>
+      <c r="R1022" s="1"/>
+      <c r="S1022" s="1"/>
+      <c r="T1022" s="1"/>
+      <c r="U1022" s="1"/>
+      <c r="V1022" s="1"/>
+      <c r="W1022" s="1"/>
+      <c r="X1022" s="1"/>
+      <c r="Y1022" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A7:A36"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A243:A262"/>
-    <mergeCell ref="A44:A61"/>
-    <mergeCell ref="A64:A76"/>
-    <mergeCell ref="A212:A232"/>
-    <mergeCell ref="A235:A240"/>
-    <mergeCell ref="A79:A95"/>
-    <mergeCell ref="A98:A114"/>
-    <mergeCell ref="A117:A143"/>
-    <mergeCell ref="A147:A159"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="A170:A174"/>
-    <mergeCell ref="A177:A209"/>
+    <mergeCell ref="A7:A37"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A245:A264"/>
+    <mergeCell ref="A45:A62"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="A214:A234"/>
+    <mergeCell ref="A237:A242"/>
+    <mergeCell ref="A80:A96"/>
+    <mergeCell ref="A99:A115"/>
+    <mergeCell ref="A118:A144"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A178:A211"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E38" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E39" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G39" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E40" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G40" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E41" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E44" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G44" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E45" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E48" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E49" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G49" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E53" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G53" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G54" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E55" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G55" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E57" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E58" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E60" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E64" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E65" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E66" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G66" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E67" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E68" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E69" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G69" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E72" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E73" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G73" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E76" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G76" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E79" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="G79" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E80" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="G80" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E81" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="G81" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E82" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E83" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="G83" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E84" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="G84" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E85" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="G85" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E86" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="G86" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E88" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E89" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E93" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E95" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="G95" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E98" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="G98" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E99" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="G99" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E100" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="G100" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E101" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="G101" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E102" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G102" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E103" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E104" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E106" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G106" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E110" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G110" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E111" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G111" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E112" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G112" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E113" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G113" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E114" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G114" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E117" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G117" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E118" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G118" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E119" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G119" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E120" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E121" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G121" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E122" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="G122" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E123" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="G123" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E124" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G124" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E125" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E126" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="G126" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E127" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E128" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="G128" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E129" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E132" r:id="rId103" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E133" r:id="rId104" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G133" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E135" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="G135" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E136" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G136" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E137" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="G137" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E138" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E139" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="G139" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E140" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="G140" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E141" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E142" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E143" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E147" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E148" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G148" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E149" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G149" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E150" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="G150" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E151" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G151" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E152" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G152" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E153" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G153" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E154" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G154" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E155" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G155" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E156" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="G156" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E157" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G157" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E158" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E159" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="G159" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E162" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E163" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E164" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E165" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E166" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E167" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E170" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E171" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E172" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E173" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E174" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E177" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E179" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E180" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E181" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E182" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E183" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E184" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E186" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E187" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E190" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E191" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E193" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E194" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E195" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E196" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E199" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E203" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E205" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E206" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E207" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E208" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E209" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E212" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E213" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E214" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E215" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E216" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E217" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E218" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E219" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E220" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E221" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E222" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E223" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E224" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E225" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E226" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E227" r:id="rId192" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E228" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E229" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E230" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E231" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E232" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E235" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E236" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E237" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E238" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E239" r:id="rId202" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E240" r:id="rId203" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E210" r:id="rId204" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E145" r:id="rId205" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E144" r:id="rId206" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
-    <hyperlink ref="G71" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E71" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E70" r:id="rId209" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
+    <hyperlink ref="E39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G39" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E41" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G41" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E42" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E45" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E46" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E49" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G50" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E54" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E55" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G55" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E56" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G56" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E58" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E59" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E61" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E65" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G65" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E66" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E67" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G67" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E68" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E69" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E70" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G70" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E73" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E74" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G74" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E77" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G77" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E80" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G80" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E81" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G81" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E82" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G82" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E83" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E84" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G84" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E85" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G85" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E86" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G86" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E87" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G87" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E89" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E90" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E94" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E96" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G96" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E99" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G99" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E100" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G100" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E101" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G101" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E102" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G102" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E103" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G103" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E104" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E105" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E107" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G107" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E111" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G111" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E112" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G112" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E113" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G113" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E114" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G114" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E115" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G115" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E118" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G118" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E119" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G119" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E120" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G120" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E121" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E122" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G122" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E123" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G123" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E124" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G124" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E125" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G125" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E126" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E127" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G127" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E128" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E129" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G129" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E130" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E133" r:id="rId103" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E134" r:id="rId104" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G134" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E136" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G136" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E137" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G137" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E138" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G138" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E139" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E140" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G140" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E141" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G141" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E142" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E143" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E144" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E148" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E149" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G149" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E150" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G150" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E151" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G151" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E152" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G152" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E153" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G153" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E154" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G154" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E155" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G155" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E156" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G156" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E157" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G157" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E158" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G158" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E159" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E160" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G160" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E163" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E164" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E165" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E166" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E167" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E168" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E171" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E172" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E173" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E174" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E175" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E178" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E180" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E181" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E182" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E183" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E184" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E185" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E187" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E188" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E191" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E192" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E194" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E195" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E196" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E197" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E200" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E204" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E206" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E207" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E208" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E210" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E211" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E214" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E215" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E216" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E217" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E218" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E219" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E220" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E221" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E222" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E223" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E224" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E225" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E226" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E227" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E228" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E229" r:id="rId192" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E230" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E231" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E232" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E233" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E234" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E237" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E238" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E239" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E240" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E241" r:id="rId202" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E242" r:id="rId203" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E212" r:id="rId204" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E146" r:id="rId205" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E145" r:id="rId206" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="G72" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E72" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E71" r:id="rId209" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
     <hyperlink ref="E6" r:id="rId210" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
-    <hyperlink ref="E87" r:id="rId211" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
-    <hyperlink ref="E92" r:id="rId212" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
-    <hyperlink ref="E91" r:id="rId213" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
-    <hyperlink ref="E90" r:id="rId214" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
-    <hyperlink ref="E47" r:id="rId215" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
-    <hyperlink ref="E59" r:id="rId216" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
+    <hyperlink ref="E88" r:id="rId211" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
+    <hyperlink ref="E93" r:id="rId212" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
+    <hyperlink ref="E92" r:id="rId213" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
+    <hyperlink ref="E91" r:id="rId214" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
+    <hyperlink ref="E48" r:id="rId215" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
+    <hyperlink ref="E60" r:id="rId216" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
     <hyperlink ref="E32" r:id="rId217" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
     <hyperlink ref="E14" r:id="rId218" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
     <hyperlink ref="E7" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G7" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E11" r:id="rId221" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
-    <hyperlink ref="G36" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E36" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G37" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E37" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="E35" r:id="rId224" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="G34" r:id="rId225" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="E34" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
@@ -32696,44 +32767,46 @@
     <hyperlink ref="E9" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G8" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E8" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E243" r:id="rId259" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E245" r:id="rId259" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
     <hyperlink ref="E21" r:id="rId260" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E244" r:id="rId261" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E246" r:id="rId261" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
     <hyperlink ref="E30" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="E12" r:id="rId263" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
-    <hyperlink ref="E245" r:id="rId264" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
-    <hyperlink ref="E246" r:id="rId265" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E247" r:id="rId264" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E248" r:id="rId265" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
     <hyperlink ref="E24" r:id="rId266" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
     <hyperlink ref="E19" r:id="rId267" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
-    <hyperlink ref="E204" r:id="rId268" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
-    <hyperlink ref="E197" r:id="rId269" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
-    <hyperlink ref="E178" r:id="rId270" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
-    <hyperlink ref="E202" r:id="rId271" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
-    <hyperlink ref="E105" r:id="rId272" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
-    <hyperlink ref="E109" r:id="rId273" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
-    <hyperlink ref="E108" r:id="rId274" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
-    <hyperlink ref="E107" r:id="rId275" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
-    <hyperlink ref="E134" r:id="rId276" xr:uid="{880B159A-370B-40EE-A5C8-AE68325F8994}"/>
-    <hyperlink ref="E130" r:id="rId277" xr:uid="{96ACD224-977A-4E66-9264-5617B21A7B5A}"/>
-    <hyperlink ref="E131" r:id="rId278" xr:uid="{7FD7344C-2A6A-4318-A67E-05F8EA153E88}"/>
-    <hyperlink ref="E94" r:id="rId279" xr:uid="{B6515FE2-AD7F-4A71-83EF-89020758DE37}"/>
-    <hyperlink ref="E96" r:id="rId280" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
-    <hyperlink ref="E56" r:id="rId281" xr:uid="{AB524FDC-322C-4129-B3D3-C0CD18DF6C39}"/>
-    <hyperlink ref="E46" r:id="rId282" xr:uid="{12F3604F-E330-4354-82A9-2E7144C6C69C}"/>
-    <hyperlink ref="E51" r:id="rId283" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
-    <hyperlink ref="E50" r:id="rId284" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
-    <hyperlink ref="E52" r:id="rId285" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
-    <hyperlink ref="E201" r:id="rId286" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
-    <hyperlink ref="E200" r:id="rId287" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
-    <hyperlink ref="E198" r:id="rId288" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
-    <hyperlink ref="E185" r:id="rId289" xr:uid="{2401C9CC-8D34-433A-BAAD-C1FD2BC14D49}"/>
-    <hyperlink ref="E189" r:id="rId290" xr:uid="{D146BB8F-137F-4456-BBA2-EC755F8EBC46}"/>
-    <hyperlink ref="E192" r:id="rId291" xr:uid="{E360B755-600F-4776-B306-2E5CFACE17ED}"/>
-    <hyperlink ref="E188" r:id="rId292" xr:uid="{A5B75A0D-986A-4F1A-B094-7B65E143FDE2}"/>
-    <hyperlink ref="E74" r:id="rId293" xr:uid="{F858A3E3-5FB0-420A-93A4-648662EF60EA}"/>
-    <hyperlink ref="E75" r:id="rId294" xr:uid="{E4B29D74-9296-485B-83BA-F2FBF277CAEE}"/>
+    <hyperlink ref="E205" r:id="rId268" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
+    <hyperlink ref="E198" r:id="rId269" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
+    <hyperlink ref="E179" r:id="rId270" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
+    <hyperlink ref="E203" r:id="rId271" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
+    <hyperlink ref="E106" r:id="rId272" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
+    <hyperlink ref="E110" r:id="rId273" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
+    <hyperlink ref="E109" r:id="rId274" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
+    <hyperlink ref="E108" r:id="rId275" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
+    <hyperlink ref="E135" r:id="rId276" xr:uid="{880B159A-370B-40EE-A5C8-AE68325F8994}"/>
+    <hyperlink ref="E131" r:id="rId277" xr:uid="{96ACD224-977A-4E66-9264-5617B21A7B5A}"/>
+    <hyperlink ref="E132" r:id="rId278" xr:uid="{7FD7344C-2A6A-4318-A67E-05F8EA153E88}"/>
+    <hyperlink ref="E95" r:id="rId279" xr:uid="{B6515FE2-AD7F-4A71-83EF-89020758DE37}"/>
+    <hyperlink ref="E97" r:id="rId280" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
+    <hyperlink ref="E57" r:id="rId281" xr:uid="{AB524FDC-322C-4129-B3D3-C0CD18DF6C39}"/>
+    <hyperlink ref="E47" r:id="rId282" xr:uid="{12F3604F-E330-4354-82A9-2E7144C6C69C}"/>
+    <hyperlink ref="E52" r:id="rId283" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
+    <hyperlink ref="E51" r:id="rId284" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
+    <hyperlink ref="E53" r:id="rId285" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
+    <hyperlink ref="E202" r:id="rId286" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
+    <hyperlink ref="E201" r:id="rId287" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
+    <hyperlink ref="E199" r:id="rId288" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
+    <hyperlink ref="E186" r:id="rId289" xr:uid="{2401C9CC-8D34-433A-BAAD-C1FD2BC14D49}"/>
+    <hyperlink ref="E190" r:id="rId290" xr:uid="{D146BB8F-137F-4456-BBA2-EC755F8EBC46}"/>
+    <hyperlink ref="E193" r:id="rId291" xr:uid="{E360B755-600F-4776-B306-2E5CFACE17ED}"/>
+    <hyperlink ref="E189" r:id="rId292" xr:uid="{A5B75A0D-986A-4F1A-B094-7B65E143FDE2}"/>
+    <hyperlink ref="E75" r:id="rId293" xr:uid="{F858A3E3-5FB0-420A-93A4-648662EF60EA}"/>
+    <hyperlink ref="E76" r:id="rId294" xr:uid="{E4B29D74-9296-485B-83BA-F2FBF277CAEE}"/>
+    <hyperlink ref="E36" r:id="rId295" xr:uid="{AFD749B1-917D-4B9C-A4A3-C3DEE02AC2C0}"/>
+    <hyperlink ref="E209" r:id="rId296" xr:uid="{0CCBA335-85C5-47D0-ABB1-7AD15CE9C6BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId295"/>
+  <pageSetup orientation="portrait" r:id="rId297"/>
 </worksheet>
 </file>
--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16D3993-E500-45E6-8C08-3EE0A87E21DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E148C4ED-3D3D-4BDC-94E9-971DACC2C7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="461">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -1398,6 +1398,24 @@
   </si>
   <si>
     <t>Dijkstra's Algorithm (SWIM WATER)</t>
+  </si>
+  <si>
+    <t>Climb stairs</t>
+  </si>
+  <si>
+    <t>Frog jump</t>
+  </si>
+  <si>
+    <t>Find Safest path in grid</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-safest-path-in-a-grid/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/build-a-matrix-with-conditions/description/</t>
+  </si>
+  <si>
+    <t>Topo sort</t>
   </si>
 </sst>
 </file>
@@ -1810,6 +1828,9 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1832,9 +1853,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2072,11 +2090,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1022"/>
+  <dimension ref="A1:Y1027"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="4" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2127,8 +2145,8 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2279,7 +2297,7 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="52" t="b">
@@ -2324,7 +2342,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="52" t="b">
         <v>0</v>
       </c>
@@ -2367,7 +2385,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="52" t="b">
         <v>0</v>
       </c>
@@ -2406,7 +2424,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="52" t="b">
         <v>0</v>
       </c>
@@ -2447,7 +2465,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="52" t="b">
         <v>0</v>
       </c>
@@ -2484,7 +2502,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="52" t="b">
         <v>0</v>
       </c>
@@ -2521,7 +2539,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="52" t="b">
         <v>0</v>
       </c>
@@ -2562,7 +2580,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="52" t="b">
         <v>0</v>
       </c>
@@ -2599,7 +2617,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="52" t="b">
         <v>0</v>
       </c>
@@ -2638,7 +2656,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="52" t="b">
         <v>0</v>
       </c>
@@ -2679,7 +2697,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="52" t="b">
         <v>0</v>
       </c>
@@ -2722,7 +2740,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="52" t="b">
         <v>0</v>
       </c>
@@ -2765,7 +2783,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="52" t="b">
         <v>0</v>
       </c>
@@ -2802,7 +2820,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="52" t="b">
         <v>0</v>
       </c>
@@ -2843,7 +2861,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="52" t="b">
         <v>0</v>
       </c>
@@ -2880,7 +2898,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="52" t="b">
         <v>0</v>
       </c>
@@ -2921,7 +2939,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="52" t="b">
         <v>0</v>
       </c>
@@ -2964,7 +2982,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="52" t="b">
         <v>0</v>
       </c>
@@ -3001,7 +3019,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="52" t="b">
         <v>0</v>
       </c>
@@ -3042,7 +3060,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="52" t="b">
         <v>0</v>
       </c>
@@ -3083,7 +3101,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="52" t="b">
         <v>0</v>
       </c>
@@ -3124,7 +3142,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="52" t="b">
         <v>0</v>
       </c>
@@ -3165,7 +3183,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="52" t="b">
         <v>0</v>
       </c>
@@ -3206,7 +3224,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="52" t="b">
         <v>0</v>
       </c>
@@ -3245,7 +3263,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="52" t="b">
         <v>0</v>
       </c>
@@ -3288,7 +3306,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="52" t="b">
         <v>0</v>
       </c>
@@ -3325,7 +3343,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="56"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="52" t="b">
         <v>0</v>
       </c>
@@ -3366,7 +3384,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="52" t="b">
         <v>0</v>
       </c>
@@ -3409,7 +3427,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="56"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="52" t="b">
         <v>0</v>
       </c>
@@ -3448,7 +3466,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="56"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="52" t="b">
         <v>1</v>
       </c>
@@ -3485,7 +3503,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="56"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="52" t="b">
         <v>0</v>
       </c>
@@ -3551,7 +3569,7 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="58" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="52" t="b">
@@ -3594,7 +3612,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="52" t="b">
         <v>0</v>
       </c>
@@ -3633,7 +3651,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="52" t="b">
         <v>0</v>
       </c>
@@ -3672,7 +3690,7 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="52" t="b">
         <v>0</v>
       </c>
@@ -3763,7 +3781,7 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="61" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="52" t="b">
@@ -3806,7 +3824,7 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="52" t="b">
         <v>0</v>
       </c>
@@ -3845,7 +3863,7 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="52" t="b">
         <v>0</v>
       </c>
@@ -3882,7 +3900,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="52" t="b">
         <v>0</v>
       </c>
@@ -3919,7 +3937,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="58"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="52" t="b">
         <v>0</v>
       </c>
@@ -3958,7 +3976,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="52" t="b">
         <v>0</v>
       </c>
@@ -3997,7 +4015,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="52" t="b">
         <v>0</v>
       </c>
@@ -4034,7 +4052,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="52" t="b">
         <v>0</v>
       </c>
@@ -4071,7 +4089,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="58"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="52" t="b">
         <v>0</v>
       </c>
@@ -4108,7 +4126,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="58"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="52" t="b">
         <v>0</v>
       </c>
@@ -4147,7 +4165,7 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="58"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="52" t="b">
         <v>0</v>
       </c>
@@ -4188,7 +4206,7 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="58"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="52" t="b">
         <v>0</v>
       </c>
@@ -4227,7 +4245,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="58"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="52" t="b">
         <v>0</v>
       </c>
@@ -4264,7 +4282,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="58"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="52" t="b">
         <v>0</v>
       </c>
@@ -4303,7 +4321,7 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="58"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="52" t="b">
         <v>0</v>
       </c>
@@ -4342,7 +4360,7 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="58"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="52" t="b">
         <v>0</v>
       </c>
@@ -4379,7 +4397,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="58"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="52" t="b">
         <v>0</v>
       </c>
@@ -4416,7 +4434,7 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="52" t="b">
         <v>0</v>
       </c>
@@ -4504,7 +4522,7 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="61" t="s">
+      <c r="A65" s="62" t="s">
         <v>86</v>
       </c>
       <c r="B65" s="52" t="b">
@@ -4548,7 +4566,7 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="55"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="52" t="b">
         <v>1</v>
       </c>
@@ -4588,7 +4606,7 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="52" t="b">
         <v>1</v>
       </c>
@@ -4630,7 +4648,7 @@
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A68" s="55"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="52" t="b">
         <v>1</v>
       </c>
@@ -4670,7 +4688,7 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="55"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="52" t="b">
         <v>1</v>
       </c>
@@ -4710,7 +4728,7 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="55"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="52" t="b">
         <v>1</v>
       </c>
@@ -4752,7 +4770,7 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="55"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="52" t="b">
         <v>1</v>
       </c>
@@ -4790,7 +4808,7 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="55"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="52" t="b">
         <v>1</v>
       </c>
@@ -4832,7 +4850,7 @@
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A73" s="55"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="52" t="b">
         <v>1</v>
       </c>
@@ -4872,7 +4890,7 @@
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A74" s="55"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="52" t="b">
         <v>1</v>
       </c>
@@ -4914,7 +4932,7 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A75" s="55"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="52" t="b">
         <v>1</v>
       </c>
@@ -4952,7 +4970,7 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A76" s="55"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="52" t="b">
         <v>1</v>
       </c>
@@ -4990,7 +5008,7 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="55"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="52" t="b">
         <v>1</v>
       </c>
@@ -5086,7 +5104,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="58" t="s">
         <v>105</v>
       </c>
       <c r="B80" s="52" t="b">
@@ -5129,7 +5147,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="58"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="52" t="b">
         <v>0</v>
       </c>
@@ -5170,7 +5188,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="58"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="52" t="b">
         <v>0</v>
       </c>
@@ -5211,7 +5229,7 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="58"/>
+      <c r="A83" s="59"/>
       <c r="B83" s="52" t="b">
         <v>0</v>
       </c>
@@ -5250,7 +5268,7 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="58"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="52" t="b">
         <v>0</v>
       </c>
@@ -5291,7 +5309,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="58"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="52" t="b">
         <v>0</v>
       </c>
@@ -5332,7 +5350,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="58"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="52" t="b">
         <v>0</v>
       </c>
@@ -5373,7 +5391,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="58"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="52" t="b">
         <v>0</v>
       </c>
@@ -5414,7 +5432,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="58"/>
+      <c r="A88" s="59"/>
       <c r="B88" s="52" t="b">
         <v>0</v>
       </c>
@@ -5451,7 +5469,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="58"/>
+      <c r="A89" s="59"/>
       <c r="B89" s="52" t="b">
         <v>0</v>
       </c>
@@ -5490,7 +5508,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="58"/>
+      <c r="A90" s="59"/>
       <c r="B90" s="52" t="b">
         <v>0</v>
       </c>
@@ -5529,7 +5547,7 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="58"/>
+      <c r="A91" s="59"/>
       <c r="B91" s="52" t="b">
         <v>0</v>
       </c>
@@ -5566,7 +5584,7 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="58"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="52" t="b">
         <v>0</v>
       </c>
@@ -5603,7 +5621,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="58"/>
+      <c r="A93" s="59"/>
       <c r="B93" s="52" t="b">
         <v>0</v>
       </c>
@@ -5640,7 +5658,7 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="58"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="52" t="b">
         <v>0</v>
       </c>
@@ -5679,7 +5697,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="58"/>
+      <c r="A95" s="59"/>
       <c r="B95" s="52" t="b">
         <v>0</v>
       </c>
@@ -5716,7 +5734,7 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="58"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="52" t="b">
         <v>0</v>
       </c>
@@ -5821,7 +5839,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="60" t="s">
+      <c r="A99" s="61" t="s">
         <v>123</v>
       </c>
       <c r="B99" s="52" t="b">
@@ -5864,7 +5882,7 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="58"/>
+      <c r="A100" s="59"/>
       <c r="B100" s="52" t="b">
         <v>0</v>
       </c>
@@ -5905,7 +5923,7 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="58"/>
+      <c r="A101" s="59"/>
       <c r="B101" s="52" t="b">
         <v>0</v>
       </c>
@@ -5946,7 +5964,7 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="58"/>
+      <c r="A102" s="59"/>
       <c r="B102" s="52" t="b">
         <v>0</v>
       </c>
@@ -5987,7 +6005,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="58"/>
+      <c r="A103" s="59"/>
       <c r="B103" s="52" t="b">
         <v>0</v>
       </c>
@@ -6028,7 +6046,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="58"/>
+      <c r="A104" s="59"/>
       <c r="B104" s="52" t="b">
         <v>0</v>
       </c>
@@ -6067,7 +6085,7 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="58"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="52" t="b">
         <v>0</v>
       </c>
@@ -6106,7 +6124,7 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="58"/>
+      <c r="A106" s="59"/>
       <c r="B106" s="52" t="b">
         <v>0</v>
       </c>
@@ -6143,7 +6161,7 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="58"/>
+      <c r="A107" s="59"/>
       <c r="B107" s="52" t="b">
         <v>0</v>
       </c>
@@ -6184,7 +6202,7 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="58"/>
+      <c r="A108" s="59"/>
       <c r="B108" s="52" t="b">
         <v>0</v>
       </c>
@@ -6221,7 +6239,7 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="58"/>
+      <c r="A109" s="59"/>
       <c r="B109" s="52" t="b">
         <v>0</v>
       </c>
@@ -6258,7 +6276,7 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="58"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="52" t="b">
         <v>0</v>
       </c>
@@ -6295,7 +6313,7 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="58"/>
+      <c r="A111" s="59"/>
       <c r="B111" s="52" t="b">
         <v>0</v>
       </c>
@@ -6336,7 +6354,7 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="58"/>
+      <c r="A112" s="59"/>
       <c r="B112" s="52" t="b">
         <v>0</v>
       </c>
@@ -6377,7 +6395,7 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="58"/>
+      <c r="A113" s="59"/>
       <c r="B113" s="52" t="b">
         <v>0</v>
       </c>
@@ -6418,7 +6436,7 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="58"/>
+      <c r="A114" s="59"/>
       <c r="B114" s="52" t="b">
         <v>0</v>
       </c>
@@ -6459,7 +6477,7 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="58"/>
+      <c r="A115" s="59"/>
       <c r="B115" s="52" t="b">
         <v>0</v>
       </c>
@@ -6554,7 +6572,7 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="60" t="s">
+      <c r="A118" s="61" t="s">
         <v>151</v>
       </c>
       <c r="B118" s="52" t="b">
@@ -6597,7 +6615,7 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="58"/>
+      <c r="A119" s="59"/>
       <c r="B119" s="52" t="b">
         <v>0</v>
       </c>
@@ -6638,7 +6656,7 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="58"/>
+      <c r="A120" s="59"/>
       <c r="B120" s="52" t="b">
         <v>0</v>
       </c>
@@ -6679,7 +6697,7 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="58"/>
+      <c r="A121" s="59"/>
       <c r="B121" s="52" t="b">
         <v>0</v>
       </c>
@@ -6718,7 +6736,7 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="58"/>
+      <c r="A122" s="59"/>
       <c r="B122" s="52" t="b">
         <v>0</v>
       </c>
@@ -6759,7 +6777,7 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="58"/>
+      <c r="A123" s="59"/>
       <c r="B123" s="52" t="b">
         <v>0</v>
       </c>
@@ -6800,7 +6818,7 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="58"/>
+      <c r="A124" s="59"/>
       <c r="B124" s="52" t="b">
         <v>0</v>
       </c>
@@ -6841,7 +6859,7 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="58"/>
+      <c r="A125" s="59"/>
       <c r="B125" s="52" t="b">
         <v>0</v>
       </c>
@@ -6882,7 +6900,7 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="58"/>
+      <c r="A126" s="59"/>
       <c r="B126" s="52" t="b">
         <v>0</v>
       </c>
@@ -6921,7 +6939,7 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="58"/>
+      <c r="A127" s="59"/>
       <c r="B127" s="52" t="b">
         <v>0</v>
       </c>
@@ -6962,7 +6980,7 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="58"/>
+      <c r="A128" s="59"/>
       <c r="B128" s="52" t="b">
         <v>0</v>
       </c>
@@ -7001,7 +7019,7 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="58"/>
+      <c r="A129" s="59"/>
       <c r="B129" s="52" t="b">
         <v>0</v>
       </c>
@@ -7042,7 +7060,7 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="58"/>
+      <c r="A130" s="59"/>
       <c r="B130" s="52" t="b">
         <v>0</v>
       </c>
@@ -7081,7 +7099,7 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="58"/>
+      <c r="A131" s="59"/>
       <c r="B131" s="52" t="b">
         <v>0</v>
       </c>
@@ -7118,7 +7136,7 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="58"/>
+      <c r="A132" s="59"/>
       <c r="B132" s="52" t="b">
         <v>0</v>
       </c>
@@ -7155,7 +7173,7 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="58"/>
+      <c r="A133" s="59"/>
       <c r="B133" s="52" t="b">
         <v>0</v>
       </c>
@@ -7194,7 +7212,7 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="58"/>
+      <c r="A134" s="59"/>
       <c r="B134" s="52" t="b">
         <v>0</v>
       </c>
@@ -7235,7 +7253,7 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="58"/>
+      <c r="A135" s="59"/>
       <c r="B135" s="52" t="b">
         <v>0</v>
       </c>
@@ -7272,7 +7290,7 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="58"/>
+      <c r="A136" s="59"/>
       <c r="B136" s="52" t="b">
         <v>0</v>
       </c>
@@ -7313,7 +7331,7 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="58"/>
+      <c r="A137" s="59"/>
       <c r="B137" s="52" t="b">
         <v>0</v>
       </c>
@@ -7354,7 +7372,7 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="58"/>
+      <c r="A138" s="59"/>
       <c r="B138" s="52" t="b">
         <v>0</v>
       </c>
@@ -7395,7 +7413,7 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="58"/>
+      <c r="A139" s="59"/>
       <c r="B139" s="52" t="b">
         <v>0</v>
       </c>
@@ -7434,7 +7452,7 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="58"/>
+      <c r="A140" s="59"/>
       <c r="B140" s="52" t="b">
         <v>0</v>
       </c>
@@ -7475,7 +7493,7 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="58"/>
+      <c r="A141" s="59"/>
       <c r="B141" s="52" t="b">
         <v>0</v>
       </c>
@@ -7516,7 +7534,7 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="58"/>
+      <c r="A142" s="59"/>
       <c r="B142" s="52" t="b">
         <v>0</v>
       </c>
@@ -7555,7 +7573,7 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="58"/>
+      <c r="A143" s="59"/>
       <c r="B143" s="52" t="b">
         <v>0</v>
       </c>
@@ -7594,7 +7612,7 @@
       <c r="Y143" s="1"/>
     </row>
     <row r="144" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="58"/>
+      <c r="A144" s="59"/>
       <c r="B144" s="52" t="b">
         <v>0</v>
       </c>
@@ -7734,7 +7752,7 @@
       <c r="Y147" s="1"/>
     </row>
     <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A148" s="62" t="s">
+      <c r="A148" s="63" t="s">
         <v>183</v>
       </c>
       <c r="B148" s="52" t="b">
@@ -7775,7 +7793,7 @@
       <c r="Y148" s="1"/>
     </row>
     <row r="149" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="55"/>
+      <c r="A149" s="56"/>
       <c r="B149" s="52" t="b">
         <v>0</v>
       </c>
@@ -7816,7 +7834,7 @@
       <c r="Y149" s="1"/>
     </row>
     <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A150" s="55"/>
+      <c r="A150" s="56"/>
       <c r="B150" s="52" t="b">
         <v>0</v>
       </c>
@@ -7857,7 +7875,7 @@
       <c r="Y150" s="1"/>
     </row>
     <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A151" s="55"/>
+      <c r="A151" s="56"/>
       <c r="B151" s="52" t="b">
         <v>0</v>
       </c>
@@ -7898,7 +7916,7 @@
       <c r="Y151" s="1"/>
     </row>
     <row r="152" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="55"/>
+      <c r="A152" s="56"/>
       <c r="B152" s="52" t="b">
         <v>0</v>
       </c>
@@ -7939,7 +7957,7 @@
       <c r="Y152" s="1"/>
     </row>
     <row r="153" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="55"/>
+      <c r="A153" s="56"/>
       <c r="B153" s="52" t="b">
         <v>0</v>
       </c>
@@ -7980,7 +7998,7 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A154" s="55"/>
+      <c r="A154" s="56"/>
       <c r="B154" s="52" t="b">
         <v>0</v>
       </c>
@@ -8021,7 +8039,7 @@
       <c r="Y154" s="1"/>
     </row>
     <row r="155" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="55"/>
+      <c r="A155" s="56"/>
       <c r="B155" s="52" t="b">
         <v>0</v>
       </c>
@@ -8062,7 +8080,7 @@
       <c r="Y155" s="1"/>
     </row>
     <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A156" s="55"/>
+      <c r="A156" s="56"/>
       <c r="B156" s="52" t="b">
         <v>0</v>
       </c>
@@ -8103,7 +8121,7 @@
       <c r="Y156" s="1"/>
     </row>
     <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A157" s="55"/>
+      <c r="A157" s="56"/>
       <c r="B157" s="52" t="b">
         <v>0</v>
       </c>
@@ -8144,7 +8162,7 @@
       <c r="Y157" s="1"/>
     </row>
     <row r="158" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="55"/>
+      <c r="A158" s="56"/>
       <c r="B158" s="52" t="b">
         <v>0</v>
       </c>
@@ -8185,7 +8203,7 @@
       <c r="Y158" s="1"/>
     </row>
     <row r="159" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="55"/>
+      <c r="A159" s="56"/>
       <c r="B159" s="52" t="b">
         <v>0</v>
       </c>
@@ -8224,7 +8242,7 @@
       <c r="Y159" s="1"/>
     </row>
     <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A160" s="55"/>
+      <c r="A160" s="56"/>
       <c r="B160" s="52" t="b">
         <v>0</v>
       </c>
@@ -8319,7 +8337,7 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="62" t="s">
+      <c r="A163" s="63" t="s">
         <v>210</v>
       </c>
       <c r="B163" s="52" t="b">
@@ -8360,7 +8378,7 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A164" s="55"/>
+      <c r="A164" s="56"/>
       <c r="B164" s="52" t="b">
         <v>0</v>
       </c>
@@ -8399,7 +8417,7 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" s="55"/>
+      <c r="A165" s="56"/>
       <c r="B165" s="52" t="b">
         <v>0</v>
       </c>
@@ -8438,7 +8456,7 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A166" s="55"/>
+      <c r="A166" s="56"/>
       <c r="B166" s="52" t="b">
         <v>0</v>
       </c>
@@ -8477,7 +8495,7 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A167" s="55"/>
+      <c r="A167" s="56"/>
       <c r="B167" s="52" t="b">
         <v>0</v>
       </c>
@@ -8516,7 +8534,7 @@
       <c r="Y167" s="1"/>
     </row>
     <row r="168" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="55"/>
+      <c r="A168" s="56"/>
       <c r="B168" s="52" t="b">
         <v>0</v>
       </c>
@@ -8609,7 +8627,7 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="62" t="s">
+      <c r="A171" s="63" t="s">
         <v>229</v>
       </c>
       <c r="B171" s="52" t="b">
@@ -8650,7 +8668,7 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A172" s="55"/>
+      <c r="A172" s="56"/>
       <c r="B172" s="52" t="b">
         <v>0</v>
       </c>
@@ -8689,7 +8707,7 @@
       <c r="Y172" s="1"/>
     </row>
     <row r="173" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A173" s="55"/>
+      <c r="A173" s="56"/>
       <c r="B173" s="52" t="b">
         <v>0</v>
       </c>
@@ -8728,7 +8746,7 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A174" s="55"/>
+      <c r="A174" s="56"/>
       <c r="B174" s="52" t="b">
         <v>0</v>
       </c>
@@ -8767,7 +8785,7 @@
       <c r="Y174" s="1"/>
     </row>
     <row r="175" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="55"/>
+      <c r="A175" s="56"/>
       <c r="B175" s="52" t="b">
         <v>0</v>
       </c>
@@ -8860,7 +8878,7 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="62" t="s">
+      <c r="A178" s="63" t="s">
         <v>243</v>
       </c>
       <c r="B178" s="52" t="b">
@@ -8901,7 +8919,7 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="62"/>
+      <c r="A179" s="63"/>
       <c r="B179" s="52" t="b">
         <v>0</v>
       </c>
@@ -8938,7 +8956,7 @@
       <c r="Y179" s="1"/>
     </row>
     <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A180" s="55"/>
+      <c r="A180" s="56"/>
       <c r="B180" s="52" t="b">
         <v>0</v>
       </c>
@@ -8977,7 +8995,7 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A181" s="55"/>
+      <c r="A181" s="56"/>
       <c r="B181" s="52" t="b">
         <v>0</v>
       </c>
@@ -9016,7 +9034,7 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A182" s="55"/>
+      <c r="A182" s="56"/>
       <c r="B182" s="52" t="b">
         <v>0</v>
       </c>
@@ -9055,7 +9073,7 @@
       <c r="Y182" s="1"/>
     </row>
     <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A183" s="55"/>
+      <c r="A183" s="56"/>
       <c r="B183" s="52" t="b">
         <v>0</v>
       </c>
@@ -9094,7 +9112,7 @@
       <c r="Y183" s="1"/>
     </row>
     <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A184" s="55"/>
+      <c r="A184" s="56"/>
       <c r="B184" s="52" t="b">
         <v>0</v>
       </c>
@@ -9133,7 +9151,7 @@
       <c r="Y184" s="1"/>
     </row>
     <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A185" s="55"/>
+      <c r="A185" s="56"/>
       <c r="B185" s="52" t="b">
         <v>0</v>
       </c>
@@ -9172,7 +9190,7 @@
       <c r="Y185" s="1"/>
     </row>
     <row r="186" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="55"/>
+      <c r="A186" s="56"/>
       <c r="B186" s="52" t="b">
         <v>0</v>
       </c>
@@ -9211,7 +9229,7 @@
       <c r="Y186" s="1"/>
     </row>
     <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A187" s="55"/>
+      <c r="A187" s="56"/>
       <c r="B187" s="52" t="b">
         <v>0</v>
       </c>
@@ -9250,7 +9268,7 @@
       <c r="Y187" s="1"/>
     </row>
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A188" s="55"/>
+      <c r="A188" s="56"/>
       <c r="B188" s="52" t="b">
         <v>0</v>
       </c>
@@ -9289,7 +9307,7 @@
       <c r="Y188" s="1"/>
     </row>
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A189" s="55"/>
+      <c r="A189" s="56"/>
       <c r="B189" s="52" t="b">
         <v>1</v>
       </c>
@@ -9326,7 +9344,7 @@
       <c r="Y189" s="1"/>
     </row>
     <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A190" s="55"/>
+      <c r="A190" s="56"/>
       <c r="B190" s="52" t="b">
         <v>1</v>
       </c>
@@ -9363,7 +9381,7 @@
       <c r="Y190" s="1"/>
     </row>
     <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A191" s="55"/>
+      <c r="A191" s="56"/>
       <c r="B191" s="52" t="b">
         <v>1</v>
       </c>
@@ -9402,7 +9420,7 @@
       <c r="Y191" s="1"/>
     </row>
     <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A192" s="55"/>
+      <c r="A192" s="56"/>
       <c r="B192" s="52" t="b">
         <v>1</v>
       </c>
@@ -9441,7 +9459,7 @@
       <c r="Y192" s="1"/>
     </row>
     <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A193" s="55"/>
+      <c r="A193" s="56"/>
       <c r="B193" s="52" t="b">
         <v>1</v>
       </c>
@@ -9478,7 +9496,7 @@
       <c r="Y193" s="1"/>
     </row>
     <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A194" s="55"/>
+      <c r="A194" s="56"/>
       <c r="B194" s="52" t="b">
         <v>1</v>
       </c>
@@ -9517,7 +9535,7 @@
       <c r="Y194" s="1"/>
     </row>
     <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A195" s="55"/>
+      <c r="A195" s="56"/>
       <c r="B195" s="52" t="b">
         <v>0</v>
       </c>
@@ -9556,7 +9574,7 @@
       <c r="Y195" s="1"/>
     </row>
     <row r="196" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="55"/>
+      <c r="A196" s="56"/>
       <c r="B196" s="52" t="b">
         <v>0</v>
       </c>
@@ -9595,7 +9613,7 @@
       <c r="Y196" s="1"/>
     </row>
     <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A197" s="55"/>
+      <c r="A197" s="56"/>
       <c r="B197" s="52" t="b">
         <v>1</v>
       </c>
@@ -9634,9 +9652,9 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A198" s="55"/>
+      <c r="A198" s="56"/>
       <c r="B198" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" s="2">
         <v>21</v>
@@ -9671,7 +9689,7 @@
       <c r="Y198" s="1"/>
     </row>
     <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A199" s="55"/>
+      <c r="A199" s="56"/>
       <c r="B199" s="52" t="b">
         <v>0</v>
       </c>
@@ -9679,10 +9697,10 @@
         <v>22</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="E199" s="23" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="F199" s="26" t="s">
         <v>22</v>
@@ -9708,26 +9726,24 @@
       <c r="Y199" s="1"/>
     </row>
     <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A200" s="55"/>
+      <c r="A200" s="56"/>
       <c r="B200" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" s="2">
         <v>23</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E200" s="18" t="s">
-        <v>248</v>
+        <v>442</v>
+      </c>
+      <c r="E200" s="23" t="s">
+        <v>441</v>
       </c>
       <c r="F200" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="15" t="s">
-        <v>290</v>
-      </c>
+      <c r="H200" s="15"/>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -9747,24 +9763,26 @@
       <c r="Y200" s="1"/>
     </row>
     <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A201" s="55"/>
+      <c r="A201" s="56"/>
       <c r="B201" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" s="2">
         <v>24</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E201" s="23" t="s">
-        <v>438</v>
+        <v>289</v>
+      </c>
+      <c r="E201" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="F201" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G201" s="3"/>
-      <c r="H201" s="15"/>
+      <c r="H201" s="15" t="s">
+        <v>290</v>
+      </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -9784,7 +9802,7 @@
       <c r="Y201" s="1"/>
     </row>
     <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A202" s="55"/>
+      <c r="A202" s="56"/>
       <c r="B202" s="52" t="b">
         <v>1</v>
       </c>
@@ -9792,10 +9810,10 @@
         <v>25</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E202" s="23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F202" s="26" t="s">
         <v>22</v>
@@ -9821,21 +9839,21 @@
       <c r="Y202" s="1"/>
     </row>
     <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A203" s="55"/>
+      <c r="A203" s="56"/>
       <c r="B203" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" s="2">
         <v>26</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="E203" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="F203" s="63" t="s">
-        <v>55</v>
+        <v>437</v>
+      </c>
+      <c r="F203" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="15"/>
@@ -9858,7 +9876,7 @@
       <c r="Y203" s="1"/>
     </row>
     <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A204" s="55"/>
+      <c r="A204" s="56"/>
       <c r="B204" s="52" t="b">
         <v>0</v>
       </c>
@@ -9866,18 +9884,16 @@
         <v>27</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E204" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F204" s="26" t="s">
-        <v>22</v>
+        <v>422</v>
+      </c>
+      <c r="E204" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="F204" s="54" t="s">
+        <v>55</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="15" t="s">
-        <v>293</v>
-      </c>
+      <c r="H204" s="15"/>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -9897,7 +9913,7 @@
       <c r="Y204" s="1"/>
     </row>
     <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A205" s="55"/>
+      <c r="A205" s="56"/>
       <c r="B205" s="52" t="b">
         <v>0</v>
       </c>
@@ -9905,16 +9921,18 @@
         <v>28</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E205" s="23" t="s">
-        <v>416</v>
+        <v>291</v>
+      </c>
+      <c r="E205" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="F205" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="15"/>
+      <c r="H205" s="15" t="s">
+        <v>293</v>
+      </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -9934,26 +9952,24 @@
       <c r="Y205" s="1"/>
     </row>
     <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A206" s="55"/>
+      <c r="A206" s="56"/>
       <c r="B206" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" s="2">
         <v>29</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E206" s="18" t="s">
-        <v>295</v>
+        <v>415</v>
+      </c>
+      <c r="E206" s="23" t="s">
+        <v>416</v>
       </c>
       <c r="F206" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G206" s="3"/>
-      <c r="H206" s="15" t="s">
-        <v>296</v>
-      </c>
+      <c r="H206" s="15"/>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -9972,26 +9988,26 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="55"/>
+    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A207" s="56"/>
       <c r="B207" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" s="2">
         <v>30</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E207" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F207" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="16" t="s">
-        <v>299</v>
+      <c r="H207" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -10012,7 +10028,7 @@
       <c r="Y207" s="1"/>
     </row>
     <row r="208" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="55"/>
+      <c r="A208" s="56"/>
       <c r="B208" s="52" t="b">
         <v>0</v>
       </c>
@@ -10020,17 +10036,17 @@
         <v>31</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="E208" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F208" s="28" t="s">
-        <v>55</v>
+        <v>298</v>
+      </c>
+      <c r="F208" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -10051,20 +10067,18 @@
       <c r="Y208" s="1"/>
     </row>
     <row r="209" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="55"/>
+      <c r="A209" s="56"/>
       <c r="B209" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C209" s="2">
-        <v>32</v>
-      </c>
+      <c r="C209" s="2"/>
       <c r="D209" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E209" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="F209" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="F209" s="54" t="s">
         <v>55</v>
       </c>
       <c r="G209" s="3"/>
@@ -10088,25 +10102,25 @@
       <c r="Y209" s="1"/>
     </row>
     <row r="210" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="55"/>
+      <c r="A210" s="56"/>
       <c r="B210" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>302</v>
+        <v>417</v>
       </c>
       <c r="E210" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F210" s="28" t="s">
         <v>55</v>
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
@@ -10126,27 +10140,25 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A211" s="55"/>
+    <row r="211" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A211" s="56"/>
       <c r="B211" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C211" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E211" s="18" t="s">
-        <v>262</v>
+        <v>454</v>
+      </c>
+      <c r="E211" s="23" t="s">
+        <v>453</v>
       </c>
       <c r="F211" s="28" t="s">
         <v>55</v>
       </c>
       <c r="G211" s="3"/>
-      <c r="H211" s="15" t="s">
-        <v>306</v>
-      </c>
+      <c r="H211" s="16"/>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -10166,24 +10178,26 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="1"/>
+      <c r="A212" s="56"/>
       <c r="B212" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E212" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="F212" s="49" t="s">
-        <v>10</v>
+        <v>302</v>
+      </c>
+      <c r="E212" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F212" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="G212" s="3"/>
-      <c r="H212" s="4"/>
+      <c r="H212" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -10202,15 +10216,27 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="1"/>
+    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A213" s="56"/>
+      <c r="B213" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C213" s="2">
+        <v>35</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E213" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F213" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="G213" s="3"/>
-      <c r="H213" s="4"/>
+      <c r="H213" s="15" t="s">
+        <v>306</v>
+      </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
@@ -10229,29 +10255,25 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A214" s="62" t="s">
-        <v>307</v>
-      </c>
+    <row r="214" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="1"/>
       <c r="B214" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E214" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F214" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="E214" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="F214" s="49" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="3"/>
-      <c r="H214" s="15" t="s">
-        <v>309</v>
-      </c>
+      <c r="H214" s="4"/>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -10270,27 +10292,15 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A215" s="55"/>
-      <c r="B215" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C215" s="2">
-        <v>2</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F215" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="1"/>
       <c r="G215" s="3"/>
-      <c r="H215" s="15" t="s">
-        <v>311</v>
-      </c>
+      <c r="H215" s="4"/>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
@@ -10309,27 +10319,15 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A216" s="55"/>
-      <c r="B216" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C216" s="2">
-        <v>3</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E216" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F216" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="1"/>
       <c r="G216" s="3"/>
-      <c r="H216" s="16" t="s">
-        <v>313</v>
-      </c>
+      <c r="H216" s="4"/>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
@@ -10348,26 +10346,28 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A217" s="55"/>
+    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A217" s="63" t="s">
+        <v>307</v>
+      </c>
       <c r="B217" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F217" s="26" t="s">
-        <v>22</v>
+      <c r="F217" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="16" t="s">
-        <v>315</v>
+      <c r="H217" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10388,26 +10388,24 @@
       <c r="Y217" s="1"/>
     </row>
     <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A218" s="55"/>
+      <c r="A218" s="63"/>
       <c r="B218" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E218" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E218" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F218" s="26" t="s">
-        <v>22</v>
+      <c r="F218" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G218" s="3"/>
-      <c r="H218" s="15" t="s">
-        <v>317</v>
-      </c>
+      <c r="H218" s="15"/>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -10427,26 +10425,24 @@
       <c r="Y218" s="1"/>
     </row>
     <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A219" s="55"/>
+      <c r="A219" s="63"/>
       <c r="B219" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E219" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E219" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F219" s="26" t="s">
-        <v>22</v>
+      <c r="F219" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G219" s="3"/>
-      <c r="H219" s="15" t="s">
-        <v>319</v>
-      </c>
+      <c r="H219" s="15"/>
       <c r="I219" s="3"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -10466,15 +10462,15 @@
       <c r="Y219" s="1"/>
     </row>
     <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A220" s="55"/>
+      <c r="A220" s="56"/>
       <c r="B220" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C220" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>9</v>
@@ -10484,7 +10480,7 @@
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="15" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
@@ -10505,17 +10501,17 @@
       <c r="Y220" s="1"/>
     </row>
     <row r="221" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A221" s="55"/>
+      <c r="A221" s="56"/>
       <c r="B221" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C221" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E221" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E221" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F221" s="26" t="s">
@@ -10523,7 +10519,7 @@
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="16" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10543,16 +10539,16 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A222" s="55"/>
+    <row r="222" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="56"/>
       <c r="B222" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C222" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>9</v>
@@ -10561,8 +10557,8 @@
         <v>22</v>
       </c>
       <c r="G222" s="3"/>
-      <c r="H222" s="15" t="s">
-        <v>325</v>
+      <c r="H222" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
@@ -10583,15 +10579,15 @@
       <c r="Y222" s="1"/>
     </row>
     <row r="223" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A223" s="55"/>
+      <c r="A223" s="56"/>
       <c r="B223" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C223" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>9</v>
@@ -10601,7 +10597,7 @@
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="15" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
@@ -10621,16 +10617,16 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A224" s="55"/>
+    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A224" s="56"/>
       <c r="B224" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C224" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>9</v>
@@ -10639,8 +10635,8 @@
         <v>22</v>
       </c>
       <c r="G224" s="3"/>
-      <c r="H224" s="16" t="s">
-        <v>329</v>
+      <c r="H224" s="15" t="s">
+        <v>319</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
@@ -10661,15 +10657,15 @@
       <c r="Y224" s="1"/>
     </row>
     <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A225" s="55"/>
+      <c r="A225" s="56"/>
       <c r="B225" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C225" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>9</v>
@@ -10679,7 +10675,7 @@
       </c>
       <c r="G225" s="3"/>
       <c r="H225" s="15" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
@@ -10699,16 +10695,16 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A226" s="55"/>
+    <row r="226" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="56"/>
       <c r="B226" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C226" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>9</v>
@@ -10717,8 +10713,8 @@
         <v>22</v>
       </c>
       <c r="G226" s="3"/>
-      <c r="H226" s="15" t="s">
-        <v>333</v>
+      <c r="H226" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="I226" s="3"/>
       <c r="J226" s="1"/>
@@ -10739,15 +10735,15 @@
       <c r="Y226" s="1"/>
     </row>
     <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A227" s="55"/>
+      <c r="A227" s="56"/>
       <c r="B227" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C227" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E227" s="8" t="s">
         <v>9</v>
@@ -10757,7 +10753,7 @@
       </c>
       <c r="G227" s="3"/>
       <c r="H227" s="15" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="1"/>
@@ -10777,16 +10773,16 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="55"/>
+    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A228" s="56"/>
       <c r="B228" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C228" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E228" s="8" t="s">
         <v>9</v>
@@ -10795,8 +10791,8 @@
         <v>22</v>
       </c>
       <c r="G228" s="3"/>
-      <c r="H228" s="16" t="s">
-        <v>337</v>
+      <c r="H228" s="15" t="s">
+        <v>327</v>
       </c>
       <c r="I228" s="3"/>
       <c r="J228" s="1"/>
@@ -10817,25 +10813,25 @@
       <c r="Y228" s="1"/>
     </row>
     <row r="229" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A229" s="55"/>
+      <c r="A229" s="56"/>
       <c r="B229" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C229" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E229" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F229" s="28" t="s">
-        <v>55</v>
+      <c r="F229" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="16" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="I229" s="3"/>
       <c r="J229" s="1"/>
@@ -10855,26 +10851,26 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A230" s="55"/>
+    <row r="230" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A230" s="56"/>
       <c r="B230" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C230" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E230" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F230" s="28" t="s">
-        <v>55</v>
+      <c r="F230" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G230" s="3"/>
-      <c r="H230" s="16" t="s">
-        <v>341</v>
+      <c r="H230" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="I230" s="3"/>
       <c r="J230" s="1"/>
@@ -10894,26 +10890,26 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A231" s="55"/>
+    <row r="231" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A231" s="56"/>
       <c r="B231" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C231" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="E231" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F231" s="28" t="s">
-        <v>55</v>
+      <c r="F231" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G231" s="3"/>
-      <c r="H231" s="16" t="s">
-        <v>343</v>
+      <c r="H231" s="15" t="s">
+        <v>333</v>
       </c>
       <c r="I231" s="3"/>
       <c r="J231" s="1"/>
@@ -10934,25 +10930,25 @@
       <c r="Y231" s="1"/>
     </row>
     <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A232" s="55"/>
+      <c r="A232" s="56"/>
       <c r="B232" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C232" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E232" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F232" s="28" t="s">
-        <v>55</v>
+      <c r="F232" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G232" s="3"/>
       <c r="H232" s="15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="1"/>
@@ -10972,26 +10968,26 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A233" s="55"/>
+    <row r="233" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A233" s="56"/>
       <c r="B233" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C233" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E233" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F233" s="28" t="s">
-        <v>55</v>
+      <c r="F233" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G233" s="3"/>
-      <c r="H233" s="15" t="s">
-        <v>347</v>
+      <c r="H233" s="16" t="s">
+        <v>337</v>
       </c>
       <c r="I233" s="3"/>
       <c r="J233" s="1"/>
@@ -11012,15 +11008,15 @@
       <c r="Y233" s="1"/>
     </row>
     <row r="234" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A234" s="55"/>
+      <c r="A234" s="56"/>
       <c r="B234" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C234" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>9</v>
@@ -11030,7 +11026,7 @@
       </c>
       <c r="G234" s="3"/>
       <c r="H234" s="16" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="I234" s="3"/>
       <c r="J234" s="1"/>
@@ -11050,15 +11046,27 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="1"/>
+    <row r="235" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A235" s="56"/>
+      <c r="B235" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C235" s="2">
+        <v>19</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="G235" s="3"/>
-      <c r="H235" s="4"/>
+      <c r="H235" s="16" t="s">
+        <v>341</v>
+      </c>
       <c r="I235" s="3"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -11077,15 +11085,27 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="1"/>
+    <row r="236" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A236" s="56"/>
+      <c r="B236" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C236" s="2">
+        <v>20</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="G236" s="3"/>
-      <c r="H236" s="4"/>
+      <c r="H236" s="16" t="s">
+        <v>343</v>
+      </c>
       <c r="I236" s="3"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
@@ -11104,28 +11124,26 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="62" t="s">
-        <v>350</v>
-      </c>
+    <row r="237" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A237" s="56"/>
       <c r="B237" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C237" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E237" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E237" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F237" s="27" t="s">
-        <v>10</v>
+      <c r="F237" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="G237" s="3"/>
-      <c r="H237" s="16" t="s">
-        <v>352</v>
+      <c r="H237" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="I237" s="3"/>
       <c r="J237" s="1"/>
@@ -11146,25 +11164,25 @@
       <c r="Y237" s="1"/>
     </row>
     <row r="238" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A238" s="55"/>
+      <c r="A238" s="56"/>
       <c r="B238" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C238" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E238" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F238" s="26" t="s">
-        <v>22</v>
+      <c r="F238" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="G238" s="3"/>
       <c r="H238" s="15" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I238" s="3"/>
       <c r="J238" s="1"/>
@@ -11184,26 +11202,26 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A239" s="55"/>
+    <row r="239" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A239" s="56"/>
       <c r="B239" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C239" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E239" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F239" s="26" t="s">
-        <v>22</v>
+      <c r="F239" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="G239" s="3"/>
-      <c r="H239" s="15" t="s">
-        <v>356</v>
+      <c r="H239" s="16" t="s">
+        <v>349</v>
       </c>
       <c r="I239" s="3"/>
       <c r="J239" s="1"/>
@@ -11223,27 +11241,15 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A240" s="55"/>
-      <c r="B240" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C240" s="2">
-        <v>4</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E240" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F240" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="1"/>
       <c r="G240" s="3"/>
-      <c r="H240" s="15" t="s">
-        <v>358</v>
-      </c>
+      <c r="H240" s="4"/>
       <c r="I240" s="3"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -11262,27 +11268,15 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A241" s="55"/>
-      <c r="B241" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C241" s="2">
-        <v>5</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E241" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F241" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="1"/>
       <c r="G241" s="3"/>
-      <c r="H241" s="20" t="s">
-        <v>360</v>
-      </c>
+      <c r="H241" s="4"/>
       <c r="I241" s="3"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -11301,26 +11295,28 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A242" s="55"/>
+    <row r="242" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="63" t="s">
+        <v>350</v>
+      </c>
       <c r="B242" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C242" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E242" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E242" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F242" s="28" t="s">
-        <v>55</v>
+      <c r="F242" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G242" s="3"/>
-      <c r="H242" s="15" t="s">
-        <v>362</v>
+      <c r="H242" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="I242" s="3"/>
       <c r="J242" s="1"/>
@@ -11340,17 +11336,27 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="1"/>
+    <row r="243" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A243" s="56"/>
       <c r="B243" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C243" s="2"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="1"/>
+      <c r="C243" s="2">
+        <v>2</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G243" s="3"/>
-      <c r="H243" s="4"/>
+      <c r="H243" s="15" t="s">
+        <v>354</v>
+      </c>
       <c r="I243" s="3"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
@@ -11369,17 +11375,27 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A244" s="1"/>
+    <row r="244" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A244" s="56"/>
       <c r="B244" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C244" s="2"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="1"/>
+      <c r="C244" s="2">
+        <v>3</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G244" s="3"/>
-      <c r="H244" s="4"/>
+      <c r="H244" s="15" t="s">
+        <v>356</v>
+      </c>
       <c r="I244" s="3"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
@@ -11398,27 +11414,27 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A245" s="59" t="s">
-        <v>398</v>
-      </c>
+    <row r="245" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A245" s="56"/>
       <c r="B245" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C245" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E245" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E245" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F245" s="41" t="s">
-        <v>407</v>
+      <c r="F245" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G245" s="3"/>
-      <c r="H245" s="4"/>
+      <c r="H245" s="15" t="s">
+        <v>358</v>
+      </c>
       <c r="I245" s="3"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
@@ -11437,25 +11453,27 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A246" s="55"/>
+    <row r="246" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A246" s="56"/>
       <c r="B246" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C246" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E246" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="E246" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F246" s="41" t="s">
-        <v>407</v>
+      <c r="F246" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G246" s="3"/>
-      <c r="H246" s="4"/>
+      <c r="H246" s="20" t="s">
+        <v>360</v>
+      </c>
       <c r="I246" s="3"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
@@ -11474,25 +11492,27 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A247" s="55"/>
+    <row r="247" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A247" s="56"/>
       <c r="B247" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C247" s="2">
-        <v>3</v>
-      </c>
-      <c r="D247" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="E247" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E247" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F247" s="41" t="s">
-        <v>407</v>
+      <c r="F247" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="G247" s="3"/>
-      <c r="H247" s="4"/>
+      <c r="H247" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="I247" s="3"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
@@ -11512,22 +11532,14 @@
       <c r="Y247" s="1"/>
     </row>
     <row r="248" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="55"/>
+      <c r="A248" s="1"/>
       <c r="B248" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C248" s="2">
-        <v>4</v>
-      </c>
-      <c r="D248" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="E248" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F248" s="41" t="s">
-        <v>407</v>
-      </c>
+      <c r="C248" s="2"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="1"/>
       <c r="G248" s="3"/>
       <c r="H248" s="4"/>
       <c r="I248" s="3"/>
@@ -11549,13 +11561,11 @@
       <c r="Y248" s="1"/>
     </row>
     <row r="249" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A249" s="55"/>
+      <c r="A249" s="1"/>
       <c r="B249" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C249" s="2">
-        <v>5</v>
-      </c>
+      <c r="C249" s="2"/>
       <c r="D249" s="1"/>
       <c r="E249" s="3"/>
       <c r="F249" s="1"/>
@@ -11580,16 +11590,24 @@
       <c r="Y249" s="1"/>
     </row>
     <row r="250" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A250" s="55"/>
+      <c r="A250" s="60" t="s">
+        <v>398</v>
+      </c>
       <c r="B250" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C250" s="2">
-        <v>6</v>
-      </c>
-      <c r="D250" s="1"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E250" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" s="41" t="s">
+        <v>407</v>
+      </c>
       <c r="G250" s="3"/>
       <c r="H250" s="4"/>
       <c r="I250" s="3"/>
@@ -11611,16 +11629,22 @@
       <c r="Y250" s="1"/>
     </row>
     <row r="251" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A251" s="55"/>
+      <c r="A251" s="56"/>
       <c r="B251" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C251" s="2">
-        <v>7</v>
-      </c>
-      <c r="D251" s="1"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E251" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" s="41" t="s">
+        <v>407</v>
+      </c>
       <c r="G251" s="3"/>
       <c r="H251" s="4"/>
       <c r="I251" s="3"/>
@@ -11642,16 +11666,22 @@
       <c r="Y251" s="1"/>
     </row>
     <row r="252" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A252" s="55"/>
+      <c r="A252" s="56"/>
       <c r="B252" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C252" s="2">
-        <v>8</v>
-      </c>
-      <c r="D252" s="1"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D252" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E252" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" s="41" t="s">
+        <v>407</v>
+      </c>
       <c r="G252" s="3"/>
       <c r="H252" s="4"/>
       <c r="I252" s="3"/>
@@ -11673,16 +11703,22 @@
       <c r="Y252" s="1"/>
     </row>
     <row r="253" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A253" s="55"/>
+      <c r="A253" s="56"/>
       <c r="B253" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C253" s="2">
+        <v>4</v>
+      </c>
+      <c r="D253" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E253" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D253" s="1"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="1"/>
+      <c r="F253" s="41" t="s">
+        <v>407</v>
+      </c>
       <c r="G253" s="3"/>
       <c r="H253" s="4"/>
       <c r="I253" s="3"/>
@@ -11704,12 +11740,12 @@
       <c r="Y253" s="1"/>
     </row>
     <row r="254" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A254" s="55"/>
+      <c r="A254" s="56"/>
       <c r="B254" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C254" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="3"/>
@@ -11735,12 +11771,12 @@
       <c r="Y254" s="1"/>
     </row>
     <row r="255" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A255" s="55"/>
+      <c r="A255" s="56"/>
       <c r="B255" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C255" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="3"/>
@@ -11766,12 +11802,12 @@
       <c r="Y255" s="1"/>
     </row>
     <row r="256" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A256" s="55"/>
+      <c r="A256" s="56"/>
       <c r="B256" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C256" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="3"/>
@@ -11797,12 +11833,12 @@
       <c r="Y256" s="1"/>
     </row>
     <row r="257" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A257" s="55"/>
+      <c r="A257" s="56"/>
       <c r="B257" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C257" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="3"/>
@@ -11828,12 +11864,12 @@
       <c r="Y257" s="1"/>
     </row>
     <row r="258" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A258" s="55"/>
+      <c r="A258" s="56"/>
       <c r="B258" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C258" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="3"/>
@@ -11859,12 +11895,12 @@
       <c r="Y258" s="1"/>
     </row>
     <row r="259" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A259" s="55"/>
+      <c r="A259" s="56"/>
       <c r="B259" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C259" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="3"/>
@@ -11889,10 +11925,14 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A260" s="55"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="2"/>
+    <row r="260" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A260" s="56"/>
+      <c r="B260" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C260" s="2">
+        <v>11</v>
+      </c>
       <c r="D260" s="1"/>
       <c r="E260" s="3"/>
       <c r="F260" s="1"/>
@@ -11916,10 +11956,14 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A261" s="55"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="2"/>
+    <row r="261" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A261" s="56"/>
+      <c r="B261" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C261" s="2">
+        <v>12</v>
+      </c>
       <c r="D261" s="1"/>
       <c r="E261" s="3"/>
       <c r="F261" s="1"/>
@@ -11943,10 +11987,14 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A262" s="55"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="2"/>
+    <row r="262" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="56"/>
+      <c r="B262" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C262" s="2">
+        <v>13</v>
+      </c>
       <c r="D262" s="1"/>
       <c r="E262" s="3"/>
       <c r="F262" s="1"/>
@@ -11970,10 +12018,14 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A263" s="55"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="2"/>
+    <row r="263" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A263" s="56"/>
+      <c r="B263" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C263" s="2">
+        <v>14</v>
+      </c>
       <c r="D263" s="1"/>
       <c r="E263" s="3"/>
       <c r="F263" s="1"/>
@@ -11997,10 +12049,14 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A264" s="55"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="2"/>
+    <row r="264" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A264" s="56"/>
+      <c r="B264" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C264" s="2">
+        <v>15</v>
+      </c>
       <c r="D264" s="1"/>
       <c r="E264" s="3"/>
       <c r="F264" s="1"/>
@@ -12025,7 +12081,7 @@
       <c r="Y264" s="1"/>
     </row>
     <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
+      <c r="A265" s="56"/>
       <c r="B265" s="1"/>
       <c r="C265" s="2"/>
       <c r="D265" s="1"/>
@@ -12052,7 +12108,7 @@
       <c r="Y265" s="1"/>
     </row>
     <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
+      <c r="A266" s="56"/>
       <c r="B266" s="1"/>
       <c r="C266" s="2"/>
       <c r="D266" s="1"/>
@@ -12079,7 +12135,7 @@
       <c r="Y266" s="1"/>
     </row>
     <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
+      <c r="A267" s="56"/>
       <c r="B267" s="1"/>
       <c r="C267" s="2"/>
       <c r="D267" s="1"/>
@@ -12106,7 +12162,7 @@
       <c r="Y267" s="1"/>
     </row>
     <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
+      <c r="A268" s="56"/>
       <c r="B268" s="1"/>
       <c r="C268" s="2"/>
       <c r="D268" s="1"/>
@@ -12133,7 +12189,7 @@
       <c r="Y268" s="1"/>
     </row>
     <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
+      <c r="A269" s="56"/>
       <c r="B269" s="1"/>
       <c r="C269" s="2"/>
       <c r="D269" s="1"/>
@@ -32490,23 +32546,158 @@
       <c r="X1022" s="1"/>
       <c r="Y1022" s="1"/>
     </row>
+    <row r="1023" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1023" s="1"/>
+      <c r="B1023" s="1"/>
+      <c r="C1023" s="2"/>
+      <c r="D1023" s="1"/>
+      <c r="E1023" s="3"/>
+      <c r="F1023" s="1"/>
+      <c r="G1023" s="3"/>
+      <c r="H1023" s="4"/>
+      <c r="I1023" s="3"/>
+      <c r="J1023" s="1"/>
+      <c r="K1023" s="1"/>
+      <c r="L1023" s="1"/>
+      <c r="M1023" s="1"/>
+      <c r="N1023" s="1"/>
+      <c r="O1023" s="1"/>
+      <c r="P1023" s="1"/>
+      <c r="Q1023" s="1"/>
+      <c r="R1023" s="1"/>
+      <c r="S1023" s="1"/>
+      <c r="T1023" s="1"/>
+      <c r="U1023" s="1"/>
+      <c r="V1023" s="1"/>
+      <c r="W1023" s="1"/>
+      <c r="X1023" s="1"/>
+      <c r="Y1023" s="1"/>
+    </row>
+    <row r="1024" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1024" s="1"/>
+      <c r="B1024" s="1"/>
+      <c r="C1024" s="2"/>
+      <c r="D1024" s="1"/>
+      <c r="E1024" s="3"/>
+      <c r="F1024" s="1"/>
+      <c r="G1024" s="3"/>
+      <c r="H1024" s="4"/>
+      <c r="I1024" s="3"/>
+      <c r="J1024" s="1"/>
+      <c r="K1024" s="1"/>
+      <c r="L1024" s="1"/>
+      <c r="M1024" s="1"/>
+      <c r="N1024" s="1"/>
+      <c r="O1024" s="1"/>
+      <c r="P1024" s="1"/>
+      <c r="Q1024" s="1"/>
+      <c r="R1024" s="1"/>
+      <c r="S1024" s="1"/>
+      <c r="T1024" s="1"/>
+      <c r="U1024" s="1"/>
+      <c r="V1024" s="1"/>
+      <c r="W1024" s="1"/>
+      <c r="X1024" s="1"/>
+      <c r="Y1024" s="1"/>
+    </row>
+    <row r="1025" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1025" s="1"/>
+      <c r="B1025" s="1"/>
+      <c r="C1025" s="2"/>
+      <c r="D1025" s="1"/>
+      <c r="E1025" s="3"/>
+      <c r="F1025" s="1"/>
+      <c r="G1025" s="3"/>
+      <c r="H1025" s="4"/>
+      <c r="I1025" s="3"/>
+      <c r="J1025" s="1"/>
+      <c r="K1025" s="1"/>
+      <c r="L1025" s="1"/>
+      <c r="M1025" s="1"/>
+      <c r="N1025" s="1"/>
+      <c r="O1025" s="1"/>
+      <c r="P1025" s="1"/>
+      <c r="Q1025" s="1"/>
+      <c r="R1025" s="1"/>
+      <c r="S1025" s="1"/>
+      <c r="T1025" s="1"/>
+      <c r="U1025" s="1"/>
+      <c r="V1025" s="1"/>
+      <c r="W1025" s="1"/>
+      <c r="X1025" s="1"/>
+      <c r="Y1025" s="1"/>
+    </row>
+    <row r="1026" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1026" s="1"/>
+      <c r="B1026" s="1"/>
+      <c r="C1026" s="2"/>
+      <c r="D1026" s="1"/>
+      <c r="E1026" s="3"/>
+      <c r="F1026" s="1"/>
+      <c r="G1026" s="3"/>
+      <c r="H1026" s="4"/>
+      <c r="I1026" s="3"/>
+      <c r="J1026" s="1"/>
+      <c r="K1026" s="1"/>
+      <c r="L1026" s="1"/>
+      <c r="M1026" s="1"/>
+      <c r="N1026" s="1"/>
+      <c r="O1026" s="1"/>
+      <c r="P1026" s="1"/>
+      <c r="Q1026" s="1"/>
+      <c r="R1026" s="1"/>
+      <c r="S1026" s="1"/>
+      <c r="T1026" s="1"/>
+      <c r="U1026" s="1"/>
+      <c r="V1026" s="1"/>
+      <c r="W1026" s="1"/>
+      <c r="X1026" s="1"/>
+      <c r="Y1026" s="1"/>
+    </row>
+    <row r="1027" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1027" s="1"/>
+      <c r="B1027" s="1"/>
+      <c r="C1027" s="2"/>
+      <c r="D1027" s="1"/>
+      <c r="E1027" s="3"/>
+      <c r="F1027" s="1"/>
+      <c r="G1027" s="3"/>
+      <c r="H1027" s="4"/>
+      <c r="I1027" s="3"/>
+      <c r="J1027" s="1"/>
+      <c r="K1027" s="1"/>
+      <c r="L1027" s="1"/>
+      <c r="M1027" s="1"/>
+      <c r="N1027" s="1"/>
+      <c r="O1027" s="1"/>
+      <c r="P1027" s="1"/>
+      <c r="Q1027" s="1"/>
+      <c r="R1027" s="1"/>
+      <c r="S1027" s="1"/>
+      <c r="T1027" s="1"/>
+      <c r="U1027" s="1"/>
+      <c r="V1027" s="1"/>
+      <c r="W1027" s="1"/>
+      <c r="X1027" s="1"/>
+      <c r="Y1027" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A7:A37"/>
     <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A245:A264"/>
+    <mergeCell ref="A250:A269"/>
     <mergeCell ref="A45:A62"/>
     <mergeCell ref="A65:A77"/>
-    <mergeCell ref="A214:A234"/>
-    <mergeCell ref="A237:A242"/>
+    <mergeCell ref="A217:A239"/>
+    <mergeCell ref="A242:A247"/>
     <mergeCell ref="A80:A96"/>
     <mergeCell ref="A99:A115"/>
     <mergeCell ref="A118:A144"/>
     <mergeCell ref="A148:A160"/>
     <mergeCell ref="A163:A168"/>
     <mergeCell ref="A171:A175"/>
-    <mergeCell ref="A178:A211"/>
+    <mergeCell ref="A178:A213"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
@@ -32678,135 +32869,139 @@
     <hyperlink ref="E195" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
     <hyperlink ref="E196" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
     <hyperlink ref="E197" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E200" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E204" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E206" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E207" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E208" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E210" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E211" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E214" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E215" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E216" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E217" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E218" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E219" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E220" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E221" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E222" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E223" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E224" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E225" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E226" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E227" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E228" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E229" r:id="rId192" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E230" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E231" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E232" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E233" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E234" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E237" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E238" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E239" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E240" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E241" r:id="rId202" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E242" r:id="rId203" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E212" r:id="rId204" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E146" r:id="rId205" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E145" r:id="rId206" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
-    <hyperlink ref="G72" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E72" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E71" r:id="rId209" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
-    <hyperlink ref="E6" r:id="rId210" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
-    <hyperlink ref="E88" r:id="rId211" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
-    <hyperlink ref="E93" r:id="rId212" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
-    <hyperlink ref="E92" r:id="rId213" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
-    <hyperlink ref="E91" r:id="rId214" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
-    <hyperlink ref="E48" r:id="rId215" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
-    <hyperlink ref="E60" r:id="rId216" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
-    <hyperlink ref="E32" r:id="rId217" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
-    <hyperlink ref="E14" r:id="rId218" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
-    <hyperlink ref="E7" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E11" r:id="rId221" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
-    <hyperlink ref="G37" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E37" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E35" r:id="rId224" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G34" r:id="rId225" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E34" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G33" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E33" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G31" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E31" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G29" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E29" r:id="rId232" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E28" r:id="rId233" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E27" r:id="rId234" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E26" r:id="rId235" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E25" r:id="rId236" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G23" r:id="rId237" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E23" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G22" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E22" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G20" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E20" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G18" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E18" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G17" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E17" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G16" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E16" r:id="rId248" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G15" r:id="rId249" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E15" r:id="rId250" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G13" r:id="rId251" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E13" r:id="rId252" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G10" r:id="rId253" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E10" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G9" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E9" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G8" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E8" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E245" r:id="rId259" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
-    <hyperlink ref="E21" r:id="rId260" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E246" r:id="rId261" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
-    <hyperlink ref="E30" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E12" r:id="rId263" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
-    <hyperlink ref="E247" r:id="rId264" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
-    <hyperlink ref="E248" r:id="rId265" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
-    <hyperlink ref="E24" r:id="rId266" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
-    <hyperlink ref="E19" r:id="rId267" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
-    <hyperlink ref="E205" r:id="rId268" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
-    <hyperlink ref="E198" r:id="rId269" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
-    <hyperlink ref="E179" r:id="rId270" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
-    <hyperlink ref="E203" r:id="rId271" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
-    <hyperlink ref="E106" r:id="rId272" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
-    <hyperlink ref="E110" r:id="rId273" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
-    <hyperlink ref="E109" r:id="rId274" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
-    <hyperlink ref="E108" r:id="rId275" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
-    <hyperlink ref="E135" r:id="rId276" xr:uid="{880B159A-370B-40EE-A5C8-AE68325F8994}"/>
-    <hyperlink ref="E131" r:id="rId277" xr:uid="{96ACD224-977A-4E66-9264-5617B21A7B5A}"/>
-    <hyperlink ref="E132" r:id="rId278" xr:uid="{7FD7344C-2A6A-4318-A67E-05F8EA153E88}"/>
-    <hyperlink ref="E95" r:id="rId279" xr:uid="{B6515FE2-AD7F-4A71-83EF-89020758DE37}"/>
-    <hyperlink ref="E97" r:id="rId280" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
-    <hyperlink ref="E57" r:id="rId281" xr:uid="{AB524FDC-322C-4129-B3D3-C0CD18DF6C39}"/>
-    <hyperlink ref="E47" r:id="rId282" xr:uid="{12F3604F-E330-4354-82A9-2E7144C6C69C}"/>
-    <hyperlink ref="E52" r:id="rId283" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
-    <hyperlink ref="E51" r:id="rId284" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
-    <hyperlink ref="E53" r:id="rId285" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
-    <hyperlink ref="E202" r:id="rId286" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
-    <hyperlink ref="E201" r:id="rId287" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
-    <hyperlink ref="E199" r:id="rId288" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
-    <hyperlink ref="E186" r:id="rId289" xr:uid="{2401C9CC-8D34-433A-BAAD-C1FD2BC14D49}"/>
-    <hyperlink ref="E190" r:id="rId290" xr:uid="{D146BB8F-137F-4456-BBA2-EC755F8EBC46}"/>
-    <hyperlink ref="E193" r:id="rId291" xr:uid="{E360B755-600F-4776-B306-2E5CFACE17ED}"/>
-    <hyperlink ref="E189" r:id="rId292" xr:uid="{A5B75A0D-986A-4F1A-B094-7B65E143FDE2}"/>
-    <hyperlink ref="E75" r:id="rId293" xr:uid="{F858A3E3-5FB0-420A-93A4-648662EF60EA}"/>
-    <hyperlink ref="E76" r:id="rId294" xr:uid="{E4B29D74-9296-485B-83BA-F2FBF277CAEE}"/>
-    <hyperlink ref="E36" r:id="rId295" xr:uid="{AFD749B1-917D-4B9C-A4A3-C3DEE02AC2C0}"/>
-    <hyperlink ref="E209" r:id="rId296" xr:uid="{0CCBA335-85C5-47D0-ABB1-7AD15CE9C6BE}"/>
+    <hyperlink ref="E201" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E205" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E207" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E208" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E210" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E212" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E213" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E220" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E221" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E222" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E223" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E224" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E225" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E226" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E227" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E228" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E229" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E230" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E231" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E232" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E233" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E234" r:id="rId191" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E235" r:id="rId192" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E236" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E237" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E238" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E239" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E242" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E243" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E244" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E245" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E246" r:id="rId201" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E247" r:id="rId202" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E214" r:id="rId203" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E146" r:id="rId204" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E145" r:id="rId205" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="G72" r:id="rId206" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E72" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E71" r:id="rId208" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
+    <hyperlink ref="E6" r:id="rId209" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
+    <hyperlink ref="E88" r:id="rId210" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
+    <hyperlink ref="E93" r:id="rId211" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
+    <hyperlink ref="E92" r:id="rId212" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
+    <hyperlink ref="E91" r:id="rId213" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
+    <hyperlink ref="E48" r:id="rId214" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
+    <hyperlink ref="E60" r:id="rId215" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
+    <hyperlink ref="E32" r:id="rId216" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
+    <hyperlink ref="E14" r:id="rId217" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
+    <hyperlink ref="E7" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E11" r:id="rId220" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
+    <hyperlink ref="G37" r:id="rId221" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E37" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E35" r:id="rId223" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G34" r:id="rId224" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E34" r:id="rId225" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G33" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E33" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G31" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E31" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G29" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E29" r:id="rId231" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E28" r:id="rId232" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E27" r:id="rId233" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E26" r:id="rId234" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E25" r:id="rId235" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G23" r:id="rId236" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E23" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G22" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E22" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G20" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E20" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G18" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E18" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G17" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E17" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G16" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E16" r:id="rId247" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G15" r:id="rId248" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E15" r:id="rId249" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G13" r:id="rId250" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E13" r:id="rId251" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G10" r:id="rId252" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E10" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G9" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E9" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G8" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E250" r:id="rId258" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E21" r:id="rId259" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
+    <hyperlink ref="E251" r:id="rId260" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E30" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E12" r:id="rId262" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
+    <hyperlink ref="E252" r:id="rId263" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E253" r:id="rId264" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E24" r:id="rId265" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
+    <hyperlink ref="E19" r:id="rId266" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
+    <hyperlink ref="E206" r:id="rId267" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
+    <hyperlink ref="E198" r:id="rId268" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
+    <hyperlink ref="E179" r:id="rId269" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
+    <hyperlink ref="E204" r:id="rId270" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
+    <hyperlink ref="E106" r:id="rId271" xr:uid="{397DA75B-3BBC-4F89-A9DA-27EB8A53151E}"/>
+    <hyperlink ref="E110" r:id="rId272" xr:uid="{ACEE0CD9-D250-46A6-9BEB-25465E3F5877}"/>
+    <hyperlink ref="E109" r:id="rId273" xr:uid="{726ABE82-32B2-45DF-86E4-D4B65D08B99B}"/>
+    <hyperlink ref="E108" r:id="rId274" xr:uid="{DA3C02E3-82C2-4140-B503-2A624A7F3AA8}"/>
+    <hyperlink ref="E135" r:id="rId275" xr:uid="{880B159A-370B-40EE-A5C8-AE68325F8994}"/>
+    <hyperlink ref="E131" r:id="rId276" xr:uid="{96ACD224-977A-4E66-9264-5617B21A7B5A}"/>
+    <hyperlink ref="E132" r:id="rId277" xr:uid="{7FD7344C-2A6A-4318-A67E-05F8EA153E88}"/>
+    <hyperlink ref="E95" r:id="rId278" xr:uid="{B6515FE2-AD7F-4A71-83EF-89020758DE37}"/>
+    <hyperlink ref="E97" r:id="rId279" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
+    <hyperlink ref="E57" r:id="rId280" xr:uid="{AB524FDC-322C-4129-B3D3-C0CD18DF6C39}"/>
+    <hyperlink ref="E47" r:id="rId281" xr:uid="{12F3604F-E330-4354-82A9-2E7144C6C69C}"/>
+    <hyperlink ref="E52" r:id="rId282" xr:uid="{27F80336-44DE-477D-A42B-75FF0BEAEB14}"/>
+    <hyperlink ref="E51" r:id="rId283" xr:uid="{CBD0C4A3-4F0E-49C4-B907-E32F28123DAA}"/>
+    <hyperlink ref="E53" r:id="rId284" xr:uid="{3496D658-F7DB-469C-8D98-A524DB1BB47C}"/>
+    <hyperlink ref="E203" r:id="rId285" xr:uid="{8C4590C0-E71B-4B6F-928F-91CDE3276DD9}"/>
+    <hyperlink ref="E202" r:id="rId286" xr:uid="{9D29C97A-A6D3-48A4-9664-8DCE5B234FAB}"/>
+    <hyperlink ref="E200" r:id="rId287" xr:uid="{9921A962-A113-4002-BDE2-4F4E4320B387}"/>
+    <hyperlink ref="E186" r:id="rId288" xr:uid="{2401C9CC-8D34-433A-BAAD-C1FD2BC14D49}"/>
+    <hyperlink ref="E190" r:id="rId289" xr:uid="{D146BB8F-137F-4456-BBA2-EC755F8EBC46}"/>
+    <hyperlink ref="E193" r:id="rId290" xr:uid="{E360B755-600F-4776-B306-2E5CFACE17ED}"/>
+    <hyperlink ref="E189" r:id="rId291" xr:uid="{A5B75A0D-986A-4F1A-B094-7B65E143FDE2}"/>
+    <hyperlink ref="E75" r:id="rId292" xr:uid="{F858A3E3-5FB0-420A-93A4-648662EF60EA}"/>
+    <hyperlink ref="E76" r:id="rId293" xr:uid="{E4B29D74-9296-485B-83BA-F2FBF277CAEE}"/>
+    <hyperlink ref="E36" r:id="rId294" xr:uid="{AFD749B1-917D-4B9C-A4A3-C3DEE02AC2C0}"/>
+    <hyperlink ref="E211" r:id="rId295" xr:uid="{0CCBA335-85C5-47D0-ABB1-7AD15CE9C6BE}"/>
+    <hyperlink ref="E219" r:id="rId296" xr:uid="{0556EF01-FFEF-410A-8AA8-8CA7BB356178}"/>
+    <hyperlink ref="E217" r:id="rId297" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E218" r:id="rId298" xr:uid="{CEDFA42B-F516-4AB2-AC3C-789EA49C621B}"/>
+    <hyperlink ref="E199" r:id="rId299" xr:uid="{B1CD58B6-DF33-4CD0-8D2C-935BE832C573}"/>
+    <hyperlink ref="E209" r:id="rId300" xr:uid="{F18D1A45-C38D-44C9-8381-31675C618684}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId297"/>
+  <pageSetup orientation="portrait" r:id="rId301"/>
 </worksheet>
 </file>
--- a/Strivers List + other Problems.xlsx
+++ b/Strivers List + other Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E148C4ED-3D3D-4BDC-94E9-971DACC2C7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A317E4A-FB4A-45ED-ADF1-51C407A08852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="464">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -875,12 +875,6 @@
     <t xml:space="preserve">Google , uber, Meta, microsoft, Amazon </t>
   </si>
   <si>
-    <t>Course Schedule I &amp; II</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/course-schedule-ii/description/</t>
-  </si>
-  <si>
     <t>Amazon, Google, Zoho, Oracle, Samsung, Meta , intuit  , zepto, phonepe , fliipkart, citadel , salesforce</t>
   </si>
   <si>
@@ -1416,6 +1410,21 @@
   </si>
   <si>
     <t>Topo sort</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>First and last idx</t>
+  </si>
+  <si>
+    <t>Search insert position</t>
+  </si>
+  <si>
+    <t>Search in rotated sorted 2</t>
+  </si>
+  <si>
+    <t>Finding minimum in rotating sorted array</t>
   </si>
 </sst>
 </file>
@@ -2090,11 +2099,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1027"/>
+  <dimension ref="A1:Y1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B212" sqref="B212"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2268,13 +2277,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34"/>
@@ -2473,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>9</v>
@@ -2510,7 +2519,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>9</v>
@@ -2588,7 +2597,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>9</v>
@@ -2791,7 +2800,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>9</v>
@@ -2869,7 +2878,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>9</v>
@@ -2990,7 +2999,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>9</v>
@@ -3314,7 +3323,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>9</v>
@@ -3474,7 +3483,7 @@
         <v>32</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>9</v>
@@ -3573,7 +3582,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="30">
         <v>1</v>
@@ -3612,27 +3621,25 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="30">
         <v>2</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G40" s="35"/>
       <c r="H40" s="29"/>
-      <c r="I40" s="12"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3651,26 +3658,24 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="30">
         <v>3</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="34"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="3"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3690,26 +3695,24 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="29" t="s">
-        <v>67</v>
-      </c>
+      <c r="F42" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="35"/>
+      <c r="H42" s="29"/>
       <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3728,14 +3731,25 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="9"/>
+    <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="58"/>
+      <c r="B43" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="30">
+        <v>5</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="35"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="3"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3754,15 +3768,28 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="3"/>
+    <row r="44" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="59"/>
+      <c r="B44" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="30">
+        <v>6</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="29"/>
+      <c r="I44" s="12"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -3781,30 +3808,26 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="61" t="s">
-        <v>68</v>
-      </c>
+      <c r="A45" s="59"/>
       <c r="B45" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C45" s="30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E45" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="36" t="s">
-        <v>10</v>
+      <c r="F45" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="29" t="s">
-        <v>70</v>
-      </c>
+      <c r="H45" s="34"/>
       <c r="I45" s="3"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3829,20 +3852,20 @@
         <v>0</v>
       </c>
       <c r="C46" s="30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E46" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="36" t="s">
-        <v>10</v>
+      <c r="F46" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="G46" s="33"/>
       <c r="H46" s="29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="1"/>
@@ -3862,25 +3885,14 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C47" s="30">
-        <v>3</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="29"/>
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3899,25 +3911,14 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48" s="30">
-        <v>4</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="29"/>
+    <row r="48" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
       <c r="I48" s="3"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3937,15 +3938,17 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
+      <c r="A49" s="61" t="s">
+        <v>68</v>
+      </c>
       <c r="B49" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C49" s="30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>9</v>
@@ -3953,9 +3956,11 @@
       <c r="F49" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="33"/>
+      <c r="G49" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H49" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
@@ -3981,21 +3986,21 @@
         <v>0</v>
       </c>
       <c r="C50" s="30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E50" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="34"/>
+      <c r="F50" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -4020,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="C51" s="30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="34"/>
+      <c r="F51" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="33"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="3"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -4057,19 +4062,19 @@
         <v>0</v>
       </c>
       <c r="C52" s="30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="E52" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="E52" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="34"/>
+      <c r="F52" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="33"/>
+      <c r="H52" s="29"/>
       <c r="I52" s="3"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -4094,19 +4099,21 @@
         <v>0</v>
       </c>
       <c r="C53" s="30">
+        <v>5</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="34"/>
+      <c r="F53" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="33"/>
+      <c r="H53" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -4131,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="C54" s="30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E54" s="43" t="s">
         <v>9</v>
@@ -4170,23 +4177,19 @@
         <v>0</v>
       </c>
       <c r="C55" s="30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="34" t="s">
-        <v>35</v>
-      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="34"/>
       <c r="I55" s="3"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4211,20 +4214,18 @@
         <v>0</v>
       </c>
       <c r="C56" s="30">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G56" s="35"/>
       <c r="H56" s="34"/>
       <c r="I56" s="3"/>
       <c r="J56" s="1"/>
@@ -4250,10 +4251,10 @@
         <v>0</v>
       </c>
       <c r="C57" s="30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>9</v>
@@ -4287,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="C58" s="30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E58" s="43" t="s">
         <v>9</v>
@@ -4298,10 +4299,10 @@
       <c r="F58" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="33"/>
-      <c r="H58" s="34" t="s">
-        <v>80</v>
-      </c>
+      <c r="G58" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="34"/>
       <c r="I58" s="3"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -4326,20 +4327,22 @@
         <v>0</v>
       </c>
       <c r="C59" s="30">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E59" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" s="33"/>
-      <c r="H59" s="29" t="s">
-        <v>82</v>
+      <c r="F59" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="1"/>
@@ -4365,19 +4368,21 @@
         <v>0</v>
       </c>
       <c r="C60" s="30">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="E60" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="33"/>
-      <c r="H60" s="29"/>
+      <c r="F60" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="34"/>
       <c r="I60" s="3"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -4402,18 +4407,18 @@
         <v>0</v>
       </c>
       <c r="C61" s="30">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" s="33"/>
+      <c r="F61" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="35"/>
       <c r="H61" s="34"/>
       <c r="I61" s="3"/>
       <c r="J61" s="1"/>
@@ -4439,19 +4444,21 @@
         <v>0</v>
       </c>
       <c r="C62" s="30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>55</v>
+        <v>79</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="G62" s="33"/>
-      <c r="H62" s="34"/>
+      <c r="H62" s="34" t="s">
+        <v>80</v>
+      </c>
       <c r="I62" s="3"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4470,12 +4477,27 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="H63" s="11"/>
+    <row r="63" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="59"/>
+      <c r="B63" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="30">
+        <v>15</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="33"/>
+      <c r="H63" s="29" t="s">
+        <v>82</v>
+      </c>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4494,15 +4516,25 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="4"/>
+    <row r="64" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="59"/>
+      <c r="B64" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="30">
+        <v>16</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="33"/>
+      <c r="H64" s="29"/>
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4521,32 +4553,25 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="62" t="s">
-        <v>86</v>
-      </c>
+    <row r="65" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="59"/>
       <c r="B65" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
-        <f t="shared" ref="C65:C77" si="0">ROW(A1)</f>
-        <v>1</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="30">
+        <v>17</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>88</v>
-      </c>
+      <c r="F65" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="33"/>
+      <c r="H65" s="34"/>
       <c r="I65" s="3"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4565,28 +4590,25 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="56"/>
+    <row r="66" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="59"/>
       <c r="B66" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="15" t="s">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C66" s="30">
+        <v>18</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="33"/>
+      <c r="H66" s="34"/>
       <c r="I66" s="3"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -4605,30 +4627,12 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="56"/>
-      <c r="B67" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="C67" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>92</v>
-      </c>
+    <row r="67" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -4647,28 +4651,15 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A68" s="56"/>
-      <c r="B68" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="68" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="1"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="15" t="s">
-        <v>94</v>
-      </c>
+      <c r="H68" s="4"/>
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -4688,16 +4679,18 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="56"/>
+      <c r="A69" s="62" t="s">
+        <v>86</v>
+      </c>
       <c r="B69" s="52" t="b">
         <v>1</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" ref="C69:C81" si="0">ROW(A1)</f>
+        <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>9</v>
@@ -4705,9 +4698,11 @@
       <c r="F69" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G69" s="3"/>
+      <c r="G69" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H69" s="15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
@@ -4734,10 +4729,10 @@
       </c>
       <c r="C70" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>9</v>
@@ -4745,11 +4740,9 @@
       <c r="F70" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G70" s="3"/>
       <c r="H70" s="15" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
@@ -4776,19 +4769,23 @@
       </c>
       <c r="C71" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E71" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="15"/>
+      <c r="G71" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4807,17 +4804,17 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="56"/>
       <c r="B72" s="52" t="b">
         <v>1</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>9</v>
@@ -4825,11 +4822,9 @@
       <c r="F72" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G72" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>99</v>
+      <c r="G72" s="3"/>
+      <c r="H72" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
@@ -4856,10 +4851,10 @@
       </c>
       <c r="C73" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>9</v>
@@ -4869,7 +4864,7 @@
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="1"/>
@@ -4896,22 +4891,22 @@
       </c>
       <c r="C74" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="28" t="s">
-        <v>55</v>
+      <c r="F74" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
@@ -4938,16 +4933,16 @@
       </c>
       <c r="C75" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="28" t="s">
-        <v>55</v>
+      <c r="F75" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="15"/>
@@ -4969,26 +4964,30 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="56"/>
       <c r="B76" s="52" t="b">
         <v>1</v>
       </c>
       <c r="C76" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E76" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="15"/>
+      <c r="F76" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -5007,29 +5006,27 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="56"/>
       <c r="B77" s="52" t="b">
         <v>1</v>
       </c>
       <c r="C77" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="16" t="s">
-        <v>104</v>
+      <c r="F77" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="1"/>
@@ -5049,15 +5046,30 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="4"/>
+    <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A78" s="56"/>
+      <c r="B78" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="I78" s="3"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -5076,15 +5088,26 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="4"/>
+    <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A79" s="56"/>
+      <c r="B79" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="15"/>
       <c r="I79" s="3"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -5103,31 +5126,26 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="58" t="s">
-        <v>105</v>
-      </c>
+    <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A80" s="56"/>
       <c r="B80" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C80" s="30">
         <v>1</v>
       </c>
-      <c r="D80" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="E80" s="43" t="s">
+      <c r="C80" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E80" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="45" t="s">
-        <v>106</v>
-      </c>
+      <c r="F80" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="15"/>
       <c r="I80" s="3"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -5147,27 +5165,28 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="59"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C81" s="30">
-        <v>2</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="E81" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="35" t="s">
+      <c r="F81" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G81" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="45" t="s">
-        <v>107</v>
+      <c r="H81" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="1"/>
@@ -5187,29 +5206,15 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="59"/>
-      <c r="B82" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C82" s="30">
-        <v>3</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="E82" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="45" t="s">
-        <v>108</v>
-      </c>
+    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="4"/>
       <c r="I82" s="3"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -5228,27 +5233,15 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="59"/>
-      <c r="B83" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C83" s="30">
-        <v>4</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="E83" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="45" t="s">
-        <v>109</v>
-      </c>
+    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
       <c r="I83" s="3"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -5268,15 +5261,17 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="59"/>
+      <c r="A84" s="58" t="s">
+        <v>105</v>
+      </c>
       <c r="B84" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C84" s="30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E84" s="43" t="s">
         <v>9</v>
@@ -5288,7 +5283,7 @@
         <v>11</v>
       </c>
       <c r="H84" s="45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="1"/>
@@ -5314,22 +5309,22 @@
         <v>0</v>
       </c>
       <c r="C85" s="30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E85" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="37" t="s">
-        <v>22</v>
+      <c r="F85" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G85" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H85" s="45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1"/>
@@ -5355,22 +5350,22 @@
         <v>0</v>
       </c>
       <c r="C86" s="30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E86" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="37" t="s">
-        <v>22</v>
+      <c r="F86" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G86" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="1"/>
@@ -5396,22 +5391,20 @@
         <v>0</v>
       </c>
       <c r="C87" s="30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>113</v>
+        <v>368</v>
       </c>
       <c r="E87" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="F87" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="33"/>
       <c r="H87" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="1"/>
@@ -5437,19 +5430,23 @@
         <v>0</v>
       </c>
       <c r="C88" s="30">
+        <v>5</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="E88" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="35"/>
-      <c r="H88" s="45"/>
+      <c r="F88" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="45" t="s">
+        <v>110</v>
+      </c>
       <c r="I88" s="3"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -5474,10 +5471,10 @@
         <v>0</v>
       </c>
       <c r="C89" s="30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="E89" s="43" t="s">
         <v>9</v>
@@ -5485,9 +5482,11 @@
       <c r="F89" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="33"/>
+      <c r="G89" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H89" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="1"/>
@@ -5513,10 +5512,10 @@
         <v>0</v>
       </c>
       <c r="C90" s="30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>117</v>
+        <v>371</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>9</v>
@@ -5524,9 +5523,11 @@
       <c r="F90" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G90" s="33"/>
+      <c r="G90" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H90" s="45" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="1"/>
@@ -5552,19 +5553,23 @@
         <v>0</v>
       </c>
       <c r="C91" s="30">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="E91" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G91" s="35"/>
-      <c r="H91" s="45"/>
+      <c r="G91" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="45" t="s">
+        <v>114</v>
+      </c>
       <c r="I91" s="3"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -5589,10 +5594,10 @@
         <v>0</v>
       </c>
       <c r="C92" s="30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E92" s="31" t="s">
         <v>9</v>
@@ -5626,19 +5631,21 @@
         <v>0</v>
       </c>
       <c r="C93" s="30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="E93" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E93" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G93" s="35"/>
-      <c r="H93" s="45"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="45" t="s">
+        <v>116</v>
+      </c>
       <c r="I93" s="3"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -5663,10 +5670,10 @@
         <v>0</v>
       </c>
       <c r="C94" s="30">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>9</v>
@@ -5676,7 +5683,7 @@
       </c>
       <c r="G94" s="33"/>
       <c r="H94" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="1"/>
@@ -5702,18 +5709,18 @@
         <v>0</v>
       </c>
       <c r="C95" s="30">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="E95" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="E95" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G95" s="33"/>
+      <c r="F95" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="35"/>
       <c r="H95" s="45"/>
       <c r="I95" s="3"/>
       <c r="J95" s="1"/>
@@ -5739,23 +5746,19 @@
         <v>0</v>
       </c>
       <c r="C96" s="30">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E96" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="E96" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G96" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="45" t="s">
-        <v>122</v>
-      </c>
+      <c r="F96" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="35"/>
+      <c r="H96" s="45"/>
       <c r="I96" s="3"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -5775,24 +5778,24 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="29"/>
+      <c r="A97" s="59"/>
       <c r="B97" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C97" s="30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E97" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="47" t="s">
+      <c r="F97" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="33"/>
-      <c r="H97" s="34"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="45"/>
       <c r="I97" s="3"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -5811,15 +5814,27 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="4"/>
+    <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="59"/>
+      <c r="B98" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="30">
+        <v>15</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="33"/>
+      <c r="H98" s="45" t="s">
+        <v>120</v>
+      </c>
       <c r="I98" s="3"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -5839,30 +5854,24 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="61" t="s">
-        <v>123</v>
-      </c>
+      <c r="A99" s="59"/>
       <c r="B99" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C99" s="30">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="E99" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H99" s="45" t="s">
-        <v>125</v>
-      </c>
+      <c r="F99" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G99" s="33"/>
+      <c r="H99" s="45"/>
       <c r="I99" s="3"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -5887,22 +5896,22 @@
         <v>0</v>
       </c>
       <c r="C100" s="30">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E100" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="36" t="s">
-        <v>10</v>
+      <c r="F100" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="G100" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H100" s="45" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="1"/>
@@ -5923,28 +5932,24 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="59"/>
+      <c r="A101" s="29"/>
       <c r="B101" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C101" s="30">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E101" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="E101" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H101" s="45" t="s">
-        <v>129</v>
-      </c>
+      <c r="F101" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="33"/>
+      <c r="H101" s="34"/>
       <c r="I101" s="3"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -5963,29 +5968,15 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="59"/>
-      <c r="B102" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C102" s="30">
-        <v>4</v>
-      </c>
-      <c r="D102" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="E102" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" s="45" t="s">
-        <v>131</v>
-      </c>
+    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
       <c r="I102" s="3"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -6005,15 +5996,17 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="59"/>
+      <c r="A103" s="61" t="s">
+        <v>123</v>
+      </c>
       <c r="B103" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C103" s="30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E103" s="43" t="s">
         <v>9</v>
@@ -6025,7 +6018,7 @@
         <v>11</v>
       </c>
       <c r="H103" s="45" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="1"/>
@@ -6051,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="C104" s="30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E104" s="43" t="s">
         <v>9</v>
@@ -6062,9 +6055,11 @@
       <c r="F104" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="33"/>
+      <c r="G104" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H104" s="45" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="1"/>
@@ -6090,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="C105" s="30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E105" s="43" t="s">
         <v>9</v>
@@ -6101,9 +6096,11 @@
       <c r="F105" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G105" s="33"/>
+      <c r="G105" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H105" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
@@ -6129,19 +6126,23 @@
         <v>0</v>
       </c>
       <c r="C106" s="30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="E106" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" s="33"/>
-      <c r="H106" s="45"/>
+      <c r="F106" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="45" t="s">
+        <v>131</v>
+      </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -6166,22 +6167,22 @@
         <v>0</v>
       </c>
       <c r="C107" s="30">
+        <v>5</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E107" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="46" t="s">
-        <v>22</v>
+      <c r="F107" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G107" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H107" s="45" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
@@ -6207,19 +6208,21 @@
         <v>0</v>
       </c>
       <c r="C108" s="30">
+        <v>6</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" s="35"/>
-      <c r="H108" s="45"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="45" t="s">
+        <v>135</v>
+      </c>
       <c r="I108" s="3"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -6244,19 +6247,21 @@
         <v>0</v>
       </c>
       <c r="C109" s="30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="E109" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E109" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" s="35"/>
-      <c r="H109" s="45"/>
+      <c r="F109" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="33"/>
+      <c r="H109" s="45" t="s">
+        <v>137</v>
+      </c>
       <c r="I109" s="3"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -6281,10 +6286,10 @@
         <v>0</v>
       </c>
       <c r="C110" s="30">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E110" s="21" t="s">
         <v>9</v>
@@ -6292,7 +6297,7 @@
       <c r="F110" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G110" s="35"/>
+      <c r="G110" s="33"/>
       <c r="H110" s="45"/>
       <c r="I110" s="3"/>
       <c r="J110" s="1"/>
@@ -6318,12 +6323,12 @@
         <v>0</v>
       </c>
       <c r="C111" s="30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E111" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E111" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F111" s="46" t="s">
@@ -6333,7 +6338,7 @@
         <v>11</v>
       </c>
       <c r="H111" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
@@ -6359,23 +6364,19 @@
         <v>0</v>
       </c>
       <c r="C112" s="30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E112" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="E112" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F112" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G112" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" s="45" t="s">
-        <v>143</v>
-      </c>
+      <c r="G112" s="35"/>
+      <c r="H112" s="45"/>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -6400,23 +6401,19 @@
         <v>0</v>
       </c>
       <c r="C113" s="30">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E113" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="E113" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F113" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G113" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" s="45" t="s">
-        <v>145</v>
-      </c>
+      <c r="G113" s="35"/>
+      <c r="H113" s="45"/>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -6441,23 +6438,19 @@
         <v>0</v>
       </c>
       <c r="C114" s="30">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E114" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="E114" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F114" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G114" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" s="45" t="s">
-        <v>148</v>
-      </c>
+      <c r="G114" s="35"/>
+      <c r="H114" s="45"/>
       <c r="I114" s="3"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -6482,22 +6475,22 @@
         <v>0</v>
       </c>
       <c r="C115" s="30">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E115" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="50" t="s">
-        <v>55</v>
+      <c r="F115" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="G115" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H115" s="45" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="1"/>
@@ -6517,15 +6510,29 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="11"/>
+    <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="59"/>
+      <c r="B116" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" s="30">
+        <v>15</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="45" t="s">
+        <v>143</v>
+      </c>
       <c r="I116" s="3"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -6544,15 +6551,29 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="4"/>
+    <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="59"/>
+      <c r="B117" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" s="30">
+        <v>16</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E117" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="45" t="s">
+        <v>145</v>
+      </c>
       <c r="I117" s="3"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -6572,29 +6593,27 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="61" t="s">
-        <v>151</v>
-      </c>
+      <c r="A118" s="59"/>
       <c r="B118" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C118" s="30">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="E118" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="36" t="s">
-        <v>10</v>
+      <c r="F118" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="G118" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H118" s="45" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1"/>
@@ -6620,22 +6639,22 @@
         <v>0</v>
       </c>
       <c r="C119" s="30">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>375</v>
+        <v>149</v>
       </c>
       <c r="E119" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="36" t="s">
-        <v>10</v>
+      <c r="F119" s="50" t="s">
+        <v>55</v>
       </c>
       <c r="G119" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H119" s="45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1"/>
@@ -6655,29 +6674,15 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="59"/>
-      <c r="B120" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C120" s="30">
-        <v>3</v>
-      </c>
-      <c r="D120" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="E120" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" s="45" t="s">
-        <v>154</v>
-      </c>
+    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="11"/>
       <c r="I120" s="3"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -6696,27 +6701,15 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="59"/>
-      <c r="B121" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C121" s="30">
-        <v>4</v>
-      </c>
-      <c r="D121" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="E121" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="33"/>
-      <c r="H121" s="45" t="s">
-        <v>155</v>
-      </c>
+    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="4"/>
       <c r="I121" s="3"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -6736,15 +6729,17 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="59"/>
+      <c r="A122" s="61" t="s">
+        <v>151</v>
+      </c>
       <c r="B122" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C122" s="30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E122" s="43" t="s">
         <v>9</v>
@@ -6753,10 +6748,10 @@
         <v>10</v>
       </c>
       <c r="G122" s="35" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="H122" s="45" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1"/>
@@ -6782,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="C123" s="30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E123" s="43" t="s">
         <v>9</v>
@@ -6797,7 +6792,7 @@
         <v>11</v>
       </c>
       <c r="H123" s="45" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1"/>
@@ -6823,10 +6818,10 @@
         <v>0</v>
       </c>
       <c r="C124" s="30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E124" s="43" t="s">
         <v>9</v>
@@ -6838,7 +6833,7 @@
         <v>11</v>
       </c>
       <c r="H124" s="45" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6864,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="C125" s="30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E125" s="43" t="s">
         <v>9</v>
@@ -6875,11 +6870,9 @@
       <c r="F125" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G125" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G125" s="33"/>
       <c r="H125" s="45" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1"/>
@@ -6905,10 +6898,10 @@
         <v>0</v>
       </c>
       <c r="C126" s="30">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E126" s="43" t="s">
         <v>9</v>
@@ -6916,9 +6909,11 @@
       <c r="F126" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G126" s="33"/>
+      <c r="G126" s="35" t="s">
+        <v>156</v>
+      </c>
       <c r="H126" s="45" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
@@ -6944,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="C127" s="30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E127" s="43" t="s">
         <v>9</v>
@@ -6959,7 +6954,7 @@
         <v>11</v>
       </c>
       <c r="H127" s="45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1"/>
@@ -6985,10 +6980,10 @@
         <v>0</v>
       </c>
       <c r="C128" s="30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E128" s="43" t="s">
         <v>9</v>
@@ -6996,9 +6991,11 @@
       <c r="F128" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G128" s="33"/>
+      <c r="G128" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H128" s="45" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="1"/>
@@ -7024,22 +7021,22 @@
         <v>0</v>
       </c>
       <c r="C129" s="30">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E129" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F129" s="37" t="s">
-        <v>22</v>
+      <c r="F129" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G129" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H129" s="45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
@@ -7065,20 +7062,20 @@
         <v>0</v>
       </c>
       <c r="C130" s="30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E130" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="37" t="s">
-        <v>22</v>
+      <c r="F130" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G130" s="33"/>
       <c r="H130" s="45" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
@@ -7104,19 +7101,23 @@
         <v>0</v>
       </c>
       <c r="C131" s="30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="E131" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E131" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" s="33"/>
-      <c r="H131" s="45"/>
+      <c r="F131" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="45" t="s">
+        <v>162</v>
+      </c>
       <c r="I131" s="3"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -7141,19 +7142,21 @@
         <v>0</v>
       </c>
       <c r="C132" s="30">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="E132" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="E132" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="37" t="s">
-        <v>22</v>
+      <c r="F132" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="G132" s="33"/>
-      <c r="H132" s="45"/>
+      <c r="H132" s="45" t="s">
+        <v>163</v>
+      </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -7178,10 +7181,10 @@
         <v>0</v>
       </c>
       <c r="C133" s="30">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E133" s="43" t="s">
         <v>9</v>
@@ -7189,9 +7192,11 @@
       <c r="F133" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G133" s="33"/>
+      <c r="G133" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H133" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
@@ -7217,10 +7222,10 @@
         <v>0</v>
       </c>
       <c r="C134" s="30">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E134" s="43" t="s">
         <v>9</v>
@@ -7228,11 +7233,9 @@
       <c r="F134" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G134" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G134" s="33"/>
       <c r="H134" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="1"/>
@@ -7258,10 +7261,10 @@
         <v>0</v>
       </c>
       <c r="C135" s="30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E135" s="21" t="s">
         <v>9</v>
@@ -7269,7 +7272,7 @@
       <c r="F135" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G135" s="35"/>
+      <c r="G135" s="33"/>
       <c r="H135" s="45"/>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
@@ -7295,23 +7298,19 @@
         <v>0</v>
       </c>
       <c r="C136" s="30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="E136" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="E136" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F136" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G136" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" s="45" t="s">
-        <v>169</v>
-      </c>
+      <c r="G136" s="33"/>
+      <c r="H136" s="45"/>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -7336,10 +7335,10 @@
         <v>0</v>
       </c>
       <c r="C137" s="30">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E137" s="43" t="s">
         <v>9</v>
@@ -7347,11 +7346,9 @@
       <c r="F137" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G137" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G137" s="33"/>
       <c r="H137" s="45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
@@ -7377,10 +7374,10 @@
         <v>0</v>
       </c>
       <c r="C138" s="30">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D138" s="29" t="s">
-        <v>171</v>
+        <v>386</v>
       </c>
       <c r="E138" s="43" t="s">
         <v>9</v>
@@ -7392,7 +7389,7 @@
         <v>11</v>
       </c>
       <c r="H138" s="45" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
@@ -7418,21 +7415,19 @@
         <v>0</v>
       </c>
       <c r="C139" s="30">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D139" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E139" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="E139" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F139" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G139" s="33"/>
-      <c r="H139" s="45" t="s">
-        <v>174</v>
-      </c>
+      <c r="G139" s="35"/>
+      <c r="H139" s="45"/>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -7457,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="C140" s="30">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D140" s="29" t="s">
-        <v>390</v>
+        <v>168</v>
       </c>
       <c r="E140" s="43" t="s">
         <v>9</v>
@@ -7472,7 +7467,7 @@
         <v>11</v>
       </c>
       <c r="H140" s="45" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7498,10 +7493,10 @@
         <v>0</v>
       </c>
       <c r="C141" s="30">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>176</v>
+        <v>387</v>
       </c>
       <c r="E141" s="43" t="s">
         <v>9</v>
@@ -7513,7 +7508,7 @@
         <v>11</v>
       </c>
       <c r="H141" s="45" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7539,10 +7534,10 @@
         <v>0</v>
       </c>
       <c r="C142" s="30">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D142" s="29" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E142" s="43" t="s">
         <v>9</v>
@@ -7550,9 +7545,11 @@
       <c r="F142" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G142" s="33"/>
+      <c r="G142" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H142" s="45" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7578,20 +7575,20 @@
         <v>0</v>
       </c>
       <c r="C143" s="30">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D143" s="29" t="s">
-        <v>391</v>
+        <v>173</v>
       </c>
       <c r="E143" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F143" s="40" t="s">
-        <v>55</v>
+      <c r="F143" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="G143" s="33"/>
       <c r="H143" s="45" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
@@ -7617,20 +7614,22 @@
         <v>0</v>
       </c>
       <c r="C144" s="30">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D144" s="29" t="s">
-        <v>181</v>
+        <v>388</v>
       </c>
       <c r="E144" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G144" s="33"/>
+      <c r="F144" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H144" s="45" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
@@ -7651,24 +7650,28 @@
       <c r="Y144" s="1"/>
     </row>
     <row r="145" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="44"/>
+      <c r="A145" s="59"/>
       <c r="B145" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C145" s="30">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D145" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E145" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E145" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F145" s="47" t="s">
+      <c r="F145" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G145" s="33"/>
-      <c r="H145" s="45"/>
+      <c r="G145" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="45" t="s">
+        <v>177</v>
+      </c>
       <c r="I145" s="3"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -7688,24 +7691,26 @@
       <c r="Y145" s="1"/>
     </row>
     <row r="146" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="44"/>
+      <c r="A146" s="59"/>
       <c r="B146" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C146" s="30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D146" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="E146" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E146" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="47" t="s">
+      <c r="F146" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G146" s="33"/>
-      <c r="H146" s="45"/>
+      <c r="H146" s="45" t="s">
+        <v>179</v>
+      </c>
       <c r="I146" s="3"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -7724,15 +7729,27 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="4"/>
+    <row r="147" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="59"/>
+      <c r="B147" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C147" s="30">
+        <v>26</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="E147" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G147" s="33"/>
+      <c r="H147" s="45" t="s">
+        <v>180</v>
+      </c>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -7751,28 +7768,26 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A148" s="63" t="s">
-        <v>183</v>
-      </c>
+    <row r="148" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="59"/>
       <c r="B148" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C148" s="2">
-        <v>1</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E148" s="8" t="s">
+      <c r="C148" s="30">
+        <v>27</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E148" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F148" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="15" t="s">
-        <v>185</v>
+      <c r="F148" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G148" s="33"/>
+      <c r="H148" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
@@ -7793,28 +7808,24 @@
       <c r="Y148" s="1"/>
     </row>
     <row r="149" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="56"/>
+      <c r="A149" s="44"/>
       <c r="B149" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C149" s="2">
-        <v>2</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E149" s="8" t="s">
+      <c r="C149" s="30">
+        <v>28</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="E149" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" s="16" t="s">
-        <v>187</v>
-      </c>
+      <c r="F149" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="33"/>
+      <c r="H149" s="45"/>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -7833,29 +7844,25 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A150" s="56"/>
+    <row r="150" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="44"/>
       <c r="B150" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C150" s="2">
-        <v>3</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E150" s="8" t="s">
+      <c r="C150" s="30">
+        <v>29</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="E150" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F150" s="26" t="s">
+      <c r="F150" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G150" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" s="15" t="s">
-        <v>189</v>
-      </c>
+      <c r="G150" s="33"/>
+      <c r="H150" s="45"/>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -7874,29 +7881,15 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A151" s="56"/>
-      <c r="B151" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C151" s="2">
-        <v>4</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H151" s="15" t="s">
-        <v>191</v>
-      </c>
+    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="4"/>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -7915,28 +7908,28 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="56"/>
+    <row r="152" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A152" s="63" t="s">
+        <v>183</v>
+      </c>
       <c r="B152" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C152" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E152" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E152" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F152" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H152" s="16" t="s">
-        <v>193</v>
+      <c r="F152" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="1"/>
@@ -7962,22 +7955,22 @@
         <v>0</v>
       </c>
       <c r="C153" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F153" s="26" t="s">
-        <v>22</v>
+      <c r="F153" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G153" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H153" s="16" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="1"/>
@@ -8003,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="C154" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>9</v>
@@ -8018,7 +8011,7 @@
         <v>11</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
@@ -8038,16 +8031,16 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A155" s="56"/>
       <c r="B155" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C155" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>9</v>
@@ -8058,8 +8051,8 @@
       <c r="G155" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H155" s="16" t="s">
-        <v>199</v>
+      <c r="H155" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
@@ -8079,18 +8072,18 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A156" s="56"/>
       <c r="B156" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C156" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E156" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E156" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F156" s="26" t="s">
@@ -8099,8 +8092,8 @@
       <c r="G156" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H156" s="15" t="s">
-        <v>201</v>
+      <c r="H156" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
@@ -8120,16 +8113,16 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A157" s="56"/>
       <c r="B157" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C157" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>9</v>
@@ -8140,8 +8133,8 @@
       <c r="G157" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H157" s="15" t="s">
-        <v>203</v>
+      <c r="H157" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -8161,28 +8154,28 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A158" s="56"/>
       <c r="B158" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C158" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F158" s="28" t="s">
-        <v>55</v>
+      <c r="F158" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G158" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H158" s="16" t="s">
-        <v>205</v>
+      <c r="H158" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
@@ -8208,20 +8201,22 @@
         <v>0</v>
       </c>
       <c r="C159" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F159" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G159" s="3"/>
+      <c r="F159" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H159" s="16" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="1"/>
@@ -8247,22 +8242,22 @@
         <v>0</v>
       </c>
       <c r="C160" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F160" s="28" t="s">
-        <v>55</v>
+      <c r="F160" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G160" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H160" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="1"/>
@@ -8282,15 +8277,29 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="4"/>
+    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A161" s="56"/>
+      <c r="B161" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C161" s="2">
+        <v>12</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" s="15" t="s">
+        <v>203</v>
+      </c>
       <c r="I161" s="3"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -8309,15 +8318,29 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="4"/>
+    <row r="162" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="56"/>
+      <c r="B162" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C162" s="2">
+        <v>13</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -8336,28 +8359,26 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="63" t="s">
-        <v>210</v>
-      </c>
+    <row r="163" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="56"/>
       <c r="B163" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C163" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E163" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F163" s="27" t="s">
-        <v>10</v>
+        <v>206</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="G163" s="3"/>
-      <c r="H163" s="15" t="s">
-        <v>213</v>
+      <c r="H163" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
@@ -8383,20 +8404,22 @@
         <v>0</v>
       </c>
       <c r="C164" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E164" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="F164" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H164" s="15" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
@@ -8416,27 +8439,15 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" s="56"/>
-      <c r="B165" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C165" s="2">
-        <v>3</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E165" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F165" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="1"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="15" t="s">
-        <v>219</v>
-      </c>
+      <c r="H165" s="4"/>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -8455,27 +8466,15 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A166" s="56"/>
-      <c r="B166" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C166" s="2">
-        <v>4</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E166" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F166" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="1"/>
       <c r="G166" s="3"/>
-      <c r="H166" s="15" t="s">
-        <v>222</v>
-      </c>
+      <c r="H166" s="4"/>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -8495,25 +8494,27 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A167" s="56"/>
+      <c r="A167" s="63" t="s">
+        <v>210</v>
+      </c>
       <c r="B167" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C167" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E167" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F167" s="28" t="s">
-        <v>55</v>
+        <v>211</v>
+      </c>
+      <c r="E167" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F167" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="15" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="1"/>
@@ -8533,26 +8534,26 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A168" s="56"/>
       <c r="B168" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C168" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="F168" s="28" t="s">
-        <v>55</v>
+        <v>215</v>
+      </c>
+      <c r="F168" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G168" s="3"/>
-      <c r="H168" s="16" t="s">
-        <v>228</v>
+      <c r="H168" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="1"/>
@@ -8572,15 +8573,27 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="1"/>
+    <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A169" s="56"/>
+      <c r="B169" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C169" s="2">
+        <v>3</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F169" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G169" s="3"/>
-      <c r="H169" s="4"/>
+      <c r="H169" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="I169" s="3"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -8599,15 +8612,27 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="1"/>
+    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A170" s="56"/>
+      <c r="B170" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C170" s="2">
+        <v>4</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E170" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F170" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G170" s="3"/>
-      <c r="H170" s="4"/>
+      <c r="H170" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="I170" s="3"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -8627,27 +8652,25 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="63" t="s">
-        <v>229</v>
-      </c>
+      <c r="A171" s="56"/>
       <c r="B171" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C171" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="F171" s="27" t="s">
-        <v>10</v>
+        <v>224</v>
+      </c>
+      <c r="F171" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="15" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
@@ -8667,26 +8690,26 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A172" s="56"/>
       <c r="B172" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C172" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F172" s="26" t="s">
-        <v>22</v>
+        <v>227</v>
+      </c>
+      <c r="F172" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="G172" s="3"/>
-      <c r="H172" s="15" t="s">
-        <v>234</v>
+      <c r="H172" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8706,27 +8729,15 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A173" s="56"/>
-      <c r="B173" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C173" s="2">
-        <v>3</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E173" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="F173" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="1"/>
       <c r="G173" s="3"/>
-      <c r="H173" s="16" t="s">
-        <v>237</v>
-      </c>
+      <c r="H173" s="4"/>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -8745,27 +8756,15 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A174" s="56"/>
-      <c r="B174" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C174" s="2">
-        <v>4</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E174" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F174" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="1"/>
       <c r="G174" s="3"/>
-      <c r="H174" s="15" t="s">
-        <v>240</v>
-      </c>
+      <c r="H174" s="4"/>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
@@ -8784,26 +8783,28 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="56"/>
+    <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A175" s="63" t="s">
+        <v>229</v>
+      </c>
       <c r="B175" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C175" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="E175" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="F175" s="26" t="s">
-        <v>22</v>
+        <v>230</v>
+      </c>
+      <c r="F175" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G175" s="3"/>
-      <c r="H175" s="16" t="s">
-        <v>237</v>
+      <c r="H175" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
@@ -8823,15 +8824,27 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A176" s="17"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="1"/>
+    <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A176" s="56"/>
+      <c r="B176" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C176" s="2">
+        <v>2</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E176" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F176" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
+      <c r="H176" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="I176" s="3"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -8850,15 +8863,27 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="17"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="1"/>
+    <row r="177" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="56"/>
+      <c r="B177" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C177" s="2">
+        <v>3</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F177" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
+      <c r="H177" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -8878,27 +8903,25 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="63" t="s">
-        <v>243</v>
-      </c>
+      <c r="A178" s="56"/>
       <c r="B178" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C178" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E178" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F178" s="27" t="s">
-        <v>10</v>
+        <v>239</v>
+      </c>
+      <c r="F178" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
@@ -8918,25 +8941,27 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="63"/>
+    <row r="179" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="56"/>
       <c r="B179" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C179" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E179" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="F179" s="27" t="s">
-        <v>10</v>
+        <v>241</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F179" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G179" s="3"/>
-      <c r="H179" s="15"/>
+      <c r="H179" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -8955,27 +8980,15 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A180" s="56"/>
-      <c r="B180" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C180" s="2">
-        <v>3</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E180" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="F180" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A180" s="17"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="1"/>
       <c r="G180" s="3"/>
-      <c r="H180" s="15" t="s">
-        <v>249</v>
-      </c>
+      <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
@@ -8994,27 +9007,15 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A181" s="56"/>
-      <c r="B181" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C181" s="2">
-        <v>4</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E181" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="F181" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A181" s="17"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="1"/>
       <c r="G181" s="3"/>
-      <c r="H181" s="15" t="s">
-        <v>251</v>
-      </c>
+      <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -9034,25 +9035,27 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A182" s="56"/>
+      <c r="A182" s="63" t="s">
+        <v>243</v>
+      </c>
       <c r="B182" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F182" s="26" t="s">
-        <v>22</v>
+        <v>245</v>
+      </c>
+      <c r="F182" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="15" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -9073,26 +9076,24 @@
       <c r="Y182" s="1"/>
     </row>
     <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A183" s="56"/>
+      <c r="A183" s="63"/>
       <c r="B183" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C183" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>256</v>
+        <v>418</v>
       </c>
       <c r="E183" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="F183" s="26" t="s">
-        <v>22</v>
+        <v>419</v>
+      </c>
+      <c r="F183" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G183" s="3"/>
-      <c r="H183" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="H183" s="15"/>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -9117,20 +9118,20 @@
         <v>0</v>
       </c>
       <c r="C184" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E184" s="23" t="s">
-        <v>259</v>
+        <v>247</v>
+      </c>
+      <c r="E184" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="F184" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="15" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -9156,20 +9157,20 @@
         <v>0</v>
       </c>
       <c r="C185" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E185" s="18" t="s">
-        <v>262</v>
+        <v>250</v>
+      </c>
+      <c r="E185" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="F185" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="15" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -9189,26 +9190,26 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A186" s="56"/>
       <c r="B186" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C186" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E186" s="53" t="s">
-        <v>443</v>
+        <v>253</v>
+      </c>
+      <c r="E186" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="F186" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="16" t="s">
-        <v>265</v>
+      <c r="H186" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
@@ -9234,20 +9235,20 @@
         <v>0</v>
       </c>
       <c r="C187" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E187" s="18" t="s">
-        <v>267</v>
+        <v>256</v>
+      </c>
+      <c r="E187" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="F187" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="15" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
@@ -9273,20 +9274,20 @@
         <v>0</v>
       </c>
       <c r="C188" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E188" s="23" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="15" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
@@ -9309,22 +9310,24 @@
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A189" s="56"/>
       <c r="B189" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E189" s="23" t="s">
-        <v>448</v>
+        <v>261</v>
+      </c>
+      <c r="E189" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="F189" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="15"/>
+      <c r="H189" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -9343,25 +9346,27 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A190" s="56"/>
       <c r="B190" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E190" s="23" t="s">
-        <v>445</v>
+        <v>264</v>
+      </c>
+      <c r="E190" s="53" t="s">
+        <v>441</v>
       </c>
       <c r="F190" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="3"/>
-      <c r="H190" s="15"/>
+      <c r="H190" s="16" t="s">
+        <v>265</v>
+      </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -9383,23 +9388,23 @@
     <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A191" s="56"/>
       <c r="B191" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F191" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9422,23 +9427,23 @@
     <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A192" s="56"/>
       <c r="B192" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E192" s="18" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="E192" s="23" t="s">
+        <v>270</v>
       </c>
       <c r="F192" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9464,13 +9469,13 @@
         <v>1</v>
       </c>
       <c r="C193" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D193" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E193" s="23" t="s">
         <v>446</v>
-      </c>
-      <c r="E193" s="23" t="s">
-        <v>447</v>
       </c>
       <c r="F193" s="26" t="s">
         <v>22</v>
@@ -9501,21 +9506,19 @@
         <v>1</v>
       </c>
       <c r="C194" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E194" s="18" t="s">
-        <v>278</v>
+        <v>442</v>
+      </c>
+      <c r="E194" s="23" t="s">
+        <v>443</v>
       </c>
       <c r="F194" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G194" s="3"/>
-      <c r="H194" s="15" t="s">
-        <v>279</v>
-      </c>
+      <c r="H194" s="15"/>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -9537,23 +9540,23 @@
     <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A195" s="56"/>
       <c r="B195" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E195" s="18" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F195" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="15" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
@@ -9573,26 +9576,26 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A196" s="56"/>
       <c r="B196" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="E196" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="F196" s="28" t="s">
-        <v>55</v>
+        <v>275</v>
+      </c>
+      <c r="F196" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G196" s="3"/>
-      <c r="H196" s="16" t="s">
-        <v>285</v>
+      <c r="H196" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
@@ -9618,21 +9621,19 @@
         <v>1</v>
       </c>
       <c r="C197" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E197" s="18" t="s">
-        <v>287</v>
+        <v>444</v>
+      </c>
+      <c r="E197" s="23" t="s">
+        <v>445</v>
       </c>
       <c r="F197" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G197" s="3"/>
-      <c r="H197" s="15" t="s">
-        <v>288</v>
-      </c>
+      <c r="H197" s="15"/>
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -9657,19 +9658,21 @@
         <v>1</v>
       </c>
       <c r="C198" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E198" s="23" t="s">
-        <v>418</v>
+        <v>277</v>
+      </c>
+      <c r="E198" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="F198" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G198" s="3"/>
-      <c r="H198" s="15"/>
+      <c r="H198" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
@@ -9694,19 +9697,21 @@
         <v>0</v>
       </c>
       <c r="C199" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E199" s="23" t="s">
-        <v>458</v>
+        <v>255</v>
       </c>
       <c r="F199" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="15"/>
+      <c r="H199" s="15" t="s">
+        <v>280</v>
+      </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -9725,25 +9730,27 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A200" s="56"/>
       <c r="B200" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E200" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="F200" s="26" t="s">
-        <v>22</v>
+        <v>281</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F200" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="15"/>
+      <c r="H200" s="16" t="s">
+        <v>283</v>
+      </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -9765,23 +9772,23 @@
     <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A201" s="56"/>
       <c r="B201" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E201" s="18" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="F201" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
@@ -9807,13 +9814,13 @@
         <v>1</v>
       </c>
       <c r="C202" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E202" s="23" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="F202" s="26" t="s">
         <v>22</v>
@@ -9841,16 +9848,16 @@
     <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A203" s="56"/>
       <c r="B203" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E203" s="23" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="F203" s="26" t="s">
         <v>22</v>
@@ -9878,19 +9885,19 @@
     <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A204" s="56"/>
       <c r="B204" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="E204" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="F204" s="54" t="s">
-        <v>55</v>
+        <v>439</v>
+      </c>
+      <c r="F204" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="15"/>
@@ -9918,20 +9925,20 @@
         <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E205" s="18" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="F205" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="15" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9954,16 +9961,16 @@
     <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A206" s="56"/>
       <c r="B206" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="E206" s="23" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="F206" s="26" t="s">
         <v>22</v>
@@ -9994,21 +10001,19 @@
         <v>1</v>
       </c>
       <c r="C207" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E207" s="18" t="s">
-        <v>295</v>
+        <v>438</v>
+      </c>
+      <c r="E207" s="23" t="s">
+        <v>435</v>
       </c>
       <c r="F207" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="15" t="s">
-        <v>296</v>
-      </c>
+      <c r="H207" s="15"/>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -10027,27 +10032,25 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A208" s="56"/>
       <c r="B208" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C208" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E208" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="F208" s="26" t="s">
-        <v>22</v>
+        <v>420</v>
+      </c>
+      <c r="E208" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="F208" s="54" t="s">
+        <v>55</v>
       </c>
       <c r="G208" s="3"/>
-      <c r="H208" s="16" t="s">
-        <v>299</v>
-      </c>
+      <c r="H208" s="15"/>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -10066,23 +10069,27 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A209" s="56"/>
       <c r="B209" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="C209" s="2"/>
+      <c r="C209" s="2">
+        <v>28</v>
+      </c>
       <c r="D209" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E209" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="F209" s="54" t="s">
-        <v>55</v>
+        <v>289</v>
+      </c>
+      <c r="E209" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F209" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="16"/>
+      <c r="H209" s="15" t="s">
+        <v>291</v>
+      </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
@@ -10101,27 +10108,25 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A210" s="56"/>
       <c r="B210" s="52" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E210" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F210" s="28" t="s">
-        <v>55</v>
+        <v>413</v>
+      </c>
+      <c r="E210" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="F210" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="H210" s="15"/>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -10140,25 +10145,27 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A211" s="56"/>
       <c r="B211" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E211" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="F211" s="28" t="s">
-        <v>55</v>
+        <v>292</v>
+      </c>
+      <c r="E211" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F211" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G211" s="3"/>
-      <c r="H211" s="16"/>
+      <c r="H211" s="15" t="s">
+        <v>294</v>
+      </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -10180,23 +10187,23 @@
     <row r="212" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A212" s="56"/>
       <c r="B212" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E212" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="F212" s="28" t="s">
-        <v>55</v>
+        <v>296</v>
+      </c>
+      <c r="F212" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G2